--- a/Scrap/theeye.xlsx
+++ b/Scrap/theeye.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Olho de Thundera" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polícia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Covid" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sem Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,20 +430,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Conteúdo</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Imagem</t>
         </is>
@@ -453,15 +457,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16T08:27:15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>08:27:15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Gladson Cameli se encontra com presidente eleito Lula ao entregar Carta da Amazônia</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador do Acre, Gladson Cameli (PP) foi um dos governadores da Região Norte a aparecer na foto de entrega oficial da Carta da Amazônia ao presidente eleito do Brasil, Luiz Inácio Lula da Silva. O encontro ocorreu nesta quarta-feira, 16, no estande do Consórcio de Governadores, durante a realização da COP27.&lt;/p&gt;
 &lt;p&gt;A carta pede uma agenda comum de transição climática para Amazônia e o documento assinado pelos nove governadores que compõem o Consórcio Interestadual de Desenvolvimento Sustentável da Amazônia Legal contém todas as propostas de desenvolvimento sustentável da região, que precisam do apoio do governo federal e de países e empresas internacionais.&lt;/p&gt;
@@ -553,12 +562,12 @@
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/11/16/gladson-cameli-se-encontra-com-presidente-eleito-lula-ao-entregar-carta-da-amazonia/</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-16-at-07.58.46.jpeg?fit=1024%2C679&amp;ssl=1</t>
         </is>
@@ -567,15 +576,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-02T09:58:56</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>09:58:56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Neste Dia de Finados de frio não é muito grande a movimentação no Cemitério São João Batista na região central de Cruzeiro do Sul. No Jardim da Paz, na Estrada da Olivença, há mais gente visitando túmulos de parentes e amigos.&lt;/p&gt;
 &lt;p&gt;No São João Batista, o padre Ronaldo fez a Benção dos Túmulos. O cemitério, localizado na Avenida Lauro Muller, com grandes ladeiras, tem sepulturas na parte baixa e alta do local. O Rio Juruá pode ser visto do &amp;#8220;campo santo&amp;#8221;.&lt;/p&gt;
@@ -587,12 +601,12 @@
 </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/11/02/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?fit=1600%2C1200&amp;ssl=1</t>
         </is>
@@ -601,15 +615,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-30T12:17:37</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>12:17:37</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Depois de votar, Cameli diz que Acre deverá repetir a maior votação do Brasil para Bolsonaro</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (PP) votou as 11 horas da manhã na Escola Hugo Carneiro em Cruzeiro do Sul. Em coletiva para a imprensa, Cameli disse estar confiante na reeleição do presidente Jair Bolsonaro, mas que em caso da vitória de Lula, não terá nenhum problema em buscar recursos para o Acre junto ao presidente petista.&lt;/p&gt;
 &lt;p&gt;Ele destacou que durante a campanha o presidente Jair Bolsonaro mudou de posição com relação à alguns temas e chegou a pedir desculpas. Cameli acredita que Bolsonaro seguirá tendo no Acre o maior percentual de votação do Brasil proporcionalmente.&lt;/p&gt;
@@ -617,7 +636,7 @@
 &lt;p&gt;Mas se a vitória for do ex-presidente Lula, o governador disse que não terá problema em ir à Brasília em busca de recursos para o Acre. &amp;#8220;Eu vou cumprir meu papel institucional de governador e tem que ajudar o Acre, que faz parte da federação, até porque se não ajudar serei o primeiro a dizer para o povo. O governo federal será sim parceiro do Acre. Desejo sucesso, paciência e harmonia para o presidente eleito. Eu sou otimista e acredito que amanhã não terá mais guerra e intriga&amp;#8221;.&lt;/p&gt;
 &lt;p&gt;Com relação à sua gestão, Gladson disse que a equipe econômica está fazendo um levantamento do que será feito agora, até para decidir valor do abono a ser concedido. &amp;#8220;Depois de tudo vamos abaixar os ânimos e por em prática tudo que dissemos na campanha. Vamos ver o que será possível fazer, dar de abono para não criar expectativas&amp;#8221;, concluiu.&lt;/p&gt;
 &lt;h2&gt;Veja o vídeo:&lt;/h2&gt;
-&lt;div id="wpfp_c561668aea041f51f8df248440dd6e76" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs" style="position:relative; max-width: 640px; max-height: 352px; " data-ratio="0.55"&gt;
+&lt;div id="wpfp_2ce49747e0bd397dec4086c0e4182614" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs" style="position:relative; max-width: 640px; max-height: 352px; " data-ratio="0.55"&gt;
 	&lt;div class="fp-ratio" style="padding-top: 55%"&gt;&lt;/div&gt;
 	&lt;div class="fp-ui"&gt;&lt;noscript&gt;Please enable JavaScript&lt;/noscript&gt;&lt;div class="fp-play fp-visible"&gt;&lt;svg class="fp-play-rounded-fill" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 100 100"&gt;&lt;defs&gt;&lt;style&gt;.a{fill:#000;opacity:0.65;}.b{fill:#fff;opacity:1.0;}&lt;/style&gt;&lt;/defs&gt;&lt;title&gt;play-rounded-fill&lt;/title&gt;&lt;path class="fp-color-play" d="M49.9217-.078a50,50,0,1,0,50,50A50.0564,50.0564,0,0,0,49.9217-.078Z"/&gt;&lt;path class="b" d="M35.942,35.2323c0-4.7289,3.3506-6.6637,7.446-4.2971L68.83,45.6235c4.0956,2.364,4.0956,6.2319,0,8.5977L43.388,68.91c-4.0954,2.364-7.446.43-7.446-4.2979Z" filter="url(#f1)"/&gt;&lt;/svg&gt;&lt;/div&gt;&lt;div class="fp-preload"&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div class='fvp-share-bar'&gt;&lt;ul class="fvp-sharing"&gt;
@@ -625,24 +644,24 @@
     &lt;li&gt;&lt;a class="sharing-twitter" href="https://twitter.com/intent/tweet?text=ac24horas.com+-+Not%C3%ADcias+do+Acre+&amp;url=https%3A%2F%2Fac24horas.com%2F2022%2F10%2F30%2Fdepois-de-votar-cameli-diz-que-acre-devera-repetir-a-maior-votacao-do-brasil-para-bolsonaro%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
     &lt;li&gt;&lt;a class="sharing-email" href="mailto:?body=Check%20out%20the%20amazing%20video%20here%3A%20https%3A%2F%2Fac24horas.com%2F2022%2F10%2F30%2Fdepois-de-votar-cameli-diz-que-acre-devera-repetir-a-maior-votacao-do-brasil-para-bolsonaro%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;&lt;a class="sharing-link" href="https://ac24horas.com/2022/10/30/depois-de-votar-cameli-diz-que-acre-devera-repetir-a-maior-votacao-do-brasil-para-bolsonaro/" target="_blank"&gt;Link&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;/div&gt;
-	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_c561668aea041f51f8df248440dd6e76"&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/a7Lnd_LABVo","type":"video\/youtube","fv_title":"Video Ad:ALEAC - Ontem Hoje Sempre QR+Libras+Leg"}],"click":""}' style='display: none'&gt;&lt;/a&gt;
+	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_2ce49747e0bd397dec4086c0e4182614"&gt;
+		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/0pF7RKX23lc","type":"video\/youtube","fv_title":"Video Ad:VT PMRB FEIRAS BORA PRA FEIRA"}],"click":"http:\/\/www.riobranco.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
 		&lt;a style='display: none' itemprop="video" itemscope itemtype="http://schema.org/VideoObject"  href='#' data-item='{"sources":[{"src":"https:\/\/ac24horas.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Video-2022-10-30-at-11.36.14.mp4","type":"video\/mp4"}]}'&gt;&lt;div class='fvp-playlist-thumb-img'&gt;&lt;div class='fvp-playlist-thumb-img no-image'&gt;&lt;/div&gt;&lt;/div&gt;&lt;meta itemprop="name" content="Depois de votar, Cameli diz que Acre deverá repetir a maior votação do Brasil para Bolsonaro" /&gt;
         &lt;meta itemprop="description" content="O governador Gladson Cameli (PP) votou as 11 horas da manhã na Escola Hugo Carneiro em Cruzeiro do Sul. Em coletiva para a imprensa, Cameli disse estar confiante na reeleição&amp;hellip;" /&gt;
         &lt;meta itemprop="thumbnailUrl" content="https://ac24horas.com" /&gt;
         &lt;meta itemprop="contentURL" content="https://ac24horas.com/2022/10/30/depois-de-votar-cameli-diz-que-acre-devera-repetir-a-maior-votacao-do-brasil-para-bolsonaro/" /&gt;
         &lt;meta itemprop="uploadDate" content="2022-10-30" /&gt;&lt;/a&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/a7Lnd_LABVo","type":"video\/youtube","fv_title":"Video Ad:ALEAC - Ontem Hoje Sempre QR+Libras+Leg"}],"click":""}' style='display: none'&gt;&lt;/a&gt;
+		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/0pF7RKX23lc","type":"video\/youtube","fv_title":"Video Ad:VT PMRB FEIRAS BORA PRA FEIRA"}],"click":"http:\/\/www.riobranco.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
 	&lt;/div&gt;
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/30/depois-de-votar-cameli-diz-que-acre-devera-repetir-a-maior-votacao-do-brasil-para-bolsonaro/</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.50.09.jpeg?fit=1280%2C898&amp;ssl=1</t>
         </is>
@@ -651,15 +670,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-25T22:20:11</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>22:20:11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Gladson Cameli fará motocarreata para Bolsonaro e votará em Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Glasdon Cameli vai liderar uma motocarreata de apoio à reeleição do presidente Jair Bolsonaro neste sábado, 29, em Cruzeiro do Sul. O evento está marcado para as 8 horas da manhã com saída da Ponte da União.&lt;/p&gt;
 &lt;p&gt;No domingo, 30, Cameli votará em Cruzeiro do Sul no segundo turno das eleições. Ele vai à urna na parte da manhã na Escola Hugo Carneiro e seguirá no município.&lt;/p&gt;
@@ -668,12 +692,12 @@
 </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/25/gladson-cameli-fara-motocarreata-para-bolsonaro-e-votara-em-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/10/gladson-e-bolsonaro.jpeg?fit=1040%2C585&amp;ssl=1</t>
         </is>
@@ -682,15 +706,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-22T05:42:36</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>05:42:36</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>&amp;#8220;Cabeças Brancas&amp;#8221; do MDB querem evitar a &amp;#8220;Camelização&amp;#8221; do partido e Vagner é a opção</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A ALA TRADICIONAL do MDB, os chamados “cabeças brancas,” já começa a discutir a sucessão do deputado federal Flaviano Melo (MDB), que não se mostra mais disposto a continuar na presidência do partido. O seu mandato se encerra em fevereiro. Há uma tendência majoritária do MDB de que, pela sua postura de fidelidade partidária, pelo conhecimento político, lealdade extrema, caso se confirme a negativa de Flaviano em permanecer como presidente, o nome ideal é o do ex-prefeito de Cruzeiro do Sul, Vagner Sales (MDB), foto. Descartam a hipótese do nome do deputado eleito Emerson Jarude (MDB), sob o argumento do seu pouco tempo de filiação, em relação às figuras de maior tradição na sigla. Rejeitam também a hipótese de apoiar a candidatura do deputado eleito Tanízio de Sá, por também ser novo no MDB; e com o agravante de que na última campanha não apoiou nenhuma das candidaturas para a Câmara Federal e nem as majoritárias do MDB, e ser aliado do governador Gladson Cameli. “Não vamos camelizar o MDB”, falou ontem um dos cabeças brancas ao BLOG, que defende que o partido fique independente. “Nem o presidente Flaviano Melo (MDB) teve o seu apoio, em que pese ter destinado um grande volume de emendas parlamentares para a prefeitura de Manoel Urbano, quando era gerida por ele”, pontuou um dos membros da Velha Guarda. O presidente Flaviano Melo, que chegou ontem em Rio Branco disse que não se mostra disposto a continuar, depois da sua derrota, mas que este é um assunto para um debate interno no MDB, para se chegar a um consenso. O ex-prefeito Vagner Sales falou ontem ao BLOG que, a presidência do MDB sempre foi ocupada por figuras tradicionais como Oscar Passos, Nabor Junior, Ruy Lino, João Correia, Raimundo Melo, agora o Flaviano Melo, e não se pode quebrar este tradicionalismo. Falou que somente aceitará ser presidente se houver um chamamento do MDB.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;RIVAIS EM 2026&lt;/strong&gt;&lt;br /&gt;
@@ -724,12 +753,12 @@
 </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/22/cabecas-brancas-do-mdb-querem-evitar-a-camelizacao-do-partido-e-vagner-e-a-opcao/</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/10/VAGNER-SALES.jpeg?fit=850%2C510&amp;ssl=1</t>
         </is>
@@ -738,15 +767,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-12T09:51:21</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>09:51:21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Vagner Sales não quer Jéssica no governo de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A deputada federal Jéssica Sales, que não conseguiu a reeleição apesar dos mais de 20 mil votos, já está trabalhando como médica em um hospital de Brasília, que não teve o nome divulgado pela assessoria. Ela, que é ginecologista obstetra, já havia anunciado a vontade de se dedicar à medicina logo após as eleições, mas não havia informado se seria em Brasília ou no Acre.&lt;/p&gt;
 &lt;p&gt;E, se depender de seu pai, ex-deputado estadual Vagner Sales, Jéssica deverá seguir na carreira médica e não integrar o segundo governo de Gladson Cameli. &amp;#8220;Jéssica volta para a profissão dela de médica&amp;#8221;, afirmou Vagner.&lt;/p&gt;
@@ -757,12 +791,12 @@
 </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/12/jessica-sales-volta-a-trabalhar-em-hospital-e-vagner-sales-nao-a-quer-no-governo-de-gladson/</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/08/GLADSON-E-JESSICA.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
@@ -771,15 +805,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-06T07:27:24</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>07:27:24</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Alysson Bestene reassume secretaria do governo Cameli</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Após quatro dias das eleições, o governador reeleito Gladson Cameli faz sua primeira mudança no alto escalão de seu governo.&lt;/p&gt;
 &lt;p&gt;No Diário Oficial desta quinta-feira, 6, Julio Cezar Zuza da Costa foi exonerado do cargo de Secretário Extraordinário de Assuntos Governamentais. Para seu lugar, Gladson nomeia Alysson Bestene, que ocupou, além da própria Segov, várias funções no governo, principalmente a Secretaria de Saúde durante o período da pandemia. Bestene foi cogitado durante muito tempo como um dos favoritos à ser o vide de Gladson, o que não se concretizou.&lt;/p&gt;
@@ -802,12 +841,12 @@
 </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/06/alysson-bestene-reassume-secretaria-de-governo/</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2020/04/ALYSSON-BESTENE-ACRE.jpg?fit=1280%2C869&amp;ssl=1</t>
         </is>
@@ -816,15 +855,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-04T07:46:43</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>07:46:43</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Gladson Cameli só perdeu a eleição em Jordão e Santa Rosa do Purus</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A superioridade do governador Gladson Cameli nas eleições de 2022 é comprovada também quando se compara o resultado da votação dos municípios.&lt;/p&gt;
 &lt;p&gt;Nas 22 cidades acreanas, Gladson venceu em 20. Perdeu apenas para Jorge Viana nos municípios de Santa Rosa do Purus e Jordão, que estão entre os menores colégios eleitorais do estado.&lt;/p&gt;
@@ -833,12 +877,12 @@
 </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/04/gladson-cameli-so-perdeu-a-eleicao-nos-municipios-de-jordao-e-santa-rosa-do-purus/</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/09/GLADSON-BIG.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
@@ -847,15 +891,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-02T22:02:50</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>22:02:50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Petecão lamenta derrota nas urnas e parabeniza Gladson Cameli</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Após ter obtido pouco mais de 6% dos votos válidos nas eleições deste ano, o candidato derrotado e senador licenciado Sérgio Petecão (PSD), usou as redes sociais neste domingo, 2, para lamentar a derrota para o atual governador reeleito, Gladson Cameli (Progressistas).&lt;/p&gt;
 &lt;p&gt;Contudo, o parlamentar se disse defensor da democracia após a escolha da população acreana nas urnas. &amp;#8220;Com as urnas apuradas, o povo do Acre escolheu novamente o governador Gladson para nos representar pelos próximos quatro anos. Aceito esse resultado com muita tranquilidade, pois sou um ferrenho defensor da democracia. A vontade do povo é suprema&amp;#8221;, declarou.&lt;/p&gt;
@@ -863,12 +912,12 @@
 </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/02/petecao-lamenta-derrota-nas-urnas-e-parabeniza-gladson/</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/08/PETECAO_2.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
@@ -877,15 +926,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-02T17:44:36</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>17:44:36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Gladson Cameli é reeleito governador do Acre no primeiro turno</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Gladson Cameli, do Progressistas, foi reeleito governador do Acre neste domingo, dia 2, com 242.100 votos, o que equivale 56,75% dos votos válidos, estando com 100% das urnas apuradas. Cameli desbancou os oponentes no primeiro turno das eleições, conforme totalização divulgada pelo Tribunal Superior Eleitoral (TSE).&lt;/p&gt;
 &lt;p&gt;Cameli liderou as últimas pesquisas de intenção de voto realizadas no estado e também as parciais desde o início da apuração. O governador reeleito irá ocupar o cargo de chefe do Executivo estadual entre 2023 a 2026.&lt;/p&gt;
@@ -901,12 +955,12 @@
 </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://ac24horas.com/2022/10/02/gladson-cameli-e-reeleito-governador-do-acre-no-primeiro-turno/</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/10/GLADSON_GANHA2.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
@@ -915,15 +969,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-28T20:28:08</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>20:28:08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O deputado federal e senador eleito Alan Rick (UB), participou na manhã desta segunda-feira (28), de uma reunião com membros da equipe de transição do governador Gladson Cameli (PP), reeleito em outubro deste ano. O encontro se deu na sede da Casa Civil, em Rio Branco.&lt;/p&gt;
 &lt;p&gt;Na oportunidade, Alan Rick tomou conhecimento das medidas que estão sendo tomadas para o novo governo, dentre elas as mudanças em algumas secretarias.&lt;/p&gt;
@@ -933,12 +992,12 @@
 </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-28-at-20.27.05.jpeg?fit=1024%2C768&amp;ssl=1</t>
         </is>
@@ -947,15 +1006,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-05T14:13:08</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>14:13:08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Gladson Cameli se reúne primeiro escalão para estabelecer metas do novo governo</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli esteve no auditório da Secretaria de Planejamento e Gestão (Seplag) com todos os seus gestores para agradecer a equipe e projetar os próximos 100 dias do seu novo governo. O encontro coordenado pelo titular da Seplag, Ricardo Brandão, foi realizado nesta sexta, dia 4.&lt;/p&gt;
 &lt;figure id="attachment_580232" class="wp-caption aligncenter" aria-describedby="caption-attachment-580232"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-580232 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11-1536x1025.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg 2048w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-580232" class="wp-caption-text"&gt;Governador falou das prioridades do governo. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
@@ -975,12 +1039,12 @@
 </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/11/gladson-se-reune-rimeiro-escalao-para-estabelecer-metas-do-novo-governo/</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-08.jpg?fit=2048%2C1366&amp;ssl=1</t>
         </is>
@@ -989,15 +1053,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-02T14:35:32</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>14:35:32</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Neste Dia de Finados de frio não é muito grande a movimentação no Cemitério São João Batista na região central de Cruzeiro do Sul. No Jardim da Paz, no bairro Nova Olinda, há mais gente visitando túmulos de parentes e amigos.&lt;/p&gt;
 &lt;p&gt;No São João Batista, o padre Ronaldo fez a Benção dos Túmulos. O cemitério, localizado na Avenida Lauro Muller, com grandes ladeiras, tem sepulturas na parte baixa e alta do local. O Rio Juruá pode ser visto do “campo santo”.&lt;/p&gt;
@@ -1009,12 +1078,12 @@
 </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/11/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/TUMULO.webp?fit=768%2C427&amp;ssl=1</t>
         </is>
@@ -1023,15 +1092,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-27T18:29:23</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>18:29:23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Bomba: Gladson Cameli e Ana Paula estão em fase de separação; veja detalhes</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Fontes confiáveis confirmaram à &lt;strong&gt;coluna Douglas Richer&lt;/strong&gt;, do site&lt;strong&gt; ContilNet&lt;/strong&gt;, nesta semana, que o governador &lt;strong&gt;Gladson Cameli&lt;/strong&gt; e a advogada &lt;strong&gt;Ana Paula Cameli&lt;/strong&gt; estão em fase de separação.&lt;/p&gt;
 &lt;p&gt;O fim do casamento de anos, que trouxe à vida o pequeno Guilherme Cameli, vem sendo especulado há algum tempo nas redes sociais.&lt;/p&gt;
@@ -1042,12 +1116,12 @@
 </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/bomba-gladson-cameli-e-ana-paula-estao-em-fase-de-separacao-veja-detalhes/</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/5F46D992-7F45-4221-8723-081D60DEE7DB.jpeg?fit=1093%2C1093&amp;ssl=1</t>
         </is>
@@ -1056,15 +1130,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-27T10:25:38</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>10:25:38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Plena, Ana Paula Cameli arrasa no carão com look misterioso em clima de ‘tbt’; veja foto</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Uau!&lt;strong&gt; A primeira-dama do Acre Ana Paula Cameli&lt;/strong&gt; deixou os seus seguidores babando ao compartilhar um clique em seu perfil das redes sociais em clima de&lt;strong&gt; ‘TBT’&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;Nesta quinta-feira (27), em seu Instagram, a advogada acreana aparece bem plena, esbanjando muita beleza e boa forma, usando um look misterioso. No clique &lt;em&gt;preto &amp;amp; branco&lt;/em&gt;, Ana Paula usou apenas a &lt;em&gt;#tbt&lt;/em&gt; como legenda.&lt;/p&gt;
@@ -1073,12 +1152,12 @@
 </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/plena-ana-paula-cameli-arrasa-no-carao-com-look-misterioso-em-clima-de-tbt-veja-foto/</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/15583664-5E5D-49A7-A349-AA8C3567A653-e1666906027473.jpeg?fit=1267%2C875&amp;ssl=1</t>
         </is>
@@ -1087,15 +1166,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-17T08:54:09</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>08:54:09</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Dança das cadeiras: Gladson Cameli faz quase 20 nomeações e exonerações; veja lista</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O Governo do Estado publicou uma série de exonerações, nomeações e outras mudanças na edição do Diário Oficial do Estado (DOE) desta segunda-feira (17).&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="font-weight: 400;"&gt;As mudanças passaram por diversas secretarias do Executivo e Gladson colocou alguns servidores do Estado à disposição de algumas pastas.&lt;/span&gt;&lt;/p&gt;
@@ -1125,12 +1209,12 @@
 </t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/danca-das-cadeiras-gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes-veja-lista/</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/07/palacio-rio-branco.jpg?fit=2000%2C1312&amp;ssl=1</t>
         </is>
@@ -1139,15 +1223,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-12T17:34:22</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>17:34:22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/p&gt;
 &lt;p&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/p&gt;
@@ -1158,12 +1247,12 @@
 </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/thumbnail_governador-13-1024x683-1.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
@@ -1172,15 +1261,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-04T15:50:17</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>15:50:17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>AO VIVO: ContilNet e SansFilmes entrevistam Gladson Cameli, governador reeleito</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador reeleito, Gladson Cameli, já encontra-se no estúdio da Sans Filmes e vai gravar entrevista exclusiva para o ContilNet.&lt;/p&gt;
 &lt;p&gt;Confira:&lt;/p&gt;
@@ -1188,12 +1282,12 @@
 </t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/ao-vivo-contilnet-e-sansfilmes-entrevistam-gladson-cameli-governador-reeleito/</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/gladson-e1664916673234.jpeg?fit=720%2C713&amp;ssl=1</t>
         </is>
@@ -1202,15 +1296,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-04T12:43:55</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>12:43:55</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Jesus Sérgio e Maria Lucinéia dão votação expressiva ao governador Gladson Cameli em Tarauacá</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p style="font-weight: 400;"&gt;Com o empenho e a força do deputado federal Jesus Sérgio (PDT) e da prefeita, Maria Lucinéia, o governador Gladson Cameli teve 55,66% dos votos em Tarauacá, o que representa mais da metade dos eleitores do município.&lt;/p&gt;
 &lt;p style="font-weight: 400;"&gt;“Pedimos votos para o governador Gladson durante toda essa campanha. Fomos de casa em casa e mostramos ao tarauacaense o trabalho do Gladson em nossa cidade”, afirmou o deputado Jesus Sérgio.&lt;/p&gt;
@@ -1218,12 +1317,12 @@
 </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/jesus-sergio-e-maria-lucineia-dao-votacao-expressiva-ao-governador-gladson-cameli-em-tarauaca/</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/Jesus-Serigo-e-Lucineia-Tarauaca-1.jpg?fit=1024%2C682&amp;ssl=1</t>
         </is>
@@ -1232,15 +1331,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-02T18:16:01</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>18:16:01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Com quase 57% dos votos, Gladson Cameli é reeleito governador do Acre</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Gladson Cameli (Progressistas) foi reeleito neste domingo (7) e continuará como&lt;br /&gt;
 governador do Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -1253,12 +1357,12 @@
 </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://contilnetnoticias.com.br/2022/10/com-quase-57-dos-votos-gladson-cameli-e-reeleito-governador-do-acre/</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/09/gladson-mailza-7desetembro-1-e1662733595963.jpeg?fit=1280%2C947&amp;ssl=1</t>
         </is>
@@ -1267,15 +1371,1274 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-11-28T10:33:39</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>08:09:50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Parlamentares derrotados por Cameli nas eleições não destinam emendas individuais ao Acre no Orçamento de 2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Acre não receberá do Orçamento Geral da União de 2023 as emendas individuais de parlamentares derrotados por Gladson Cameli (PP) nas eleições deste ano. Segundo uma planilha disponível no site da Representação do Governo em Brasília (Repac), apenas cinco dos 11 parlamentares que representam o estado no Congresso, fizeram suas indicações.&lt;/p&gt;
+&lt;p&gt;Dos deputados federais Alan Rick (União Brasil) destinou R$ 12,5 milhões; Jéssica Sales (MDB) destinou R$ 3,8 milhões; Leo de Brito (PT) apresentou R$ 1,7 milhão e Mara Rocha (MDB) — única entre os derrotados ao Governo – destinou R$ 150 mil. Do Senado, Mailza Gomes (PP) destinou R$ 9,6 milhões.&lt;/p&gt;
+&lt;p&gt;As emendas individuais não foram indicadas por Marcio Bittar (União Brasil), que rompeu com o governador durante a campanha após o nome de sua ex-esposa, Marcia Bittar (PL) — derrotada para o Senado —  ter sido rejeitado para a disputa de vice na chapa de reeleição. Além dele, o senador Sérgio Petecão (PSD) também não destinou emendas. Entre os deputados estão Flaviano Melo (MDB), Vanda Milani (Pros) e Perpétua Almeida (PCdoB). Todos saíram com derrota nas eleições.&lt;/p&gt;
+&lt;p&gt;De acordo a Agência de Notícias do Acre, a indicação dos recursos não significa que todos estão garantidos e serão mantidos, uma vez que os parlamentares ainda poderão fazer alterações, além do fato de que muitas emendas ainda estão na modalidade “a definir” – aquelas genéricas cujo objeto, ou seja, a destinação, ainda não está especificada.&lt;/p&gt;
+&lt;p&gt;Além das emendas individuais, o Acre receberá R$ 188 milhões por outras indicações, que incluem os municípios. Além de R$ 284,8 mihlões relativos às emendas de bancada e R$ 250,3 milhões indicados pelo Estado. O levantamento tem por base relatório da Comissão Mista de Planos, Orçamentos Públicos e Fiscalização (CMO) do Congresso Nacional.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/25/candidatos-derrotados-por-cameli-nas-eleicoes-nao-destinam-emendas-individuais-ao-acre-no-orcamento-de-2023/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/DEBATETVCULTURA.jpg?fit=1080%2C656&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10:23:20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>“As urnas mostraram a cada um o tamanho que realmente tem”, diz Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em entrevista coletiva concedida à imprensa na noite de domingo (2), logo após ter sido reeleito governador do Acre, Gladson Cameli (PP) agradeceu a Deus e a população pela vitória. Gladson estava acompanhado da vice, Mailza Gomes, e do candidato derrotado ao Senado pela coligação dele, Ney Amorim.&lt;/p&gt;
+&lt;p&gt;Gladson afirmou que as urnas demonstraram o tamanho que cada um realmente tem, mas frisou que as disputas acabam aqui após o resultado das urnas.&lt;/p&gt;
+&lt;p&gt;“As urnas deram a cada um o tamanho que realmente tem. O povo me deu a oportunidade de continuar e dar continuidade aos avanços que o estado merece. Aos meus adversários eu digo que a eleição acaba agora. Na segunda mesmo irei procurar as pessoas para construirmos um Acre melhor”, diz.&lt;/p&gt;
+&lt;p&gt;O governador reeleito frisou uma pacificação entre as forças políticas e disse que irá procurar o senador eleito, Alan Rick.&lt;/p&gt;
+&lt;p&gt;“Quero parabenizar os deputados estaduais e federais eleitos e o senador Alan Rick. Irei procurá-lo e quero junto de todos construir um Acre melhor”, diz.&lt;/p&gt;
+&lt;p&gt;*Folha do Acre&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/10/03/as-urnas-mostraram-a-cada-um-o-tamanho-que-realmente-tem-diz-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-20.16.55-Copy.webp?fit=750%2C562&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:57:06</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gladson Cameli é reeleito governador do Acre em 1º turno</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (Progressistas) estendeu o seu mandato até 2026. Neste domingo (2), 56,76% dos eleitores optaram pela continuidade de seu Governo quando as apurações estavam em 90%. Dessa vez com uma mudança, sai o vice-governador Major Rocha (MDB) e assume o cargo a senadora Mailza Gomes (Progressistas).&lt;/p&gt;
+&lt;p&gt;Até o momento, na segunda colocação ficou Jorge Viana, do PT, com 24,19 % dos votos. Mara Rocha, do MDB, ficou em 3º lugar com 11,10 %; em seguida vem Sérgio Petecão, do PSD, com 6,36 %; Marcio Bittar, do União Brasil, com 1,11 %; Nilson Euclides, do PSOL, com 0,28 %; e David Hall, do Agir, com 0,19 %.&lt;/p&gt;
+&lt;p&gt;A vitória de Gladson marca um fenômeno na história da política acreana, além dele nunca ter perdido uma eleição disputada, teve seus dois mandatos conquistados em primeiro turno. Em 2018, derrotou o petista Marcus Alexandre, que esse ano concorreu como vice de Jorge Viana.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/10/02/gladson-cameli-e-reeleito-governador-do-acre-em-1o-turno/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/10/AnyConv.com__309021967_630209988469461_4988847896711640505_n.webp?fit=2048%2C1364&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15:03:55</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Imege: pesquisa aponta vitória de Gladson Cameli em 1º turno; confira</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Uma pesquisa ao Governo do Instituto Imege, registrada no TRE/AC com o número AC-01531/2022 e divulgada nesta sexta-feira (30), colocou Gladson Cameli (Progressistas) com uma possível vitória em primeiro turno no próximo domingo (2).&lt;/p&gt;
+&lt;p&gt;Confira os dados completos, na pesquisa estimulada, onde as opções são apresentadas aos entrevistados, o resultado foi:&lt;/p&gt;
+&lt;p&gt;1º Gladson Cameli (Progressistas) — 51%&lt;br /&gt;
+2º Jorge Viana (PT) — 18%&lt;br /&gt;
+3º Mara Rocha (MDB) — 10%&lt;br /&gt;
+4º Sérgio Petecão (PSD) — 9%&lt;br /&gt;
+5º Marcio Bittar (União Brasil) — 3%&lt;br /&gt;
+6º David Hall (Agir) — 1%&lt;br /&gt;
+7º Nilson Euclides (PSOL) — 1%&lt;/p&gt;
+&lt;p&gt;3% dos entrevistados disseram que ainda não decidiram em quem vão votar ou optaram por branco ou nulo.&lt;/p&gt;
+&lt;figure id="attachment_68022" class="wp-caption alignnone" aria-describedby="caption-attachment-68022"&gt;
+&lt;p&gt;&lt;figure id="attachment_68022" aria-describedby="caption-attachment-68022" style="width: 539px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="jetpack-lazy-image jetpack-lazy-image--handled wp-image-68022" src="https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=539%2C248&amp;amp;ssl=1" sizes="(max-width: 539px) 100vw, 539px" srcset="https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=300%2C138&amp;amp;ssl=1 300w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=768%2C355&amp;amp;ssl=1 768w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?w=873&amp;amp;ssl=1 873w" alt="" width="539" height="249" data-lazy-loaded="1" /&gt;&lt;figcaption id="caption-attachment-68022" class="wp-caption-text"&gt;Da esquerda para a direita: Gladson, Jorge, Petecão, Mara, Bittar, Hall e Nilson.&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;p&gt;O Instituto IMEGE ouviu, presencialmente, 800 pessoas de 16 cidades do Acre, entre os dias 22 e 26 de setembro. A margem de erro é de três pontos percentuais, para mais ou para menos e o nível de confiança é de 95%.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/30/imege-pesquisa-aponta-vitoria-de-gladson-cameli-em-1o-turno-confira/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?fit=873%2C403&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11:04:57</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gladson Cameli decide não participar do debate da TV Gazeta</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A coordenação de campanha do candidato à reeleição Gladson Cameli (Progressistas), decidiu nesta quinta-feira (29) que ele não comparecerá ao debate da TV Gazeta, afiliada à Rede Record no Acre.&lt;/p&gt;
+&lt;p&gt;Segundo uma nota divulgada, um dos motivos apontado seria o &amp;#8220;baixo nível&amp;#8221; e a &amp;#8220;agressividade&amp;#8221; demonstradas pelos adversários nos debates da TV Rio Branco e Rede Amazônica. Com a ausência do governador, David Hall (Agir) foi convidado para substituí-lo.&lt;/p&gt;
+&lt;p&gt;Leia:&lt;/p&gt;
+&lt;p&gt;“Desde o início, temos feito uma campanha de respeito às famílias acreanas, mostrando o que fizemos no governo e as nossas propostas para melhorar a vida das pessoas”, declarou o candidato que utilizará o tempo que estaria no debate para estar com a população falando pessoalmente das suas propostas.&lt;/p&gt;
+&lt;p&gt;O candidato agradece a oportunidade propiciada pela TV Gazeta e expressa a confiança de que os eleitores farão sua escolha baseada no trabalho já desempenhado e nas propostas para o desenvolvimento. Aproveitou ainda lembrar que, nesse ano, a votação no Acre é mais cedo, iniciando as 6 horas da manhã com término as 3 horas da tarde.&lt;/p&gt;
+&lt;p&gt;“Na democracia, o Acre acorda o Brasil”, finalizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/29/gladson-cameli-decide-nao-participar-do-debate-da-tv-gazeta/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/AnyConv.com__Gladson.webp?fit=766%2C514&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14:09:50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&amp;#8220;Por meio do mandato, podemos fazer ainda mais pelo Acre”, diz Orleilson Cameli sobre candidatura a deputado federal</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O candidato a deputado federal Orleilson Cameli (PDT), filho do ex-governador Orleir Cameli e primo do governador Gladson Cameli, disse no evento &amp;#8220;Amigos do Zico&amp;#8221;, nome por qual é conhecido que &amp;#8220;não entrou na política para brincar com o povo acreano. Meu propósito é ajudar o governo do Estado a fortalecer ações que proporcionem maior qualidade de vida ao povo”.&lt;/p&gt;
+&lt;p&gt;“Tem sido uma jornada incrível. Seguir os passos do meu pai, o saudoso governador Orleir Cameli, na política e me colocar diante do nosso povo como instrumento de transformação muito me honra. O Estado teve conquistas significativas na gestão dele. A exemplo disso temos a pavimentação da BR-317, no trecho Rio Branco &amp;#8211; Brasileia. Além disso, o asfaltamento da BR-364, entre a Capital e a cidade de Sena Madureira, bem como da rodovia entre os municípios de Cruzeiro do Sul e Tarauacá”, disse Orleilson.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="wp-image-70222 aligncenter" src="https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?resize=659%2C439&amp;#038;ssl=1" alt="" width="659" height="439" srcset="https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?resize=1024%2C682&amp;amp;ssl=1 1024w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?resize=1536%2C1023&amp;amp;ssl=1 1536w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32-1.jpeg?w=1460&amp;amp;ssl=1 1460w" sizes="(max-width: 659px) 100vw, 659px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;E acrescentou: “seu governo foi também o que mais construiu casas para as famílias carentes do Estado. Além disso, distribuiu mochilas com material escolar e bicicletas para os alunos irem à escola. E para facilitar o deslocamento dos ribeirinhos, meu pai comprou um motor de rabeta, em substituição ao remo. São ações lembradas até os dias de hoje pela população”.&lt;/p&gt;
+&lt;p&gt;Sobre o mandato de deputado federal, Orleilson destacou que, juntamente com o governador Gladson Cameli, trabalhará para fortalecer as políticas públicas do Estado.&lt;/p&gt;
+&lt;p&gt;“Decidi disputar o cargo de deputado federal por entender que só através da política é que podemos buscar o desenvolvimento social e econômico que o nosso povo tanto precisa. Acredito e defendo que por meio do mandato podemos fazer ainda mais pelo Acre, fortalecendo ações nas áreas de Educação, Saúde, Infraestrutura e, especialmente, gerando emprego e renda”, disse Orleilson.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/26/por-meio-do-mandato-podemos-fazer-ainda-mais-pelo-acre-reforca-orleilson-cameli-sobre-candidatura-a-deputado-federal/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-26-at-12.45.32.jpeg?fit=1600%2C1066&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>08:27:14</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O fenômeno Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Antes das eleições, era quase unânime ouvir dizer que se Jorge Viana voltasse a ser candidato ao Governo do Acre, não teria para ninguém. Mas não foi isso que vem sendo visto, a pesquisa do Ipec divulgada nesta segunda, dia 19, encomendada pela Rede Amazônica, mostra a avalanche causada por Gladson Cameli diante de seus adversários, muitos deles sendo nomes tradicionais da política acreana.&lt;/p&gt;
+&lt;p&gt;Há muitos anos não se via uma eleição com tantos nomes conhecidos, Sérgio Petecão, Marcio Bittar, Jorge Viana, e a deputada mais votada nas eleições de 2018, Mara Rocha, são exemplos disso. Ainda assim, Gladson conseguiu se destacar, sendo apontado a possibilidade de vitória em primeiro turno em muitas das pesquisas. Na do Ipec divulgada ontem, aparece com 54% das intenções de voto na estimulada, mais que o dobro da porcentagem obtida por Jorge Viana, 25%. A soma de todos os seus adversários dá 40%, o que traz para o governador uma boa margem para acreditar no primeiro turno.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;→ &lt;a href="https://correio68.com/2022/09/19/ipec-pesquisa-aponta-vitoria-de-gladson-cameli-em-1o-turno-com-54/"&gt;Veja a pesquisa do Ipec divulgada nesta segunda-feira&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;O fenômeno Cameli&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Gladson Cameli é um fenômeno não por seus feitos, há coisas que ficaram a desejar em sua primeira gestão como governador, mas ele possui um álibi&amp;#8230; A pandemia. Ela pode não justificar todos os feitos e &amp;#8216;não-feitos&amp;#8217;, mas é aceita pela população. Diferente de Bolsonaro, a quem diz apoiar, Cameli tomou atitudes completamente diferentes, não estimulou imunidade de rebanho, tratamentos precoces, pediu por diversas vezes que as pessoas tivessem cuidado, tomou medidas duras quando necessário e foi ativista pela vacina, incentivando milhares de pessoas através do #MimDêQueEuTomo. Todas as atitudes foram reconhecidas pelo público, que perdidos em uma situação inédita e caótica, clamavam por um direcionamento — e Gladson deu.&lt;/p&gt;
+&lt;p&gt;A pandemia só veio em 2020 e Gladson tomou posse em 2019, naquele ano, culpou a gestão de Tião Viana, que segundo o próprio governador deixou uma dívida de R$ 6 bilhões. &amp;#8220;Eu só tive 6 meses para governar, meu maior projeto foi salvar vidas na pandemia&amp;#8221;, é o que vem dizendo em alguns discursos.&lt;/p&gt;
+&lt;p&gt;Nem mesmo o escândalo causado pela Operação Ptolomeu, que investiga indícios de corrupção no Governo, foi suficiente para diminuir seu carisma perante o eleitorado. Eleitorado esse que Gladson sempre ouviu, exemplo disso é sua desistência em ter Marcia Bittar como vice, que lhe causou uma tremenda dor de cabeça e perda de apoios importantes, mas que manteve o pulso firme. O problema não foram as suspeitas de corrupção em si, elas existem e seguem em investigação, mas sim aqueles que o acusavam em público, que não são vistos como &amp;#8220;exemplos&amp;#8221; de boa fé.&lt;/p&gt;
+&lt;p&gt;O público é muito enfático ao dizer &amp;#8220;não se salva um&amp;#8221; nessa disputa. Talvez uma eleição com tantas caras conhecidas até o favoreça nesse sentido. Petecão é conhecido por ser politiqueiro de campanha, Marcio Bittar se desencontrou com seus propósitos políticos ao demonstrar demais seus objetivos pessoais. Já Jorge Viana, enfrenta um pesado sentimento antipetista que nem mesmo o &amp;#8220;efeito Lula&amp;#8221; foi capaz de amenizar.&lt;/p&gt;
+&lt;p&gt;O povo cansou de velhas caras e viram no &amp;#8220;menino&amp;#8221; carismático e engraçado uma nova imagem do Acre. De alguma forma, ainda que os opositores destaquem promessas que dizem ter sido quebradas, os acreanos viram uma identificação em Gladson, como se estivessem dispostos a ajudá-lo a governar. Isso é demonstrado pelo fato de quanto mais apoio Gladson vem perdendo, mais confiança do eleitorado ganha (refletido nas pesquisas). Desde que foi eleito, rompeu com os Rocha, Petecão, com a cúpula do MDB e Bittar, três representantes desses &amp;#8220;clãs políticos&amp;#8221; hoje são seus adversários. Há de se questionar: o público culpará as promessas quebradas de Cameli ou está vendo ele se afastar de figuras já carimbadas?&lt;/p&gt;
+&lt;p&gt;O desempenho de Gladson foi visto até com surpresa por seus opositores e antes que duvidem de sua força, se questionem: Gladson já perdeu alguma eleição? Se candidatou a primeira vez em 2010 para deputado federal, sendo eleito com mais de 30 mil votos. Em 2014 foi eleito para única cadeira disponível no Senado, derrotando Perpétua Almeida e Roberto Duarte. Já em 2018 venceu em primeiro turno Marcus Alexandre, dando fim a uma &amp;#8220;dinastia&amp;#8221; de 20 anos de governos do PT. &amp;#8220;Ah, mas com o dinheiro que tinha fica fácil&amp;#8221;. Prevendo esse questionamento, respondo: se apenas dinheiro fosse suficiente para disparar em eleições, Marcio Bittar teria mais de 3% das intenções de voto, não?&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/20/o-fenomeno-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/AnyConv.com__Gladson.webp?fit=766%2C514&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20:35:10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ipec: pesquisa aponta vitória de Gladson Cameli em 1º turno com 54%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Mais uma pesquisa ao Governo mostrou a possibilidade da eleição no Acre ser decidida já no dia 2 de outubro. O Ipec entrevistou 800 pessoas entre os dias 16 e 18 de setembro e 54% delas afirmaram que votariam em Gladson Cameli (Progressistas), caso a eleição fosse no dia da entrevista. Em segundo lugar aparece o ex-governador Jorge Viana (PT), que tem menos da metade da porcentagem, 25%.&lt;/p&gt;
+&lt;p&gt;Muito abaixo do esperado, Mara Rocha (MDB), Petecão (PSD) e Marcio Bittar (União Brasil), não conseguiram chegar aos dois dígitos de preferência, respectivamente ficou 6%, 5% e 3%.&lt;/p&gt;
+&lt;p&gt;Confira os dados completos:&lt;/p&gt;
+&lt;p&gt;1º Gladson Cameli (Progressistas) — 54%&lt;br /&gt;
+2º Jorge Viana (PT) — 25%&lt;br /&gt;
+3º Mara Rocha (MDB) — 6%&lt;br /&gt;
+4º Sérgio Petecão (PSD) — 5%&lt;br /&gt;
+5º Marcio Bittar (União Brasil) — 3%&lt;br /&gt;
+6º David Hall (Agir) — 1%&lt;br /&gt;
+7º Nilson Euclides (PSOL) — não pontuou&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;→ &lt;a href="https://correio68.com/2022/09/19/todos-contra-um-e-lavagem-de-roupa-suja-como-foi-o-1o-debate-entre-candidatos-ao-governo-do-acre/"&gt;Veja como foi o 1º debate entre candidatos ao Governo do Acre&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;4% dos entrevistados disseram que ainda não decidiram em quem vão votar. A última pesquisa do Ipec havia sido divulgada no dia 29 de agosto, comparando os números, Gladson cresceu 3%, Jorge caiu 2%, Mara manteve porcentagem, assim como Petecão; Bittar cresceu 1%, junto com David Hall. O professor Nilson Euclides perdeu 1% que tinha na anterior.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;→ &lt;a href="https://correio68.com/2022/08/30/ipec-com-51-gladson-cameli-seria-eleito-no-1o-turno-veja-a-pesquisa-completa/"&gt;Veja a pesquisa Ipec divulgada no dia 29 de agosto&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Na pesquisa espontânea, onde as opções não são apresentadas aos entrevistados, Gladson permanece na frente com 41%, seguido de Jorge Viana com 16%. Mara foi citada por 2%, assim como Petecão. Bittar foi lembrado por 1% e outros candidatos também tiveram 1%, outros 35% disseram ainda não saber.&lt;/p&gt;
+&lt;figure id="attachment_68022" aria-describedby="caption-attachment-68022" style="width: 539px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-68022" src="https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=539%2C248&amp;#038;ssl=1" alt="" width="539" height="248" srcset="https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=300%2C138&amp;amp;ssl=1 300w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?resize=768%2C355&amp;amp;ssl=1 768w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?w=873&amp;amp;ssl=1 873w" sizes="(max-width: 539px) 100vw, 539px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-68022" class="wp-caption-text"&gt;Da esquerda para a direita: Gladson, Jorge, Petecão, Mara, Bittar, Hall e Nilson.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A pesquisa ainda questionou sobre um possível segundo turno entre Gladson Cameli e Jorge Viana. 61% dos entrevistados afirmaram optar pela reeleição do governador, contra 33% que votariam em Jorge. 4% disseram que votariam nulo e 3% afirmaram ainda não ter decidido.&lt;/p&gt;
+&lt;p&gt;A pesquisa do Ipec foi encomendada pela Rede Amazônica e tem margem de erro de três pontos percentuais para mais ou para menos, considerando um nível de confiança de 95%. A pesquisa está registrada no Tribunal Regional Eleitoral do Acre sob o protocolo Nº AC03861/2022 e no Tribunal Superior Eleitoral sob o protocolo Nº BR-00155/2022.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/19/ipec-pesquisa-aponta-vitoria-de-gladson-cameli-em-1o-turno-com-54/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?fit=873%2C403&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16:43:40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Perfil: Gladson Cameli dispara na liderança e fica com 24% de vantagem em cima de Jorge Viana</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Na nova pesquisa do Instituto Perfil, encomendada pela Federação das Indústrias do Acre (Fieac) e divulgada nesta segunda-feira (12), o atual governador Gladson Cameli (Progressistas), segue na preferência do eleitorado acreano para reeleição, com 24,7% do segundo colocado, o ex-senador Jorge Viana (PT).&lt;/p&gt;
+&lt;p&gt;Se comparado a diferença de Gladson para Jorge, o percentual é maior do que o obtido pelo petista, que foi de 24,4%.&lt;/p&gt;
+&lt;p&gt;No geral, a pesquisa que perguntou quem os acreanos pretendem votar para o Governo, ficou assim:&lt;/p&gt;
+&lt;p&gt;1º Gladson Cameli (Progressistas) — 49,1%&lt;br /&gt;
+2º Jorge Viana (PT) — 24,4%&lt;br /&gt;
+3º Mara Rocha (MDB) — 8,8%&lt;br /&gt;
+4º Sérgio Petecão (PSD) — 5,4%&lt;br /&gt;
+5º Marcio Bittar (União Brasil) — 3,4%&lt;br /&gt;
+6º Nilson Euclides (PSOL) — 0,6%&lt;br /&gt;
+7º David Hall (Agir) — 0,4%&lt;/p&gt;
+&lt;p&gt;Brancos e nulos registraram 2,4% e não responderam 0,4%. Os que ainda não decidiram somaram 5,2%.&lt;/p&gt;
+&lt;p&gt;A pesquisa do Instituto Perfil ouviu 1430 eleitores entre os dias 5 e 8 de setembro nas cidades de Rio Branco, Cruzeiro do Sul, Sena Madureira, Tarauacá, Feijó, Brasiléia, Epitaciolândia e Xapuri. A margem de erro é de 3 pontos percentuais para mais ou para menos e o nível de confiança do levantamento é de 95%. A pesquisa está registrada no Tribunal Superior Eleitoral com a Identificação AC-07846/2022.&lt;/p&gt;
+&lt;p&gt;No quesito rejeição, a pesquisa ficou assim:&lt;/p&gt;
+&lt;p&gt;1º Jorge Viana — &lt;span style="color: #ff0000;"&gt;24,5%&lt;/span&gt;&lt;br /&gt;
+2º Sérgio Petecão —&lt;span style="color: #ff0000;"&gt; 20,5%&lt;/span&gt;&lt;br /&gt;
+3º Marcio Bittar — &lt;span style="color: #ff0000;"&gt;13,1%&lt;/span&gt;&lt;br /&gt;
+4º Gladson Cameli — &lt;span style="color: #ff0000;"&gt;9,1%&lt;/span&gt;&lt;br /&gt;
+5º Mara Rocha — &lt;span style="color: #ff0000;"&gt;7,2%&lt;/span&gt;&lt;br /&gt;
+6º David Hall — &lt;span style="color: #ff0000;"&gt;5,6%&lt;/span&gt;&lt;br /&gt;
+7º Nilson Euclides —&lt;span style="color: #ff0000;"&gt; 5,3%&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/12/perfil-gladson-cameli-dispara-na-lideranca-e-fica-24-de-vantagem-em-cima-de-jorge-viana/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/08/candidatos.webp?fit=873%2C403&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>08:47:13</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Justiça Eleitoral decide hoje se aceita candidatura de Mailza como vice de Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O TRE (Tribunal Regional Eleitoral) deve decidir nesta segunda-feira (12) se aceitará a candidatura de Mailza Gomes (Progressistas) como vice de Gladson Cameli, de seu mesmo partido.&lt;/p&gt;
+&lt;p&gt;Mailza é alvo de um pedido de impugnação feito pelo Ministério Público Eleitoral no dia 16 de agosto. Segundo o procurador Fernando Piazenski, a senadora estaria inelegível após uma Ação de Improbidade Administrativa suspender seus direitos políticos por improbidade administrativa referente ao período em que foi secretária Municipal em Senador Guiomard, na gestão de seu ex-marido James Gomes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;→ Anunciada:&lt;a href="https://correio68.com/2022/08/05/gladson-anuncia-oficialmente-mailza-gomes-como-sua-vice-ney-amorim-disputa-o-senado/"&gt; Gladson escolhe Mailza Gomes como vice&lt;/a&gt;&lt;br /&gt;
+→ Pedido: &lt;a href="https://correio68.com/2022/08/16/mp-eleitoral-entra-com-pedido-para-impugnar-candidatura-de-mailza-gomes-como-vice-de-gladson/"&gt;MPE entra com pedido para impugnar candidatura de Mailza Gomes &lt;/a&gt;&lt;br /&gt;
+→ Negado: &lt;a href="https://correio68.com/2022/09/04/stj-nega-pedido-de-extincao-de-processo-contra-mailza-gomes-que-pode-impugnar-sua-candidatura/"&gt;STJ nega pedido de extinção de processo contra Mailza&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A defesa de Mailza Gomes chegou a pedir ao STJ (Superior Tribunal de Justiça) a extinção do processo que apontou a improbidade administrativa. Mas segundo decisão assinada pelo ministro-relator, Francisco Falcão, foi enfatizado que houve dolo na prática da senadora e não foram vistos requisitos para que a extinção fosse aceita.&lt;/p&gt;
+&lt;p&gt;A senadora foi anunciada para o cargo na convenção partidária do dia 5 de agosto. O dela foi o terceiro nome a ser anunciado, após o próprio governador ter desistido de Márcia Bittar (PL) e a candidatura de Alan Rick (União Brasil) ter sido inviabilizada após seu correligionário, Marcio Bittar, ter lançado seu nome ao Governo.&lt;/p&gt;
+&lt;figure id="attachment_69241" aria-describedby="caption-attachment-69241" style="width: 468px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class=" wp-image-69241" src="https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/MAILZA-E-GLADSON-NO-PP.webp?resize=468%2C281&amp;#038;ssl=1" alt="" width="468" height="281" srcset="https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/MAILZA-E-GLADSON-NO-PP.webp?resize=300%2C180&amp;amp;ssl=1 300w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/MAILZA-E-GLADSON-NO-PP.webp?resize=768%2C461&amp;amp;ssl=1 768w, https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/MAILZA-E-GLADSON-NO-PP.webp?w=850&amp;amp;ssl=1 850w" sizes="(max-width: 468px) 100vw, 468px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-69241" class="wp-caption-text"&gt;Gladson optou por Mailza Gomes como sua candidata à vice. — 📷: Divulgação.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Devido à ação, a chapa de Gladson Cameli, que tenta a reeleição é a única ainda a não ter sido deferida pelo TSE (Tribunal Superior Eleitoral). O prazo para o fim do período de julgamento dos registros de candidatura encerra também nesta segunda.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/09/12/justica-eleitoral-decide-hoje-se-aceita-candidatura-de-mailza-como-vice-de-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/09/MAILZA-E-GLADSON-NO-PP.webp?fit=850%2C510&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:45:20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
+&lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças. “Apresentamos ao governador o produto da reforma administrativa, vamos apresentar esse material à base da Assembleia Legislativa do Acre e posteriormente divulgar as resoluções”, disse.&lt;/p&gt;
+&lt;figure id="attachment_583260" aria-describedby="caption-attachment-583260" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-583260 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-1024x742.jpeg" alt="" width="1024" height="742" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-583260" class="wp-caption-text"&gt;As resoluções vão ser apresentadas à base da Aleac, e posteriormente publicadas e divulgadas para a imprensa. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O governador destacou o trabalho importante que a equipe vem fazendo, e que pretende divulgar em breve as mudanças.&lt;/p&gt;
+&lt;p&gt;“Este é um momento importante, porque vai definir muitas diretrizes da gestão que se inicia em 2023. Em breve vamos divulgar à imprensa todas essas mudanças para o próximo mandato”, afirmou o chefe do Executivo.&lt;/p&gt;
+&lt;p&gt;Participaram da reunião os membros da equipe de transição: o ex-deputado Luiz Calixto; o secretário de Estado de Fazenda, Amarísio Freitas; o secretário Extraordinário de Assuntos Governamentais, Alysson Bestene; o secretário de Planejamento e Gestão, Ricardo Brandão; o procurador-geral do Estado, Marcos Motta; e o chefe de gabinete do governador, José Messias.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>06:25:28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli se reúne com representantes do governo americano e propõe projeto para ampliar o desenvolvimento sustentável</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
+&lt;figure id="attachment_581973" aria-describedby="caption-attachment-581973" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581973 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1-1024x723.jpeg" alt="" width="1024" height="723" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1-1024x723.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1-300x212.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1-768x542.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1-1536x1085.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1.jpeg 1920w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581973" class="wp-caption-text"&gt;Encontro com investidores americanos faz parte das agendas do Acre durante a COP27. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
+&lt;p&gt;Os parceiros Daniel Kandy, diretor de Paisagem Sustentável dos Estados Unidos, Evan Norman da Agência dos Estados Unidos para o Desenvolvimento Internacional (Usaid) e Shira Yoffe, assessora sênior do Serviço Florestal dos Estados Unidos, fizeram uma apresentação dos projetos que ajudam a desenvolver ao redor do mundo e disseram que têm muito a contribuir com o Brasil e sobretudo com o Acre.&lt;/p&gt;
+&lt;figure id="attachment_581970" aria-describedby="caption-attachment-581970" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581970 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1536x1024.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg 1920w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581970" class="wp-caption-text"&gt;Conservação da natureza e combate às queimadas ilegais foram o foco da reunião. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Para o governador Gladson Cameli, a aproximação entre USA e estados amazônicos visa potencializar objetivos comuns. Cameli disse que precisa de apoio para ampliar as ações de combate e monitoramento às queimadas.&lt;/p&gt;
+&lt;p&gt;“Nós já trabalhamos para colocar sempre as pessoas em primeiro lugar. Então esses objetivos se encaixam em nossos projetos de governo. Nessa reunião, o Acre abre um novo trilho de investimento e cooperação para políticas de desenvolvimento com conservação natural. Estamos dispostos a encontrar soluções para nossos problemas. Por isso, não poderíamos deixar de pedir apoio tecnológico para ampliação dos serviços que já executamos no combate as queimadas ilegais”, pontuou Cameli.&lt;/p&gt;
+&lt;p&gt;O diretor de Paisagem nos Estados Unidos, Daniel Kandt, disse que se inicia agora uma nova fase dessa parceria com o Brasil. “Estamos aqui porque temos uma história de conservação. O governo do Estados Unidos está disposto a colaborar em todos os níveis de governo. Estamos aqui para ouvir quais as prioridades e quais os desafios para que os estados que compõem a Amazônia Legal possam ter mais desempenho nos combates aos ilícitos ambientais”, enfatizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-se-reune-com-representantes-do-governo-americano-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20:07:59</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter wp-image-579811 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-1024x604.jpg" alt="" width="1024" height="604" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-1024x604.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-300x177.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-768x453.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-1536x905.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1-306x181.jpg 306w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8688-1.jpg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+&lt;figcaption class="wp-element-caption"&gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&lt;/figcaption&gt;
+&lt;/figure&gt;
+&lt;p&gt;Nesta quinta-feira, 3, o governador Gladson Cameli recebeu a magistrada, no Palácio Rio Branco, na capital. A visita institucional contou com a participação do delegado-geral da Polícia Civil, Henrique Maciel, do diretor do Departamento de Inteligência da Polícia Civil, Nilton Boscaro, e da secretária adjunta de Justiça e Segurança Pública, Márdhia El-Shawwa.&lt;/p&gt;
+&lt;p&gt;Cameli citou que um dos grandes desafios enfrentados em sua gestão foi o enfrentamento à violência. Com muito empenho e investimentos na segurança pública, o Acre conseguiu avançar muito nos últimos anos, principalmente, na redução da criminalidade.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter wp-image-579812 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8689-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+&lt;figcaption class="wp-element-caption"&gt;Cameli destacou investimentos realizados em sua gestão para combater a criminalidade. Foto: Neto Lucena/Secom&lt;/figcaption&gt;
+&lt;/figure&gt;
+&lt;p&gt;“A grande pauta de 2018 foi a segurança pública. Naquela época, o Acre era o estado mais violento do país. Trabalhamos muito, contratamos mais policiais, adquirimos viaturas e equipamentos e criamos o Gefron. Hoje, os números são outros. Mesmo assim, estamos investindo em tecnologia, para que as nossas forças policiais sigam protegendo as nossas famílias”, afirmou.&lt;/p&gt;
+&lt;p&gt;A carreira de Ivana David é marcada pela forte atuação contra o crime organizado e narcotráfico. A magistrada destacou a relevância de uma boa investigação policial, sobretudo na produção de provas.&lt;/p&gt;
+&lt;p&gt;“É muito importante que as polícias Civil e Militar tenham uma expertise na colheita de provas, para que o Poder Judiciário possa dar uma resposta ao Estado e à sociedade”, argumentou.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter wp-image-579810 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/img_8690-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+&lt;figcaption class="wp-element-caption"&gt;Desembargadora Ivana David tem carreira marcada pela forte atuação contra o crime organizado e narcotráfico. Foto: Neto Lucena/Secom&lt;/figcaption&gt;
+&lt;/figure&gt;
+&lt;p&gt;A palestra da desembargadora paulista será realizada nesta sexta-feira, 4, no anfiteatro da Universidade Federal do Acre (Ufac), em Rio Branco. O evento faz parte do encerramento do Curso de Formação Policial 2022 e é aberto ao público.&lt;/p&gt;
+&lt;p&gt;“Esta será uma excelente oportunidade para que os nossos alunos possam adquirir mais conhecimento com a experiência da magistrada e colocar em prática quando estiverem nas ruas”, pontuou o delegado-geral, Henrique Maciel.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13:40:31</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com o objetivo de promover a integração entre os órgãos de defesa, segurança e desenvolvimento econômico e social do Acre, a Associação dos Diplomados da Escola Superior de Guerra no Acre (Adesg/AC) e Sebrae no Acre, com apoio da Escola Superior de Guerra (ESG), realizou o 2º Seminário de Integração da Defesa, Segurança e Desenvolvimento Econômico e Social no Acre, nesta segunda-feira, 17, no auditório do Sebrae.&lt;/p&gt;
+&lt;figure id="attachment_576047" aria-describedby="caption-attachment-576047" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-576047 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-576047" class="wp-caption-text"&gt;Encontro foi realizado nesta segunda-feira. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Representando o Estado, o governador Gladson Cameli compareceu ao evento, e destacou os avanços na segurança pública no Acre.&lt;/p&gt;
+&lt;p&gt;“Nossos números de violência vêm caindo, e precisamos diminuir esses números ainda mais. Como um dos exemplos de sucesso do nosso governo, podemos citar o Grupo Especial de Fronteira (Gefron), que atua em parceria com todas as forças de segurança e resguarda a vida e a soberania do nosso território”, destacou o chefe do Executivo.&lt;/p&gt;
+&lt;figure id="attachment_576046" aria-describedby="caption-attachment-576046" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-576046 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-576046" class="wp-caption-text"&gt;Cameli destacou os avanços que o Gefron vem realizando na área de fronteira acreana. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Ao longo do dia, diversas entidades da sociedade civil e de segurança pública vai palestrar sobre diversos temas relacionados à segurança e desenvolvimento econômico.&lt;/p&gt;
+&lt;p&gt;De acordo com Lauro Santos, diretor-técnico do Sebrae e delegado representante da Adesg, é importante relacionar economia e um ambiente seguro e saudável.&lt;/p&gt;
+&lt;p&gt;“É importante atuar em prol dessa proposta. Tornar um ambiente propício para o desenvolvimento do comércio para os produtores e empreendedores”, afirmou.&lt;/p&gt;
+&lt;figure id="attachment_576038" aria-describedby="caption-attachment-576038" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-576038 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-576038" class="wp-caption-text"&gt;&amp;#8220;É importante reunir não só as autoridades da segurança, mas também trazer para a conversa membros da sociedade civil&amp;#8221;, disse Lauro Santos durante a cerimônia. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Participaram também da solenidade de abertura as seguintes autoridades: a presidente do Tribunal de Justiça do Acre, desembargadora Waldirene Cordeiro; o representante do prefeito de Rio Branco, Rogério Ferreira; diretor de ensino da ESG, contra-almirante Gilberto Lourenço; o conselheiro do TCE, Valmir Ribeiro; o capitão dos portos de Porto Velho, Marcelo de Souza Barbosa; o comandante do destacamento de controle aéreo de Rio Branco, Edson Barato; o representante da superintendência da Polícia Federal, Vinicius Mitsurasi; o superintendente da Polícia Rodoviária Federal inspetor Getúlio Maia; o superintendente da Agência Brasileira de Inteligência, Eder Manfrim Nonato; o secretário de Estado de Segurança Pública Paulo Cézar dos Santos; e o secretário de Produção e Agronegócio Edivan Azevedo.&lt;/p&gt;
+&lt;h4&gt;O que disseram as autoridades&lt;/h4&gt;
+&lt;p&gt;&amp;#8220;Nosso objetivo é contribuir para o nosso país, sobretudo ajudar aqueles que mais necessitam. O Brasil tem um enorme desafio de proteger a Amazônia, e é o que devemos fazer, protegê-la até de nós mesmos, temos um espaço geográfico imenso para cuidar&amp;#8221;, disse a desembargadora do Tribunal de Justiça do Acre, Waldirene Cordeiro.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Hoje nós temos um cenário que combatemos os crimes transfronteiriços. O Acre é um protagonista numa série de iniciativas, contribuímos no cenário nacional para manutenção das nossas fronteiras. Sem esse trabalho de combate ao crime é impossível se falar em soberania nacional&amp;#8221;, comentou Paulo Cézar do Santos, secretário de Segurança Pública.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-575928 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576035" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5751-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576035'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576037" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5772-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576037'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576038" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5781-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576038'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576040" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5862-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576040'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576041" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5867-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576041'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576042" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5877-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576042'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576043" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5956-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576043'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576044" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_5984-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576044'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576045" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6036-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576045'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576046" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6043-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576046'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576047" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6091-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576047'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576048" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6106-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576048'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576049" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6115-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576049'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576050" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6117-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576050'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576051" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6136-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576051'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-576052" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_6154-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-576052'&gt;
+				Foto: Diego Gurgel/Secom.
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18:53:16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nesta quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
+&lt;p&gt;Acompanhado da titular da Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), Paola Daniel, o governador acompanhou o lançamento do Projeto Aliança Empresarial pela Amazônia, em evento que contou com a presença do presidente do Peru, Pedro Castillo.&lt;/p&gt;
+&lt;figure id="attachment_575344" aria-describedby="caption-attachment-575344" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="size-large wp-image-575344" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-575344" class="wp-caption-text"&gt;Cameli participou do evento ao lado da secretária de Meio Ambiente, Paola Daniel (E). Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O objetivo do projeto, de acordo com Castillo, é desenvolver um manejo sustentável para enfrentar o desmatamento e impulso desenfreado da agricultura e promover a preservação do meio ambiente.&lt;/p&gt;
+&lt;p&gt;“Precisamos ainda ter um olhar especial para as nossas crianças e jovens, que representam o futuro dos nossos estados, províncias e países. Se queremos desenvolver uma economia florestal produtiva e sustentável, temos que olhar de maneira especial para a educação. E as nossas crianças e jovens podem ser vetores fundamentais para a propagação de novos conhecimentos que promovam a preservação aliada à produção, numa nova maneira de entendermos a vida no planeta”, frisou Cameli.&lt;/p&gt;
+&lt;figure id="attachment_575357" aria-describedby="caption-attachment-575357" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="size-large wp-image-575357" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-575357" class="wp-caption-text"&gt;Evento promove o compartilhamento de experiências entre autoridades governamentais. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;Estar aqui representando o estado com o governador é muito importante, pois precisamos encontrar métodos de aliar desenvolvimento sustentável, conservação do meio ambiente e agronegócio. Precisamos aproveitar essa oportunidade para conversar com os representantes de outros países, ver o que deu certo e adaptar essas propostas para a realidade no Acre”, observou Paola Daniel.&lt;/p&gt;
+&lt;p&gt;“A participação do governador é fundamental, pois esse espaço do GCF é oportuno para reafirmar compromissos instituídos pelo Estado. Participo das discussões do meio ambiente desde 2012, e o Acre tem uma cultura muito forte no diálogo e na consulta com os povos indígenas; precisamos preservar essas relações. Temos um patrimônio que precisa ser preservado e essa tem sido a prioridade do governo nos últimos anos”, destacou Francisca de Lima Costa, líder do Povo Arara, presidente do comitê regional da Força-Tarefa de Governadores para o Clima e Florestas para os Povos Indígenas e Comunidades Locais no Brasil e chefe de departamento do Instituto de Mudanças Climáticas (IMC).&lt;/p&gt;
+&lt;h4&gt;Intercâmbio de Experiências&lt;/h4&gt;
+&lt;p&gt;Na parte da tarde, o governador participou de uma troca de experiências, com o objetivo de apresentar recomendações e propostas referentes aos eixos temáticos: pessoas e comunidades; conhecimento, tecnologia e inovação; finanças, investimento e setor privado; e governo e políticas públicas.&lt;/p&gt;
+&lt;figure id="attachment_575363" aria-describedby="caption-attachment-575363" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-575363 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-1024x682.jpg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-575363" class="wp-caption-text"&gt;Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Cameli aproveitou a oportunidade para apresentar aos gestores as propostas que governo do Estado tem para o desenvolvimento sustentável: “No Acre, estado que governo, temos milhares de hectares de terras degradadas que, se bem aproveitadas, podem impulsionar o nosso agronegócio. Falando de maneira mais direta, não precisamos derrubar nenhuma árvore da nossa floresta para plantar soja, milho e uma infinidade de outras culturas agrícolas. Quero destacar ainda que, quando o meio ambiente é tratado com atenção e cuidado, o agronegócio, que depende do regime de chuvas e outros fatores naturais, também é beneficiado”, pontuou.&lt;/p&gt;
+&lt;p&gt;Ao final do evento foi firmada a Declaração de San Martín, documento que prevê maior articulação entre os governos dos países envolvidos, com o objetivo de alcançar metas climáticas, tomada de decisões públicas voltadas aos meio ambiente, promoção da participação do setor privado nas políticas ambientais, entre outros.&lt;/p&gt;
+&lt;p&gt;“Devemos realizar as nossas ações práticas nesse sentido através de um diálogo constante com as nossas comunidades indígenas, ribeirinhas e rurais, para despertarmos as consciências para ações que gerem produção e preserve o meio ambiente”, concluiu Cameli.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-575335 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575351" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2445-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575351'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575352" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2482-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575352'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575344" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2085-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575344'&gt;
+				Cameli participou do evento ao lado da secretária de Meio Ambiente, Paola Daniel (E). Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575345" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2099-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575345'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575346" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2113-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575346'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575347" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2137-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575347'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575349" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2345-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575349'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575348" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2233-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575348'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-575350" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2417-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-575350'&gt;
+				Cameli participou do evento ao lado da secretária de Meio Ambiente, Paola Daniel. Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+&lt;div id='gallery-2' class='gallery galleryid-575335 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575354" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2646-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575354'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575355" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2650-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575355'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575356" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2739-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575356'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575357" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2745-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575357'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575358" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2760-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575358'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575359" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2766-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575359'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575360" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2792-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575360'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575361" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2801-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575361'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575362" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2809-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575362'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575363" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2861-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575363'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575364" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2921-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575364'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-575365" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-1536x1023.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/GUR_2922-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-575365'&gt;
+				Foto: Diego Gurgel/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15:58:37</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&lt;span class="Apple-converted-space"&gt; &lt;/span&gt;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_541509" aria-describedby="caption-attachment-541509" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-541509 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/02/thumbnail_governador-13.jpg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-541509" class="wp-caption-text"&gt;Para o governador, Gladson Cameli, o GCF Task Force é uma oportunidade de trazer e implementar aprendizados no desenvolvimento sustentável no Acre. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Nesta quarta-feira, 12, o governador, Gladson Cameli, embarcou para o Peru com a missão de debater e articular metas e objetivos para executar políticas públicas de desenvolvimento sustentável, bem como combater queimadas e desmatamento no Acre.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;“É importante representar o Acre internacionalmente nesses eventos que buscam reduzir os efeitos negativos no planeta. Aproveitamos também a oportunidade para ter uma troca de informações com autoridades internacionais, e apresentar um pouco do nosso estado no evento”, salientou Cameli.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Além do Acre, representam o Brasil os governadores do estados do Maranhão, Amapá, Tocantins, Pará, Roraima, Mato Grosso, Amazonas e Rondônia.&lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16:31:12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli reforça empenho na geração de emprego e transparência na aplicação dos recursos públicos</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em entrevista à imprensa, nesta quinta-feira, 6, em Brasília, o governador Gladson Cameli reafirmou a realização de diversas iniciativas visando especialmente a geração de emprego e renda para a população do Acre.&lt;/p&gt;
+&lt;p&gt;Com este objetivo, Gladson Cameli disse que “investirá com muita firmeza”, principalmente em áreas como infraestrutura, “que é a maneira mais rápida de aquecer a economia e gerar emprego e renda”.&lt;/p&gt;
+&lt;figure id="attachment_574192" aria-describedby="caption-attachment-574192" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-06-at-16.13.28.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-574192 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-06-at-16.13.28.jpeg" alt="" width="1024" height="588" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-06-at-16.13.28.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-06-at-16.13.28-300x172.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-06-at-16.13.28-768x441.jpeg 768w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-574192" class="wp-caption-text"&gt;Em entrevista, governador falou sobre investimentos para o estado. Foto: Dilma Tavares/Repac&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Ele também relacionou investimentos no agronegócio e a redução da burocracia para atrair indústrias para o estado, desenvolvendo a política de industrialização do Acre. “Já estamos com a infraestrutura pronta para esse setor”, afirmou.&lt;/p&gt;
+&lt;p&gt;Gladson Cameli destacou, ainda, a abertura de vagas nos setor público, exemplificando com a realização de concursos em áreas como saúde e segurança. “Já está em andamento o concurso para a Saúde e vamos lançar o edital de concurso para a polícia penal, com 260 vagas, medida que também contribuirá para que possamos melhorar a estrutura penitenciária do estado”, explicou.&lt;/p&gt;
+&lt;h4&gt;Transparência&lt;/h4&gt;
+&lt;p&gt;Gladson Cameli disse que também reforçará “o combate a qualquer desvio de recursos” e ampliará a transparência, especialmente na aplicação dos recursos públicos. “Isso preserva meu CPF e dá mais clareza para a população sobre como os recursos estão sendo empregados”, afirmou.&lt;/p&gt;
+&lt;h4&gt;Reforma administrativa&lt;/h4&gt;
+&lt;p&gt;O governador afirmou que irá corrigir falhas e avançar em áreas que precisam, “sem mudar o que está dando certo”. Mas confirmou que fará uma reforma administrativa, destacando, porém, que a mudança ou não dependerá da atuação de cada integrante da equipe.&lt;/p&gt;
+&lt;p&gt;“Eles é que vão dizer quem sai ou quem fica, pois até dezembro eles têm uma meta a cumprir e eu vou cobrar”, explicou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-reforca-empenho-na-geracao-de-emprego-e-transparencia-na-aplicacao-dos-recursos-publicos/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07:44:59</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli participa de ato cívico em alusão aos 112 anos de Brasileia</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Na fronteira do Brasil com a Bolívia, o município de Brasileia comemora 112 anos no próximo dia 3 de julho. E como parte das comemorações, um desfile cívico em alusão à data foi realizado na noite desta quinta-feira, 30, na avenida Geni Assis, em frente à praça Hugo Poli, no centro da cidade.&lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_572847" aria-describedby="caption-attachment-572847" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-572847 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E0FBEBF4-7720-4608-B721-4E09B05B2153.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-572847" class="wp-caption-text"&gt;O governador participou do ato cívico ao lado da prefeita da cidade, Fernanda Hassem Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Durante o ato cívico, a população acompanhou o desfile das escolas do município, da Companhia Especial de Fronteira do Exército Brasileiro, do Corpo de Bombeiros Militar do Estado do Acre, entre outras instituições. &lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_572850" aria-describedby="caption-attachment-572850" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-572850 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/74BB4C7F-B3F7-4881-AA98-9248A6FF94EA.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-572850" class="wp-caption-text"&gt;Gladson Cameli parabenizou os moradores e agradeceu as parcerias firmadas com as autoridades para as ações desenvolvidas no município Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;O governador Gladson Cameli afirmou que os 112 anos da cidade refletem uma história de dedicação de um povo guerreiro. “Agradeço a Deus pela oportunidade de estarmos vivos, de estarmos presentes. Temos muito o que fazer, mas também temos muito o que agradecer. Cabe a mim a responsabilidade de preparar o estado para os caminhos do futuro das nossas crianças”, afirmou.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Cameli também agradeceu ao Senado e a Câmara Federal pelas parcerias realizadas e em especial nos trâmites para a obra do Anel Viário de Brasileia. &lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_572849" aria-describedby="caption-attachment-572849" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-572849 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7B431008-F916-42E7-BDFB-997DD2F61599.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-572849" class="wp-caption-text"&gt;A prefeita Fernanda Hassem agradeceu a presença do governador no evento Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Na oportunidade, a prefeita do município, Fernanda Hassem, destacou a importância do ato cívico para os brasileienses. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;“Em tudo nós brasileienses e aqueles que escolheram essa cidade para morar nos orgulhamos desse ato cívico”, disse.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Ela também agradeceu a presença do governador no evento, lembrando que, desde o início da gestão, este é o quarto ano em que o chefe do Executivo Estadual se faz presente no ato cívico na programação do aniversário da cidade. “Que nós possamos a cada dia presentear essa cidade com mais investimentos”, ressaltou.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Em respeito aos guerreiros que deram o melhor em prol da população durante a pandemia de covid-19, as autoridades desfilaram  com os profissionais de saúde.&lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_572853" aria-describedby="caption-attachment-572853" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-572853 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/E9F737F4-26AE-4705-99FA-AB5AC3344F54.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-572853" class="wp-caption-text"&gt;Autoridades desfilaram com os profissionais de saúde do município Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Dentre as autoridades, estiveram presentes no ato cívico o senador Sérgio Petecão, a deputada federal Vanda Milani, a prefeita do Departamento de Pando, Ana Lúcia Reis, o vice-prefeito de Brasileia, Carlinhos do Pelado, o representante da Câmara Municipal, vereador Elenilson Cruz e a secretária de estado de Assistência Social, dos Direitos Humanos e Políticas para as Mulheres, Ana Paula Lima.&lt;/span&gt;&lt;/p&gt;
+&lt;h4 style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Governo presente&lt;/span&gt;&lt;/h4&gt;
+&lt;p style="font-weight: 400;"&gt;&lt;span style="font-weight: 400;"&gt;Ao longo dos últimos três anos e meio, o Governo tem investido no município, com destaque para o melhoramento da distribuição de água, por meio do Serviço de Água e Esgoto do Estado do Acre (Saneacre), em parceria com a Prefeitura, bem como a pavimentação de ruas e melhorias de ramais e pontes na zona rural. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400; text-align: left;"&gt;&lt;span style="font-weight: 400;"&gt;Além disso, uma das principais obras em andamento no Acre se encontra em Brasileia. O Anel Viário vai encurtar caminhos, facilitando o transporte de mercadorias, as exportações e importações para os países vizinhos, para a Costa Leste dos Estados Unidos, a China e outros locais do mundo. A obra consolidará Brasileia como um município economicamente estratégico para o Brasil.&lt;/span&gt;&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-572843 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572856" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/105B1A20-CF94-40E2-89F2-B7B426B522E7.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572856'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572855" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/386E8764-6458-48BD-8D0F-C3FBCBF42B88.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572855'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572854" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/0F637994-F8B4-4E72-B704-62831034C5E2.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572854'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572852" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/D5BD8432-1048-43DB-A3BE-8EBFF8CDBF0F.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572852'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572851" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/71930F74-4D83-4CBE-ACAC-CEF9CCDC5295.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572851'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1.jpeg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-572848" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/C25A286E-4FCF-4F4A-AF32-A7EC86E490A1.jpeg 1501w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-572848'&gt;
+				Foto: Diego Gurgel
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-participa-de-ato-civico-em-alusao-aos-112-anos-de-brasileia/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10:10:15</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli se reúne com embaixador em Londres para apresentar projeto de turismo do Acre</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli esteve reunido com o embaixador Marco Farani na Embaixada do Brasil no Reino Unido, em Londres, para apresentar um projeto de turismo sustentável. Os dois conversaram nesta sexta, 10, por mais de duas horas, sobre a possibilidade de atrair investidores para o setor no Acre.&lt;/p&gt;
+&lt;figure id="attachment_567221" aria-describedby="caption-attachment-567221" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-567221 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-567221" class="wp-caption-text"&gt;Governador apresentou o portfólio do Acre ao diplomata. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Como Marco Farani representa o país junto a organismos internacionais, as possibilidades de divulgação do turismo étnico e ecológico do estado para fomentar investimentos são enormes.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;O turismo gera muitos empregos e oportunidades para a nossa população. Desde que assumi o governo, a minha intenção sempre foi a de valorizar esse setor da nossa economia. No entanto, com a pandemia mundial da covid-19 ficamos imobilizados devido às restrições sanitárias. Agora vamos recuperar esse tempo com a ajuda de organismos internacionais que podem investir no nosso estado. Nesse sentido, o embaixador Marco Farani poderá nos ajudar fazendo pontes com investidores interessados na Amazônia&amp;#8221;, disse o governador.&lt;/p&gt;
+&lt;p&gt;Um outro aspecto abordado pelo governador com Marco Farani diz respeito ao agronegócio.&lt;/p&gt;
+&lt;figure id="attachment_567222" aria-describedby="caption-attachment-567222" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-567222 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-567222" class="wp-caption-text"&gt;Embaixador Marco Farani avaliou como positiva a visita do governador e garantiu que ajudará em ações concretas para fomentar o turismo e o agronegócio no Acre. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;Temos a vantagem de podermos produzir no Acre sem desmatar. Se aproveitarmos as nossas áreas de terras degradadas fazendo um trabalho de recuperação poderemos atrair o interesse de empresários internacionais. Produzir alimentos com a preservação do meio ambiente é de interesse dos europeus como afirmou o embaixador&amp;#8221;, avaliou Cameli.&lt;/p&gt;
+&lt;p&gt;Por sua vez, o embaixador Marco Farani avaliou como positiva a visita do governador e garantiu que ajudará em ações concretas para fomentar o turismo e o agronegócio no Acre.&lt;/p&gt;
+&lt;figure id="attachment_567219" aria-describedby="caption-attachment-567219" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-567219 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-567219" class="wp-caption-text"&gt;Possibilidade de atrair investidores para o Acre esteve entre os assuntos em pauta. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;O Acre tem um enorme potencial turístico e estamos conversando com uma empresa de turismo em Londres para montar programas de alto nível para as regiões de aldeias indígenas que, com certeza, vão interessar aos viajantes europeus. Eu já havia tido uma outra reunião com o governador sobre esse tema e estamos reativando esse contato para obtermos resultados práticos e imediatos para a população do Acre&amp;#8221;, salientou o diplomata.&lt;/p&gt;
+&lt;p&gt;A respeito do agronegócio, Marco Farani indicou alguns empresários ao governador que podem ter interesse em comprar produtos sustentáveis do Acre.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-567213 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567218" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/1-20220513043248_IMG_7505-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567218'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567219" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220513043438_IMG_7511-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567219'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567220" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220513051107_IMG_7521-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567220'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567221" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220513051256_IMG_7528-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567221'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567222" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220513052621_IMG_7550-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567222'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-567223" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220513052627_IMG_7555-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-567223'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/governador-gladson-cameli-se-reune-com-embaixador-em-londres-para-apresentar-projeto-de-turismo-do-acre/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07:58:20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Em Genebra, governo do Acre firma parceria com a Confederação Nacional do Comércio e governador Gladson Cameli é homenageado</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A comitiva da Confederação Nacional do Comércio (CNC), que está participando da Conferência Anual da Organização Internacional do Trabalho (OIT), em Genebra, se reuniu com o governador Gladson Cameli para firmar parcerias entre a instituição e o governo do Acre. Após uma série de reuniões, o presidente da CNC, José Roberto Tadros, ofereceu um jantar na noite de terça, 7, em que o governador foi um dos principais homenageados.&lt;/p&gt;
+&lt;figure id="attachment_566677" aria-describedby="caption-attachment-566677" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-566677 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/WhatsApp-Image-2022-06-08-at-08.25.09.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-566677" class="wp-caption-text"&gt;Governador apresentou o projeto Empregar que visa atrair empresas para o estado por meio de incentivos tributários. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Em Genebra, durante dois dias o governador Gladson Cameli teve diversas agendas com empresários interessados em investir no Acre. Posteriormente aproveitou o encontro com o presidente Tadros para apresentar o projeto Empregar que visa atrair empresas para o estado por meio de incentivos tributários.&lt;/p&gt;
+&lt;p&gt;“Com os acordos que estabelecemos com a comitiva da CNC poderemos criar as condições necessárias para aquecermos a atividade comercial no Acre. Os empresários precisam de apoio do governo para poderem crescer. Sempre levando em conta a melhoria das condições salariais dos seus trabalhadores e uma carga tributária justa que não atrapalhe. Acredito que a chegada de novas empresas e a nossa ajuda para aquelas que já atuam no estado poderão gerar os empregos necessários para a nossa população viver de maneira digna e próspera”, afiançou o governador.&lt;/p&gt;
+&lt;figure id="attachment_566682" aria-describedby="caption-attachment-566682" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-566682 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-566682" class="wp-caption-text"&gt;Desenvolvimento da Amazônia foi um dos temas do encontro. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;Conexão com o exterior&lt;/h4&gt;
+&lt;p&gt;José Roberto Tadros, presidente da CNC, ressaltou a importância da presença do governador em Genebra para fomentar novas alternativas para o crescimento econômico do Acre.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;É importante que o governador esteja aqui em Genebra porque está abrindo os seus horizontes para perceber como o resto do mundo está vivendo através de novas alternativas econômicas. O Gladson vai levar para o Acre uma visão moderna para cumprir o propósito de gerar as oportunidades para a população do seu estado”, disse ele.&lt;/p&gt;
+&lt;figure id="attachment_566688" aria-describedby="caption-attachment-566688" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-566688 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-566688" class="wp-caption-text"&gt;Encontro visa fomentar novas alternativas para o crescimento econômico do Acre. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Tadros comentou ainda sobre a questão do desenvolvimento da Amazônia para atender os anseios dos seus moradores.&lt;/p&gt;
+&lt;p&gt;“A CNC trabalha com o objetivo de gerar bem-estar e prosperidade para a população. Através dos nossos braços sociais prestamos serviços para ajudar o governo. O governador do Acre está inserido nesse contexto. A Amazônia não pode ficar esquecida porque representa quase que 70% do território brasileiro. E essa região tem que ser reconhecida e tratada como as demais. Assim precisamos prestigiar os nossos governos estaduais amazônicos para que possam desempenhar as sua funções essenciais de resgatar a qualidade de vida e dar condições para gerar empregos com bons salários para a sua população”, argumentou Tadros.&lt;/p&gt;
+&lt;h4&gt;Reaquecimento da economia depois da pandemia&lt;/h4&gt;
+&lt;p&gt;Com a pandemia de covid-19 diminuindo no mundo inteiro, Tadros acredita que haverá um reaquecimento da economia brasileira.&lt;/p&gt;
+&lt;figure id="attachment_566695" aria-describedby="caption-attachment-566695" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-566695 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-1536x1025.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-566695" class="wp-caption-text"&gt;Governador foi um dos homenageados durante o jantar. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;Nós defendemos que as empresas no Brasil sejam lucrativas e que o Estado só entre para a regulamentação das leis. Os nossos trabalhadores do comércio precisam ser muito bem renumerados. Com a prosperidade das nossas empresas irão melhorar cada vez mais as condições dos trabalhadores que poderão consumir. Um país que tem 220 milhões de habitantes não pode deixar parte da sua população à margem. É com o crescimento do consumo interno que o Brasil será uma Nação próspera&amp;#8221;, finalizou o presidente da CNC.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-566675 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/2-20220510124750_IMG_7013-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566682'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/3-20220510124756_IMG_7015-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566683'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-scaled.jpg'&gt;&lt;img width="300" height="211" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-300x211.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566684" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-300x211.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-1024x719.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-768x539.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-1536x1078.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/4-20220510125958_IMG_7024-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566684'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566685" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/5-20220510130159_IMG_7045-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566685'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566686" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/6-20220510130306_IMG_7051-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566686'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566687" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/7-20220510131841_IMG_7138-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566687'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566688" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/8-20220510131923_IMG_7146-1-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566688'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566689" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-1024x682.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/9-20220510132014_IMG_7148-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566689'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566690" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/10-20220510132043_IMG_7149-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566690'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566691" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/11-20220510133410_IMG_7178-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566691'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566692" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/12-20220510133410_IMG_7179-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566692'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566693" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/13-20220510161136_IMG_7191-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566693'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566694" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/14-20220510161950_IMG_7196-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566694'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-566695" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-1536x1025.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/06/15-20220510162100_IMG_7200-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-566695'&gt;
+				Foto: Marcos Vicentti/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/em-genebra-governo-do-acre-firma-parceria-com-a-confederacao-nacional-do-comercio-e-governador-gladson-cameli-e-homenageado/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>10:33:39</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Cirleudo Alencar e Petrônio Antunes são nomes certos para a próxima gestão de Cameli</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Próximas eleições &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;No Acre mal se termina um pleito e já se começa a falar em outro. O alvo agora são as eleições municipais. Sobre a disputa pela Prefeitura de Rio Branco, o senador Sérgio Petecão nega que tenha afirmado que não apoiará Bocalom no projeto de reeleição.&lt;/span&gt;&lt;/p&gt;
@@ -1305,29 +2668,34 @@
 </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/cirleudo-alencar-e-petronio-antunes-sao-nomes-certos-para-a-proxima-gestao-de-cameli/</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/cirleudoepetroniobanner.jpg</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022-11-10T08:24:54</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>08:24:54</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Gladson Cameli critica protestos pós-2º turno e quer diálogo com Lula</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista ao Metrópoles, o governador reeleito do Acre, Gladson Cameli (PP), criticou as manifestações registradas nos últimos dias que impediram a circulação de carros em estradas de todo país. Desde o dia 30 de outubro, apoiadores do presidente Jair Bolsonaro (PL) foram às ruas para protestar contra a vitória de Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
 &lt;p&gt;Cameli, que é aliado de Bolsonaro, requisitou a ação das forças de segurança do estado para impedir os bloqueios das rodovias BR-364 e BR-367, sob risco de impacto no abastecimento do estado.&lt;/p&gt;
@@ -1346,29 +2714,34 @@
 </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/gladson-cameli-critica-protestos-pos-2o-turno-e-quer-dialogo-com-lula/</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/gladsonlulabanner.jpg</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022-11-01T10:10:26</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10:10:26</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Gladson Cameli é sensato ao não apoiar manifestações antidemocráticas, diz colunista</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Sensato&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli mostrou sensatez na entrevista que concedeu à Joven Pan News dizendo que solicitará forças de segurança para colocar fim aos bloqueios na estradas acreanas realizados após a derrota do presidente Bolsonaro.&lt;/p&gt;
@@ -1399,29 +2772,34 @@
 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/gladson-cameli-e-sensato-ao-nao-apoiar-manifestacoes-antidemocraticas-diz-colunista/</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/gladson-1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2022-10-04T15:26:59</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>15:26:59</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Governo pretende realizar novos concursos na saúde, educação e Polícia Pena, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista à Rede Amazônica na manhã desta terça-feira, 4, o governador reeleito, Gladson Cameli (Progressistas), declarou que seu próximo governo será focado na geração de emprego e renda e para isso, garantiu que irá buscar a realização de novos concursos na área da saúde, educação e segurança.&lt;/p&gt;
 &lt;p&gt;Um dos certames mais aguardados pelos concurseiros de plantão será o da Polícia Penal &amp;#8211; sendo que o último foi realizado em 2007 &amp;#8211; ainda na gestão de Binho Marques do PT. &amp;#8220;Vamos soltar o novo edital do concurso da penal&amp;#8221;, comentou destacando também a realização de concursos na área de saúde e educação.&lt;/p&gt;
@@ -1430,29 +2808,34 @@
 </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/governo-pretende-realizar-novos-concursos-na-saude-educacao-e-policia-pena-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/146301FD-1A5F-4EEB-9EFB-E3F1D9F5730A.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022-10-03T10:19:21</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10:19:21</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Depois de um mandato de oposição a Cameli, Duarte promete ajudar o Acre em Brasília sem retaliações ao governador</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Eleito deputado federal no último dia 02 de outubro, Roberto Duarte (Republicanos ) que atualmente é deputado estadual fazendo uma espécie de posição ao governador Gladson Cameli promete que na Câmara Federal será diferente, que ajudará o Acre com suas emendas e que continuará trabalhando em prol da população.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;Em entrevista à Folha do Acre na manhã de segunda-feira (3) Duarte afirmou que ajudará o Acre da mesma forma que sempre fez. &lt;/span&gt;&lt;/p&gt;
@@ -1460,29 +2843,34 @@
 </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/depois-de-um-mandato-de-oposicao-a-cameli-duarte-promete-ajudar-o-acre-em-brasilia-sem-retaliacoes-ao-governador/</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2021/12/duarte-Copy.jpg</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2022-10-03T09:18:06</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>09:18:06</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
 &lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
@@ -1495,29 +2883,34 @@
 </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/9F21D43F-28CE-4649-909B-6EFAE97C5981.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2022-10-03T08:14:11</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>08:14:11</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Ney Amorim é convidado a fazer parte da equipe de Gladson Cameli em 2023</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
 &lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
@@ -1531,29 +2924,34 @@
 </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/ney-amorim-e-convidado-a-fazer-parte-da-equipe-de-gladson-cameli-em-2023/</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/5EAEB311-EEF4-4BD4-8C6E-5A0DA91A8E7F.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022-10-02T21:14:15</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21:14:15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>&amp;#8220;As urnas mostraram a cada um o tamanho que realmente tem&amp;#8221;, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista coletiva concedida à imprensa na noite de domingo (2), logo após ter sido reeleito governador do Acre, Gladson Cameli (PP) agradeceu a Deus e a população pela vitória. Gladson estava acompanhado da vice, Mailza Gomes, e do candidato derrotado ao Senado pela coligação dele, Ney Amorim.&lt;/p&gt;
 &lt;p&gt;Gladson afirmou que as urnas demonstraram o tamanho que cada um realmente tem, mas frisou que as disputas acabam aqui após o resultado das urnas.&lt;/p&gt;
@@ -1563,29 +2961,34 @@
 </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/as-urnas-mostraram-a-cada-um-o-tamanho-que-realmente-tem-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-20.16.55-Copy.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2022-10-02T17:58:02</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17:58:02</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Gladson Cameli é reeleito governador do Acre com mais de 56% dos votos válidos</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div dir="auto" data-removefontsize="true" data-originalcomputedfontsize="16"&gt;Com mais de 56% dos votos válidos, o governador Gladson Cameli (PP), da coligação Avançar Para Fazer Mais, foi reeleito no primeiro turno  para governar o Acre pelos próximos 4 anos.&lt;/div&gt;
 &lt;div dir="auto" data-removefontsize="true" data-originalcomputedfontsize="16"&gt;&lt;/div&gt;
@@ -1605,29 +3008,34 @@
 </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/gladson-cameli-e-reeleito-governador-do-acre-com-mais-de-56-dos-votos-validos/</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/09/gladsonpesquisa.jpg</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-10-02T13:10:42</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13:10:42</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Gladson Cameli chegará a Rio Branco para apuração dos votos acompanhado da primeira dama</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli afirmou à reportagem da Folha do Acre que decola em instantes de Cruzeiro do Sul para Rio Branco de onde acompanhará a apuração dos votos.&lt;/p&gt;
 &lt;p&gt;A informação foi dada por Gladson às 13h e o embarque estava previsto para 40 minutos depois.&lt;/p&gt;
@@ -1637,29 +3045,71 @@
 </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/gladson-cameli-chegara-a-rio-branco-para-apuracao-dos-votos-acompanhado-da-primeira-dama/</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/13F97C8E-57FE-45BE-95B9-73A49DF9910E.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-11-28T22:52:05</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10:01:09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TRE-AC marca diplomação de Gladson Cameli e Mailza Gomes para 15 de dezembro</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61394" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png" alt="" width="717" height="449" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png 717w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-300x188.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-696x436.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-671x420.png 671w" sizes="(max-width: 717px) 100vw, 717px" /&gt;&lt;/p&gt;
+&lt;p&gt;A diplomação do governador reeleito Gladson Cameli e da vice-governadora Mailza Gomes, ambos do PP, está marcada para o dia 15 de dezembro pelo Tribunal Regional Eleitoral do Acre (TRE-AC). A cerimônia será às 10h no plenário do TRE-AC, localizado no Portal da Amazônia, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Além do governador e vice-governador, serão diplomados os candidatos eleitos para senador, deputado federal, deputado estadual e os seus suplentes.&lt;/p&gt;
+&lt;p&gt;A diplomação é o ato pelo qual a Justiça Eleitoral atesta que o candidato ou a candidata foi efetivamente eleito ou eleita pelo povo e, por isso, está apto ou apta a tomar posse no cargo.&lt;/p&gt;
+&lt;p&gt;Nessa ocasião, ocorre a entrega dos diplomas, que são assinados, conforme o caso, pelo presidente do tribunal eleitoral competente.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/tre-ac-marca-diplomacao-de-gladson-cameli-e-mailza-gomes-para-15-de-dezembro/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>22:52:05</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61150" src="http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-265x198.jpg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
 &lt;p&gt;O deputado federal e senador eleito Alan Rick (UB), participou na manhã desta segunda-feira (28), de uma reunião com membros da equipe de transição do governador Gladson Cameli (PP), reeleito em outubro deste ano. O encontro se deu na sede da Casa Civil, em Rio Branco.&lt;/p&gt;
@@ -1670,29 +3120,34 @@
 </t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli-2/</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-11-28T22:30:47</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>22:30:47</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61147" src="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-265x198.jpg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
 &lt;p&gt;O deputado federal e senador eleito Alan Rick (UB), participou na manhã desta segunda-feira (28), de uma reunião com membros da equipe de transição do governador Gladson Cameli (PP), reeleito em outubro deste ano. O encontro se deu na sede da Casa Civil, em Rio Branco.&lt;/p&gt;
@@ -1707,29 +3162,34 @@
 </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-11-22T11:47:03</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11:47:03</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-60638" src="http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg" alt="" width="1536" height="944" srcset="http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg 1536w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-300x184.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-1024x629.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-768x472.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-696x428.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-1068x656.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-683x420.jpeg 683w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-356x220.jpeg 356w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
@@ -1741,29 +3201,34 @@
 </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-11-15T10:12:45</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10:12:45</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-59990" src="http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg" alt="" width="1536" height="1085" srcset="http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg 1536w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-300x212.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-1024x723.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-768x543.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-696x492.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-1068x754.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-595x420.jpeg 595w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-100x70.jpeg 100w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
@@ -1778,29 +3243,34 @@
 </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-11-04T10:26:43</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10:26:43</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-59060" src="http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg" alt="" width="1536" height="1024" srcset="http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-1024x683.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-768x512.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-696x464.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-1068x712.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-630x420.jpg 630w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
@@ -1817,29 +3287,34 @@
 </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-10-17T15:43:07</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15:43:07</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-57157" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png" alt="" width="658" height="432" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png 658w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205-300x197.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205-640x420.png 640w" sizes="(max-width: 658px) 100vw, 658px" /&gt;&lt;/p&gt;
 &lt;p&gt;Com o objetivo de promover a integração entre os órgãos de defesa, segurança e desenvolvimento econômico e social do Acre, a Associação dos Diplomados da Escola Superior de Guerra no Acre (Adesg/AC) e Sebrae no Acre, com apoio da Escola Superior de Guerra (ESG), realizou o 2º Seminário de Integração da Defesa, Segurança e Desenvolvimento Econômico e Social no Acre, nesta segunda-feira, 17, no auditório do Sebrae.&lt;/p&gt;
@@ -1857,29 +3332,34 @@
 </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-10-17T11:01:13</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>11:01:13</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Gladson Cameli faz quase 20 nomeações e exonerações</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-57061" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png" alt="" width="695" height="461" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png 695w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1-300x199.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1-633x420.png 633w" sizes="(max-width: 695px) 100vw, 695px" /&gt;&lt;/p&gt;
 &lt;p&gt;O Governo do Estado publicou uma série de exonerações, nomeações e outras mudanças na edição do Diário Oficial do Estado (DOE) desta segunda-feira (17).&lt;/p&gt;
@@ -1915,29 +3395,34 @@
 </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes/</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-10-14T10:02:28</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>10:02:28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-56774" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png" alt="" width="702" height="458" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png 702w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-300x196.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-696x454.png 696w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-644x420.png 644w" sizes="(max-width: 702px) 100vw, 702px" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nesta quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
@@ -1955,29 +3440,34 @@
 </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2022-10-12T18:36:47</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>18:36:47</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-56645" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png" alt="" width="700" height="457" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png 700w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-300x196.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-696x454.png 696w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-643x420.png 643w" sizes="(max-width: 700px) 100vw, 700px" /&gt;&lt;/p&gt;
 &lt;p&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/p&gt;
@@ -1988,74 +3478,34 @@
 </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2022-10-07T19:22:09</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Gladson Cameli tem encontro com Bolsonaro e reafirma apoio para a reeleição do presidente</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-56147" src="http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111.jpg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111-265x198.jpg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
-&lt;blockquote&gt;
-&lt;p style="text-align: left;"&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;O governador também fez um breve relatório do desenvolvimento do Acre, dos projetos e das inúmeras obras em andamento&lt;/p&gt;
-&lt;p&gt;O governador Gladson Cameli, reeleito para um segundo mandato, participou de uma reunião na manhã desta quinta-feira, 6, com o presidente da República, Jair Bolsonaro.&lt;/p&gt;
-&lt;p&gt;Gladson esteve acompanhado da senadora Mailza Gomes, eleita vice-governadora do Acre. O governador reafirmou seu apoio à candidatura de Bolsonaro para presidente da República.&lt;/p&gt;
-&lt;p&gt;Em seu breve discurso, na presença de dezenas de parlamentares e governadores eleitos e reeleitos, Cameli fez questão de lembrar o avanço do Brasil nesses quase quatro anos de mandato, ressaltando a luta contra a covid 19, os milhares de títulos agrários entregues, beneficiando especialmente as donas de casa, e disse ainda que: “estamos conscientes do grandioso trabalho de Vossa Excelência (Jair Bolsonaro) e que o melhor ainda está por vir”.&lt;/p&gt;
-&lt;p&gt;Gladson ressaltou ao presidente Bolsonaro que o Acre deu uma resposta aos muitos anos de atraso com a administração da esquerda e que a prova desse novo posicionamento da população do Acre foram os 62% dos votos concedidos ao presidente no primeiro turno das eleições. “Vamos trabalhar agora, voto a voto, para que esse percentual cresça sobremaneira e sua reeleição seja garantida com o apoio dos acreanos”, disse Cameli.&lt;/p&gt;
-&lt;p&gt;Após o encontro geral com parlamentares e governadores, Gladson Cameli ainda se reuniu com Jair Bolsonaro para fazer um resumo da situação administrativa e tratar das principais ações a serem desenvolvidas no próximo mandato.&lt;/p&gt;
-&lt;p&gt;Cameli salientou ao presidente que uma de suas principais metas para o próximo mandato é a regularização fundiária, que já teve um avanço significativo em seu atual governo, bem como a recuperação da BR 364, ligando Rio Branco a Cruzeiro do Sul, e a BR 317, que liga Rio Branco a Assis Brasil, fronteira com o Peru.&lt;/p&gt;
-&lt;p&gt;O chefe do executivo acreano também enumerou diversas obras que estão sendo executadas, transformando o Acre em um verdadeiro canteiro de obras.&lt;/p&gt;
-&lt;p&gt;Explicando que tomaria muito tempo se enumerasse todas, citou como principais a construção das pontes de Sena Madureira e da Sibéria, o anel viário de Brasileia e Epitaciolândia, a duplicação da rodovia estadual AC-405, em Cruzeiro do Sul, e a pavimentação da nova estrada de acesso a Xapuri, que contribuem com a criação de dez mil empregos diretos e indiretos.&lt;/p&gt;
-&lt;p&gt;Bancada coesa&lt;/p&gt;
-&lt;p&gt;O dirigente acreano também ressaltou a coesão de toda a bancada de deputados federais e a eleição para o senado do deputado federal Alan Rick, como sendo da maior importância para o desenvolvimento da nação, em especial do Acre.&lt;/p&gt;
-&lt;p&gt;Participaram também da grande reunião com o presidente o deputado federal e senador eleito Alan Rick; o senador em exercício e deputado federal eleito, Dr. Eduardo Velloso; a deputada federal em exercício e eleita para o cargo, Antônia Lucia; o deputado estadual, eleito deputado federal, Roberto Duarte; o deputado federal eleito, Zezinho Barbary; o deputado federal eleito, Coronel Ulysses; e o representante do governo em Brasília, Ricardo França.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>http://yaconews.com/2022/10/gladson-cameli-tem-encontro-com-bolsonaro-e-reafirma-apoio-para-a-reeleicao-do-presidente/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/10/IMG-20221007-WA0111.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2022-11-23T06:43:48</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>06:43:48</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -2068,29 +3518,34 @@
 </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2022-10-13T08:18:30</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>08:18:30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&amp;nbsp;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/p&gt;
@@ -2102,29 +3557,34 @@
 </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2022-10-03T07:59:00</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07:59:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -2155,29 +3615,34 @@
 </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2022-09-19T13:31:56</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>13:31:56</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>Rei da soja declara apoio à candidatura de Orleilson Cameli a deputado federal</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="768" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1024x768.jpg" alt="" class="wp-image-96658" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1024x768.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-300x225.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-768x576.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1536x1152.jpg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-120x90.jpg 120w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027.jpg 1600w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -2193,29 +3658,34 @@
 </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/rei-da-soja-declara-apoio-a-candidatura-de-orleilson-cameli-a-deputado-federal/</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2022-09-19T10:01:06</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>10:01:06</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>Em debate, Jorge Viana diz que existe o Acre real, da fome, do caos na saúde pública, da corrupção e o Acre inventado por Gladson Cameli e garante criar o maior programa de obras e infraestrutura para o estado voltar a crescer</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="683" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006.jpg" alt="" class="wp-image-96627" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006-300x200.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006-768x512.jpg 768w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -2229,29 +3699,34 @@
 </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/em-debate-jorge-viana-diz-que-existe-o-acre-real-da-fome-do-caos-na-saude-publica-da-corrupcao-e-o-acre-inventado-por-gladson-cameli-e-garante-criar-o-maior-programa-de-obras-e-infraestrutura-para/</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2022-09-16T11:16:57</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>11:16:57</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>&amp;#8220;Eu vi o tamanho do meu pai quando ele morreu&amp;#8221;, diz filho de Orleir Cameli</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="622" src="https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-1024x622.jpg" alt="" class="wp-image-96578" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-1024x622.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-300x182.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-768x466.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO.jpg 1080w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -2264,29 +3739,34 @@
 </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/eu-vi-o-tamanho-do-meu-pai-quando-ele-morreu-diz-filho-de-orleir-cameli/</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2022-09-05T16:51:03</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16:51:03</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Eládio Cameli reforça time de Orleilson Cameli na candidatura a deputado federal</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="622" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-1024x622.jpg" alt="" class="wp-image-96213" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-1024x622.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-300x182.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-768x466.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059.jpg 1080w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -2297,29 +3777,34 @@
 </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/eladio-cameli-reforca-time-de-orleilson-cameli-na-candidatura-a-deputado-federal/</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2022-08-29T20:17:49</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20:17:49</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>Pesquisa Ipec no Acre: Gladson Cameli tem 51% e Jorge Viana 27%</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="1024" src="https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1024x1024.jpg" alt="" class="wp-image-95985" srcset="https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1024x1024.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-300x300.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-150x150.jpg 150w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-768x768.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1536x1536.jpg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630.jpg 1564w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -2349,29 +3834,34 @@
 </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/pesquisa-ipec-no-acre-gladson-cameli-tem-51-e-jorge-viana-27/</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2022-08-06T14:09:46</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>14:09:46</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Disputa ao governo tem Gladson Cameli, Mara Rocha, Jorge Viana e Márcio Bittar no páreo</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;br&gt;O prazo para a realização das convenções partidárias encerrou na última sexta-feira, 5. No Acre, as siglas optaram por realizar o evento e apresentar seus respectivos candidatos nas chapas majoritária e proporcional apenas no último dia.&lt;/p&gt;
@@ -2414,29 +3904,34 @@
 </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/disputa-ao-governo-tem-gladson-cameli-mara-rocha-jorge-viana-e-marcio-bittar-no-pareo/</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022-07-29T12:22:21</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>12:22:21</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>Ney Amorim pode ser o vice de Gladson Cameli&lt;br&gt;se Alan Rick for impedido</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;O ex-deputado acreano e atual presidente do Podemos no Estado, Ney Amorim, está no radar do governador Gladson Cameli (Progressistas) para integrar a chapa majoritária.&lt;/p&gt;
@@ -2448,29 +3943,34 @@
 </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/ney-amorim-pode-ser-o-vice-de-gladson-camelise-alan-rick-for-impedido/</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2022-11-30T19:25:15</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>19:25:15</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>Ex-prefeito Dêda recebe em seu gabinete assessores do governo Gladson Cameli para uma reunião voltada a governabilidade</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/attachment/ex-prefeito-deda-11/" rel="attachment wp-att-292763"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292763" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg" alt="" width="750" height="420" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11-300x168.jpg 300w" sizes="(max-width: 750px) 100vw, 750px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Na manhã desta quarta-feira (30), o ex-prefeito Dêda recebeu no seu gabinete político dois assessores do governo para uma reunião política voltada para a discussão sobre as inúmeras demandas do estado e uma possível forma em auxiliar na governabilidade.&lt;/strong&gt;&lt;/p&gt;
@@ -2480,29 +3980,34 @@
 </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2022-11-25T13:25:53</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13:25:53</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>Deputada Maria Antônia e ex-prefeito Dêda não têm medido esforços para fortalecer as relações com o secretariado do governo Gladson Cameli</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/deputada-maria-antonia-e-ex-prefeito-deda-nao-tem-medido-esforcos-para-fortalecer-as-relacoes-com-o-secretariado-do-governo-gladson-cameli/attachment/deputada-estadual-maria-antonia-e-o-ex-prefeito-deda/" rel="attachment wp-att-292560"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292560" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda.jpeg" alt="" width="1024" height="768" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-300x225.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-768x576.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-750x563.jpeg 750w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;A deputada estadual Maria Antônia e o ex-prefeito Dêda Amorim não têm medido esforços para fortalecer as relações com o secretariado do governo do estado e manter o diálogo entre os poderes. A parlamentar e seu esposo tem tratado com muito zelo as emendas parlamentares destinadas aos município do Acre.&lt;/strong&gt;&lt;/p&gt;
@@ -2518,29 +4023,34 @@
 </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica/deputada-maria-antonia-e-ex-prefeito-deda-nao-tem-medido-esforcos-para-fortalecer-as-relacoes-com-o-secretariado-do-governo-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2022-11-21T10:09:32</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10:09:32</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>Ainda não deu pitaco: Prestes a assumir o segundo mandato, governador Gladson Cameli ainda não definiu o perfil de seu novo secretariado</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica-destaque/ainda-nao-deu-pitaco-prestes-a-assumir-o-segundo-mandato-governador-gladson-cameli-ainda-nao-definiu-o-perfil-de-seu-novo-secretariado/attachment/prestes-assumir-o-segundo-mantado-governador-gladson-cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados/" rel="attachment wp-att-292367"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292367" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados.jpg" alt="" width="1065" height="710" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados.jpg 1065w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-1024x683.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-768x512.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-750x500.jpg 750w" sizes="(max-width: 1065px) 100vw, 1065px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;b&gt;Sem pressão e com tempo para avaliar o que cada secretário apresentou na gestão, o governador Gladson Cameli (Porgressista) ainda não deu pitaco sobre a nominada de seu novo secretariado para o segundo mandato no Acre.&lt;/b&gt;&lt;/p&gt;
@@ -2551,29 +4061,34 @@
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/ainda-nao-deu-pitaco-prestes-a-assumir-o-segundo-mandato-governador-gladson-cameli-ainda-nao-definiu-o-perfil-de-seu-novo-secretariado/</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2022-11-16T13:51:36</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>13:51:36</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>Ao participar de encontro com presidente Lula, Gladson Cameli dá demonstração de que a eleição acabou e agora é hora de firmar parcerias</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292168" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias.jpeg" alt="" width="1140" height="570" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias.jpeg 1140w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-300x150.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-1024x512.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-768x384.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-360x180.jpeg 360w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-750x375.jpeg 750w" sizes="(max-width: 1140px) 100vw, 1140px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Governadores da Amazônia Legal participaram de encontro com o presidente eleito &amp;#8211; Foto: Reprodução&lt;/strong&gt;&lt;/p&gt;
@@ -2587,29 +4102,34 @@
 </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/ao-participar-de-encontro-com-presidente-lula-gladson-cameli-da-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias/</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2022-11-15T11:46:21</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>11:46:21</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli abandona obra de reforma do único Ginásio de Esporte em Marechal Thaumaturgo e gera revolta nos desportistas local</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-292136" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli-.jpg" alt="" width="1002" height="561" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli-.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli--300x168.jpg 300w" sizes="(max-width: 1002px) 100vw, 1002px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Governador do Acre , Gladson Cameli &amp;#8211; Foto: Reprodução / Secom&lt;/strong&gt;&lt;/p&gt;
@@ -2624,29 +4144,34 @@
 </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/governador-gladson-cameli-abandona-obra-de-reforma-do-unico-ginasio-de-esporte-em-marechal-thaumaturgo-e-gera-revolta-nos-desportistas-local/</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2022-11-13T14:33:45</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>14:33:45</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Deputado bolsonaristas eleito, Coronel Ulysses, é investigado por contrato suspeito de mais de 27 milhões com governo de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter wp-image-292026" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro.jpg" alt="" width="1120" height="627" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro-300x168.jpg 300w" sizes="(max-width: 1120px) 100vw, 1120px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Deputado bolsonaristas é investigado por contrato suspeito de 27 milhões com governo do Acre &amp;#8211; Foto: Reprodução / Google&lt;/strong&gt;&lt;/p&gt;
@@ -2662,29 +4187,34 @@
 </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/deputado-bolsonaristas-eleito-coronel-ulysses-e-investigado-por-contrato-suspeito-de-mais-de-27-milhoes-com-governo-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2022-11-09T09:38:59</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>09:38:59</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>Sem pressão depois de uma vitória, Governador Gladson Cameli terá liberdade de sobra para escolher o secretariado do seu novo governo</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-291902" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo.jpg" alt="" width="1266" height="845" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo.jpg 800w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-768x513.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-750x501.jpg 750w" sizes="(max-width: 1266px) 100vw, 1266px" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Quando o TRE havia contabilizado 97,93% das urnas apuradas, o atual governador do Acre, Gladson Cameli (PP), era anunciado reeleito para o cargo. Ele recebeu 235.705 votos (56,64% dos votos válidos), contra 24,29% de Jorge Viana (PT). diferente de 2018, quando ganhou rodeado de uma penca de grandes partidos e lideranças famintas por espaços de poder, Agora o governador usará os dois meses que lhe restam do primeiro mandato, para planejar e fazer um time do seu jeito e com a sua governabilidade.&lt;/strong&gt;&lt;/p&gt;
@@ -2694,29 +4224,34 @@
 </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/sem-pressao-depois-de-uma-vitoria-governador-gladson-cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo/</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2022-10-29T18:34:38</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-10-29</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>18:34:38</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>No governo Gladson Cameli, alunos da escola Valéria Bispo Sabala do ramal do 18 estão há 10 dias sem estudar por falta de transporte</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-291545" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre.jpg" alt="" width="800" height="475" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre.jpg 800w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-300x178.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-768x456.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-750x445.jpg 750w" sizes="(max-width: 800px) 100vw, 800px" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;No governo Gladson Cameli alunos da escola Valério Bispo Sabala do ramal do 18 estão a oito dia sem estudar por falta de transporte &lt;/strong&gt;&lt;/p&gt;
@@ -2728,29 +4263,34 @@
 </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/no-governo-gladson-cameli-alunos-da-escola-valeria-bispo-sabala-do-ramal-do-18-estao-ha-10-dias-sem-estudar-por-falta-de-transporte/</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2022-10-24T20:23:00</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20:23:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>Após Gladson transformar o estado em um cabide de emprego, justiça determina que Cameli convoque os aprovados no concurso do Corpo de Bombeiros</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-291386" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque.jpeg" alt="" width="1280" height="853" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque.jpeg 1280w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-300x200.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-1024x682.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-768x512.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-750x500.jpeg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;O concurso tem validade de dois anos, podendo ser prorrogado por igual período. Durante o curso, cada aluno soldado combatente receberá, mensalmente, R$ 4.344,22 &amp;#8211; Foto: Marcos Vicentti / Secom&lt;/strong&gt;&lt;/p&gt;
@@ -2773,29 +4313,34 @@
 </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/apos-gladson-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-cameli-convoque-os-aprovados-no-concurso-do-corpo-de-bombeiros/</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2022-10-22T12:37:35</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12:37:35</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>A esperança da população de Rodrigues Alves em ter sua tão sonhada Ponte, vai depender da vitória de Lula, Gladson Cameli e Bolsonaro passaram 4 anos enganando os rodriguesalvenses</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-291247" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro.jpg" alt="" width="954" height="534" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro-300x168.jpg 300w" sizes="(max-width: 954px) 100vw, 954px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;b&gt;Governador Gladson Cameli, ex-presidente Luiz Inácio Lula da Silva e Jair Bolsonaro &amp;#8211; Foto: Reprodução Marcelo Camargo /Agência Brasil / Time.com&lt;/b&gt;&lt;/p&gt;
@@ -2812,29 +4357,34 @@
 </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/a-esperanca-da-populacao-de-rodrigues-alves-em-ter-sua-tao-sonhada-ponte-vai-depender-da-vitoria-de-lula-gladson-cameli-e-bolsonaro-passaram-4-anos-enganando-os-rodriguesalvenses/</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2022-11-30T18:49:32</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>18:49:32</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Tchê gaba programa “CNH Social” do Governo Gladson Cameli</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em pronunciamento na sessão desta terça-feira (29), na Assembleia Legislativa do Acre (Aleac), o deputado Luis Tchê (PDT), destacou a importância da CNH Social, um Programa Popular de Formação, Qualificação e Habilitação Profissional de Condutores de Veículos Automotores, por meio da Secretaria de Justiça e Segurança Pública, através do Departamento Estadual de Trânsito do Acre (Detran-AC).&lt;/p&gt;
 &lt;p&gt;Ainda segundo o parlamentar, a CNH Social é o maior programa de inclusão do governo Gladson Cameli. “Fico muito feliz ao saber que uma ideia que surgiu aqui, nesta tribuna, através de uma indicação minha, tem dado certo e tem beneficiado pessoas carentes de todos os 22 municípios do Acre. Agradeço, ainda, ao Detran por ter construído essa ideia junto com a gente desde o início”, disse.&lt;/p&gt;
@@ -2844,29 +4394,34 @@
 </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/tche-gaba-programa-cnh-social-do-governo-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Tche-1.webp?fit=1280%2C719&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2022-11-22T10:09:49</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10:09:49</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>Cameli discute mudanças administrativas do próximo mandato com equipe de transição</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
 &lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças. “Apresentamos ao governador o produto da reforma administrativa, vamos apresentar esse material à base da Assembleia Legislativa do Acre e posteriormente divulgar as resoluções”, disse.&lt;/p&gt;
@@ -2877,34 +4432,39 @@
 </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/cameli-discute-mudancas-administrativas-do-proximo-mandato-com-equipe-de-transicao/</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Gladson-transicao-22-23.webp?fit=1280%2C750&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2022-11-15T07:50:53</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>07:50:53</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>COP27: Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
 &lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
 &lt;p&gt;Os investidores Daniel Kandy, diretor de Paisagem Sustentável dos Estados Unidos, Evan Norman da Agência dos Estados Unidos para o Desenvolvimento Internacional (Usaid) e Shira Yoffe, assessora sênior do Serviço Florestal dos Estados Unidos, fizeram uma apresentação dos projetos que ajudam a desenvolver ao redor do mundo e disseram que têm muito a contribuir com o Brasil e sobretudo com o Acre.&lt;/p&gt;
-&lt;figure id="attachment_581970" class="wp-caption aligncenter" aria-describedby="caption-attachment-581970"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg"&gt;&lt;img decoding="async" class="wp-image-581970 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1536x1024.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg 1920w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1536x1024.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581970" class="wp-caption-text"&gt;Conservação da natureza e combate às queimadas ilegais foram o foco da reunião. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;figure id="attachment_581970" class="wp-caption aligncenter" aria-describedby="caption-attachment-581970"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581970 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1536x1024.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg 1920w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4-1536x1024.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581970" class="wp-caption-text"&gt;Conservação da natureza e combate às queimadas ilegais foram o foco da reunião. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;Para o governador Gladson Cameli, a aproximação entre USA e estados amazônicos visa potencializar objetivos comuns. Cameli disse que precisa de apoio para ampliar as ações de combate e monitoramento às queimadas.&lt;/p&gt;
 &lt;p&gt;“&lt;strong&gt;Nós já trabalhamos para colocar sempre as pessoas em primeiro lugar. Então esses objetivos se encaixam em nossos projetos de governo. Nessa reunião, o Acre abre um novo trilho de investimento e cooperação para políticas de desenvolvimento com conservação natural. Estamos dispostos a encontrar soluções para nossos problemas. Por isso, não poderíamos deixar de pedir apoio tecnológico para ampliação dos serviços que já executamos no combate as queimadas ilegais&lt;/strong&gt;”, pontuou Cameli.&lt;/p&gt;
 &lt;p&gt;O diretor de Paisagem nos Estados Unidos, Daniel Kandt, disse que se inicia agora uma nova fase dessa parceria com o Brasil. “&lt;strong&gt;Estamos aqui porque temos uma história de conservação. O governo do Estados Unidos está disposto a colaborar em todos os níveis de governo. Estamos aqui para ouvir quais as prioridades e quais os desafios para que os estados que compõem a Amazônia Legal possam ter mais desempenho nos combates aos ilícitos ambientais&lt;/strong&gt;”, enfatizou.&lt;/p&gt;
@@ -2912,29 +4472,34 @@
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/cop27-governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/01-13.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2022-11-14T13:30:00</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>Na COP27, Cameli afirma que gerar emprego e renda com sustentabilidade é o principal objetivo para os próximos anos</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (Progressistas) que participa da 24º Conferência das Nações Unidas sobre Mudanças Climáticas, a COP 27, em Sharm El Sheikhh, no Egito, afirmou em entrevista à imprensa nacional e internacional, que gerar emprego e renda com sustentabilidade na região amazônica é o principal objetivo para os próximos anos.&lt;/p&gt;
 &lt;p&gt;O objetivo foi anunciado pelo próprio Cameli nesta segunda-feira 14, após o debate sobre o financiamento climático e o papel da cooperação internacional para o desenvolvimento de baixas emissões, com os governadores que compõem o Consórcio da Amazônia Legal.&lt;/p&gt;
@@ -2943,29 +4508,34 @@
 </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/na-cop27-cameli-afirma-que-gerar-emprego-e-renda-com-sustentabilidade-e-o-principal-objetivo-para-os-proximos-anos/</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Gladson.webp?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2022-11-14T09:45:22</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>09:45:22</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli deve se encontrar com Lula durante a COP 27, no Egito</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, em missão no Egito, onde participa da COP 27, a mais importante Conferência do Clima no mundo, deverá se encontrar com presidente eleito Luiz Inácio Lula da Silva durante o evento.&lt;/p&gt;
 &lt;p&gt;O presidente é  talvez a figura mais aguardada do evento, isso porque nas últimas conferências, Bolsonaro tratou com desprezo o debate sobre as questões climáticas e frustrou líderes mundiais e instituições de todo planeta. Mesmo sem assumir ainda o posto de presidente, Lula virou convidado formal dos organizadores, que esperam um discurso apaziguador do petista, se tratando das políticas públicas de controle do desmatamento e do aquecimento global.&lt;/p&gt;
@@ -2974,29 +4544,34 @@
 </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-deve-se-encontrar-com-lula-durante-a-cop-27-no-egito/</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-03-29-at-13.27.50.webp?fit=1280%2C852&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2022-11-11T09:33:02</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>09:33:02</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Mailza Gomes integra Comissão de Transição do Governo Cameli</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A senadora e vice-governadora eleita, Mailza Assis da Silva, passa a integrar a Comissão de Transição do Governo do Acre. Sua nomeação foi publicada no &lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/DO16681424863306-1.pdf" target="_blank" rel="noreferrer noopener"&gt;Diário Oficial desta sexta-feira, 11&lt;/a&gt;.&lt;/p&gt;
 &lt;p&gt;A comissão foi instituída no dia 27 de outubro. A equipe coordenada pelo secretário da Casa Civil, Jonathan Donadoni, conta agora com 9 membros.&lt;/p&gt;
@@ -3007,29 +4582,34 @@
 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/mailza-gomes-integra-comissao-de-transicao-do-governo-cameli/</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/9DBEA9E1-49E5-4BBE-9DC9-12FE1D79C01D-855x572-1.webp?fit=1280%2C726&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2022-11-10T09:56:27</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>09:56:27</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>Sobre encontro com Lula: “Estou preparado para ir como Gladson Cameli, governador de todos os acreanos”</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista ao Metrópoles, o governador reeleito do Acre, Gladson Cameli (PP), criticou as manifestações registradas nos últimos dias que impediram a circulação de carros em estradas de todo país. Desde o dia 30 de outubro, apoiadores do presidente Jair Bolsonaro (PL) foram às ruas para protestar contra a vitória de Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
 &lt;p&gt;Cameli, que é aliado de Bolsonaro, requisitou a ação das forças de segurança do estado para impedir os bloqueios das rodovias BR-364 e BR-367, sob risco de impacto no abastecimento do estado.&lt;/p&gt;
@@ -3040,44 +4620,49 @@
 </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/sobre-encontro-com-lula-estou-preparado-para-ir-como-gladson-cameli-governador-de-todos-os-acreanos/</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-scaled-2.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2022-11-04T19:49:20</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>19:49:20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de secretários e presidentes de autarquias para estabelecer metas do novo governo</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli esteve no auditório da Secretaria de Planejamento e Gestão (Seplag) com todos os seus gestores para agradecer a equipe e projetar os próximos 100 dias do seu novo governo. O encontro coordenado pelo titular da Seplag, Ricardo Brandão, foi realizado nesta sexta, dia 4.&lt;/p&gt;
 &lt;figure id="attachment_336414" aria-describedby="caption-attachment-336414" style="width: 2048px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="336414" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/reuniao-com-secretarios-11/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=2048%2C1366&amp;amp;ssl=1" data-orig-size="2048,1366" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Reuniao-com-Secretarios-11" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Governador falou das prioridades do governo. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" class="wp-image-336414 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?w=2048&amp;amp;ssl=1 2048w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1024%2C683&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1536%2C1025&amp;amp;ssl=1 1536w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=696%2C464&amp;amp;ssl=1 696w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1068%2C712&amp;amp;ssl=1 1068w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1920%2C1281&amp;amp;ssl=1 1920w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?w=1392&amp;amp;ssl=1 1392w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336414" class="wp-caption-text"&gt;Governador falou das prioridades do governo. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-336414 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?w=2048&amp;amp;ssl=1 2048w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1024%2C683&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1536%2C1025&amp;amp;ssl=1 1536w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=696%2C464&amp;amp;ssl=1 696w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1068%2C712&amp;amp;ssl=1 1068w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?resize=1920%2C1281&amp;amp;ssl=1 1920w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?w=1392&amp;amp;ssl=1 1392w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336414" class="wp-caption-text"&gt;Governador falou das prioridades do governo. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;Foi apresentado o Plano de Desenvolvimento Sustentável – Agenda Acre 10 anos. Uma pesquisa dos aspectos econômicos e sociais do estado na última década e as perspectivas para a otimização das potencialidades para incremento da economia acreana para os próximos anos, com um foco especial nos primeiros 100 dias do novo governo que se inicia em 2023.&lt;/p&gt;
 &lt;p&gt;O governador destacou ainda que a geração de empregos e oportunidades para a população do estado devem ser prioridades.&lt;/p&gt;
 &lt;p&gt;“Tivemos uma caminhada de muito aprendizado nesses quatro anos. Não devemos subestimar o povo que sabe de tudo que acontece. Precisamos cuidar desse diamante que é o nosso estado. Sou um servidor público com data marcada para sair e governar é a ciência do aprendizado com o poder de fazer aquilo que a gente precisa para ajudar a população. Por isso quero agradecer a cada um dos nossos gestores”, disse ele.&lt;/p&gt;
 &lt;p&gt;Gladson refletiu que o governo precisa decidir por uma direção e cumprir as metas estabelecidas.&lt;/p&gt;
 &lt;figure id="attachment_336418" aria-describedby="caption-attachment-336418" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="336418" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/reuniao-com-secretarios-06-1024x683/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?fit=1024%2C683&amp;amp;ssl=1" data-orig-size="1024,683" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Reuniao-com-Secretarios-06-1024&amp;#215;683" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Secretários de Estado e presidentes de autarquias participaram do encontro. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" class="wp-image-336418 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336418" class="wp-caption-text"&gt;Secretários de Estado e presidentes de autarquias participaram do encontro. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-336418 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-06-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336418" class="wp-caption-text"&gt;Secretários de Estado e presidentes de autarquias participaram do encontro. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;“Vamos nos dedicar ainda mais à regularização fundiária, concluir obras e gerar empregos para as pessoas”, afirmou o governador à sua equipe”, afirmou o governador à sua equipe.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Desenvolvimento econômico e humano&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Ricardo Brandão salientou para os secretários e presidentes de autarquias que o Plano de Desenvolvimento Sustentável do Acre contempla os aspectos econômicos, ambientais e sociais.&lt;/p&gt;
 &lt;figure id="attachment_336419" aria-describedby="caption-attachment-336419" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="336419" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/reuniao-com-secretarios-07-1024x683/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?fit=1024%2C683&amp;amp;ssl=1" data-orig-size="1024,683" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Reuniao-com-Secretarios-07-1024&amp;#215;683" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Secretário pontuou o conjunto de metas para a próxima gestão. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" class="wp-image-336419 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336419" class="wp-caption-text"&gt;Secretário pontuou o conjunto de metas para a próxima gestão. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-336419 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-07-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-336419" class="wp-caption-text"&gt;Secretário pontuou o conjunto de metas para a próxima gestão. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;“A partir do ajuste fiscal que realizamos no atual governo poderemos abrir novos caminhos para o próximo. Olhamos o que foi o Acre nos últimos anos. Isso permitiu a percepção de uma análise socioeconômica visando o futuro. Ouvimos a sociedade como um todo e verificamos as potencialidades e os bloqueios. Além de buscarmos experiências nacionais e internacionais para aplicar no Acre”, explicou o gestor da Seplag.&lt;/p&gt;
 &lt;p&gt;Ele explicou ainda como foram desenhadas as potencialidades do Acre e os principais objetivos a serem alcançados.&lt;/p&gt;
 &lt;p&gt;“Projetamos um desenvolvimento sustentável com o uso das nossas potencialidades naturais de maneira racional com a geração de empregos e renda para a população. Desejamos ser uma referência em desenvolvimento humano na região Norte com um sistema de monitoramento e governança”, finalizou.&lt;/p&gt;
@@ -3088,41 +4673,46 @@
 </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-08-1024x683-1.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2022-11-04T16:35:09</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16:35:09</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;p&gt;Nesta quinta-feira, 3, o governador Gladson Cameli recebeu a magistrada, no Palácio Rio Branco, na capital. A visita institucional contou com a participação do delegado-geral da Polícia Civil, Henrique Maciel, do diretor do Departamento de Inteligência da Polícia Civil, Nilton Boscaro, e da secretária adjunta de Justiça e Segurança Pública, Márdhia El-Shawwa.&lt;/p&gt;
 &lt;p&gt;Cameli citou que um dos grandes desafios enfrentados em sua gestão foi o enfrentamento à violência. Com muito empenho e investimentos na segurança pública, o Acre conseguiu avançar muito nos últimos anos, principalmente, na redução da criminalidade.&lt;/p&gt;
 &lt;div id="attachment_282263" class="wp-caption aligncenter"&gt;&lt;img data-attachment-id="282263" data-permalink="https://ecosdanoticia.net.br/2022/05/uniao-europeia-concorda-em-banir-importacao-do-petroleo-russo/14-32/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/05/14-22.jpg?fit=850%2C500&amp;amp;ssl=1" data-orig-size="850,500" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="14" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Foto: Fornecida por RedeTV!&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/05/14-22.jpg?fit=300%2C176&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/05/14-22.jpg?fit=696%2C409&amp;amp;ssl=1" decoding="async" class="size-full wp-image-282263" src="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=740%2C436&amp;amp;ssl=1" sizes="(max-width: 740px) 100vw, 740px" srcset="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=300%2C177&amp;amp;ssl=1 300w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=660%2C389&amp;amp;ssl=1 660w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=768%2C453&amp;amp;ssl=1 768w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=1536%2C905&amp;amp;ssl=1 1536w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?w=1480&amp;amp;ssl=1 1480w" alt="" width="740" height="436" aria-describedby="caption-attachment-282263" /&gt;&lt;/p&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/05/14-22.jpg?fit=300%2C176&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/05/14-22.jpg?fit=696%2C409&amp;amp;ssl=1" decoding="async" loading="lazy" class="size-full wp-image-282263" src="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=740%2C436&amp;amp;ssl=1" sizes="(max-width: 740px) 100vw, 740px" srcset="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=300%2C177&amp;amp;ssl=1 300w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=660%2C389&amp;amp;ssl=1 660w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=768%2C453&amp;amp;ssl=1 768w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?resize=1536%2C905&amp;amp;ssl=1 1536w, https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8688-1.jpg?w=1480&amp;amp;ssl=1 1480w" alt="" width="740" height="436" aria-describedby="caption-attachment-282263" /&gt;&lt;/p&gt;
 &lt;p id="caption-attachment-282263" class="wp-caption-text"&gt;Cameli destacou investimentos realizados em sua gestão para combater a criminalidade. Foto: Neto Lucena/Secom&lt;/p&gt;
 &lt;/div&gt;
 &lt;p&gt;“A grande pauta de 2018 foi a segurança pública. Naquela época, o Acre era o estado mais violento do país. Trabalhamos muito, contratamos mais policiais, adquirimos viaturas e equipamentos e criamos o Gefron. Hoje, os números são outros. Mesmo assim, estamos investindo em tecnologia, para que as nossas forças policiais sigam protegendo as nossas famílias”, afirmou.&lt;/p&gt;
 &lt;p&gt;A carreira de Ivana David é marcada pela forte atuação contra o crime organizado e narcotráfico. A magistrada destacou a relevância de uma boa investigação policial, sobretudo na produção de provas.&lt;/p&gt;
 &lt;p&gt;“É muito importante que as polícias Civil e Militar tenham uma expertise na colheita de provas, para que o Poder Judiciário possa dar uma resposta ao Estado e à sociedade”, argumentou.&lt;/p&gt;
-&lt;div id="attachment_282265" class="wp-caption aligncenter"&gt;&lt;img decoding="async" class="size-full wp-image-282265" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=740%2C493&amp;amp;ssl=1" sizes="(max-width: 740px) 100vw, 740px" srcset="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?w=2048&amp;amp;ssl=1 2048w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?w=1480&amp;amp;ssl=1 1480w" alt="" width="740" height="493" aria-describedby="caption-attachment-282265" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;div id="attachment_282265" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="size-full wp-image-282265" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=740%2C493&amp;amp;ssl=1" sizes="(max-width: 740px) 100vw, 740px" srcset="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?w=2048&amp;amp;ssl=1 2048w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w, https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/11/img_8690-scaled-1.jpg?w=1480&amp;amp;ssl=1 1480w" alt="" width="740" height="493" aria-describedby="caption-attachment-282265" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p id="caption-attachment-282265" class="wp-caption-text"&gt;Desembargadora Ivana David tem carreira marcada pela forte atuação contra o crime organizado e narcotráfico. Foto: Neto Lucena/Secom&lt;/p&gt;
 &lt;/div&gt;
 &lt;p&gt;A palestra da desembargadora paulista será realizada nesta sexta-feira, 4, no anfiteatro da Universidade Federal do Acre (Ufac), em Rio Branco. O evento faz parte do encerramento do Curso de Formação Policial 2022 e é aberto ao público.&lt;/p&gt;
@@ -3131,69 +4721,79 @@
 </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil-2/</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-scaled-1.webp?fit=768%2C512&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2022-11-03T20:42:21</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20:42:21</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;figure id="attachment_335986" aria-describedby="caption-attachment-335986" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="335986" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/img_8688-1-1024x604/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=1024%2C604&amp;amp;ssl=1" data-orig-size="1024,604" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="img_8688-1-1024&amp;#215;604" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=300%2C177&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=696%2C411&amp;amp;ssl=1" decoding="async" class="wp-image-335986 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=696%2C411&amp;#038;ssl=1" alt="" width="696" height="411" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=300%2C177&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=768%2C453&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=150%2C88&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=696%2C411&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-335986" class="wp-caption-text"&gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=300%2C177&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=696%2C411&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-335986 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=696%2C411&amp;#038;ssl=1" alt="" width="696" height="411" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=300%2C177&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=768%2C453&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=150%2C88&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?resize=696%2C411&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-335986" class="wp-caption-text"&gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;Nesta quinta-feira, 3, o governador Gladson Cameli recebeu a magistrada, no Palácio Rio Branco, na capital. A visita institucional contou com a participação do delegado-geral da Polícia Civil, Henrique Maciel, do diretor do Departamento de Inteligência da Polícia Civil, Nilton Boscaro, e da secretária adjunta de Justiça e Segurança Pública, Márdhia El-Shawwa.&lt;/p&gt;
 &lt;p&gt;Cameli citou que um dos grandes desafios enfrentados em sua gestão foi o enfrentamento à violência. Com muito empenho e investimentos na segurança pública, o Acre conseguiu avançar muito nos últimos anos, principalmente, na redução da criminalidade.&lt;/p&gt;
 &lt;p&gt;“A grande pauta de 2018 foi a segurança pública. Naquela época, o Acre era o estado mais violento do país. Trabalhamos muito, contratamos mais policiais, adquirimos viaturas e equipamentos e criamos o Gefron. Hoje, os números são outros. Mesmo assim, estamos investindo em tecnologia, para que as nossas forças policiais sigam protegendo as nossas famílias”, afirmou.&lt;/p&gt;
 &lt;p&gt;A carreira de Ivana David é marcada pela forte atuação contra o crime organizado e narcotráfico. A magistrada destacou a relevância de uma boa investigação policial, sobretudo na produção de provas.&lt;/p&gt;
 &lt;p&gt;“É muito importante que as polícias Civil e Militar tenham uma expertise na colheita de provas, para que o Poder Judiciário possa dar uma resposta ao Estado e à sociedade”, argumentou.&lt;/p&gt;
 &lt;figure id="attachment_335988" aria-describedby="caption-attachment-335988" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="335988" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/img_8690-1024x683/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?fit=1024%2C683&amp;amp;ssl=1" data-orig-size="1024,683" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="img_8690-1024&amp;#215;683" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Desembargadora Ivana David tem carreira marcada pela forte atuação contra o crime organizado e narcotráfico. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
-" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" class="wp-image-335988 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-335988" class="wp-caption-text"&gt;Desembargadora Ivana David tem carreira marcada pela forte atuação contra o crime organizado e narcotráfico. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?fit=696%2C464&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-335988 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=696%2C464&amp;#038;ssl=1" alt="" width="696" height="464" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8690-1024x683-1.jpg?resize=696%2C464&amp;amp;ssl=1 696w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-335988" class="wp-caption-text"&gt;Desembargadora Ivana David tem carreira marcada pela forte atuação contra o crime organizado e narcotráfico. Foto: Neto Lucena/Secom&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;A palestra da desembargadora paulista será realizada nesta sexta-feira, 4, no anfiteatro da Universidade Federal do Acre (Ufac), em Rio Branco. O evento faz parte do encerramento do Curso de Formação Policial 2022 e é aberto ao público.&lt;/p&gt;
 &lt;p&gt;“Esta será uma excelente oportunidade para que os nossos alunos possam adquirir mais conhecimento com a experiência da magistrada e colocar em prática quando estiverem nas ruas”, pontuou o delegado-geral, Henrique Maciel.&lt;/p&gt;
 &lt;p&gt;Fonte: Agência do Acre&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-1024x683-1.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2022-11-22T09:59:35</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>09:59:35</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
 &lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças.&lt;/p&gt;
@@ -3204,29 +4804,34 @@
 </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/politica/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2022-11-16T09:03:59</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>09:03:59</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Na COP 27, Gladson Cameli entrega carta da Amazônia a Lula e destaca sustentabilidade e valorização humana</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em encontro na 27ª Conferência das Mudanças Climáticas das Nações Unidas (COP27), em Sharm El-Sheikh, Egito, no estande que compõe o Consórcio de Governadores da Amazônia Legal, nesta quarta-feira, 16, durante a entrega da Carta da Amazônia, o governador Gladson Cameli reforçou ao presidente da República eleito, Luiz Inácio Lula da Silva (PT), o compromisso de que o governo federal deve continuar tendo com todos os moradores da região amazônica.&lt;/p&gt;
 &lt;p&gt;Cameli enfatizou que é preciso que os diversos agentes que participam da COP27 e que buscam soluções para o problema das alterações climáticas do planeta tenham em mente que a preservação da biodiversidade amazônica passa pela valorização humana.&lt;/p&gt;
@@ -3239,29 +4844,34 @@
 </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/658567/</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/cop-27.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2022-11-15T09:16:53</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>09:16:53</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Gladson Cameli se reúne com representantes do governo americano e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nessa segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
 &lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
@@ -3272,29 +4882,34 @@
 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/gladson-cameli-se-reune-com-representantes-do-governo-americano-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/gladson.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2022-11-01T09:20:41</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>09:20:41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>&amp;#8220;Diminuir o desemprego&amp;#8221;, diz Gladson Cameli sobre o que acredita ser seu maior desafio para o segundo mandato</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador reeleito do Acre, Gladson Cameli, concedeu entrevista na noite de segunda-feira, 31, ao Programa Headline News, na TV Jovem Pan, apresentado por Livia Zanolini e comentários de Fabiana Barroso. Na ocasião, o chefe do Executivo falou sobre os próximos desafios em sua gestão, e do resultado do segundo turno, que elegeu Luiz Inácio Lula da Silva como novo presidente do Brasil.&lt;/p&gt;
 &lt;p&gt;&amp;#8220;Em 2018 a grande pauta era a Segurança Pública. Avançamos muito, principalmente em cuidar das nossas fronteiras, de diminuir o número de mortes em nosso Estado. Agora, o grande desafio que tenho pela frente é de diminuir o alto índice de desemprego no Acre. Preciso gerar emprego e renda para que a população possa realmente ter oportunidades de trabalho&amp;#8221;, destacou Cameli.&lt;/p&gt;
@@ -3307,29 +4922,34 @@
 </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/diminuir-o-desemprego-diz-gladson-cameli-sobre-o-que-acredita-ser-seu-maior-desafio-para-o-segundo-mandato/</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/gladson.jpg</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2022-10-30T18:10:35</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>18:10:35</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>Após vitória de Lula, Gladson Cameli emite nota e diz que está pronto para trabalhar em &amp;#8216;harmonia&amp;#8217;</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Após a vitória de Luiz Inácio Lula da Silva (PT), neste domingo, 30, o governador Gladson Cameli, que foi reeleito no primeiro turno das eleições, parabenizou aos envolvidos em todo o processo eleitoral, e afirmou estar pronto para trabalhar em harmonia com o governo federal a partir do ano que vem.&lt;/p&gt;
 &lt;p&gt;O governador disse que deve ser respeitada a vontade popular, que&lt;a href="https://agazetadoacre.com/2022/10/noticias/lula-e-eleito-presidente-do-brasil-apos-segundo-turno-acirrado-contra-bolsonaro/"&gt; elegeu Lula com 50,85% dos votos,&lt;/a&gt; com dados atualizados às 18h07, horário do Acre.&lt;/p&gt;
@@ -3345,29 +4965,34 @@
 </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/apos-vitoria-de-lula-gladson-cameli-emite-nota-e-diz-que-esta-pronto-para-trabalhar-em-harmonia/</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/gladsoncameli.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2022-10-30T11:57:41</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>11:57:41</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli vota em Cruzeiro do Sul: &amp;#8216;Bolsonaro é a melhor opção para o Acre e o Brasil&amp;#8217;</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador reeleito Gladson Cameli (PP) votou, na manhã deste domingo, 30, na escola Governador Hugo Carneiro, em Cruzeiro do Sul, sua cidade natal. Vitorioso no primeiro turno das eleições, Gladson chegou acompanhado de assessores e entrou no colégio com a pequena Ágata, menina cruzeirense que lhe esperou na porta da instituição. Ele votou depois das 11 horas.&lt;/p&gt;
 &lt;p&gt;Cameli que faz campanha para o presidente Jair Bolsonaro, se mostra otimista neste segundo turno.&lt;/p&gt;
@@ -3419,29 +5044,34 @@
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/politica/governador-gladson-cameli-vota-em-cruzeiro-do-sul-bolsonaro-e-a-melhor-opcao-para-o-acre-e-o-brasil/</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.27.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2022-10-30T10:00:23</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>10:00:23</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>Gladson Cameli viaja para Cruzeiro do Sul, onde vota, e manda recado: ‘vamos cumprir nossa obrigação’</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="jeg_video_container jeg_video_content"&gt;&lt;iframe loading="lazy" title="Gladson Cameli deixou recado para os eleitores" width="500" height="281" src="https://www.youtube.com/embed/Mathuz5vUIQ?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
 &lt;p&gt;O governador do Acre, Gladson Cameli, se deslocou para Cruzeiro do Sul, no interior estado, sua cidade natal, onde vota, na manhã deste domingo, 30. Ao sair de casa, ele usou o Instagram, onde deixou um recado para os eleitores, para que não deixem de votar.&lt;/p&gt;
@@ -3452,29 +5082,34 @@
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-viaja-para-cruzeiro-do-sul-onde-vota-e-manda-recado-vamos-cumprir-nossa-obrigacao/</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/07/gladson-cameli.jpg.617x429_q85_crop.webp</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2022-10-27T10:09:54</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10:09:54</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Gladson Cameli cria comissão de transição do governo e nomeia equipe responsável</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli publicou um decreto, no Diário Oficial do Estado (DOE), desta quinta-feira, 27, no qual institui a Comissão de que será responsável pela transição de legislatura e fez a nomeação dos membros que vão integrá-la.&lt;/p&gt;
 &lt;p&gt;O documento diz que a comissão será responsável pela transição de legislatura e pela implantação de processo de revisão das estruturas administrativas do Poder Executivo, e tem como objetivo fortalecer a capacidade institucional da administração pública estadual.&lt;/p&gt;
@@ -3503,29 +5138,34 @@
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-cria-comissao-de-transicao-do-governo-e-nomeia-equipe-responsavel/</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/cameli1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2022-10-14T08:53:17</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:53:17</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Em evento internacional, Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nessa quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
 &lt;p&gt;Acompanhado da titular da Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), Paola Daniel, o governador acompanhou o lançamento do Projeto Aliança Empresarial pela Amazônia, em evento que contou com a presença do presidente do Peru, Pedro Castillo.&lt;/p&gt;
@@ -3542,29 +5182,34 @@
 </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/em-evento-internacional-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/cameli1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2022-10-13T09:48:31</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>09:48:31</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&lt;span class="Apple-converted-space"&gt; &lt;/span&gt;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/span&gt;&lt;/p&gt;
@@ -3574,29 +5219,34 @@
 </t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/geral/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/gladsoncameli.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2022-10-27T12:42:36</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>12:42:36</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>Gladson Cameli cria comissão de transição governamental do AC e nomeia integrantes</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="chunk-fk8g7"&gt;
 &lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="39" data-block-id="3"&gt;
@@ -3670,29 +5320,34 @@
 </t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-cria-comissao-de-transicao-governamental-do-ac-e-nomeia-integrantes/</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/10/gladsontv.webp?fit=984%2C569&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2022-10-03T10:44:29</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10:44:29</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="3"&gt;
 &lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;G&lt;/span&gt;ladson Cameli, do PP, foi reeleito neste domingo (7) governador do Acre para os próximos quatro anos. Ele toma posse em 1º de janeiro de 2023, e terá como vice a senadora Mailza Gomes (PP).&lt;/p&gt;
@@ -3806,29 +5461,34 @@
 </t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203053.webp?fit=984%2C1226&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2022-09-19T23:46:00</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23:46:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>Pesquisa Ipec no Acre: Gladson Cameli tem 54% e Jorge Viana 25%</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="41" data-block-id="3"&gt;
 &lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;P&lt;/span&gt;esquisa do Ipec divulgada nesta segunda-feira (19) pela Rede Amazônica Acre revela os índices de intenção de voto para o cargo de governador do Acre. O candidato do Progressistas, Gladson Cameli, lidera a disputa com 54% das intenções de voto.&lt;/p&gt;
@@ -3939,29 +5599,34 @@
 </t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/pesquisa-ipec-no-acre-gladson-cameli-tem-54-e-jorge-viana-25/</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/09/gladson-e-jorge.webp?fit=984%2C984&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2022-08-09T11:12:18</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>11:12:18</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>Governador do Acre, Gladson Cameli, registra sua candidatura para tentar reeleição</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles active-capital-letter" data-block-type="unstyled" data-block-weight="45" data-block-id="2"&gt;
 &lt;p class="content-text__container theme-color-primary-first-letter" data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; governador do Acre, Gladson Cameli, do Progressistas, é candidato à reeleição e registrou sua candidatura no Tribunal Regional Eleitoral (TRE). Ele tem como vice a senadora Mailza Gomes, de 45 anos. Já ao senado, quem concorre ao cargo pelo partido é Ney Amorim.&lt;/p&gt;
@@ -4019,29 +5684,34 @@
 </t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/governador-do-acre-gladson-cameli-registra-sua-candidatura-para-tentar-reeleicao/</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/03/GLADSON-2-EXPLICA.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2022-01-20T12:49:30</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>12:49:30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>Novo secretário de Gladson Cameli participou dos governos do PT e foi preso na operação G7</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 18pt;"&gt;&lt;strong&gt;&lt;em&gt;&lt;span style="font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;Novo secretário nomeado por Gladson foi um dos envolvidos na operação G7 e sua nomeação foi pedido dos empresários – Foto Reprodução.&lt;/span&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Engenheiro Elétrico e empresário Assirbanipal Barbary, foi a mais nova nomeação de Gladson Cameli o “governo de 1 bilhão” (Progressista), que atendeu ao pedido de um grupo de empresários do Estado.&lt;/span&gt;&lt;/p&gt;
@@ -4056,58 +5726,68 @@
 </t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/novo-secretario-de-gladson-cameli-participou-dos-governos-do-pt-e-foi-preso-na-operacao-g7/</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/01/Assirbanipal-Barbary.jpg?fit=750%2C420&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2021-07-22T21:31:54</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>21:31:54</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>Acre já recebeu mais de 500 mil doses de vacinas nos últimos sete meses, diz Cameli</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;E&lt;/span&gt;m live nas redes sociais nesta quinta-feira, 22, o governador Gladson Cameli (PP) afirmou que, de acordo com um levantamento da Secretaria de Estado de Saúde (Sesacre), o Acre já recebeu 503.400 mil doses de vacinas da Covid-19, nos últimos sete meses.&lt;/p&gt;
 &lt;p&gt;Do montante, foram aplicadas 442.500 até esta terça-feira, 20, sendo 329.826 da primeira dose, 104.216 da segunda e 8.458 dose única. Rio Branco aplicou 217.065 doses e Cruzeiro do Sul 51.725. O governador adiantou que a gestão deverá realizar mutirões em parceria com as prefeituras para acelerar o processo de imunização. “Será um auxílio, caso as prefeituras precisem”, explicou.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/acre-ja-recebeu-mais-de-500-mil-doses-de-vacinas-nos-ultimos-sete-meses-diz-cameli/</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/07/220587278_4040798602641875_6208389471937285598_n.jpg?fit=696%2C464&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2021-03-06T16:10:47</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021-03-06</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16:10:47</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>Em live, Gladson Cameli afirma que está curado da covid-19 e relata “sensação horrível”</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;N&lt;/span&gt;ão teve boletim oficial. Já passava das 14 horas deste sábado, 6, quando o governador Gladson Cameli [SEM PARTIDO], através de uma live, anunciou que está curado da Covid-19. Ele foi diagnosticado com Covid-19 na segunda-feira, 01, com provável infecção sendo contraída entre os dias 28 de março e primeiro de fevereiro.&lt;/p&gt;
 &lt;p&gt;Na live, Gladson disse que ao receber a notícia que tinha testado positivo para o vírus ficou abalado. “Estou zerado. Graças a Deus. Não desejo a ninguém uma situação dessa. Comentava com amigos próximos, que o psicológico da gente quando é informado que deu positivo é horrível a sensação”, afirmou.&lt;/p&gt;
@@ -4117,29 +5797,34 @@
 </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/em-live-gladson-cameli-afirma-que-esta-curado-da-covid-19-e-relata-sensacao-horrivel/</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/03/WhatsApp-Image-2021-03-06-at-3.07.11-PM.jpeg?fit=900%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2020-12-19T15:03:44</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>15:03:44</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>Gladson Cameli entrega nova OCA para a população do município de Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Acre agora conta com três unidades: em Rio Branco, Xapuri e a mais recente, de Cruzeiro do Sul, que foi inaugurada nesta sexta, 18, pelo governador Gladson Cameli.&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;A obra será de extrema importância para toda a região do Juruá. Além de diversos serviços que serão prestados aos moradores, nos âmbitos estaduais e federais, a instalação do Procon é a grande novidade.&lt;/p&gt;
@@ -4160,29 +5845,34 @@
 </t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-entrega-nova-oca-para-a-populacao-do-municipio-de-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2020/12/Gladson-Cameli-entrega-nova-OCA-para-a-populacao-de-Cruzeiro-do-Sul-2.jpeg?fit=696%2C464&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2020-05-12T18:49:35</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>18:49:35</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>Gladson Cameli convoca associações militares para negociar titulação</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli recebeu as associações militares (AME, ASSOF, APRABMAC, APRAPMAC e ST/SGT da PM) para uma reunião no final da tarde desta terça-feira, dia 12, no escritório governamental. Na pauta estava o debate da situação atual e o anúncio da retomada das negociações sobre a titulação em um novo formato. Também estiveram presentes o vice-governador Major Rocha, a quem o governador pediu ajuda na resolução da questão, e o secretário de segurança, Paulo César.&lt;/p&gt;
 &lt;p&gt;De acordo com os militares o erro do governo foi seguir o caminho para o legislativo criando uma gratificação que já é um direito da categoria. De acordo com os representantes, a discussão volta a ser na esfera administrativa, como foi defendida desde o início, a partir do parecer enviado pela Polícia Militar e Corpo de Bombeiros à PGE e SEPLAG para corrigir a situação. O governador concordou com a proposta e espera a solução.&lt;/p&gt;
@@ -4191,29 +5881,34 @@
 </t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-convoca-associacoes-militares-para-negociar-titulacao/</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2020/05/WhatsApp-Image-2020-05-12-at-18.40.19.jpeg?fit=1280%2C605&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2019-10-14T15:00:33</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2019-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>15:00:33</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Sindmed-AC se reúne com Gladson Cameli para tratar sobre plantões extras e contratos emergenciais</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img data-attachment-id="41347" data-permalink="https://www.acre.com.br/sindmed-ac-se-reune-com-gladson-cameli-para-tratar-sobre-plantoes-extras-e-contratos-emergenciais/dr-murilo-2/" data-orig-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=1280%2C960&amp;amp;ssl=1" data-orig-size="1280,960" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Dr Murilo 2" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=300%2C225&amp;amp;ssl=1" data-large-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=740%2C555&amp;amp;ssl=1" decoding="async" loading="lazy" class="size-medium wp-image-41347 alignleft" src="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=300%2C225&amp;#038;ssl=1" alt="" width="300" height="225" srcset="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=768%2C576&amp;amp;ssl=1 768w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=1024%2C768&amp;amp;ssl=1 1024w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=510%2C382&amp;amp;ssl=1 510w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=1080%2C810&amp;amp;ssl=1 1080w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?w=1280&amp;amp;ssl=1 1280w" sizes="(max-width: 300px) 100vw, 300px" data-recalc-dims="1" /&gt;O presidente do Sindicato dos Médicos do Acre (Sindmed-AC), Murilo Batista, a diretora de Assistência do Pronto Socorro de Rio Branco, Michele Melo, e a médica Katia Fernanda, estiveram na manhã desta segunda-feira (14) em uma reunião com o governador Gladson Cameli e equipe para tratar sobre o risco de desassistência nos hospitais, garantia de pagamento de plantões extras e chamada de médicos em caráter emergencial caso os concursados que assinarem contratos não sejam suficientes para garantir o atendimento.&lt;/p&gt;
 &lt;p&gt;Murilo afirmou que atualmente já está existindo desassistência, haja vista que alguns médicos que terão contratos findados com a Secretaria de Estado de Saúde (Sesacre) temem realizar os plantões extras e não receberem.&lt;/p&gt;
@@ -4230,29 +5925,34 @@
 </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/sindmed-ac-se-reune-com-gladson-cameli-para-tratar-sobre-plantoes-extras-e-contratos-emergenciais/</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=1280%2C960&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2022-11-24T18:49:19</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18:49:19</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Gladson caminha vestido de árabe e web gosta: “Mohamed Cameli”</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli chamou a atenção da web ao postar um vídeo em que caminha pela rua trajando a Kondura, tradicional vestimenta árabe. Gladson usa o celular enquanto caminha. Ele esteve recentemente no Egito participando da COP 27.&lt;br /&gt;
 Os internautas entenderam a brincadeira e gostaram. “Mohamed Cameli”, disse uma seguidora.&lt;br /&gt;
@@ -4263,29 +5963,34 @@
 </t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/11/24/gladson-caminha-vestido-de-arabe-e-web-gosta-mohamed-cameli/</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/11/Sem-titulo-1-e1669334370484.png</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2022-10-03T06:33:12</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>06:33:12</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -4299,29 +6004,34 @@
 </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/10/03/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/10/82308cfe-647f-40f4-bef9-7571dd15e5f2.jpg</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2022-07-30T21:36:42</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-07-30</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>21:36:42</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>Dez partidos declararam apoio à reeleição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Uma reunião, neste final de semana, com a presença do governador Gladson Cameli e lideranças de dez partidos fechou questão sobre o apoio à sua reeleição. No entanto, ainda é possível que outros partidos venham compor a sua base eleitoral até o prazo limite das convenções partidárias no próximo dia 5 de agosto.&lt;/p&gt;
 &lt;p&gt;Progressistas, PSDB, Podemos, PDT, Solidariedade, Cidadania, Democracia Cristã, Brasil 35, Patriotas e PMN já decidiram que marcharão com Cameli. Outra deliberação foi sobre a escolha do nome que comporá como candidato a vice-governador na chapa.&lt;/p&gt;
@@ -4330,29 +6040,34 @@
 </t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/07/30/dez-partidos-declararam-apoio-a-reeleicao-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/07/GUR_4503-scaled.jpg</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2022-05-17T14:07:23</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>14:07:23</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>Zen: fogo na biblioteca é desídia e descaso do governo de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O deputado Daniel Zen disse nesta terça-feira (17) que apresentou há semanas o requerimento de convocação de Aberson Carvalho para explicações sobre as dificuldades de iniciar o ano letivo em muitas escolas do Acre – e o parlamentar espera que seja marcada a data para que o secretário compareça.&lt;br /&gt;
 Zen criticou a baixa convocação de mediadores da educação especializada. “A demanda é de 300 profissionais e a convocação é de menos de 100”, alertou, em tom de condenação. Ele aproveitou para listar todas as deficiências que travam o bom início do ano letivo e a retomada das aulas presenciais.&lt;br /&gt;
@@ -4362,29 +6077,34 @@
 </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/05/17/zen-fogo-na-biblioteca-e-desidia-e-descaso-do-governo-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2021/04/zen.jpg</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2022-04-19T10:04:57</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>10:04:57</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Gladson Cameli participa de encontro na Terra Noke Koi</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Às vésperas do Dia do Índio, o governador Gladson Cameli foi recebido com festa pelo povo NoKe Koi, também conhecido como Katuquinas, em Cruzeiro do Sul. Já na sua chegada os indígenas pintados e ornamentados conduziram o governador para o centro da maloca espiritual da aldeia, para realizarem uma dança tradicional em sua homenagem.&lt;br /&gt;
 Em seguida, as diversas lideranças Noke Koi e os caciques visitantes, Joel Puyanawa e Erison Nukini, fizeram as suas reivindicações ao governador e à sua equipe de gestão. Gladson, que estava acompanhado do prefeito de Cruzeiro do Sul, Zequinha Lima, prometeu resolver as demandas mais urgentes e explicou que a pandemia da covid-19 atrapalhou alguns dos projetos da sua gestão que estavam em andamento.&lt;br /&gt;
@@ -4403,25 +6123,30 @@
 </t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/04/19/gladson-cameli-participa-de-encontro-na-terra-noke-koi/</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2022-04-18T07:39:17</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>07:39:17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>“O Brasil precisa conhecer o Acre”, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com mais de 300 pessoas envolvidas, vindas de todos os estados da federação brasileira, mais o Distrito Federal (DF), o Acre encerrou neste domingo, 17, a primeira competição seletiva de vôlei de praia estudantil do país.&lt;br /&gt;
 A disputa foi realizada na Associação Atlética Banco do Brasil (AABB), em Rio Branco e terminou com as duplas vencedoras da série Ouro, tanto da categoria masculina, como da feminina, garantindo vaga na Gymnasiade internacional que acontecerá no mês de maio, em Normandia, na França.&lt;br /&gt;
@@ -4435,25 +6160,30 @@
 </t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/04/18/o-brasil-precisa-conhecer-o-acre-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2022-03-23T18:20:35</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>18:20:35</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>Gladson Cameli vai a Tarauacá e visita famílias desabrigadas</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli visitou as famílias desabrigadas pelas cheias do rio Tarauacá, no município de mesmo nome, distante 440 quilômetros de Rio Branco, na tarde desta quarta-feira, 23. O governador foi ver de perto a situação das mais de 40 famílias que tiveram de deixar suas casas, depois que o rio Tarauacá transbordou, e prestou apoio aos trabalhos de assistência às vítimas pela prefeitura.&lt;br /&gt;
 Na noite desta terça-feira, 22, o rio havia subido mais de um metro acima da cota de alerta. “Esta situação me preocupou bastante e vim prestar a nossa solidariedade a essas pessoas que tanto precisam da mão amiga do Estado, determinando que a nossa equipe, de todas as secretarias, coloque a mão na massa para ajudar a prefeita”, afirmou Gladson Cameli, logo após o desembarque no aeroporto local, ao se dirigir ao bairro Senador Pompeu, um dos mais atingidos pela alagação.&lt;br /&gt;
@@ -4469,25 +6199,30 @@
 </t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/03/23/gladson-cameli-vai-a-tarauaca-e-visita-familias-desabrigadas/</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2022-03-08T15:20:52</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>15:20:52</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Longo: todos querem estar na chapa de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O Líder do Governo na Aleac, Pedro Longo, disse nesta terça-feira (8) que o governo de Gladson Cameli prestigia as mulheres  não somente com políticas mas elas ocupam  espaços relevantes na Saúde, Educação, Assistência Social, Depasa e outras funções estratégicas.&lt;br /&gt;
 “Palavras todos podem pronunciar mas atos só os que tem sensibilidade”, disse Longo ao rebater suposta misoginia na fala de Cameli na ordem de serviço da Ponte da Sibéria.&lt;br /&gt;
@@ -4495,29 +6230,34 @@
 </t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/03/08/longo-todos-querem-estar-na-chapa-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2021/01/LONGO_02.jpg</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2022-02-11T12:09:04</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>12:09:04</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>Gladson Cameli nomeia 15 novos defensores públicos</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em clima de comemoração e agradecimento, o governador do Acre, Gladson Cameli, realizou na manhã desta sexta-feira, 11, o ato de nomeação de 15 novos defensores públicos. Os profissionais tomarão posse até o mês de março e deverão reforçar os trabalhos de assistência jurídica em regiões dos municípios de interior.&lt;/p&gt;
 &lt;p&gt;O ato de nomeação foi realizado no escritório de apoio do governador e contou com a presença da defensora-geral, Simone Santiago, e da subdefensora-geral, Roberta Caminha. A relação com o nome dos candidatos aprovados será publicada no Diário Oficial  na próxima segunda-feira, 14.&lt;/p&gt;
@@ -4527,29 +6267,34 @@
 </t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/02/11/gladson-cameli-nomeia-15-novos-defensores-publicos/</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/02/IMG_0488.jpg</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2022-02-08T08:13:55</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:13:55</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>Gladson Cameli convoca 187 do cadastro de reserva da PM</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli demonstrou, mais uma vez, que a Segurança Pública do Acre passa por um momento histórico. Na noite desta segunda-feira, 7, o chefe de Estado confirmou a última convocação dos 187 concursados remanescentes do cadastro de reserva da Polícia Militar (PMAC). Além de honrar sua palavra, o gestor reafirma o compromisso com o fortalecimento das instituições e a proteção das famílias acreanas.&lt;/p&gt;
 &lt;p&gt;No vídeo divulgado nas redes sociais, Cameli afirmou estar feliz pelo aval dado por sua equipe econômica e Tribunal de Contas do Estado (TCE-AC), assegurando a legalidade do processo, equilíbrio financeiro e segurança jurídica necessária para realizar o chamamento, que será oficializado por meio de publicação no Diário Oficial.&lt;/p&gt;
@@ -4561,29 +6306,34 @@
 </t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/02/08/gladson-cameli-convoca-187-aprovados-do-cadastro-de-reserva-da-policia-militar/</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/02/IMG-1398.jpg</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2022-11-04T15:54:11</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>15:54:11</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;div id="attachment_282262" style="width: 2058px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-282262" decoding="async" loading="lazy" class="size-full wp-image-282262" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?w=1600&amp;amp;ssl=1 1600w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-282262" class="wp-caption-text"&gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&lt;/p&gt;&lt;/div&gt;
@@ -4599,29 +6349,34 @@
 </t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2022-11-02T17:07:49</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>17:07:49</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h1 class="title" data-reader-unique-id="titleElement"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-281980" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=740%2C555" alt="" width="740" height="555" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=660%2C495&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=768%2C576&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=1536%2C1152&amp;amp;ssl=1 1536w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h1&gt;
 &lt;div class="metadata singleline"&gt;
@@ -4638,29 +6393,34 @@
 </t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?fit=1600%2C1200&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2022-10-30T18:28:22</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>18:28:22</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>Galdson Cameli comprimenta Lula pela vitória neste domingo</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="attachment_281643" style="width: 1102px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-281643" decoding="async" loading="lazy" class="wp-image-281643 size-full" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?w=1092&amp;amp;ssl=1 1092w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-281643" class="wp-caption-text"&gt;Momento em que Gladson Cameli votou na cidade de Cruzeiro de Sul &amp;#8211; Foto/Assessoria&lt;/p&gt;&lt;/div&gt;
 &lt;p&gt;O governador do Acre, Gladson Cameli, publicou um anota de Parabéns para o novo presidente do Brasil, Luiz Inácio Lula da Silva, que irá assumir a partir de 2023. Veja nota&lt;/p&gt;
@@ -4672,29 +6432,34 @@
 </t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/galdson-cameli-comprimenta-lula-pela-vitoria-neste-domingo/</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.31.jpeg?fit=1034%2C690&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2022-10-22T18:47:33</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>18:47:33</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>“Sou Bolsonaro de manhã, de tarde e de noite”, diz Gladson Cameli durante megacarreata em apoio à reeleição do presidente</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-280636" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?w=1280&amp;amp;ssl=1 1280w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Uma grande carreata em apoio à reeleição do presidente Jair Bolsonaro tomou as ruas de Rio Branco, neste sábado, 22. Sob a liderança do governador Gladson Cameli e com participação de milhares de apoiadores, o evento reafirmou que o Acre dará, proporcionalmente, uma das maiores votações do país ao candidato do Partido Liberal (PL), no próximo dia 30 de outubro.&lt;/p&gt;
@@ -4710,29 +6475,34 @@
 </t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/sou-bolsonaro-de-manha-de-tarde-e-de-noite-diz-gladson-cameli-durante-megacarreata-em-apoio-a-reeleicao-do-presidente/</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?fit=1280%2C853&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2022-10-17T14:43:30</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>14:43:30</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com o objetivo de promover a integração entre os órgãos de defesa, segurança e desenvolvimento econômico e social do Acre, a Associação dos Diplomados da Escola Superior de Guerra no Acre (Adesg/AC) e Sebrae no Acre, com apoio da Escola Superior de Guerra (ESG), realizou o 2º Seminário de Integração da Defesa, Segurança e Desenvolvimento Econômico e Social no Acre, nesta segunda-feira, 17, no auditório do Sebrae.&lt;/p&gt;
 &lt;div id="attachment_279931" style="width: 2058px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-279931" decoding="async" loading="lazy" class="size-full wp-image-279931" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?w=1600&amp;amp;ssl=1 1600w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-279931" class="wp-caption-text"&gt;Encontro foi realizado nesta segunda-feira. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
@@ -4748,33 +6518,38 @@
 &lt;h4&gt;O que disseram as autoridades&lt;/h4&gt;
 &lt;p&gt;“Nosso objetivo é contribuir para o nosso país, sobretudo ajudar aqueles que mais necessitam. O Brasil tem um enorme desafio de proteger a Amazônia, e é o que devemos fazer, protegê-la até de nós mesmos, temos um espaço geográfico imenso para cuidar”, disse a desembargadora do Tribunal de Justiça do Acre, Waldirene Cordeiro.&lt;/p&gt;
 &lt;p&gt;“Hoje nós temos um cenário que combatemos os crimes transfronteiriços. O Acre é um protagonista numa série de iniciativas, contribuímos no cenário nacional para manutenção das nossas fronteiras. Sem esse trabalho de combate ao crime é impossível se falar em soberania nacional”, comentou Paulo Cézar do Santos, secretário de Segurança Pública.&lt;/p&gt;
-&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279943" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018991&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;29&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6117-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_6117-scaled" alt="GUR_6117-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279934" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666015725&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;70&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;3200&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5772-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_5772-scaled" alt="GUR_5772-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279933" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666014947&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;29&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;3200&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5751-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_5751-scaled" alt="GUR_5751-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 166px;" data-original-width="740" data-original-height="166" &gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279939" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017868&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;110&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5984-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_5984-scaled" alt="GUR_5984-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279942" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018949&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6115-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_6115-scaled" alt="GUR_6115-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 246px; height: 166px;" data-original-width="246" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279944" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666019191&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;35&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6136-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="GUR_6136-scaled" alt="GUR_6136-scaled" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279940" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018259&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6036-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_6036-scaled" alt="GUR_6036-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279941" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018867&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6106-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_6106-scaled" alt="GUR_6106-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279936" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666016978&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;180&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.004&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5867-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_5867-scaled" alt="GUR_5867-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 125px;" data-original-width="740" data-original-height="125" &gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279938" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017561&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5956-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_5956-scaled" alt="GUR_5956-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279945" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666019369&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;52&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6154-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_6154-scaled" alt="GUR_6154-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279937" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017214&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;150&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.004&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5877-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_5877-scaled" alt="GUR_5877-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279935" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;3.2&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666016917&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5862-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_5862-scaled" alt="GUR_5862-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
-</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279941" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018867&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6106-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6106-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_6106-scaled" alt="GUR_6106-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279945" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666019369&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;52&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6154-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6154-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_6154-scaled" alt="GUR_6154-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279937" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017214&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;150&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.004&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5877-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5877-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_5877-scaled" alt="GUR_5877-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 166px;" data-original-width="740" data-original-height="166" &gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279938" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017561&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5956-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5956-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_5956-scaled" alt="GUR_5956-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279934" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666015725&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;70&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;3200&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5772-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5772-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_5772-scaled" alt="GUR_5772-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 246px; height: 166px;" data-original-width="246" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279942" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018949&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6115-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6115-scaled-1.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="GUR_6115-scaled" alt="GUR_6115-scaled" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279936" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666016978&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;180&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.004&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5867-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5867-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_5867-scaled" alt="GUR_5867-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279940" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018259&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6036-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6036-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_6036-scaled" alt="GUR_6036-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279939" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666017868&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;110&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5984-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5984-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_5984-scaled" alt="GUR_5984-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 125px;" data-original-width="740" data-original-height="125" &gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279943" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666018991&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;29&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6117-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6117-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_6117-scaled" alt="GUR_6117-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279944" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666019191&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;35&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;1250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_6136-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6136-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_6136-scaled" alt="GUR_6136-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279935" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;3.2&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666016917&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5862-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5862-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_5862-scaled" alt="GUR_5862-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279933" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1666014947&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;29&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;3200&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_5751-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_5751-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_5751-scaled" alt="GUR_5751-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2022-10-14T18:25:17</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>18:25:17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nesta quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
 &lt;p&gt;Acompanhado da titular da Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), Paola Daniel, o governador acompanhou o lançamento do Projeto Aliança Empresarial pela Amazônia, em evento que contou com a presença do presidente do Peru, Pedro Castillo.&lt;/p&gt;
@@ -4792,33 +6567,38 @@
 &lt;p&gt;Ao final do evento foi firmada a Declaração de San Martín, documento que prevê maior articulação entre os governos dos países envolvidos, com o objetivo de alcançar metas climáticas, tomada de decisões públicas voltadas aos meio ambiente, promoção da participação do setor privado nas políticas ambientais, entre outros.&lt;/p&gt;
 &lt;p&gt;“Devemos realizar as nossas ações práticas nesse sentido através de um diálogo constante com as nossas comunidades indígenas, ribeirinhas e rurais, para despertarmos as consciências para ações que gerem produção e preserve o meio ambiente”, concluiu Cameli.&lt;/p&gt;
 &lt;div id="attachment_279703" style="width: 2058px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-279703" decoding="async" loading="lazy" class="wp-image-279703 size-full" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-2.jpg?resize=1536%2C1023&amp;amp;ssl=1 1536w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-279703" class="wp-caption-text"&gt;Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
-&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279700" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665693812&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;105&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2646-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_2646-scaled" alt="GUR_2646-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279691" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665682313&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;31&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;4000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2085-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2085-scaled" alt="GUR_2085-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279695" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683928&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;42&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2233-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2233-scaled" alt="GUR_2233-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 166px;" data-original-width="740" data-original-height="166" &gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279696" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684466&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2345-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2345-scaled" alt="GUR_2345-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279693" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683157&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;24&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.000625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2113-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2113-scaled" alt="GUR_2113-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 246px; height: 166px;" data-original-width="246" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279699" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;4&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665685038&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;16&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;400&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2482-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2482-scaled" alt="GUR_2482-scaled" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279698" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684689&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;145&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2445-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2445-scaled" alt="GUR_2445-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279702" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665695841&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0015625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2745-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2745-scaled" alt="GUR_2745-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279694" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683288&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2137-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_2137-scaled" alt="GUR_2137-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 125px;" data-original-width="740" data-original-height="125" &gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279697" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684648&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;160&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2417-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2417-scaled" alt="GUR_2417-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279701" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665693819&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;195&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2650-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2650-scaled" alt="GUR_2650-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279690" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665696747&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0025&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2861-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2861-scaled" alt="Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279692" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683147&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;32&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2099-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2099-scaled" alt="GUR_2099-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
-</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279698" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684689&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;145&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2445-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2445-scaled-1.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_2445-scaled" alt="GUR_2445-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279691" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665682313&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;31&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;4000&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.005&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2085-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2085-scaled-2.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2085-scaled" alt="GUR_2085-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279697" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684648&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;160&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.00625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2417-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2417-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2417-scaled" alt="GUR_2417-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 166px;" data-original-width="740" data-original-height="166" &gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279694" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683288&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;26&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;250&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.008&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2137-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2137-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2137-scaled" alt="GUR_2137-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279693" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683157&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;24&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.000625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2113-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2113-scaled-1.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2113-scaled" alt="GUR_2113-scaled" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 246px; height: 166px;" data-original-width="246" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="279701" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665693819&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;195&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2650-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2650-scaled-1.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="GUR_2650-scaled" alt="GUR_2650-scaled" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 330px;" data-original-width="740" data-original-height="330" &gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 330px;" data-original-width="246" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279699" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;4&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665685038&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;16&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;400&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2482-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2482-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2482-scaled" alt="GUR_2482-scaled" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="279690" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665696747&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0025&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2861-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2861-scaled-1.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="GUR_2861-scaled" alt="Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Em seu discurso, Cameli defendeu a prática consciente do agronegócio, aliado ao desenvolvimento sustentável e preservação do meio ambiente. Foto: Diego Gurgel/Secom &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 330px;" data-original-width="494" data-original-height="330" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="326"&gt; &lt;img data-attachment-id="279702" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665695841&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0015625&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2745-scaled" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?w=490&amp;#038;h=326&amp;#038;ssl=1" width="490" height="326" data-original-width="490" data-original-height="326" itemprop="http://schema.org/image" title="GUR_2745-scaled" alt="GUR_2745-scaled" style="width: 490px; height: 326px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 125px;" data-original-width="740" data-original-height="125" &gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279700" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665693812&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;105&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;640&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2646-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2646-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2646-scaled" alt="GUR_2646-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279695" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683928&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;42&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;2500&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.0003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2233-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2233-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2233-scaled" alt="GUR_2233-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279692" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665683147&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;32&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.002&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2099-scaled" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2099-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2099-scaled" alt="GUR_2099-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 185px; height: 125px;" data-original-width="185" data-original-height="125" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="181"&gt; &lt;meta itemprop="height" content="121"&gt; &lt;img data-attachment-id="279696" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg" data-orig-size="1600,1066" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;2.8&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;NIKON D780&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1665684466&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;200&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;320&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0.003125&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="GUR_2345-scaled" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2345-scaled-1.jpg?w=181&amp;#038;h=121&amp;#038;ssl=1" width="181" height="121" data-original-width="181" data-original-height="121" itemprop="http://schema.org/image" title="GUR_2345-scaled" alt="GUR_2345-scaled" style="width: 181px; height: 121px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2022-10-12T19:53:21</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>19:53:21</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&lt;span class="Apple-converted-space"&gt; &lt;/span&gt;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/span&gt;&lt;/p&gt;
@@ -4829,29 +6609,34 @@
 </t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/cel-12.jpg?fit=1280%2C853&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2022-10-08T16:15:49</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>16:15:49</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>Um fenômeno chamado Cameli e a derrocada de Jorge Viana, Petecão, Mara e companhia</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278911" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=740%2C449" alt="" width="740" height="449" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?w=1080&amp;amp;ssl=1 1080w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=300%2C182&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=660%2C401&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=768%2C466&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;h6&gt;Por Jairo Carioca*&lt;/h6&gt;
@@ -4874,29 +6659,34 @@
 </t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/um-fenomeno-chamado-cameli-e-a-derrocada-de-jorge-viana-petecao-mara-e-companhia/</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?fit=1080%2C656&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2022-10-07T18:37:41</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>18:37:41</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>Gladson Cameli tem encontro com Bolsonaro e reafirma apoio para a reeleição do presidente</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278847" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=740%2C555" alt="" width="740" height="555" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?w=1024&amp;amp;ssl=1 1024w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=660%2C495&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=768%2C576&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador também fez um breve relatório do desenvolvimento do Acre, dos projetos e das inúmeras obras em andamento&lt;/p&gt;
@@ -4915,29 +6705,34 @@
 </t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/gladson-cameli-tem-encontro-com-bolsonaro-e-reafirma-apoio-para-a-reeleicao-do-presidente/</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.50.jpeg?fit=900%2C526&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2022-10-03T08:57:40</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>08:57:40</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278223" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=1536%2C1023&amp;amp;ssl=1 1536w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -4950,34 +6745,39 @@
 &lt;p&gt;“A Mailza terá um papel fundamental para meu ajudar a cumprir as promessas que fizemos para o segundo mandato, principalmente, aquelas voltadas às mulheres. O Ney também já está convidado para fazer parte da nossa equipe”, argumentou.&lt;/p&gt;
 &lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278215" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?resize=768%2C512&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?resize=1536%2C1023&amp;amp;ssl=1 1536w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Gladson finalizou a entrevista com a declaração de apoio ao presidente Jair Bolsonaro neste segundo turno das eleições. “Meu apoio sempre foi e será do presidente Bolsonaro. Tenho gratidão por tudo que ele fez pelo nosso estado e continuarei fazendo campanha para ele aqui no Acre”, expôs.&lt;/p&gt;
-&lt;p class="jetpack-slideshow-noscript robots-nocontent"&gt;Este slideshow necessita de JavaScript.&lt;/p&gt;&lt;div id="gallery-278211-1-slideshow" class="slideshow-window jetpack-slideshow slideshow-black" data-trans="fade" data-autostart="1" data-gallery="[{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.33.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278228&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.33&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.24.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278217&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.24&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.30.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278225&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.30&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.20.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278213&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.20&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.18.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278212&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.18&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.28-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278222&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.28 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278215&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.21&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.29.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278224&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.29&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.27.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278221&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.27&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.26.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278220&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.26&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.25-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278218&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.25 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.21-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278214&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.21 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.31.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278226&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.31&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.23.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278216&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.23&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.32.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278227&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.32&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.25.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278219&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.25&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278223&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.28&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;}]" itemscope itemtype="https://schema.org/ImageGallery"&gt;&lt;/div&gt;
+&lt;p class="jetpack-slideshow-noscript robots-nocontent"&gt;Este slideshow necessita de JavaScript.&lt;/p&gt;&lt;div id="gallery-278211-1-slideshow" class="slideshow-window jetpack-slideshow slideshow-black" data-trans="fade" data-autostart="1" data-gallery="[{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.20.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278213&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.20&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.30.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278225&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.30&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.26.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278220&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.26&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.18.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278212&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.18&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.28-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278222&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.28 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.27.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278221&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.27&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.32.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278227&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.32&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.24.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278217&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.24&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.25.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278219&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.25&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i1.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.21.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278215&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.21&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278223&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.28&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.25-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278218&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.25 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.31.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278226&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.31&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.33.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278228&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.33&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.23.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278216&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.23&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i0.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.21-1.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278214&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.21 (1)&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;},{&amp;quot;src&amp;quot;:&amp;quot;https:\/\/i2.wp.com\/oaltoacre.com\/wp-content\/uploads\/2022\/10\/WhatsApp-Image-2022-10-02-at-23.22.29.jpeg?fit=1600%2C1066\u0026ssl=1&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;278224&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;WhatsApp Image 2022-10-02 at 23.22.29&amp;quot;,&amp;quot;alt&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;itemprop&amp;quot;:&amp;quot;image&amp;quot;}]" itemscope itemtype="https://schema.org/ImageGallery"&gt;&lt;/div&gt;
 &lt;p&gt;#&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.26.jpeg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2022-10-04T13:36:01</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13:36:01</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>Gladson Cameli anuncia pagamento dos médicos do Acre com retroativo neste mês</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Os médicos já haviam marcado uma greve caso não houvesse cumprimento do pagamento&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -4990,29 +6790,34 @@
 </t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/cotidiano/gladson-cameli-anuncia-pagamento-dos-medicos-do-acre-com-retroativo-neste-mes/</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2022-10-03T09:00:49</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>09:00:49</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli após vitória</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -5024,29 +6829,34 @@
 </t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli-apos-vitoria/</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2022-10-02T17:54:14</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>17:54:14</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>Gladson Cameli é reeleito governador do Acre com 56% dos votos</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Chapa é composta com a senadora Mailza Gomes, também do Progressistas&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;Gladson Cameli, do Progressistas, foi reeleito governador do Acre com 56% dos votos válidos neste domingo (2). O atual governador venceu Jorge Viana, do Partido dos Trabalhadores, ainda em primeiro turno. A chapa é composta com a senadora Mailza Gomes, também do Progressistas.&lt;/p&gt;
@@ -5059,29 +6869,34 @@
 </t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-e-reeleito-governador-do-acre-com-56-dos-votos/</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2022-09-29T10:50:11</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>10:50:11</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>Assessoria informa desistência de Gladson Cameli em participar do debate da TV Gazeta</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;&amp;#8220;Principais motivos para o não comparecimento são o baixo nível e a agressividade demonstrados pelos adversários&amp;#8221;&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;O último debate com os candidatos ao Governo do Acre antes do primeiro turno das eleições acontece nesta quinta-feira (29), na sede TV Gazeta, na Av. Antônio da Rocha Viana, em Rio Branco, as 11h45.&lt;/p&gt;
@@ -5090,29 +6905,34 @@
 </t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/assessoria-informa-desistencia-de-gladson-cameli-em-participar-do-debate-da-tv-gazeta/</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2022-09-13T12:25:49</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>12:25:49</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>Gladson Cameli tem quase 50% das intenções de voto entre o público evangélico do Acre</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Candidato do Progressistas também lidera a intenção de voto entre os católicos do Estado&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A TV Gazeta divulgou, nesta terça-feira (13), o resultado da pesquisa de intenções de votos para governador do Acre nas eleições de 2022 entre as pessoas evangélicas e católicas. Os dados foram coletados pela Realtime Big Data nos dias 10 a 12 de setembro, e mil pessoas foram entrevistadas. A pesquisa é registrada no Tribunal Superior Eleitoral (TSE) sob o número AC-09556/2022.&lt;/p&gt;
@@ -5129,29 +6949,34 @@
 </t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-tem-quase-50-das-intencoes-de-voto-entre-o-publico-evangelico-do-acre/</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2022-09-13T12:17:30</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>12:17:30</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>Pesquisa aponta vitória de Gladson Cameli já no primeiro turno, com 52% dos votos</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4 style="text-align: justify;"&gt;Jorge Viana, do Partido dos Trabalhadores, ficaria em segundo com 24% e Mara Rocha, do MDB, em terceiro com 10%&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A TV Gazeta divulgou, nesta terça-feira (13), o resultado da pesquisa estimulada e esponânea de intenções de votos para governador do Acre nas eleições de 2022. Os dados foram coletados pela Realtime Big Data nos dias 10 a 12 de setembro, e mil pessoas foram entrevistadas. A pesquisa é registrada no Tribunal Superior Eleitoral (TSE) sob o número AC-09556/2022.&lt;/p&gt;
@@ -5168,29 +6993,34 @@
 </t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/pesquisa-aponta-vitoria-de-gladson-cameli-ja-no-primeiro-turno-com-52-dos-votos/</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2022-09-12T17:11:17</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>TRE aprova candidatura de Mailza Gomes como vice de Gladson Cameli</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;A aprovação foi acatada de forma unânime durante julgamento na tarde desta segunda-feira&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -5200,29 +7030,34 @@
 </t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/tre-aprova-candidatura-de-mailza-gomes-como-vice-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2022-09-08T10:14:07</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>10:14:07</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>Com sintomas de covid-19, Gladson Cameli cancela agendas políticas e institucionais nesta quinta-feira</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Governador cumpriu extensa agenda nesta quarta-feira, em decorrência do Dia da Independência e das celebrações ocorridas&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A assessoria de campanha do governador Gladson Cameli, do Progressistas, e candidado a reeleição, informou por meio de nota na manhã desta quinta-feira (8), que o gestor acordou apresentando alguns sintomas de covid-19, e por isso, cancelou todas as suas agendas do dia.&lt;/p&gt;
@@ -5231,29 +7066,34 @@
 </t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/com-sintomas-de-covid-19-gladson-cameli-cancela-agendas-politicas-e-institucionais-nesta-quinta-feira/</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2022-09-06T07:57:44</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07:57:44</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>Gladson Cameli exonera gerente-geral do Hospital de Sena Madureira nesta terça-feira</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;No mesmo dia, o governador também nomeou o novo resposável para ficar no lugar de Edgardina Matos&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -5264,29 +7104,34 @@
 </t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>https://agazeta.net/destaque/gladson-cameli-exonera-gerente-geral-do-hospital-de-sena-madureira-nesta-terca-feira/</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2022-08-24T14:54:29</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>Com apoio de Gladson Cameli, Ney se dedica a campanha de candidato ao Senado</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Durante a entrevista, ele falou sobre uma possível inelegibilidade, campanha e apoios&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -5295,11 +7140,11 @@
 &lt;p style="text-align: justify;"&gt;Devido a algumas mudanças, o ex-deputado estadual aceitou o desafio e iniciou a campanha como candidato à câmara alta do congresso nacional.&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;Em nossa entrevista, Ney falou sobre uma possível inelegibilidade, campanha e apoios. Confira:&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-			&lt;div class="yotu-playlist yotuwp yotu-limit-min yotu-limit-max   yotu-thumb-169  yotu-template-mix" data-yotu="638844082b518" data-page="1" id="yotuwp-6388440829fe2" data-total="1" data-settings="eyJ0eXBlIjoidmlkZW9zIiwiaWQiOiJJY1JfcTItcklOayIsInBhZ2luYXRpb24iOiJvbiIsInBhZ2l0eXBlIjoicGFnZXIiLCJjb2x1bW4iOiIxIiwicGVyX3BhZ2UiOiIxIiwidGVtcGxhdGUiOiJtaXgiLCJ0aXRsZSI6Im9uIiwiZGVzY3JpcHRpb24iOiJvbiIsInRodW1icmF0aW8iOiIxNjkiLCJtZXRhIjoib2ZmIiwibWV0YV9kYXRhIjoib2ZmIiwibWV0YV9wb3NpdGlvbiI6Im9mZiIsImRhdGVfZm9ybWF0Ijoib2ZmIiwibWV0YV9hbGlnbiI6Im9mZiIsInN1YnNjcmliZSI6Im9mZiIsImR1cmF0aW9uIjoib2ZmIiwibWV0YV9pY29uIjoib2ZmIiwibmV4dHRleHQiOiIiLCJwcmV2dGV4dCI6IiIsImxvYWRtb3JldGV4dCI6IiIsInBsYXllciI6eyJtb2RlIjoibGFyZ2UiLCJ3aWR0aCI6IjYwMCIsInNjcm9sbGluZyI6IjEwMCIsImF1dG9wbGF5IjowLCJjb250cm9scyI6MSwibW9kZXN0YnJhbmRpbmciOjEsImxvb3AiOjAsImF1dG9uZXh0IjowLCJzaG93aW5mbyI6MSwicmVsIjoxLCJwbGF5aW5nIjowLCJwbGF5aW5nX2Rlc2NyaXB0aW9uIjowLCJ0aHVtYm5haWxzIjowLCJjY19sb2FkX3BvbGljeSI6IjEiLCJjY19sYW5nX3ByZWYiOiIxIiwiaGwiOiIiLCJpdl9sb2FkX3BvbGljeSI6IjEifSwibGFzdF90YWIiOiJjYWNoZSIsInVzZV9hc19tb2RhbCI6Im9mZiIsIm1vZGFsX2lkIjoib2ZmIiwibGFzdF91cGRhdGUiOiIxNjI1OTczNjcwIiwic3R5bGluZyI6eyJwYWdlcl9sYXlvdXQiOiJkZWZhdWx0IiwiYnV0dG9uIjoiMSIsImJ1dHRvbl9jb2xvciI6IiIsImJ1dHRvbl9iZ19jb2xvciI6IiIsImJ1dHRvbl9jb2xvcl9ob3ZlciI6IiIsImJ1dHRvbl9iZ19jb2xvcl9ob3ZlciI6IiIsInZpZGVvX3N0eWxlIjoiIiwicGxheWljb25fY29sb3IiOiIiLCJob3Zlcl9pY29uIjoiIiwiZ2FsbGVyeV9iZyI6IiJ9LCJlZmZlY3RzIjp7InZpZGVvX2JveCI6IiIsImZsaXBfZWZmZWN0IjoiIn0sImdhbGxlcnlfaWQiOiI2Mzg4NDQwODI5ZmUyIn0=" data-player="large" data-showdesc="on"&gt;
+			&lt;div class="yotu-playlist yotuwp yotu-limit-min yotu-limit-max   yotu-thumb-169  yotu-template-mix" data-yotu="63897c23a2f86" data-page="1" id="yotuwp-63897c23a17c1" data-total="1" data-settings="eyJ0eXBlIjoidmlkZW9zIiwiaWQiOiJJY1JfcTItcklOayIsInBhZ2luYXRpb24iOiJvbiIsInBhZ2l0eXBlIjoicGFnZXIiLCJjb2x1bW4iOiIxIiwicGVyX3BhZ2UiOiIxIiwidGVtcGxhdGUiOiJtaXgiLCJ0aXRsZSI6Im9uIiwiZGVzY3JpcHRpb24iOiJvbiIsInRodW1icmF0aW8iOiIxNjkiLCJtZXRhIjoib2ZmIiwibWV0YV9kYXRhIjoib2ZmIiwibWV0YV9wb3NpdGlvbiI6Im9mZiIsImRhdGVfZm9ybWF0Ijoib2ZmIiwibWV0YV9hbGlnbiI6Im9mZiIsInN1YnNjcmliZSI6Im9mZiIsImR1cmF0aW9uIjoib2ZmIiwibWV0YV9pY29uIjoib2ZmIiwibmV4dHRleHQiOiIiLCJwcmV2dGV4dCI6IiIsImxvYWRtb3JldGV4dCI6IiIsInBsYXllciI6eyJtb2RlIjoibGFyZ2UiLCJ3aWR0aCI6IjYwMCIsInNjcm9sbGluZyI6IjEwMCIsImF1dG9wbGF5IjowLCJjb250cm9scyI6MSwibW9kZXN0YnJhbmRpbmciOjEsImxvb3AiOjAsImF1dG9uZXh0IjowLCJzaG93aW5mbyI6MSwicmVsIjoxLCJwbGF5aW5nIjowLCJwbGF5aW5nX2Rlc2NyaXB0aW9uIjowLCJ0aHVtYm5haWxzIjowLCJjY19sb2FkX3BvbGljeSI6IjEiLCJjY19sYW5nX3ByZWYiOiIxIiwiaGwiOiIiLCJpdl9sb2FkX3BvbGljeSI6IjEifSwibGFzdF90YWIiOiJjYWNoZSIsInVzZV9hc19tb2RhbCI6Im9mZiIsIm1vZGFsX2lkIjoib2ZmIiwibGFzdF91cGRhdGUiOiIxNjI1OTczNjcwIiwic3R5bGluZyI6eyJwYWdlcl9sYXlvdXQiOiJkZWZhdWx0IiwiYnV0dG9uIjoiMSIsImJ1dHRvbl9jb2xvciI6IiIsImJ1dHRvbl9iZ19jb2xvciI6IiIsImJ1dHRvbl9jb2xvcl9ob3ZlciI6IiIsImJ1dHRvbl9iZ19jb2xvcl9ob3ZlciI6IiIsInZpZGVvX3N0eWxlIjoiIiwicGxheWljb25fY29sb3IiOiIiLCJob3Zlcl9pY29uIjoiIiwiZ2FsbGVyeV9iZyI6IiJ9LCJlZmZlY3RzIjp7InZpZGVvX2JveCI6IiIsImZsaXBfZWZmZWN0IjoiIn0sImdhbGxlcnlfaWQiOiI2Mzg5N2MyM2ExN2MxIn0=" data-player="large" data-showdesc="on"&gt;
 				&lt;div&gt;
 										&lt;div class="yotu-wrapper-player" style="width:600px"&gt;
 												&lt;div class="yotu-player"&gt;
-							&lt;div class="yotu-video-placeholder" id="yotu-player-638844082b518"&gt;&lt;/div&gt;
+							&lt;div class="yotu-video-placeholder" id="yotu-player-63897c23a2f86"&gt;&lt;/div&gt;
 						&lt;/div&gt;
 						&lt;div class="yotu-playing-status"&gt;&lt;/div&gt;
 											&lt;/div&gt;
@@ -5339,284 +7184,14 @@
 </t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/entrevistas/com-apoio-de-gladson-cameli-ney-se-dedica-a-campanha-de-candidato-ao-senado/</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Gladson Cameli volta a nomear Alysson Bestene para a Segov</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-volta-a-nomear-alysson-bestene-para-a-segov/</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Acre: com 25,47% de apuração, Gladson Cameli lidera com disputa</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/acre-com-2547-de-apuracao-gladson-cameli-lidera-com-disputa/</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>TRE decide hoje se aceita candidatura de Mailza como vice de Cameli</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/tre-decide-hoje-se-aceita-candidatura-de-mailza-como-vice-de-cameli/</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Apenas candidatura de Gladson Cameli ainda não foi deferida pelo TSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/tse-defere-candidatura-de-nilson-euclides-apenas-gladson-aguarda-julgamento/</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Investigado pela PF, Gladson Cameli declara R$ 114 mil investidos em ouro</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/investigado-pela-pf-gladson-declara-r-114-mil-investidos-em-ouro/</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Gladson Cameli: gênio da política ou político aloprado?</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-genio-da-politica-ou-politico-aloprado/</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Bittar responde Viana: “Quem sempre teve apoio da família Cameli foi o PT’</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/bittar-responde-viana-quem-sempre-teve-apoio-da-familia-cameli-foi-o-pt/</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Mães que perderam filhos voltam a protestar contra Cameli</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/maes-que-perderam-filhos-voltam-a-protestar-em-frente-ao-palacio-rio-branco/</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Sextou! Gladson Cameli nomeia 11 e exonera 6 nesta sexta-feira (27)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/sextou-gladson-cameli-nomeia-11-e-exonera-6-nesta-sexta-feira-27/</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Data desconhecida</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>MDB emite nota e enterra boato de que voltaria ao governo de Cameli</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/mdb-emite-nota-e-enterra-boato-de-que-voltaria-ao-governo-de-cameli/</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
@@ -5631,7 +7206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5647,66 +7222,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Conteúdo</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Imagem</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Titulo</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Conteúdo</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Imagem</t>
         </is>
@@ -5715,63 +7249,320 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-03-06T16:10:47</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Em live, Gladson Cameli afirma que está curado da covid-19 e relata “sensação horrível”</t>
+          <t>14:54:29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;N&lt;/span&gt;ão teve boletim oficial. Já passava das 14 horas deste sábado, 6, quando o governador Gladson Cameli [SEM PARTIDO], através de uma live, anunciou que está curado da Covid-19. Ele foi diagnosticado com Covid-19 na segunda-feira, 01, com provável infecção sendo contraída entre os dias 28 de março e primeiro de fevereiro.&lt;/p&gt;
-&lt;p&gt;Na live, Gladson disse que ao receber a notícia que tinha testado positivo para o vírus ficou abalado. “Estou zerado. Graças a Deus. Não desejo a ninguém uma situação dessa. Comentava com amigos próximos, que o psicológico da gente quando é informado que deu positivo é horrível a sensação”, afirmou.&lt;/p&gt;
-&lt;p&gt;Em outro trecho, Cameli ressaltou a importância de uma conscientização maior acerca do vírus e mais uma vez os cuidados com a higiene no uso da máscara para evitar a proliferação do vírus.&lt;/p&gt;
-&lt;p&gt;“Eu queria que as pessoas refletissem um pouco sobre as suas concepções. A minha prioridade é vida! Salvar vidas. Eu disse que não ia ficar politizando e nem vou porque tenho responsabilidade com 1 milhão de acreanos. Eu agradeço a Deus por estar fazendo essa live com vocês. Que Deus nos proteja e nos abençoe. Achar culpado é muito fácil, mas vamos fazer uma corrente e cada um fazer a sua parte. Juntos somos mais fortes. Vamos dizer tchau querido para esse vírus. Não queiram passar o que eu passei. Se cuidem e cuidem dos outros”, afirmou.&lt;/p&gt;
-&lt;p&gt;A transmissão da noticia via facebook foi feita de dentro do carro de uso particular do governador enquanto ele circulava por Rio Branco. Toda a live durou 4 minutos e 5 segundos.&lt;/p&gt;
-</t>
+          <t>Gladson Cameli volta a nomear Alysson Bestene para a Segov</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/em-live-gladson-cameli-afirma-que-esta-curado-da-covid-19-e-relata-sensacao-horrivel/</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/03/WhatsApp-Image-2021-03-06-at-3.07.11-PM.jpeg?fit=900%2C600&amp;ssl=1</t>
+          <t>https://oacreagora.com/gladson-cameli-volta-a-nomear-alysson-bestene-para-a-segov/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-09-08T10:14:07</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Com sintomas de covid-19, Gladson Cameli cancela agendas políticas e institucionais nesta quinta-feira</t>
+          <t>14:54:29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;h4&gt;Governador cumpriu extensa agenda nesta quarta-feira, em decorrência do Dia da Independência e das celebrações ocorridas&lt;/h4&gt;
-&lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A assessoria de campanha do governador Gladson Cameli, do Progressistas, e candidado a reeleição, informou por meio de nota na manhã desta quinta-feira (8), que o gestor acordou apresentando alguns sintomas de covid-19, e por isso, cancelou todas as suas agendas do dia.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&amp;#8220;Por precaução e para resguardar a saúde de todos, está suspensa temporariamente a sua agenda institucional e de campanha, até que sejam realizados os exames necessários para diagnosticar sua situação&amp;#8221;.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;O governador cumpriu extensa agenda na manhã desta quarta-feira (7), em decorrência do Dia da Independência e das celebrações ocorridas em Rio Branco. Ainda segundo a nota, &amp;#8220;Gladson Cameli está bem, apenas com sintomas leves e essa medida se dá apenas para obedecer às normas de saúde definidas pelo protocolo de tratamento&amp;#8221;.&lt;/p&gt;
-</t>
+          <t>Acre: com 25,47% de apuração, Gladson Cameli lidera com disputa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/politica/com-sintomas-de-covid-19-gladson-cameli-cancela-agendas-politicas-e-institucionais-nesta-quinta-feira/</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Imagem não encontrada</t>
+          <t>https://oacreagora.com/acre-com-2547-de-apuracao-gladson-cameli-lidera-com-disputa/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TRE decide hoje se aceita candidatura de Mailza como vice de Cameli</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/tre-decide-hoje-se-aceita-candidatura-de-mailza-como-vice-de-cameli/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Apenas candidatura de Gladson Cameli ainda não foi deferida pelo TSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/tse-defere-candidatura-de-nilson-euclides-apenas-gladson-aguarda-julgamento/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Investigado pela PF, Gladson Cameli declara R$ 114 mil investidos em ouro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/investigado-pela-pf-gladson-declara-r-114-mil-investidos-em-ouro/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gladson Cameli: gênio da política ou político aloprado?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/gladson-cameli-genio-da-politica-ou-politico-aloprado/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bittar responde Viana: “Quem sempre teve apoio da família Cameli foi o PT’</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/bittar-responde-viana-quem-sempre-teve-apoio-da-familia-cameli-foi-o-pt/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mães que perderam filhos voltam a protestar contra Cameli</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/maes-que-perderam-filhos-voltam-a-protestar-em-frente-ao-palacio-rio-branco/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sextou! Gladson Cameli nomeia 11 e exonera 6 nesta sexta-feira (27)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/sextou-gladson-cameli-nomeia-11-e-exonera-6-nesta-sexta-feira-27/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14:54:29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MDB emite nota e enterra boato de que voltaria ao governo de Cameli</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://oacreagora.com/mdb-emite-nota-e-enterra-boato-de-que-voltaria-ao-governo-de-cameli/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
         </is>
       </c>
     </row>

--- a/Scrap/theeye.xlsx
+++ b/Scrap/theeye.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,20 +2625,526 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20:18:02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Neste Dia de Finados de frio não é muito grande a movimentação no Cemitério São João Batista na região central de Cruzeiro do Sul. No Jardim da Paz, no bairro Nova Olinda, há mais gente visitando túmulos de parentes e amigos.&lt;/p&gt;
+&lt;p&gt;No São João Batista, o padre Ronaldo fez a Benção dos Túmulos. O cemitério, localizado na Avenida Lauro Muller, com grandes ladeiras, tem sepulturas na parte baixa e alta do local. O Rio Juruá pode ser visto do “campo santo”.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" loading="lazy" class="jetpack-lazy-image jetpack-lazy-image--handled" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.17.jpeg?w=1200&amp;amp;ssl=1" alt="" width="696" height="522" data-lazy-loaded="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;No Cemitério Jardim da Paz, o túmulo do ex-governador Orleir Cameli é um dos mais visitados. A viúva Beatriz Cameli, diz que as pessoas expressam o carinho que mantém por ele, no Dia de Finados. “Muita gente para e reza por ele e contam coisas boas que ele fez por elas. É um carinho grande, uma veneração por ele como pessoa e como político, que não acaba”, conta ela.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" loading="lazy" class="jetpack-lazy-image jetpack-lazy-image--handled" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.16.jpeg?w=1200&amp;amp;ssl=1" alt="" width="696" height="960" data-lazy-loaded="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;O ex-governador Orleir Cameli, tio do governador Gladson Cameli morreu vítima de câncer em 8 de maio de 2013. Eleito em 1994, ficou no cargo de governador no período de 1995 a 1999. Antes, havia sido prefeito de Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;O Cemitério Jardim da Paz abriga ainda a ala Covid-19, onde estão enterradas mais de 200 vítimas da doença.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/geral/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/11/TUMULO.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20:52:12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bomba: Gladson Cameli e Ana Paula estão em fase de separação; veja detalhes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Fontes confiáveis confirmaram à &lt;strong&gt;coluna Douglas Richer&lt;/strong&gt;, do site&lt;strong&gt; ContilNet&lt;/strong&gt;, nesta semana, que o governador &lt;strong&gt;Gladson Cameli&lt;/strong&gt; e a advogada &lt;strong&gt;Ana Paula Cameli&lt;/strong&gt; estão em fase de separação.&lt;/p&gt;
+&lt;p&gt;O fim do casamento de anos, que trouxe à vida o pequeno Guilherme Cameli, vem sendo especulado há algum tempo nas redes sociais.&lt;/p&gt;
+&lt;figure id="attachment_780244" class="wp-caption aligncenter" aria-describedby="caption-attachment-780244"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-780244 size-large" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=696%2C461&amp;amp;ssl=1" sizes="(max-width: 696px) 100vw, 696px" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=1200%2C794&amp;amp;ssl=1 1200w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=500%2C331&amp;amp;ssl=1 500w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=250%2C165&amp;amp;ssl=1 250w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=768%2C508&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=150%2C99&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=300%2C199&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=696%2C461&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=1068%2C707&amp;amp;ssl=1 1068w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?resize=634%2C420&amp;amp;ssl=1 634w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/1A58C601-C26F-4645-9025-FD0F557588C2.jpeg?w=1284&amp;amp;ssl=1 1284w" alt="" width="696" height="461" /&gt;&lt;figcaption id="caption-attachment-780244" class="wp-caption-text"&gt;O fim do casamento de anos, que trouxe à vida o pequeno Guilherme Cameli. Reprodução&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O processo de separação está sendo feito de forma amigável, foi o que garantiu também a fonte.&lt;/p&gt;
+&lt;p&gt;Procurado pela reportagem do&lt;strong&gt; ContilNet&lt;/strong&gt;, o governador foi questionado sobre o assunto, mas preferiu não se posicionar.&lt;/p&gt;
+&lt;figure id="attachment_780245" class="wp-caption aligncenter" aria-describedby="caption-attachment-780245"&gt;&lt;img decoding="async" loading="lazy" class="size-full wp-image-780245" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=696%2C463&amp;amp;ssl=1" sizes="(max-width: 696px) 100vw, 696px" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?w=960&amp;amp;ssl=1 960w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=500%2C333&amp;amp;ssl=1 500w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=250%2C166&amp;amp;ssl=1 250w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=768%2C511&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=150%2C100&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=696%2C463&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/E5C53430-4098-42B3-836B-1A4D3576009C.jpeg?resize=631%2C420&amp;amp;ssl=1 631w" alt="" width="696" height="463" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-780245" class="wp-caption-text"&gt;Reprodução&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/bomba-gladson-cameli-e-ana-paula-estao-em-fase-de-separacao-veja-detalhes/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/10/5F46D992-7F45-4221-8723-081D60DEE7DB.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00:47:11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Durante encontro, Gladson Cameli oficializa apoio a Bolsonaro no 2º turno</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador reeleito do Acre, Gladson Cameli (PP), participou na manhã desta quinta-feira (6) de um encontro com o presidente da República e candidato à reeleição, Jair Bolsonaro (PL), em Brasília e oficializou seu apoio ao chefe do executivo no segundo turno das eleições, que ocorrerá no dia 30 de outubro.&lt;/p&gt;
+&lt;p&gt;Ao lado de outros governadores que também se reuniram com o presidente, Cameli falou rapidamente à imprensa e relembrou sobre a parceria do estado com o governo federal, principalmente no envio de recursos e vacinas durante a pandemia da Covid-19 e na entrega de títulos aos produtores rurais.&lt;/p&gt;
+&lt;p&gt;O governador reeleito também relembrou que os servidores da educação receberam o maior abono no governo de Bolsonaro. “O Acre tem 22 motivos para apoiar Bolsonaro. O senhor deu o maior abono da educação aos servidores e isso foi através de sua equipe”, disse Cameli, em alusão ao número de Bolsonaro.&lt;/p&gt;
+&lt;blockquote class="instagram-media" data-instgrm-captioned data-instgrm-permalink="https://www.instagram.com/reel/CjYXZsVNugP/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14" style=" background:#FFF; border:0; border-radius:3px; box-shadow:0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width:658px; min-width:326px; padding:0; width:99.375%; width:-webkit-calc(100% - 2px); width:calc(100% - 2px);"&gt;
+&lt;div style="padding:16px;"&gt; &lt;a href="https://www.instagram.com/reel/CjYXZsVNugP/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" background:#FFFFFF; line-height:0; padding:0 0; text-align:center; text-decoration:none; width:100%;" target="_blank"&gt; &lt;/p&gt;
+&lt;div style=" display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display:block; height:50px; margin:0 auto 12px; width:50px;"&gt;&lt;svg width="50px" height="50px" viewBox="0 0 60 60" version="1.1" xmlns="https://www.w3.org/2000/svg" xmlns:xlink="https://www.w3.org/1999/xlink"&gt;&lt;g stroke="none" stroke-width="1" fill="none" fill-rule="evenodd"&gt;&lt;g transform="translate(-511.000000, -20.000000)" fill="#000000"&gt;&lt;g&gt;&lt;path d="M556.869,30.41 C554.814,30.41 553.148,32.076 553.148,34.131 C553.148,36.186 554.814,37.852 556.869,37.852 C558.924,37.852 560.59,36.186 560.59,34.131 C560.59,32.076 558.924,30.41 556.869,30.41 M541,60.657 C535.114,60.657 530.342,55.887 530.342,50 C530.342,44.114 535.114,39.342 541,39.342 C546.887,39.342 551.658,44.114 551.658,50 C551.658,55.887 546.887,60.657 541,60.657 M541,33.886 C532.1,33.886 524.886,41.1 524.886,50 C524.886,58.899 532.1,66.113 541,66.113 C549.9,66.113 557.115,58.899 557.115,50 C557.115,41.1 549.9,33.886 541,33.886 M565.378,62.101 C565.244,65.022 564.756,66.606 564.346,67.663 C563.803,69.06 563.154,70.057 562.106,71.106 C561.058,72.155 560.06,72.803 558.662,73.347 C557.607,73.757 556.021,74.244 553.102,74.378 C549.944,74.521 548.997,74.552 541,74.552 C533.003,74.552 532.056,74.521 528.898,74.378 C525.979,74.244 524.393,73.757 523.338,73.347 C521.94,72.803 520.942,72.155 519.894,71.106 C518.846,70.057 518.197,69.06 517.654,67.663 C517.244,66.606 516.755,65.022 516.623,62.101 C516.479,58.943 516.448,57.996 516.448,50 C516.448,42.003 516.479,41.056 516.623,37.899 C516.755,34.978 517.244,33.391 517.654,32.338 C518.197,30.938 518.846,29.942 519.894,28.894 C520.942,27.846 521.94,27.196 523.338,26.654 C524.393,26.244 525.979,25.756 528.898,25.623 C532.057,25.479 533.004,25.448 541,25.448 C548.997,25.448 549.943,25.479 553.102,25.623 C556.021,25.756 557.607,26.244 558.662,26.654 C560.06,27.196 561.058,27.846 562.106,28.894 C563.154,29.942 563.803,30.938 564.346,32.338 C564.756,33.391 565.244,34.978 565.378,37.899 C565.522,41.056 565.552,42.003 565.552,50 C565.552,57.996 565.522,58.943 565.378,62.101 M570.82,37.631 C570.674,34.438 570.167,32.258 569.425,30.349 C568.659,28.377 567.633,26.702 565.965,25.035 C564.297,23.368 562.623,22.342 560.652,21.575 C558.743,20.834 556.562,20.326 553.369,20.18 C550.169,20.033 549.148,20 541,20 C532.853,20 531.831,20.033 528.631,20.18 C525.438,20.326 523.257,20.834 521.349,21.575 C519.376,22.342 517.703,23.368 516.035,25.035 C514.368,26.702 513.342,28.377 512.574,30.349 C511.834,32.258 511.326,34.438 511.181,37.631 C511.035,40.831 511,41.851 511,50 C511,58.147 511.035,59.17 511.181,62.369 C511.326,65.562 511.834,67.743 512.574,69.651 C513.342,71.625 514.368,73.296 516.035,74.965 C517.703,76.634 519.376,77.658 521.349,78.425 C523.257,79.167 525.438,79.673 528.631,79.82 C531.831,79.965 532.853,80.001 541,80.001 C549.148,80.001 550.169,79.965 553.369,79.82 C556.562,79.673 558.743,79.167 560.652,78.425 C562.623,77.658 564.297,76.634 565.965,74.965 C567.633,73.296 568.659,71.625 569.425,69.651 C570.167,67.743 570.674,65.562 570.82,62.369 C570.966,59.17 571,58.147 571,50 C571,41.851 570.966,40.831 570.82,37.631"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/g&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style=" color:#3897f0; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:550; line-height:18px;"&gt;View this post on Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg)"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style=" width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; line-height:17px; margin-bottom:0; margin-top:8px; overflow:hidden; padding:8px 0 7px; text-align:center; text-overflow:ellipsis; white-space:nowrap;"&gt;&lt;a href="https://www.instagram.com/reel/CjYXZsVNugP/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:normal; line-height:17px; text-decoration:none;" target="_blank"&gt;A post shared by Gladson Cameli (@gladsoncameli)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//platform.instagram.com/en_US/embeds.js"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/durante-encontro-gladson-cameli-oficializa-apoio-a-bolsonaro-no-2o-turno/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-00.45.08-2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08:57:04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gladson Cameli, governador do Acre, declara apoio a Bolsonaro</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador reeleito do Acre, Gladson Cameli (PP), declarou nesta terça-feira (4) que vai apoiar o presidente Jair Bolsonaro (PL) no segundo turno da corrida ao Palácio do Planalto. &amp;#8220;Eu sempre deixei isso muito claro. Mesmo com a pandemia, tivemos o apoio do governo federal. Eu sou muito grato, gosto sempre de externar todo o apoio e presença do governo federal&amp;#8221;, comentou.&lt;/p&gt;
+&lt;p&gt;Cameli foi reeleito no domingo (2) com 56,75% dos votos e disse que Bolsonaro teve papel  importante em temas como a renegociação da dívida do estado e com o apoio em ações de segurança. &amp;#8220;Criamos aqui uma parceria com o governo para monitorar todas as nossas fronteiras, isso foi importante&amp;#8221;, detalhou.&lt;/p&gt;
+&lt;p&gt;Além de Cameli, dos 15 governadores eleitos em primeiro turno, outros cinco já declararam apoio ao presidente Jair Bolsonaro: Ibaneis Rocha (MDB), eleito no Distrito Federal; Cláudio Castro (PL), no Rio de Janeiro; Romeu Zema (Novo), em Minas Gerais; Mauro Mendes (União Brasil), em Mato Grosso; e Antonio Denarium (PP), em Roraima.&lt;/p&gt;
+&lt;p&gt;Cameli foi eleito deputado federal por dois mandatos consecutivos (2007-2014), senador em 2014 e governador do Acre em 2018. O político é formado em engenharia civil pelo Instituto Luterano de Ensino Superior de Manaus (Ulbra).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/gladson-cameli-governador-do-acre-declara-apoio-a-bolsonaro/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/10/governador-gladson-cameli-161220.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>17:11:06</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gladson Cameli é reeleito governador do Acre</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Gladson Cameli (Progressistas) foi reeleito governador do Acre neste domingo, 2. Ele venceu a disputa contra Jorge Viana (PT). Cameli foi o primeiro governador a ter reeleição confirmada no Brasil em 2022.&lt;/p&gt;
+&lt;p&gt;Com 100% das urnas apuradas, Gladson obteve 56,75% (242.100) dos votos válidos, contra 24,21% (103.265) de Jorge Viana. Mara Rocha (MDB) teve 11,06% (47.173) dos votos válidos, Petecão (PSD), 6,42% (27.393), Marcio Bittar (União Brasil), 1,12% (4.773), Professor Nilson (PSOL), 0,26% (1.125), e David Hall (Agir), 0,18% (771).&lt;/p&gt;
+&lt;p&gt;Cameli foi deputado federal por dois mandados e senador pelo Acre, quando em 2018 deixou o cargo para Mailzon Gomes (PP) e disputou o Palácio Rio Branco.&lt;/p&gt;
+&lt;p&gt;A vice-governadora eleita é Mailza Gomes, suplente que ficou no cargo de Gladson quando ele foi eleito em 2018.&lt;/p&gt;
+&lt;p&gt;Aliado de Jair Bolsonaro (PL), Cameli aparecia nas pesquisas com chances de reeleição.&lt;/p&gt;
+&lt;p&gt;Engenheiro civil formado pela Universidade Nilton Lins, Gladson foi eleito em primeiro turno em 2018, contra Marcus Alexandre (PT), que é atual candidato a vice de Jorge Viana.&lt;/p&gt;
+&lt;p&gt;Durante seu governo, Gladson enfrentou a pandemia da Covid-19, chegando a decretar lockdown no estado. Ele também foi investigado pela Polícia Federal, por desvio de verba estadual, mas nega as acusações.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/gladson-cameli-e-reeleito-governador-do-acre/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/10/Foto_oficial_de_Gladson_Cameli.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20:14:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Última pesquisa Ipec mostra Gladson Cameli com 51% e Jorge Viana, 23%, na disputa ao governo do Acre</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Rede Amazônica Acre divulgou na noite desta sexta-feira (30) a última pesquisa Ipec (ex-Ibope) para a disputa ao governo do Acre.&lt;/p&gt;
+&lt;p&gt;O governador e candidato à reeleição Gladson Cameli (PP) lidera a disputa ao Palácio Rio Branco com 51%. Jorge Viana (PT) aparece em seguida com 23%. Os números da pesquisa com votos totais são:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 51% (54% no Ipec anterior, de 19 de setembro)&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT) &amp;#8211; 23% (25% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 9% (6% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Petecão (PSD) &amp;#8211; 7% (5% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 3% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;David Hall (Agir) -1% (1% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Professor Nilson &amp;#8211; 1% (0% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Brancos/nulos &amp;#8211; 2% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Não sabe/não respondeu &amp;#8211; 2% (4% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;O Ipec também simulou os votos válidos, que mostra Gladson Camli (PP) com 53%, seguido por Jorge Viana (PT), com 24%.&lt;/p&gt;
+&lt;p&gt;Para calcular os votos válidos, são excluídos da amostra os votos brancos, os nulos e os eleitores que se declaram indecisos. O procedimento é o mesmo utilizado pela Justiça Eleitoral para divulgar o resultado oficial da eleição. Para vencer no primeiro turno, um candidato precisa de 50% dos votos válidos mais um voto.&lt;/p&gt;
+&lt;p&gt;Confira os números:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 53% (58% no Ipec anterior, de 19 de setembro)&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT) &amp;#8211; 24% (27% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 9% (6% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Petecão (PSD) &amp;#8211; 8% (5% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 4% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;David Hall (Agir) -1% (1% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Professor Nilson &amp;#8211; 1% (0% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Brancos/nulos/indecisos &amp;#8211; 4% (7% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Em uma simulação de segundo turno entre Gladson Cameli (PP) e Jorge Viana (PT), o resultado foi de vitória para o atual governador.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Gladson Cameli (PP): 62% (61% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT): 29% (33% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Brancos e nulos: 6% (4% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Não sabe: 2% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h3&gt;Sobre a pesquisa&lt;/h3&gt;
+&lt;p&gt;A pesquisa ouviu 800 pessoas entre os dias 28 e 30 de setembro em 18 cidades acreanas. A margem de erro é de três pontos percentuais para mais ou para menos, considerando um nível de confiança de 95%.&lt;/p&gt;
+&lt;p&gt;A pesquisa foi registrada no Tribunal Regional Eleitoral do Acre (TRE-AC) com o número Nº AC-04487/2022 e no Tribunal Superior Eleitoral sob o protocolo Nº BR-05339/2022.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/ultima-pesquisa-ipec-mostra-como-esta-a-disputa-ao-governo-do-acre-as-vesperas/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-30-at-20.12.42.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17:43:40</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Jovem morre após cair de caminhonete durante carreata de Gladson Cameli, em Rio Branco; coligação emite nota</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A jovem Kevysla Costa Fernandes de Souza, de 23 anos, morreu vítima de um grave acidente de trânsito no final da tarde desta sexta-feira (30), na Estrada Alberto Torres, no bairro da Paz, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações de testemunhas, Kevysla estava participando de uma carreta do candidato à reeleição Gladson Cameli, e estava com várias pessoas em cima de uma caminhonete modelo S-10 de cor branca, quando acabou se desequilibrando e caindo no meio fio central da estrada.&lt;/p&gt;
+&lt;p&gt;Kevysla morreu na hora devido um Traumatismo Craniano Encefálico (TCE). Após o acidente, o motorista da caminhonete acionou a polícia e uma ambulância.&lt;/p&gt;
+&lt;p&gt;O Serviço de Atendimento Móvel de Urgência (Samu) foi acionado, mas quando os socorristas chegaram ao local, Kevysla já estava sem vida.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do Batalhão de Trânsito foram acionados e isolaram a área para os trabalhos de perícia. O corpo de Kevysla foi recolhido e encaminhado ao Instituto Médico Legal (IML), em Rio Branco, para serem realizados os exames cadavéricos.&lt;/p&gt;
+&lt;p&gt;Após os trabalhos da perícia, o veículo foi liberado e a condutora foi encaminho a Delegacia de Flagrantes (Defla), onde prestará esclarecimentos para autoridade policial.&lt;/p&gt;
+&lt;p&gt;A coligação de Gladson emitiu nota expressando consternação com o ocorrido e solidariedade com a família e amigos da vítima. As atividades da campanha foram suspensas e todo suporte será oferecido para a família, informou a coligação.&lt;/p&gt;
+&lt;h3&gt;NOTA DE SOLIDARIEDADE&lt;/h3&gt;
+&lt;p&gt;Diante do lamentável acontecimento envolvendo a jovem Kevysla Costa Fernandes, a Coligação Avançar para Fazer Mais vem a público expressar sua consternação com o ocorrido e solidariedade com toda a família e amigos.&lt;/p&gt;
+&lt;p&gt;Kevysla era atuante na organização da campanha e sua ausência é sentida por todos nós. Em respeito ao luto, todas as atividades de campanha foram suspensas e foram tomadas as medidas necessárias para oferecer suporte para a família.&lt;/p&gt;
+&lt;p&gt;Coligação Avançar Para Fazer Mais&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/policia/jovem-morre-apos-cair-de-caminhonete-durante-carreata-de-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-30-at-17.41.48.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18:02:37</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gladson Cameli se dedica à eleição de Ney Amorim</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, candidato à reeleição gravou vídeo pedindo votos para o seu candidato ao Senado Ney Amorim. Gladson, que foi o responsável por Ney ser candidato ao Senado, afirma no vídeo sua confiança em Ney e destaca que precisa da eleição do candidato do Podemos.&lt;/p&gt;
+&lt;p&gt;Aliás, em vários vídeos que mostram a campanha de rua de Gladson e Ney o governador tem sido enfático no pedido de votos ao companheiro de chapa dizendo, literalmente que, “quem é 11 é 199 e quem é 199 é 11”. Em se tratando de política, demonstrações de lealdade desse tipo, são raras.&lt;/p&gt;
+&lt;p&gt;Já o candidato ao Senado, Ney Amorim, não deixa por menos, destacando que a reciprocidade de seu grupo é em mesmo nível. As equipes contratadas por Ney usam camisetas com seu número e o número do Govenador. Mas a camiseta que ele usa, pessoalmente, destaca primeiro o número do governador (11) e depois o dele (199).&lt;/p&gt;
+&lt;p&gt;Pra quem não acreditava na condução harmônica e leal de ambos, a campanha demonstra que a união de ambos tem objetivo claro: O futuro.&lt;/p&gt;
+&lt;p&gt;Vale lembrar que Ney Amorim tinha estruturado uma campanha de Deputado Federal, mas no último dia das convenções assumiu a candidatura ao Senado, atendendo ao apelo do Governador que foi isolado pelos partidos que o acompanhavam até então. Com isso Ney Amorim abriu mão de uma possível eleição à câmara, para atender ao pedido do governador Gladson.&lt;/p&gt;
+&lt;div style="width: 740px;" class="wp-video"&gt;&lt;!--[if lt IE 9]&gt;&lt;script&gt;document.createElement('video');&lt;/script&gt;&lt;![endif]--&gt;
+&lt;video class="wp-video-shortcode" id="video-350117-1" width="740" height="419" preload="metadata" controls="controls"&gt;&lt;source type="video/mp4" src="https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Video-2022-09-24-at-11.08.03.mp4?_=1" /&gt;&lt;a href="https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Video-2022-09-24-at-11.08.03.mp4"&gt;https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Video-2022-09-24-at-11.08.03.mp4&lt;/a&gt;&lt;/video&gt;&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/gladson-cameli-se-dedica-a-eleicao-de-ney-amorim/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-24-at-18.01.20.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20:56:21</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gladson Cameli lidera pesquisa Ipec para governo; Alan Rick lidera para o senado</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A TV Acre divulgou na noite desta segunda-feira (19) a nova pesquisa Ipec (ex-Ibope) com os índices de intenção de voto para governo e senado.&lt;/p&gt;
+&lt;h3&gt;De acordo com os dados do Ipec, a pesquisa estimulada tem os seguintes resultados:&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 54% (51% no Ipec anterior, de 29 de agosto)&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT) &amp;#8211; 25% (27% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 6% (6% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Petecão (PSD) &amp;#8211; 5% (5% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 3% (2% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;David Hall (Agir) -1% (0% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Professor Nilson &amp;#8211; 0% (1% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Branco/nulo &amp;#8211; 3% (4% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Não sabe/não respondeu &amp;#8211; 4% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h3&gt;Já na pesquisa espontânea:&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 41% (38% no Ipec anterior, de 29 de agosto)&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT) &amp;#8211; 16% (17% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 2% (3% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Petecão (PSD) &amp;#8211; 2% (2% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 1% (1% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Outros &amp;#8211; 1% (1% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Branco ou nulo &amp;#8211; 3% (4% no Ipec anterior)&lt;/li&gt;
+&lt;li&gt;Não sabem ou não preferem opinar &amp;#8211; 35% (34% no Ipec anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Os candidatos David Hall (Agir) e Nilson Euclides (PSOL) não pontuaram.&lt;/p&gt;
+&lt;h3&gt;Pesquisa para senado&lt;/h3&gt;
+&lt;p&gt;O Ipec também perguntou aos eleitores sobre o cenário da corrida ao senado.&lt;/p&gt;
+&lt;h3&gt;Os resultados da pesquisa estimulada foram:&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;Alan Rick (União Brasil) &amp;#8211; 33% (29% no Ipec anterior, de 29 de agosto)&lt;/li&gt;
+&lt;li&gt;Ney Amorim (Podemos) &amp;#8211; 18% (17% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Marcia Bittar (PL) &amp;#8211; 15% (15% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Dr. Jenilson Leite (PSB) &amp;#8211; 9% (10% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Nazareth Araújo (PT) &amp;#8211; 6% (2% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Dra Vanda Milani (Pros) &amp;#8211; 4% (5% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Dimas Sandas (Agir) &amp;#8211; 1% (1% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Sanderson Moura &amp;#8211; 1% (não pontuou na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Branco/nulo &amp;#8211; 4% (9% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Não sabe/Não respondeu &amp;#8211; 10% (12% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h3&gt;Já a pesquisa espontânea mostra os seguintes resultados:&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;Alan Rick (União Brasil) &amp;#8211; 17% (9% no Ipec anterior, de 29 de agosto)&lt;/li&gt;
+&lt;li&gt;Ney Amorim (Podemos) &amp;#8211; 9% (6% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Dr. Jenilson Leite (PSB) &amp;#8211; 5% (4% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Marcia Bittar (PL) &amp;#8211; 5% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Nazareth Araújo (PT) &amp;#8211; 4% (2% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Dra. Vanda Milani (Pros) &amp;#8211; 2% (2% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Sanderson Moura (PSOL) &amp;#8211; não foi citado (0% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Outros &amp;#8211; 2% (3% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Branco ou nulo &amp;#8211; 3% (7% na pesquisa anterior)&lt;/li&gt;
+&lt;li&gt;Não sabem ou preferem não opinar &amp;#8211; 53% (65% na pesquisa anterior)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h3&gt;Sobre a pesquisa&lt;/h3&gt;
+&lt;p&gt;A pesquisa ouviu 800 pessoas entre os dias 16 e 18 de setembro em 19 municípios do Acre. A margem de erro é de três pontos percentuais para mais ou para menos, considerando um nível de confiança de 95%.&lt;/p&gt;
+&lt;p&gt;A pesquisa foi registrada no Tribunal Regional Eleitoral (TRE) do Acre sob o número AC03861/2022.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/nova-pesquisa-ipec-e-divulgada-no-acre-e-mostra-cenario-faltando-2-semanas-para-eleicoes/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/09/WhatsApp-Image-2022-09-19-at-21.25.09.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10:09:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Diário Oficial: Gladson Cameli promeve mudanças no Governo do Estado</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (Progressistas) realizou mudanças na estrutura de seu governo e publicou oito exonerações e nomeações no Diário Oficial desta segunda-feira (22).&lt;/p&gt;
+&lt;p&gt;Entre as mudanças está a mudança na chefia de departamento da Secretaria de Estado do Meio Ambiente e das Políticas Indígenas (SEMAPI) com a exoneração de Claudenir Maria Ferreira. Em seu lugar, o governador nomeou Anderson Magalhães Sobral.&lt;/p&gt;
+&lt;p&gt;Outra mudança é a exoneração de Cristiano Hechenberger do cargo de gerente-administrativo do Centro de Controle Oncológico do Acre. Para seu lugar foi nomeada Jayana Karoline Miranda Sampaio Da Costa.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Veja outras nomeações e exonerações:&lt;br /&gt;
+&lt;/strong&gt;&lt;br /&gt;
+Nomear MIQUELSON DO NASCIMENTO BARROSO para exercer o Cargo em Comissão, referência CEC-2, no Instituto de Administração Penitenciária do Acre – IAPEN.&lt;/p&gt;
+&lt;p&gt;Exonerar, JOSÉ MARIA CARNEIRO DA SILVA, do Cargo em Comissão, referência CEC-1, da Secretaria de Estado de Justiça e Segurança Pública – SEJUSP.&lt;/p&gt;
+&lt;p&gt;Exonerar ELIEL DE SOUZA MESQUITA do Cargo em Comissão, referência CEC-2, da Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;Nomear AUGUSTINO TEODORO PIZZIGA para exercer o Cargo em Comissão, referência CEC-1, na Secretaria de Estado de Justiça e Segurança Pública – SEJUSP.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/politica/diario-oficial-gladson-cameli-promeve-mudancas-no-governo-do-estado/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/08/Z-48.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>10:33:39</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Cirleudo Alencar e Petrônio Antunes são nomes certos para a próxima gestão de Cameli</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Próximas eleições &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;No Acre mal se termina um pleito e já se começa a falar em outro. O alvo agora são as eleições municipais. Sobre a disputa pela Prefeitura de Rio Branco, o senador Sérgio Petecão nega que tenha afirmado que não apoiará Bocalom no projeto de reeleição.&lt;/span&gt;&lt;/p&gt;
@@ -2668,34 +3174,34 @@
 </t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/cirleudo-alencar-e-petronio-antunes-sao-nomes-certos-para-a-proxima-gestao-de-cameli/</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/cirleudoepetroniobanner.jpg</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>08:24:54</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Gladson Cameli critica protestos pós-2º turno e quer diálogo com Lula</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista ao Metrópoles, o governador reeleito do Acre, Gladson Cameli (PP), criticou as manifestações registradas nos últimos dias que impediram a circulação de carros em estradas de todo país. Desde o dia 30 de outubro, apoiadores do presidente Jair Bolsonaro (PL) foram às ruas para protestar contra a vitória de Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
 &lt;p&gt;Cameli, que é aliado de Bolsonaro, requisitou a ação das forças de segurança do estado para impedir os bloqueios das rodovias BR-364 e BR-367, sob risco de impacto no abastecimento do estado.&lt;/p&gt;
@@ -2714,34 +3220,34 @@
 </t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/gladson-cameli-critica-protestos-pos-2o-turno-e-quer-dialogo-com-lula/</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/gladsonlulabanner.jpg</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>10:10:26</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Gladson Cameli é sensato ao não apoiar manifestações antidemocráticas, diz colunista</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Sensato&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli mostrou sensatez na entrevista que concedeu à Joven Pan News dizendo que solicitará forças de segurança para colocar fim aos bloqueios na estradas acreanas realizados após a derrota do presidente Bolsonaro.&lt;/p&gt;
@@ -2772,34 +3278,34 @@
 </t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/11/gladson-cameli-e-sensato-ao-nao-apoiar-manifestacoes-antidemocraticas-diz-colunista/</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/gladson-1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>2022-10-04</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>15:26:59</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Governo pretende realizar novos concursos na saúde, educação e Polícia Pena, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista à Rede Amazônica na manhã desta terça-feira, 4, o governador reeleito, Gladson Cameli (Progressistas), declarou que seu próximo governo será focado na geração de emprego e renda e para isso, garantiu que irá buscar a realização de novos concursos na área da saúde, educação e segurança.&lt;/p&gt;
 &lt;p&gt;Um dos certames mais aguardados pelos concurseiros de plantão será o da Polícia Penal &amp;#8211; sendo que o último foi realizado em 2007 &amp;#8211; ainda na gestão de Binho Marques do PT. &amp;#8220;Vamos soltar o novo edital do concurso da penal&amp;#8221;, comentou destacando também a realização de concursos na área de saúde e educação.&lt;/p&gt;
@@ -2808,34 +3314,34 @@
 </t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/governo-pretende-realizar-novos-concursos-na-saude-educacao-e-policia-pena-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/146301FD-1A5F-4EEB-9EFB-E3F1D9F5730A.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>10:19:21</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Depois de um mandato de oposição a Cameli, Duarte promete ajudar o Acre em Brasília sem retaliações ao governador</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Eleito deputado federal no último dia 02 de outubro, Roberto Duarte (Republicanos ) que atualmente é deputado estadual fazendo uma espécie de posição ao governador Gladson Cameli promete que na Câmara Federal será diferente, que ajudará o Acre com suas emendas e que continuará trabalhando em prol da população.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;Em entrevista à Folha do Acre na manhã de segunda-feira (3) Duarte afirmou que ajudará o Acre da mesma forma que sempre fez. &lt;/span&gt;&lt;/p&gt;
@@ -2843,34 +3349,34 @@
 </t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/depois-de-um-mandato-de-oposicao-a-cameli-duarte-promete-ajudar-o-acre-em-brasilia-sem-retaliacoes-ao-governador/</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2021/12/duarte-Copy.jpg</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>09:18:06</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
 &lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
@@ -2883,34 +3389,34 @@
 </t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/9F21D43F-28CE-4649-909B-6EFAE97C5981.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>08:14:11</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Ney Amorim é convidado a fazer parte da equipe de Gladson Cameli em 2023</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
 &lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
@@ -2924,34 +3430,34 @@
 </t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/ney-amorim-e-convidado-a-fazer-parte-da-equipe-de-gladson-cameli-em-2023/</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/5EAEB311-EEF4-4BD4-8C6E-5A0DA91A8E7F.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>21:14:15</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>&amp;#8220;As urnas mostraram a cada um o tamanho que realmente tem&amp;#8221;, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista coletiva concedida à imprensa na noite de domingo (2), logo após ter sido reeleito governador do Acre, Gladson Cameli (PP) agradeceu a Deus e a população pela vitória. Gladson estava acompanhado da vice, Mailza Gomes, e do candidato derrotado ao Senado pela coligação dele, Ney Amorim.&lt;/p&gt;
 &lt;p&gt;Gladson afirmou que as urnas demonstraram o tamanho que cada um realmente tem, mas frisou que as disputas acabam aqui após o resultado das urnas.&lt;/p&gt;
@@ -2961,34 +3467,34 @@
 </t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/as-urnas-mostraram-a-cada-um-o-tamanho-que-realmente-tem-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-20.16.55-Copy.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>17:58:02</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Gladson Cameli é reeleito governador do Acre com mais de 56% dos votos válidos</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div dir="auto" data-removefontsize="true" data-originalcomputedfontsize="16"&gt;Com mais de 56% dos votos válidos, o governador Gladson Cameli (PP), da coligação Avançar Para Fazer Mais, foi reeleito no primeiro turno  para governar o Acre pelos próximos 4 anos.&lt;/div&gt;
 &lt;div dir="auto" data-removefontsize="true" data-originalcomputedfontsize="16"&gt;&lt;/div&gt;
@@ -3008,34 +3514,34 @@
 </t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/gladson-cameli-e-reeleito-governador-do-acre-com-mais-de-56-dos-votos-validos/</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/09/gladsonpesquisa.jpg</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>13:10:42</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Gladson Cameli chegará a Rio Branco para apuração dos votos acompanhado da primeira dama</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli afirmou à reportagem da Folha do Acre que decola em instantes de Cruzeiro do Sul para Rio Branco de onde acompanhará a apuração dos votos.&lt;/p&gt;
 &lt;p&gt;A informação foi dada por Gladson às 13h e o embarque estava previsto para 40 minutos depois.&lt;/p&gt;
@@ -3045,34 +3551,34 @@
 </t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/2022/10/gladson-cameli-chegara-a-rio-branco-para-apuracao-dos-votos-acompanhado-da-primeira-dama/</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/13F97C8E-57FE-45BE-95B9-73A49DF9910E.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>10:01:09</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>TRE-AC marca diplomação de Gladson Cameli e Mailza Gomes para 15 de dezembro</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61394" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png" alt="" width="717" height="449" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png 717w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-300x188.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-696x436.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-671x420.png 671w" sizes="(max-width: 717px) 100vw, 717px" /&gt;&lt;/p&gt;
 &lt;p&gt;A diplomação do governador reeleito Gladson Cameli e da vice-governadora Mailza Gomes, ambos do PP, está marcada para o dia 15 de dezembro pelo Tribunal Regional Eleitoral do Acre (TRE-AC). A cerimônia será às 10h no plenário do TRE-AC, localizado no Portal da Amazônia, em Rio Branco.&lt;/p&gt;
@@ -3082,34 +3588,34 @@
 </t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/12/tre-ac-marca-diplomacao-de-gladson-cameli-e-mailza-gomes-para-15-de-dezembro/</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>22:52:05</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61150" src="http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9-265x198.jpg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
 &lt;p&gt;O deputado federal e senador eleito Alan Rick (UB), participou na manhã desta segunda-feira (28), de uma reunião com membros da equipe de transição do governador Gladson Cameli (PP), reeleito em outubro deste ano. O encontro se deu na sede da Casa Civil, em Rio Branco.&lt;/p&gt;
@@ -3120,34 +3626,34 @@
 </t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli-2/</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/c1878a4f-1df9-4160-b158-04aac04c16d9.jpg</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>22:30:47</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61147" src="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110-265x198.jpg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
 &lt;p&gt;O deputado federal e senador eleito Alan Rick (UB), participou na manhã desta segunda-feira (28), de uma reunião com membros da equipe de transição do governador Gladson Cameli (PP), reeleito em outubro deste ano. O encontro se deu na sede da Casa Civil, em Rio Branco.&lt;/p&gt;
@@ -3162,34 +3668,34 @@
 </t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/IMG-20221128-WA0110.jpg</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>11:47:03</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-60638" src="http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg" alt="" width="1536" height="944" srcset="http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg 1536w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-300x184.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-1024x629.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-768x472.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-696x428.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-1068x656.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-683x420.jpeg 683w, http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1-356x220.jpeg 356w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
@@ -3201,34 +3707,34 @@
 </t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E-e1669124908213-1536x944-1.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>10:12:45</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-59990" src="http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg" alt="" width="1536" height="1085" srcset="http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg 1536w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-300x212.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-1024x723.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-768x543.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-696x492.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-1068x754.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-595x420.jpeg 595w, http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1-100x70.jpeg 100w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
@@ -3243,34 +3749,34 @@
 </t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1536x1085-1.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>10:26:43</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-59060" src="http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg" alt="" width="1536" height="1024" srcset="http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-1024x683.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-768x512.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-696x464.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-1068x712.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1-630x420.jpg 630w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
 &lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
@@ -3287,34 +3793,34 @@
 </t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/11/img_8689-1536x1024-1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>15:43:07</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-57157" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png" alt="" width="658" height="432" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png 658w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205-300x197.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205-640x420.png 640w" sizes="(max-width: 658px) 100vw, 658px" /&gt;&lt;/p&gt;
 &lt;p&gt;Com o objetivo de promover a integração entre os órgãos de defesa, segurança e desenvolvimento econômico e social do Acre, a Associação dos Diplomados da Escola Superior de Guerra no Acre (Adesg/AC) e Sebrae no Acre, com apoio da Escola Superior de Guerra (ESG), realizou o 2º Seminário de Integração da Defesa, Segurança e Desenvolvimento Econômico e Social no Acre, nesta segunda-feira, 17, no auditório do Sebrae.&lt;/p&gt;
@@ -3332,34 +3838,34 @@
 </t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-17-154205.png</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>11:01:13</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Gladson Cameli faz quase 20 nomeações e exonerações</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-57061" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png" alt="" width="695" height="461" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png 695w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1-300x199.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1-633x420.png 633w" sizes="(max-width: 695px) 100vw, 695px" /&gt;&lt;/p&gt;
 &lt;p&gt;O Governo do Estado publicou uma série de exonerações, nomeações e outras mudanças na edição do Diário Oficial do Estado (DOE) desta segunda-feira (17).&lt;/p&gt;
@@ -3395,34 +3901,34 @@
 </t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes/</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-06-101105-1.png</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>10:02:28</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-56774" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png" alt="" width="702" height="458" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png 702w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-300x196.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-696x454.png 696w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018-644x420.png 644w" sizes="(max-width: 702px) 100vw, 702px" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nesta quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
@@ -3440,34 +3946,34 @@
 </t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-14-100018.png</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>2022-10-12</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>18:36:47</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-56645" src="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png" alt="" width="700" height="457" srcset="http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png 700w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-300x196.png 300w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-696x454.png 696w, http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527-643x420.png 643w" sizes="(max-width: 700px) 100vw, 700px" /&gt;&lt;/p&gt;
 &lt;p&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/p&gt;
@@ -3478,34 +3984,34 @@
 </t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>http://yaconews.com/2022/10/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://yaconews.com/wp-content/uploads/2022/10/Anotacao-2022-10-12-183527.png</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>2022-11-23</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>06:43:48</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -3518,34 +4024,34 @@
 </t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>2022-10-13</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>08:18:30</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&amp;nbsp;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/p&gt;
@@ -3557,34 +4063,34 @@
 </t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>07:59:00</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -3615,34 +4121,34 @@
 </t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>13:31:56</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Rei da soja declara apoio à candidatura de Orleilson Cameli a deputado federal</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="768" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1024x768.jpg" alt="" class="wp-image-96658" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1024x768.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-300x225.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-768x576.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-1536x1152.jpg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027-120x90.jpg 120w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0027.jpg 1600w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -3658,34 +4164,34 @@
 </t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/rei-da-soja-declara-apoio-a-candidatura-de-orleilson-cameli-a-deputado-federal/</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>10:01:06</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Em debate, Jorge Viana diz que existe o Acre real, da fome, do caos na saúde pública, da corrupção e o Acre inventado por Gladson Cameli e garante criar o maior programa de obras e infraestrutura para o estado voltar a crescer</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="683" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006.jpg" alt="" class="wp-image-96627" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006-300x200.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220919-WA0006-768x512.jpg 768w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -3699,34 +4205,34 @@
 </t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/em-debate-jorge-viana-diz-que-existe-o-acre-real-da-fome-do-caos-na-saude-publica-da-corrupcao-e-o-acre-inventado-por-gladson-cameli-e-garante-criar-o-maior-programa-de-obras-e-infraestrutura-para/</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>11:16:57</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>&amp;#8220;Eu vi o tamanho do meu pai quando ele morreu&amp;#8221;, diz filho de Orleir Cameli</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="622" src="https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-1024x622.jpg" alt="" class="wp-image-96578" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-1024x622.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-300x182.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO-768x466.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/ORLEILSONFRANCO.jpg 1080w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -3739,34 +4245,34 @@
 </t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/eu-vi-o-tamanho-do-meu-pai-quando-ele-morreu-diz-filho-de-orleir-cameli/</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>2022-09-05</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>16:51:03</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Eládio Cameli reforça time de Orleilson Cameli na candidatura a deputado federal</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="622" src="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-1024x622.jpg" alt="" class="wp-image-96213" srcset="https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-1024x622.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-300x182.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059-768x466.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/09/IMG-20220905-WA0059.jpg 1080w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -3777,34 +4283,34 @@
 </t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/eladio-cameli-reforca-time-de-orleilson-cameli-na-candidatura-a-deputado-federal/</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>20:17:49</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Pesquisa Ipec no Acre: Gladson Cameli tem 51% e Jorge Viana 27%</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="1024" src="https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1024x1024.jpg" alt="" class="wp-image-95985" srcset="https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1024x1024.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-300x300.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-150x150.jpg 150w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-768x768.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630-1536x1536.jpg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/08/IMG_20220829_201630.jpg 1564w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
@@ -3834,34 +4340,34 @@
 </t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/pesquisa-ipec-no-acre-gladson-cameli-tem-51-e-jorge-viana-27/</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>2022-08-06</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>14:09:46</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Disputa ao governo tem Gladson Cameli, Mara Rocha, Jorge Viana e Márcio Bittar no páreo</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;br&gt;O prazo para a realização das convenções partidárias encerrou na última sexta-feira, 5. No Acre, as siglas optaram por realizar o evento e apresentar seus respectivos candidatos nas chapas majoritária e proporcional apenas no último dia.&lt;/p&gt;
@@ -3904,34 +4410,34 @@
 </t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/disputa-ao-governo-tem-gladson-cameli-mara-rocha-jorge-viana-e-marcio-bittar-no-pareo/</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>12:22:21</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Ney Amorim pode ser o vice de Gladson Cameli&lt;br&gt;se Alan Rick for impedido</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;O ex-deputado acreano e atual presidente do Podemos no Estado, Ney Amorim, está no radar do governador Gladson Cameli (Progressistas) para integrar a chapa majoritária.&lt;/p&gt;
@@ -3943,34 +4449,34 @@
 </t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>https://jornalopiniao.net/ney-amorim-pode-ser-o-vice-de-gladson-camelise-alan-rick-for-impedido/</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>2022-11-30</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>19:25:15</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Ex-prefeito Dêda recebe em seu gabinete assessores do governo Gladson Cameli para uma reunião voltada a governabilidade</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/attachment/ex-prefeito-deda-11/" rel="attachment wp-att-292763"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292763" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg" alt="" width="750" height="420" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11-300x168.jpg 300w" sizes="(max-width: 750px) 100vw, 750px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Na manhã desta quarta-feira (30), o ex-prefeito Dêda recebeu no seu gabinete político dois assessores do governo para uma reunião política voltada para a discussão sobre as inúmeras demandas do estado e uma possível forma em auxiliar na governabilidade.&lt;/strong&gt;&lt;/p&gt;
@@ -3980,34 +4486,34 @@
 </t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>13:25:53</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Deputada Maria Antônia e ex-prefeito Dêda não têm medido esforços para fortalecer as relações com o secretariado do governo Gladson Cameli</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/deputada-maria-antonia-e-ex-prefeito-deda-nao-tem-medido-esforcos-para-fortalecer-as-relacoes-com-o-secretariado-do-governo-gladson-cameli/attachment/deputada-estadual-maria-antonia-e-o-ex-prefeito-deda/" rel="attachment wp-att-292560"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292560" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda.jpeg" alt="" width="1024" height="768" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-300x225.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-768x576.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-estadual-Maria-Antonia-e-o-ex-prefeito-Deda-750x563.jpeg 750w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;A deputada estadual Maria Antônia e o ex-prefeito Dêda Amorim não têm medido esforços para fortalecer as relações com o secretariado do governo do estado e manter o diálogo entre os poderes. A parlamentar e seu esposo tem tratado com muito zelo as emendas parlamentares destinadas aos município do Acre.&lt;/strong&gt;&lt;/p&gt;
@@ -4023,34 +4529,34 @@
 </t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica/deputada-maria-antonia-e-ex-prefeito-deda-nao-tem-medido-esforcos-para-fortalecer-as-relacoes-com-o-secretariado-do-governo-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>2022-11-21</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>10:09:32</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Ainda não deu pitaco: Prestes a assumir o segundo mandato, governador Gladson Cameli ainda não definiu o perfil de seu novo secretariado</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica-destaque/ainda-nao-deu-pitaco-prestes-a-assumir-o-segundo-mandato-governador-gladson-cameli-ainda-nao-definiu-o-perfil-de-seu-novo-secretariado/attachment/prestes-assumir-o-segundo-mantado-governador-gladson-cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados/" rel="attachment wp-att-292367"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292367" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados.jpg" alt="" width="1065" height="710" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados.jpg 1065w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-1024x683.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-768x512.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prestes-assumir-o-segundo-mantado-governador-Gladson-Cameli-ainda-nao-definiu-qual-perfil-de-seu-novo-secretariados-750x500.jpg 750w" sizes="(max-width: 1065px) 100vw, 1065px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;b&gt;Sem pressão e com tempo para avaliar o que cada secretário apresentou na gestão, o governador Gladson Cameli (Porgressista) ainda não deu pitaco sobre a nominada de seu novo secretariado para o segundo mandato no Acre.&lt;/b&gt;&lt;/p&gt;
@@ -4061,34 +4567,34 @@
 </t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/ainda-nao-deu-pitaco-prestes-a-assumir-o-segundo-mandato-governador-gladson-cameli-ainda-nao-definiu-o-perfil-de-seu-novo-secretariado/</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>13:51:36</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Ao participar de encontro com presidente Lula, Gladson Cameli dá demonstração de que a eleição acabou e agora é hora de firmar parcerias</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292168" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias.jpeg" alt="" width="1140" height="570" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias.jpeg 1140w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-300x150.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-1024x512.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-768x384.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-360x180.jpeg 360w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ao-participar-de-encontro-com-Lula-Gladson-Cameli-dar-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias-750x375.jpeg 750w" sizes="(max-width: 1140px) 100vw, 1140px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Governadores da Amazônia Legal participaram de encontro com o presidente eleito &amp;#8211; Foto: Reprodução&lt;/strong&gt;&lt;/p&gt;
@@ -4102,34 +4608,34 @@
 </t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/ao-participar-de-encontro-com-presidente-lula-gladson-cameli-da-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias/</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>11:46:21</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli abandona obra de reforma do único Ginásio de Esporte em Marechal Thaumaturgo e gera revolta nos desportistas local</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-292136" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli-.jpg" alt="" width="1002" height="561" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli-.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governador-Gladson-Cameli--300x168.jpg 300w" sizes="(max-width: 1002px) 100vw, 1002px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Governador do Acre , Gladson Cameli &amp;#8211; Foto: Reprodução / Secom&lt;/strong&gt;&lt;/p&gt;
@@ -4144,34 +4650,34 @@
 </t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/governador-gladson-cameli-abandona-obra-de-reforma-do-unico-ginasio-de-esporte-em-marechal-thaumaturgo-e-gera-revolta-nos-desportistas-local/</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>2022-11-13</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>14:33:45</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Deputado bolsonaristas eleito, Coronel Ulysses, é investigado por contrato suspeito de mais de 27 milhões com governo de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter wp-image-292026" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro.jpg" alt="" width="1120" height="627" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Ulysses-e-Bolsonaro-300x168.jpg 300w" sizes="(max-width: 1120px) 100vw, 1120px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Deputado bolsonaristas é investigado por contrato suspeito de 27 milhões com governo do Acre &amp;#8211; Foto: Reprodução / Google&lt;/strong&gt;&lt;/p&gt;
@@ -4187,34 +4693,34 @@
 </t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/deputado-bolsonaristas-eleito-coronel-ulysses-e-investigado-por-contrato-suspeito-de-mais-de-27-milhoes-com-governo-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>2022-11-09</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>09:38:59</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Sem pressão depois de uma vitória, Governador Gladson Cameli terá liberdade de sobra para escolher o secretariado do seu novo governo</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-291902" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo.jpg" alt="" width="1266" height="845" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo.jpg 800w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-768x513.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sem-pressao-depois-de-uma-vitoria-sua-Gladson-Cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo-750x501.jpg 750w" sizes="(max-width: 1266px) 100vw, 1266px" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Quando o TRE havia contabilizado 97,93% das urnas apuradas, o atual governador do Acre, Gladson Cameli (PP), era anunciado reeleito para o cargo. Ele recebeu 235.705 votos (56,64% dos votos válidos), contra 24,29% de Jorge Viana (PT). diferente de 2018, quando ganhou rodeado de uma penca de grandes partidos e lideranças famintas por espaços de poder, Agora o governador usará os dois meses que lhe restam do primeiro mandato, para planejar e fazer um time do seu jeito e com a sua governabilidade.&lt;/strong&gt;&lt;/p&gt;
@@ -4224,34 +4730,34 @@
 </t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/sem-pressao-depois-de-uma-vitoria-governador-gladson-cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo/</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>2022-10-29</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>18:34:38</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>No governo Gladson Cameli, alunos da escola Valéria Bispo Sabala do ramal do 18 estão há 10 dias sem estudar por falta de transporte</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-291545" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre.jpg" alt="" width="800" height="475" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre.jpg 800w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-300x178.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-768x456.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-do-Acre-750x445.jpg 750w" sizes="(max-width: 800px) 100vw, 800px" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;No governo Gladson Cameli alunos da escola Valério Bispo Sabala do ramal do 18 estão a oito dia sem estudar por falta de transporte &lt;/strong&gt;&lt;/p&gt;
@@ -4263,34 +4769,34 @@
 </t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/no-governo-gladson-cameli-alunos-da-escola-valeria-bispo-sabala-do-ramal-do-18-estao-ha-10-dias-sem-estudar-por-falta-de-transporte/</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>2022-10-24</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>20:23:00</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Após Gladson transformar o estado em um cabide de emprego, justiça determina que Cameli convoque os aprovados no concurso do Corpo de Bombeiros</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-291386" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque.jpeg" alt="" width="1280" height="853" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque.jpeg 1280w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-300x200.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-1024x682.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-768x512.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-750x500.jpeg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Apos-Cameli-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-Gladson-convoque-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;O concurso tem validade de dois anos, podendo ser prorrogado por igual período. Durante o curso, cada aluno soldado combatente receberá, mensalmente, R$ 4.344,22 &amp;#8211; Foto: Marcos Vicentti / Secom&lt;/strong&gt;&lt;/p&gt;
@@ -4313,34 +4819,34 @@
 </t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/apos-gladson-transformar-o-estado-em-um-cabide-de-emprego-justica-determina-que-cameli-convoque-os-aprovados-no-concurso-do-corpo-de-bombeiros/</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>2022-10-22</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>12:37:35</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>A esperança da população de Rodrigues Alves em ter sua tão sonhada Ponte, vai depender da vitória de Lula, Gladson Cameli e Bolsonaro passaram 4 anos enganando os rodriguesalvenses</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img loading="lazy" class="aligncenter  wp-image-291247" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro.jpg" alt="" width="954" height="534" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/10/Gladson-Cameli-Lula-e-Bolsonaro-300x168.jpg 300w" sizes="(max-width: 954px) 100vw, 954px" /&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;b&gt;Governador Gladson Cameli, ex-presidente Luiz Inácio Lula da Silva e Jair Bolsonaro &amp;#8211; Foto: Reprodução Marcelo Camargo /Agência Brasil / Time.com&lt;/b&gt;&lt;/p&gt;
@@ -4357,34 +4863,672 @@
 </t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/a-esperanca-da-populacao-de-rodrigues-alves-em-ter-sua-tao-sonhada-ponte-vai-depender-da-vitoria-de-lula-gladson-cameli-e-bolsonaro-passaram-4-anos-enganando-os-rodriguesalvenses/</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>21:58:45</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Gladson Cameli, do PP, foi reeleito neste domingo (7) governador do Acre para os próximos quatro anos. Ele toma posse em 1º de janeiro de 2023, e terá como vice a senadora Mailza Gomes (PP).&lt;/p&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="19" data-block-id="6"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Com 56,75% dos votos válidos, Cameli teve 242.100 votos , contra 24,21%, sendo 103.265 votos de Jorge Viana, PT.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ainda em Cruzeiro do Sul, Gladson garantiu que vai cumprir com suas promessas de campanha e falou, especificamente, sobre as áreas da educação e saúde.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="114" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Vamos continuar respeitando a democracia, a liberdade de imprensa e, ao mesmo tempo, cumprir com o que falamos em relação à redução do alto índice de desemprego para que a gente possa, além de gerar emprego, aquecer a economia. Queremos também criar mais oportunidades em todas as áreas como universalizar, por exemplo, um prato extra em todas as escolas estaduais. Temos um programa criado no primeiro ano de governo onde nós vamos comprar tudo aquilo que o pequeno produtor produzir nas suas localidades para que a gente possa utilizar nas refeições dos nossos alunos. Na saúde queremos acabar com as filas eletivas e humanizar mais a saúde, além do atendimento através da telemedicina.”&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="22" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Quando chegou em &lt;a href="https://g1.globo.com/ac/acre/cidade/rio-branco/"&gt;Rio Branco&lt;/a&gt; Gladson recebeu a imprensa e agradeceu ao povo que o elegeu e disse que a caminhada continua.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="67" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Em primeiro lugar, quero agradecer por esta caminhada. Tentamos levar uma mensagem às pessoas, aos lugares mais difíceis levando em conta que eu, como governador, ainda tinha as obrigações governamentais. Quero agradecer meu chefe maior, que é Deus, à Mailza, o Ney e o meu povo que reconheceu o que fizemos, cobrou o que ainda não fizemos, e, principalmente, confiou em tudo o que ainda vamos fazer.”&lt;/p&gt;
+&lt;div id="attachment_270449" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-270449" loading="lazy" class="wp-image-270449 size-epic-featured-750" src="https://noticiadoacre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203217-750x563.webp" alt="" width="740" height="555" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203217-750x563.webp 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203217-300x225.webp 300w, https://noticiadoacre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203217-768x576.webp 768w, https://noticiadoacre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203217.webp 984w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-270449" class="wp-caption-text"&gt;Gladson comemorou ao lado de sua vice, Mailza Gomes — Foto: Aline Nascimento/g1&lt;/p&gt;&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="18" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O governador eleito agradeceu também à família e a todos os que o ajudaram a ser reeleito.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="122" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Quero agradecer a minha família, meu filho, a Ana Paula, que estão em Cruzeiro, e a todos os coordenadores, os que balançaram bandeira, porque foram essas pessoas as responsáveis por levar a mensagem ao eleitor que estava indeciso. As urnas não mentem, a votação deu a cada um o tamanho que realmente tem. Para mim, o recado foi claro mais uma vez, o recado foi claro, o povo me deu oportunidade de seguir à frente a agora com a responsabilidade dobrada de promover os avanços que o nosso Acre necessita. Aos meus adversários com mandato quero assegurar que a eleição termina agora, já nessa segunda-feira a gente vai sentar para unir as forças para melhorar de fato a vida das pessoas parabéns.”&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="16"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Apuração no AC&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="51" data-block-id="17"&gt;
+&lt;ul class="content-unordered-list"&gt;
+&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 56,75% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;Jorge Viana (PT) &amp;#8211; 24,21% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 11,06% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;Petecão (PSD) &amp;#8211; 6,42% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;Marcio Bittar (União Brasil) – 1,12% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;Professor Nilson (Psol) – 0,26% &amp;#8211; votos;&lt;/li&gt;
+&lt;li&gt;David Hall (AGIR) &amp;#8211; 0,18% &amp;#8211; votos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Perfil&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="45" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Gladson, que tem 43 anos, já ocupou o cargo de Senador da República. Ele entrou na vida pública aos 28 anos, quando foi eleito pela primeira vez deputado federal com 18.886 votos. Em 2010, foi eleito pela segunda vez deputado federal com 32.623 votos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="20"&gt;&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="21"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Filho de Eládio Messias Cameli e Maria Lindomar de Lima Cameli, Gladson de Lima Cameli é natural de Cruzeiro do Sul, segunda maior cidade do Acre, é casado com a advogada Ana Paula Correia da Silva Cameli e pai de Guilherme Correia Cameli, de 8 anos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O governador nasceu no dia 26 de março de 1978. É bacharel em engenharia civil desde 2001 e formado pelo Instituto Luterano de Ensino Superior de Manaus Ulbra, no Amazonas. Sua trajetória política vem de família, já que é sobrinho do ex-governador do estado Orleir Cameli.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="29" data-block-id="23"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em seu segundo mandato como deputado federal, se destacou à frente da Comissão da Amazônia, através da indicação da Comissão de Integração Nacional, Desenvolvimento Regional e da Amazônia (Cindra).&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="22" data-block-id="24"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Foi filiado ao PFL durante (2000-2003) e ao PPS durante (2003-2005). É filiado ao Progressistas desde 2005 permanecendo até os dias atuais.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="59" data-block-id="25"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No Senado Federal, Gladson Cameli é membro de várias comissões, entre elas a Comissão de Serviços de Infraestrutura, Comissão Senado do Futuro, Comissão Especial de Desenvolvimento Nacional, Comissão de Educação, Cultura e Esporte, entre outras. Tem sido um dos maiores articuladores junto ao setor empresarial de debates para saídas da crise econômica que vive o Acre e o país.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="27"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Propostas&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="26" data-block-id="28"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ao todo, durante a campanha, Gladson afirmou que pretende levar à frente 23 propostas durante seu governo, dentre elas: &lt;strong&gt;Para ver as propostas clique&lt;/strong&gt;&lt;a href="https://especiaisg1.globo/ac/acre/eleicoes/2022/propostas-dos-politicos/governador/acre/1-turno/gladson-de-lima-cameli#anchor" target="_blank" rel="noopener"&gt;&lt;strong&gt; aqui.&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div data-track-category="multicontent" data-track-action="ultimo chunk conteudo" data-track-noninteraction="false" data-track-scroll="view"&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="166" data-block-id="29"&gt;
+&lt;ul class="content-unordered-list"&gt;
+&lt;li&gt;&lt;strong&gt;Emprego&lt;/strong&gt; &amp;#8211; a principal proposta é tentar diminuir o alto índice de desemprego no estado e fortalecer o agronegócio, através da infraestrutura, geração de emprego no lançamento de obras e conclusão de obras&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Infraestrutura&lt;/strong&gt; &amp;#8211; reformar o presídio de Tarauacá.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Segurança&lt;/strong&gt; &amp;#8211; fazer concurso para a polícia penal.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Saúd&lt;/strong&gt;e &amp;#8211; concurso público para contratação de pessoal.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Assistência Social&lt;/strong&gt; &amp;#8211; retornar com o cartão do Bem, mas com abrangência maior para a população de baixa renda, logo após o período eleitoral o candidato garantiu que voltar com o programa.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Saúde&lt;/strong&gt; &amp;#8211; fazer com que o TFD [Tratamento Fora do Domicílio] diminua o máximo de atendimentos. Para isso, vai ser criada a telemedicina no interior para facilitar a presença da saúde no estado. Além disso, concurso na saúde para contratar mais profissionais.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Saneamento básico&lt;/strong&gt; &amp;#8211; assumiu um compromisso em relação à na falta de esgoto e de obras isso vai ser tratado como prioridade. Vão ser feitas parcerias com prefeituras, para tentar resolver o problema na saúde .&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="12"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/acre/ladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>10:51:21</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Em encontro com associações, governador Gladson Cameli garante esforço para conceder reivindicações de militares</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;!DOCTYPE html PUBLIC "-//W3C//DTD HTML 4.0 Transitional//EN" "http://www.w3.org/TR/REC-html40/loose.dtd"&gt;&lt;br /&gt;
+&lt;html&gt;&lt;body&gt;&lt;/p&gt;
+&lt;div id="infocoweb" class="infocoweb"&gt;
+&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;
+&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;
+&lt;p&gt;Em encontro realizado na tarde desta quinta-feira, 2, na sala de reuni&amp;otilde;es da Casa Civil, o governador Gladson Cameli reuniu v&amp;aacute;rios representantes do governo do Estado e representantes de entidades de classes dos policiais militares do Estado do Acre.&lt;/p&gt;
+&lt;figure id="attachment_529628" aria-describedby="caption-attachment-529628" style="width: 800px" class="wp-caption aligncenter"&gt;&lt;a href="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27.jpeg"&gt;&lt;img loading="lazy" class="size-medium wp-image-529628 lazy" src="https://agencia.ac.gov.br/wp-content/themes/agenciaac-wp/images/placeholder.svg" alt width="800" height="491" data-src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-800x491.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-800x491.jpeg 800w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-768x472.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27.jpeg 1024w" data-sizes="(min-width: 960px) 75vw, 100vw"&gt;&lt;img loading="lazy" class="size-medium wp-image-529628" src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-800x491.jpeg" alt="" width="800" height="491"&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-529628" class="wp-caption-text"&gt;Governador Gladson Cameli reuniu v&amp;aacute;rios representantes do governo do Estado e representantes de entidades de classes dos policiais militares do Estado do Acre. Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O objetivo foi discutir as an&amp;aacute;lises jur&amp;iacute;dicas da Procuradoria-Geral do Estado, com base na Lei de Responsabilidade Fiscal (LRF) das reivindica&amp;ccedil;&amp;otilde;es feitas pela categoria profissional ao governo, entre elas a base de c&amp;aacute;lculo para inativos, promo&amp;ccedil;&amp;atilde;o requerida, adicional de titula&amp;ccedil;&amp;atilde;o e a possibilidade de apresenta&amp;ccedil;&amp;atilde;o de curso sequencial para a promo&amp;ccedil;&amp;atilde;o de mudan&amp;ccedil;a de quadros, al&amp;eacute;m de adequar o posto e a gradua&amp;ccedil;&amp;atilde;o dos militares aposentados.&lt;/p&gt;
+&lt;p&gt;O procurador-geral do Estado, Jo&amp;atilde;o Paulo Setti e o procurador Cristovam Moura destacaram o total empenho do governador Gladson Cameli para conceder os benef&amp;iacute;cios solicitados pelos policiais e bombeiros militares, mas ponderaram que o adicional de titula&amp;ccedil;&amp;atilde;o trata-se de um assunto delicado devido os impeditivos da Lei de Responsabilidade Fiscal uma vez que o governo ultrapassou o limite prudencial de gastos.&lt;/p&gt;
+&lt;p&gt;&amp;ldquo;A PGE entende que as reivindica&amp;ccedil;&amp;otilde;es s&amp;atilde;o poss&amp;iacute;veis desde que o governo esteja apto dentro do que a legisla&amp;ccedil;&amp;atilde;o determina e o Tribunal de Contas assevere a forma adequada, uma vez que o Estado j&amp;aacute; ultrapassou seu limite prudencial, e a lei &amp;eacute; clara que no momento atual a administra&amp;ccedil;&amp;atilde;o p&amp;uacute;blica estadual est&amp;aacute; impedida de atender algumas das solicita&amp;ccedil;&amp;otilde;es, e no caso da titula&amp;ccedil;&amp;atilde;o &amp;eacute; necess&amp;aacute;ria uma revis&amp;atilde;o legislativa no momento adequado&amp;rdquo;, disse Jo&amp;atilde;o Paulo.&lt;/p&gt;
+&lt;figure id="attachment_529629" aria-describedby="caption-attachment-529629" style="width: 800px" class="wp-caption aligncenter"&gt;&lt;a href="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2.jpeg"&gt;&lt;img loading="lazy" class="size-medium wp-image-529629 lazy" src="https://agencia.ac.gov.br/wp-content/themes/agenciaac-wp/images/placeholder.svg" alt width="800" height="372" data-src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2-800x372.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2-800x372.jpeg 800w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2-768x357.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2.jpeg 1024w" data-sizes="(min-width: 960px) 75vw, 100vw"&gt;&lt;img loading="lazy" class="size-medium wp-image-529629" src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-2-800x372.jpeg" alt="" width="800" height="372"&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-529629" class="wp-caption-text"&gt;Objetivo foi discutir as an&amp;aacute;lises jur&amp;iacute;dicas da Procuradoria-Geral do Estado, com base na Lei de Responsabilidade Fiscal (LRF) das reivindica&amp;ccedil;&amp;otilde;es feitas pela categoria profissional ao governo Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Os procuradores enfatizaram a boa vontade do governador em conceder os benef&amp;iacute;cios informando a visita institucional feita ao Tribunal de Contas do Estado pelo pr&amp;oacute;prio Gladson Cameli, solicitando agilidade na consulta formulada pelo governo do Estado acerca da possibilidade permitida por lei para que a concess&amp;atilde;o do adicional de titula&amp;ccedil;&amp;atilde;o seja dada aos militares estaduais.&lt;/p&gt;
+&lt;p&gt;Em sua fala, o governador garantiu que continuar&amp;aacute; sua luta dentro do governo para dar condi&amp;ccedil;&amp;otilde;es de trabalho aos militares, e relatou sua visita ao Tribunal de Contas sobre a consulta do governo do Estado no &amp;acirc;mbito da Corte de Contas acerca do adicional de titula&amp;ccedil;&amp;atilde;o. &amp;ldquo;Tenho dedicado todo esfor&amp;ccedil;o necess&amp;aacute;rio dentro do que &amp;eacute; permitido pela lei para que as reivindica&amp;ccedil;&amp;otilde;es da categoria dos profissionais militares sejam atendidas, &amp;agrave; exemplo da promo&amp;ccedil;&amp;atilde;o requerida, al&amp;iacute;quota para os militares inativos, e todos os benef&amp;iacute;cios garantidos pela Lei de Prote&amp;ccedil;&amp;atilde;o Social&amp;rdquo;, disse Cameli.&lt;/p&gt;
+&lt;p&gt;Gladson frisou, ainda que permanece &amp;agrave; disposi&amp;ccedil;&amp;atilde;o de todos os servidores do Estado, e &amp;eacute; grato pela compreens&amp;atilde;o, respeito e reconhecimento da categoria dos militares do Estado do Acre uma vez que sua fun&amp;ccedil;&amp;atilde;o como chefe do Poder Executivo exige responsabilidade e compromisso em resguardar a legisla&amp;ccedil;&amp;atilde;o no que diz respeito a economia do estado.&lt;/p&gt;
+&lt;h4&gt;Secret&amp;aacute;rios destacam avan&amp;ccedil;os para os militares acreanos&lt;/h4&gt;
+&lt;p&gt;O secret&amp;aacute;rio da Casa Civil, R&amp;ocirc;mulo Grandidier, disse que a titula&amp;ccedil;&amp;atilde;o poder&amp;aacute; ser concedida no momento em que o governo do Estado estiver dentro do limite estabelecido por lei, sendo que esta &amp;eacute; uma inten&amp;ccedil;&amp;atilde;o real do governador Gladson Cameli, que pretende conceder o benef&amp;iacute;cio t&amp;atilde;o logo as possibilidades sejam permitidas pela LRF. &amp;ldquo;Uma consulta determinada pelo governo do Estado, por meio da Secretaria de Justi&amp;ccedil;a e Seguran&amp;ccedil;a P&amp;uacute;blica, foi protocolada junto ao Tribunal de Contas, demonstrando ao &amp;oacute;rg&amp;atilde;o de controle o interesse do governo pela reivindica&amp;ccedil;&amp;atilde;o dos militares&amp;rdquo;, informou Grandidier.&lt;/p&gt;
+&lt;figure id="attachment_529631" aria-describedby="caption-attachment-529631" style="width: 800px" class="wp-caption aligncenter"&gt;&lt;a href="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1.jpeg"&gt;&lt;img loading="lazy" class="size-medium wp-image-529631 lazy" src="https://agencia.ac.gov.br/wp-content/themes/agenciaac-wp/images/placeholder.svg" alt width="800" height="584" data-src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1-800x584.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1-800x584.jpeg 800w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1-768x561.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1.jpeg 1024w" data-sizes="(min-width: 960px) 75vw, 100vw"&gt;&lt;img loading="lazy" class="size-medium wp-image-529631" src="https://agencia.ac.gov.br/wp-content/uploads/2021/12/WhatsApp-Image-2021-12-02-at-19.06.27-1-800x584.jpeg" alt="" width="800" height="584"&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-529631" class="wp-caption-text"&gt;Em sua fala, o governador garantiu que continuar&amp;aacute; sua luta dentro do governo para dar condi&amp;ccedil;&amp;otilde;es de trabalho aos militares Foto: Marcos Vicentti/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O secret&amp;aacute;rio de Justi&amp;ccedil;a e Seguran&amp;ccedil;a P&amp;uacute;blica, coronel Paulo C&amp;eacute;zar Santos falou dos avan&amp;ccedil;os que acontecem atualmente durante o governo Gladson Cameli, destacando investimentos em armamentos, viaturas, fardamento, tecnologia, Lei dos servidores civis, reconhecimento da presun&amp;ccedil;&amp;atilde;o de inoc&amp;ecirc;ncia para a promo&amp;ccedil;&amp;atilde;o dos militares, reformas de quart&amp;eacute;is, pois s&amp;atilde;o pautas que implicam em valoriza&amp;ccedil;&amp;atilde;o dos profissionais militares do Estado.&lt;/p&gt;
+&lt;p&gt;&amp;ldquo;Agradecemos a compreens&amp;atilde;o dos que conhecem que h&amp;aacute; &amp;oacute;bice legal em algumas reivindica&amp;ccedil;&amp;otilde;es. Precisamos tamb&amp;eacute;m buscar caminhos para que a nossa Previd&amp;ecirc;ncia seja saud&amp;aacute;vel, e est&amp;atilde;o sendo procurados meios para que os policiais militares sejam cada vez mais valorizados&amp;rdquo;, disse ele.&lt;/p&gt;
+&lt;p&gt;O secret&amp;aacute;rio de Planejamento de Gest&amp;atilde;o, coronel Ricardo Brand&amp;atilde;o, disse que o Acre tem no governo Gladson Cameli o respeito e a valoriza&amp;ccedil;&amp;atilde;o no que tange aos servidores e a estrutura&amp;ccedil;&amp;atilde;o n&amp;atilde;o somente da carreira, mas do trabalho di&amp;aacute;rio das corpora&amp;ccedil;&amp;otilde;es dos militares. &amp;ldquo;Atualmente temos o or&amp;ccedil;amento da PM, Bombeiros, e outras categorias que s&amp;atilde;o extremamente respeitadas e admiradas pelo governador Gladson Cameli. As demais reivindica&amp;ccedil;&amp;otilde;es se n&amp;atilde;o foram atendidas s&amp;atilde;o por impedimentos legais, uma vez que a Lei deve ser cumprida sob risco de penaliza&amp;ccedil;&amp;atilde;o dos gestores&amp;rdquo;, disse Brand&amp;atilde;o.&lt;/p&gt;
+&lt;h4&gt;Associa&amp;ccedil;&amp;otilde;es enfatizam di&amp;aacute;logo com a categoria&lt;/h4&gt;
+&lt;p&gt;O presidente da Associa&amp;ccedil;&amp;atilde;o dos Militares Estaduais (AME), sargento Kalil fez um pronunciamento durante a reuni&amp;atilde;o agradecendo o tratamento dispensado pelo governo do Estado, uma vez que as entidades de classes reivindicam seus direitos profissionais com responsabilidade. Segundo ele, a defesa de todos os militares &amp;eacute; realizada de maneira igualit&amp;aacute;ria pela associa&amp;ccedil;&amp;atilde;o, e enfatizou sua preocupa&amp;ccedil;&amp;atilde;o em n&amp;atilde;o serem transmitidos para os servidores discursos acerca de benef&amp;iacute;cios que sejam impedidos por Lei.&lt;/p&gt;
+&lt;p&gt;&amp;ldquo;Acredito que o governo do Estado est&amp;aacute; no caminho certo para atender as reivindica&amp;ccedil;&amp;otilde;es da nossa categoria. Este di&amp;aacute;logo ser&amp;aacute; levado para a Assembleia Geral que acontecer&amp;aacute; na pr&amp;oacute;xima segunda-feira&amp;rdquo;, afirmou ele.&lt;/p&gt;
+&lt;p&gt;O presidente da Associa&amp;ccedil;&amp;atilde;o de Oficiais da Pol&amp;iacute;cia Militar (ASSOF), major Prigulin Ara&amp;uacute;jo tamb&amp;eacute;m agradeceu pela reuni&amp;atilde;o e afirmou reconhecer a boa vontade do governo do Estado para atender as reivindica&amp;ccedil;&amp;otilde;es dos servidores estaduais. &amp;ldquo;N&amp;oacute;s enxergamos no governo Gladson Cameli a grande disposi&amp;ccedil;&amp;atilde;o em ajudar a Pol&amp;iacute;cia Militar embora as condi&amp;ccedil;&amp;otilde;es econ&amp;ocirc;micas e legais n&amp;atilde;o permitam. Isso nos leva a crer que as principais pautas da nossa categoria est&amp;atilde;o sendo prioridade, e &amp;eacute; por estas conquistas em prol da nossa categoria que continuaremos lutando com responsabilidade, finalizou Prigulin Ara&amp;uacute;jo.&lt;/p&gt;
+&lt;p&gt;O major Bady Casseb, convidado para participar da reuni&amp;atilde;o pelo Ggverno do Estado, que est&amp;aacute; na reserva da Pol&amp;iacute;cia Militar h&amp;aacute; 26 anos, agradeceu o respeito e a considera&amp;ccedil;&amp;atilde;o afirmando que os diversos apoios no &amp;acirc;mbito do Poder Executivo trar&amp;atilde;o benef&amp;iacute;cios e reconhecimento aos policiais militares aposentados do estado do Acre, principalmente os pra&amp;ccedil;as, que passar&amp;atilde;o, a efetivamente, ter gradua&amp;ccedil;&amp;atilde;o conforme sua remunera&amp;ccedil;&amp;atilde;o. O benef&amp;iacute;cio ser&amp;aacute; estendido tamb&amp;eacute;m aos oficiais, sendo esta uma luta que se arrasta h&amp;aacute; v&amp;aacute;rios anos por parte dos oficiais e pra&amp;ccedil;as aposentados pela Pol&amp;iacute;cia Militar e Corpo de Bombeiros do Acre.&lt;/p&gt;
+&lt;p&gt;Participaram da reuni&amp;atilde;o o presidente da Associa&amp;ccedil;&amp;atilde;o de Oficiais da Pol&amp;iacute;cia Militar (ASSOF), major Prigulin Ara&amp;uacute;jo e o presidente da Associa&amp;ccedil;&amp;atilde;o dos Militares Estaduais (AME), sargento Kalil e Sargento Elton. As discuss&amp;otilde;es foram conduzidas pelo secret&amp;aacute;rio da Casa Civil, R&amp;ocirc;mulo Grandidier; secret&amp;aacute;rio de Justi&amp;ccedil;a e Seguran&amp;ccedil;a P&amp;uacute;blica, Paulo C&amp;eacute;zar Santos, secret&amp;aacute;rio Extraordin&amp;aacute;rio de Governo, Alysson Bestene; secret&amp;aacute;rio Adjunto Extraordin&amp;aacute;rio de Governo, &amp;Iacute;talo Medeiros; secret&amp;aacute;rio de Planejamento de Gest&amp;atilde;o, Ricardo Brand&amp;atilde;o; secret&amp;aacute;rio da Fazenda, Amar&amp;iacute;sio Freitas; procurador-geral do Estado, Jo&amp;atilde;o Paulo Setti; presidente do Acreprevid&amp;ecirc;ncia, Assis Filho; chefe da Casa Militar, coronel Amarildo Camargo e o chefe de Gabinete do Governador, coronel Messias.&lt;/p&gt;
+&lt;div class="post-views post-529625 entry-meta"&gt; 				&lt;span class="post-views-icon dashicons dashicons-chart-bar"&gt;&lt;/span&gt; 				&lt;span class="post-views-label"&gt;Visualiza&amp;ccedil;&amp;otilde;es:&lt;/span&gt; 				&lt;span class="post-views-count"&gt;45&lt;/span&gt; 			&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;Fonte: &lt;a target="_blank" href="https://agencia.ac.gov.br/em-encontro-com-associacoes-governador-gladson-cameli-garante-esforco-para-conceder-reivindicacoes-de-militares/#258" rel="noopener"&gt;Governo AC&lt;/a&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;script src="https://gestor.infocoweb.com.br/analytics_content.js?a=258&amp;amp;b=956842&amp;amp;c=5420473"&gt;&lt;/script&gt;&lt;/body&gt;&lt;/html&gt;&lt;/p&gt;
+&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }&lt;/style&gt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/acre/em-encontro-com-associacoes-governador-gladson-cameli-garante-esforco-para-conceder-reivindicacoes-de-militares/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>23:12:17</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ao lado de Gladson Cameli, Nicolau Júnior assina ordem de entrega de maquinário e caminhões para abertura e recuperação de ramais</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div&gt;&lt;span style="font-size: medium;"&gt;O presidente da Assembleia Legislativa do Acre (Aleac), deputado Nicolau Júnior (Progressistas), marcou presença na manhã desta segunda-feira (28) da cerimônia de assinatura e entrega de maquinário pesado e caminhões adquiridos pelo Governo do Estado do Acre por meio da Superintendência do Desenvolvimento da Amazônia (Sudam) e da Bancada Federal do Acre. &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;Além do governador Gladson Cameli (Progressistas), o evento que aconteceu no Estádio Arena da Floresta também contou com a participação do vice-governador Major Rocha, do diretor do Deracre, Petrônio Antunes, do superintendente da Seinfra, Ítalo Medeiros, de senadores, deputados federais, vereadores, prefeitos e outras autoridades. Os deputados estaduais também prestigiaram a solenidade.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;O presidente da Aleac assinou ao lado do governador Gladson Cameli, a ordem de entrega de 90 máquinas pesadas que irão compor a operação Ramais do Acre 2021.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;São 4 escavadeiras hidráulicas, 18 motoniveladoras, 18 pás carregadeiras, 18 retroescavadeiras, 8 tratores de esteira, 18 caminhões basculantes, 2 cavalos mecânicos, 2 semirreboques basculantes e 2 semirreboques com dois eixos. Todo esse maquinário será destinado ao trabalho de recuperação de ramais, serviços em ruas e pontes nos 22 municípios do Acre.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;Nicolau Júnior classificou o momento como histórico. O parlamentar frisou que o novo maquinário, além de melhorar a trafegabilidade nos ramais, vai garantir o abastecimento, o escoamento e propiciar o aumento da produção rural.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;&amp;#8220;Hoje, vivemos um momento histórico. Um dos maiores objetivos desse governo é beneficiar diretamente a população rural para que os nossos produtores possam trabalhar e produzir tanto no verão quanto no inverno. Gladson Cameli tem sido muito sensível às demandas dos nossos agricultores e isso me deixa muito satisfeito”, disse o progressista.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; O presidente da Aleac também destacou o empenho dos 24 deputados estaduais com as ações do governo do Estado. &amp;#8220;No início da pandemia todos os deputados estaduais se empenharam ao máximo para ajudar o governo do Estado nas ações de combate à Covid-19. Trabalhamos muito nesse período e é dessa forma que vamos seguir.  Vamos fazer tudo o que estiver ao nosso alcance para ajudar a fortalecer o nosso setor rural. O governo do Estado sabe que pode contar com o Poder Legislativo”, complementou.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;Nicolau Júnior parabenizou o governador pela ação criada para promover melhorias de trafegabilidade em áreas rurais, geração de empregos e recuperação na economia pós-Covid.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;&amp;#8220;Quando eu falo que o governador não para um segundo de trabalhar pelo nosso Acre é por conta de ações importantes como essa. Já imaginou essas máquinas chegando aos ramais e o quanto isso vai mudar para melhor a vida dos produtores rurais? Eu estou muito feliz com a entrega desse maquinário e mais feliz ainda por participar desse momento”, disse o progressista.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;Em sua fala, o governador Gladson Cameli frisou que as novas máquinas se somarão aos antigos maquinários do Estado e atuarão em formato de mutirões em todas as regionais do Acre.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;&amp;#8220;Essas máquinas vão ajudar a melhorar os ramais, já neste verão. Inclusive, já tem máquina trabalhando. Estamos falando de escavadeiras hidráulicas, pás carregadeiras, retroescavadeiras, tratores de esteiras, caminhões basculantes e muitos outros, que irão compor a frota do Deracre na recuperação e pavimentação de ramais e áreas urbanas, além de auxiliar nas intervenções em pontes e rodovias estaduais”, disse o governador.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt; &lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: medium;"&gt;O gestor também fez questão de agradecer a parceria da Assembleia Legislativa do Acre. &amp;#8220;A todos os 24 deputados estaduais a minha eterna gratidão. A parceria do Poder Legislativo tem sido muito importante para a execução de ações como essa. Eu sou muito grato de verdade”, enfatizou.&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;div id="attachment_269193" style="width: 310px" class="wp-caption alignleft"&gt;&lt;img aria-describedby="caption-attachment-269193" loading="lazy" class="wp-image-269193 size-medium" src="https://noticiadoacre.com.br/wp-content/uploads/2022/01/foto2_192806202123120-300x200.jpeg" alt="" width="300" height="200" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/01/foto2_192806202123120-300x200.jpeg 300w, https://noticiadoacre.com.br/wp-content/uploads/2022/01/foto2_192806202123120.jpeg 750w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;p id="caption-attachment-269193" class="wp-caption-text"&gt;Willamis França/Ascom&lt;/p&gt;&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/politica/ao-lado-de-gladson-cameli-nicolau-junior-assina-ordem-de-entrega-de-maquinario-e-caminhoes-para-abertura-e-recuperacao-de-ramais/</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>18:05:15</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ministério da Justiça responde pedido do governo do Acre sobre garantia de trafegabilidade na BR-364</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O ministro da Justiça e Segurança Pública, Anderson Torres, respondeu o pedido feito pelo governo do Acre para garantir o livre tráfego de veículos e cargas na BR-364, única rodovia federal que liga o estado às demais regiões do país.&lt;/p&gt;
+&lt;p&gt;Com risco de colapso no abastecimento de combustíveis, gêneros alimentícios de primeira necessidade e até mesmo no fornecimento de água tratada à população, o governador Gladson Cameli solicitou o apoio da Força Nacional para desobstruir pontos interditados em cidades de Rondônia e Mato Grosso.&lt;/p&gt;
+&lt;p&gt;No despacho, Anderson Torrres esclareceu que agentes da Força Nacional já estão em Rondônia, onde devem permanecer até o próximo dia 7 de dezembro, atuando em conjunto com a Polícia Rodoviária Federal (PRF).&lt;/p&gt;
+&lt;p&gt;Já em relação ao Mato Grosso, o ministro informou que não há rodovias bloqueadas no estado desde terça-feira, 22.&lt;/p&gt;
+&lt;p&gt;Para tratar e acompanhar diretamente esta questão, o governo acreano decidiu pela instalação de um gabinete de crise. O grupo ficará responsável pelo monitoramento, discussão e adoção de medidas necessárias em decorrência das interdições em rodovias federais. O decreto de criação foi publicado na edição do Diário Oficial desta quarta-feira, 23, e tem validade de 15 dias.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/acre/ministerio-da-justica-responde-pedido-do-governo-do-acre-sobre-garantia-de-trafegabilidade-na-br-364/</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16:50:39</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Frota de ônibus em Rio Branco continua reduzida em 30% após bloqueios ilegais que causaram escassez de combustível no Acre</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-ff485"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="57" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A frota de ônibus em Rio Branco continua reduzida nesta quarta-feira (23). Desde segunda-feira (21), a Superintendência Municipal de Transportes e Trânsito (RBTrans) informou que reduziria&lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/21/com-bloqueios-ilegais-de-bolsonaristas-na-br-364-frota-de-onibus-em-rio-branco-e-reduzida-para-racionamento-de-combustivel.ghtml"&gt; a frota de 101 para 71 carros&lt;/a&gt; circulando na capital acreana devido aos bloqueios ilegais que estavam ocorrendo na BR-364 no lado rondoniense e estavam prejudicando o abastecimento no Acre.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-2qq0j"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2enip"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="62" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No final da tarde dessa terça, a PRF informou que havia desbloqueado todos os pontos em Rondônia e que as cargas paradas na estrada começaram a ser enviadas ao Acre. A redução de 30% da frota é por tempo indeterminado, segundo o superintendente da RBTrans, Francisco José Benício Dias. &lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/22/reducao-de-30percent-da-frota-de-onibus-em-rio-branco-pela-falta-combustivel-por-causa-de-bloqueios-ilegais-prejudica-passageiros.ghtml"&gt;Os passageiros chegaram a ficar quase duas horas na espera por ônibus.&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7mbj9"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;a href="https://g1.globo.com/ro/rondonia/noticia/2022/11/22/rondonia-tem-5-pontos-de-interdicao-em-rodovias-federais-nesta-terca-22.ghtml"&gt;Os bloqueios ilegais em quatro pontos de Rondônia&lt;/a&gt; afetaram o abastecimento em diversos setores no Acre, já que, com as interdições, as cargas não conseguiam passar. . Alguns itens, como gasolina, cimento, alimentos perecíveis e cerveja chegaram a ficar escassos na capital.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-66bjd"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="49" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Vamos ter uma reunião para decidir como fica a frota, mas por enquanto, seguimos com os 71 carros nas ruas&amp;#8221;, disse o superintendente da RBTrans. Ao &lt;a href="https://g1.globo.com/ac/acre/"&gt;g1&lt;/a&gt;, a Ricco, a única empresa que opera no transporte público em Rio Branco disse que ainda não foi normalizado o abastecimento.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-eup7t"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="26" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Apesar da estrada liberada, a base da Petrobras em Rio Branco ainda não tem o produto eles devem liberar só amanhã [quinta-feira,24]&amp;#8221;, informou a empresa.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7u51j"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="11"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;div id="attachment_271681" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271681" loading="lazy" class="wp-image-271681 size-epic-750x536" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-23-at-09.11.39-750x443.webp" alt="" width="740" height="437" /&gt;&lt;p id="caption-attachment-271681" class="wp-caption-text"&gt;Postos ainda registram filas nesta quarta-feira (23) após escassez de combustível — Foto: Murilo Lima/Rede Amazônica Acre&lt;/p&gt;&lt;/div&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description "&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="13"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Normalizando&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2coof"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Nesta quarta-feira (23), mesmo com a liberação da rodovia, muitas carretas chegaram ao Acre com combustíveis e outros materiais, mas ainda não é suficiente para normalizar a situação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-di3mt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo o Sindicato do Comércio Varejista de Derivados de Petróleo do Acre (Sindepac), vários caminhões conseguiram chegar em Rio Branco e outros em Porto Velho (RO), no entanto, ainda falta combustível em muitos postos da capital. A previsão é que, se não houver novos bloqueios nos próximos dias, até sexta-feira (25), todos os postos devem estar abastecidos e a situação normalizada.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f9rof"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="16"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A Associação de Bares, Restaurantes, Conveniências, Distribuidoras e Eventos do Acre (Abrace), informou que desde o desbloqueio da rodovia, nessa terça, chegaram duas carretas de bebidas no estado, mas que ainda é &amp;#8220;limitado&amp;#8221; o estoque de cerveja. Segundo o presidente da associação, Leôncio Castro, para normalizar precisa em torno de uma semana.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-s1ul"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Para normalizar, precisa chegar no mínimo 30 carretas, sendo que são cerca de 3 dias para ir e 3 para voltar. Então, a previsão é que normalize só mês que vem, se realmente não acontecer mais nenhum tipo de imprevisto&amp;#8221;, afirmou Castro.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-4ui0q"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="44" data-block-id="18"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O&lt;a href="https://g1.globo.com/ac/acre/"&gt; g1&lt;/a&gt; tentou contato com a Associação Comercial do Acre (Acisa) e com a Federação das Indústrias do Acre (Fieac) para saber se os setores de comércio e indústria já sentem alguma mudança desde a liberação da estrada nessa terça, mas ainda aguarda resposta.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="6" data-block-id="20"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Força Nacional e gabinete de crise&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-aqfp7"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="60" data-block-id="21"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O governo do Acre montou um &lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/23/governo-cria-gabinete-de-crise-para-tomar-medidas-sobre-prejuizos-causados-por-bloqueios-em-rodovias-que-dao-acesso-ao-ac.ghtml"&gt;gabinete de crise para discutir e tomar as devidas medidas&lt;/a&gt; com relação aos prejuízos causados pelos bloqueios ilegais na BR-364, em Rondônia, que dá acesso ao estado acreano. O decreto com a criação do grupo foi publicado na edição desta quarta-feira (23) do Diário Oficial do Estado (DOE) e tem validade de 15 dias.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5hhd4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="68" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O governador do Acre, Gladson Cameli pediu, nessa terça-feira (22), &lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/23/governo-pede-reforco-das-forcas-armadas-para-evitar-bloqueios-ilegais-que-isolam-acre-pela-br-364.ghtml"&gt;reforço da Força Nacional para evitar bloqueios ilegais que ocorrem na BR-364 &lt;/a&gt;no lado rondoniense e que tem prejudicado o abastecimento no estado. Até essa terça-feira (22), a Polícia Rodoviária Federal confirmava vários pontos de bloqueio feitos por bolsonaristas na BR-364, em Rondônia. Alguns itens, como gasolina, cimento, alimentos perecíveis e cerveja chegaram a ficar escassos na capital.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cs1nu"&gt;
+&lt;div class="block-podcast"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/acre/frota-de-onibus-em-rio-branco-continua-reduzida-em-30-apos-bloqueios-ilegais-que-causaram-escassez-de-combustivel-no-acre/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12:33:20</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Governo do Acre pede intervenção da Força Nacional em bloqueios da BR-364 para evitar desabastecimento</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Desde o início da pandemia, uma das principais estratégias dos países que melhor se saíram na contenção do novo coronavírus foi a testagem da população. É uma forma lógica de combate à disseminação da enfermidade, por contribuir para detectar, o mais rápido possível, mesmo casos assintomáticos, confirmar e descartar suspeitas, fazer com que contaminados se isolem e, ao mesmo tempo, rastrear pessoas com quem tiveram contato.&lt;/p&gt;
+&lt;p&gt;O governo do Acre encaminhou, no fim da tarde de terça-feira, 22, um ofício ao Ministério da Justiça (MJ) e à Secretaria Nacional de Segurança Pública (Senasp), referente ao desabastecimento causado pelos bloqueios nas rodovias federais que dão acesso ao estado.&lt;/p&gt;
+&lt;p&gt;No documento, o governador Gladson Cameli ressalta a possibilidade do desabastecimento de água no estado já a partir do dia 28 de novembro, por falta de produtos químicos essenciais para a purificação e tratamento de água.&lt;/p&gt;
+&lt;p&gt;Ainda na na tarde de ontem, a Polícia Rodoviária Federal reportou que os entraves na BR-364, em Rondônia, não existem mais, contudo dois pontos ativos de bloqueios mesma rodovia, em Mato Grosso, impossibilitam a chegada de carregamentos até Rondônia e, consequentemente, ao Acre: no km 1.025, em Sazepal, e no km 1.076, em Campos de Júlio.&lt;/p&gt;
+&lt;p&gt;Cameli pede ao ministro da Justiça, Anderson Gustavo Torres, e ao secretário nacional de Segurança Pública, Carlos Renato Paim, o envio da Força Nacional para desobstruir as vias e viabilizar a normalização do tráfego de veículos até o Acre.&lt;/p&gt;
+&lt;p&gt;Além disso, um relatório do Corpo de Bombeiros do Estado do Acre (CBMAC) reportou a possibilidade de paralização das atividades do órgão por desabastecimento das viaturas oficiais de atendimento, caminhões e viaturas, e também da frota de ônibus do transporte público, até o dia 24 de novembro, se não houver a regularização da chegada dos caminhões de abastecimento.&lt;/p&gt;
+&lt;p&gt;A Federação do Comércio de Bens, Serviços e Turismo do Estado do Acre (Fecomércio), em documento, prevê a possibilidade de que alimentos perecíveis e não perecíveis que fazem parte da cesta básica comecem sofrer desabastecimento entre os dias 26 e 27 de novembro, além do risco de que produtos hospitalares, como medicamentos e oxigênio, também possam entrar em falta se persistir o bloqueio.&lt;/p&gt;
+&lt;p&gt;A Associação Comercial, Industrial, de Serviço e Agrícola do Acre (Acisa) também enviou um relatório ao governo do Acre, em que informa que as empresas associadas não conseguem contratar transportadoras ou transportadores autônomos para abastecimento do Acre, e pediu ao Estado a avaliação da realização de decreto de estado de calamidade pública ou de emergência. O documento também informa o fim dos estoques do gás de cozinha já nesta quinta-feira, dia 23 de novembro.&lt;/p&gt;
+&lt;div class="post-views content-post post-583589 entry-meta"&gt;&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/sem-categoria/governo-do-acre-pede-intervencao-da-forca-nacional-em-bloqueios-da-br-364-para-evitar-desabastecimento/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>11:39:51</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Estado monta gabinete de crise em decorrência de prejuízos causados pelo bloqueio de rodovias</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;As manifestações contrárias ao resultado da eleição presidencial têm causado uma série de prejuízos e transtornos em vários estados do país. No Acre, a escassez de combustíveis, gêneros alimentícios e de outros produtos essenciais já é realidade.&lt;/p&gt;
+&lt;p&gt;Na BR-364, única estrada que liga o estado às demais regiões do país, vários pontos de bloqueio foram registrados em cidades de Rondônia e Mato Grosso, impossibilitando a passagem de veículos e cargas.&lt;/p&gt;
+&lt;p&gt;Diante do atual cenário de potencial desabastecimento, o governo acreano decidiu instalar um gabinete de crise. O grupo ficará responsável pelo monitoramento, discussão e adoção de medidas necessárias em decorrência das interdições rodoviárias. O decreto de criação foi publicado na edição do Diário Oficial desta quarta-feira, 23, e tem validade de 15 dias.&lt;/p&gt;
+&lt;p&gt;O gabinete será composto por representantes da Secretaria de Estado da Casa Civil, Gabinete do Governador, Secretaria Extraordinária de Assuntos Governamentais, Procuradoria-Geral do Estado, Secretaria de Estado de Justiça e Segurança Pública, Secretaria de Estado da Fazenda, Secretaria de Estado de Planejamento e Gestão e Secretaria de Estado de Saúde.&lt;/p&gt;
+&lt;p&gt;“O governo está ciente e preocupado com a situação enfrentada nos últimos dias. Não queremos que a população sofra com a falta de produtos, por conta dessas manifestações. Por isso, vamos trabalhar intensamente para que os impactos sejam os menores possíveis ao nosso estado”, pontuou o governador Gladson Cameli.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/acre/estado-monta-gabinete-de-crise-em-decorrencia-de-prejuizos-causados-pelo-bloqueio-de-rodovias/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>15:37:22</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Governo do Acre inicia formação de 249 novos soldados do Corpo de Bombeiros</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Pelos próximos seis meses, a aluna-soldada Gabriella Souza será submetida a uma intensa jornada de treinamentos e aprendizados para realizar um dos maiores sonhos de Pelos próximos seis meses, a aluna-soldada Gabriella Souza será submetida a uma intensa jornada de treinamentos e aprendizados para realizar um dos maiores sonhos de sua vida: integrar as fileiras do Corpo de Bombeiros Militar do Estado do Acre (CBM/AC).sua vida: integrar as fileiras do Corpo de Bombeiros Militar do Estado do Acre (CBM/AC).&lt;/p&gt;
+&lt;p&gt;A jovem de 23 anos de idade afirma estar preparada e ansiosa para prestar seus serviços à população. “Fiquei bastante emocionada quando vi meu nome na lista dos aprovados. Agora, vou me dedicar ao máximo e dar sempre o meu melhor para honrar a nossa farda”, declarou.&lt;/p&gt;
+&lt;p&gt;Nesta segunda-feira, 21, o governo do Acre deu início ao Curso de Formação de Soldados (CFSD). Os 249 alunos serão submetidos a 29 disciplinas nas áreas administrativa e operacional, totalizando 1,5 mil horas de aulas. A capacitação ocorrerá no Centro Integrado de Ensino e Pesquisa em Segurança Pública (Cieps), em Rio Branco.&lt;/p&gt;
+&lt;div id="attachment_271628" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271628" loading="lazy" class="wp-image-271628 size-epic-750x536" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/CADD7DBC-49DA-4DCC-8E21-3BD4A828BC22-1536x1023-2-750x536.jpeg" alt="" width="740" height="529" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/CADD7DBC-49DA-4DCC-8E21-3BD4A828BC22-1536x1023-2-750x536.jpeg 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/CADD7DBC-49DA-4DCC-8E21-3BD4A828BC22-1536x1023-2-120x86.jpeg 120w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/CADD7DBC-49DA-4DCC-8E21-3BD4A828BC22-1536x1023-2-350x250.jpeg 350w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/CADD7DBC-49DA-4DCC-8E21-3BD4A828BC22-1536x1023-2-1140x815.jpeg 1140w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271628" class="wp-caption-text"&gt;Curso de formação será de seis meses e contará com a participação de 249 candidatos. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
+&lt;p class="p1"&gt;A aula inaugural contou com a presença de diversas autoridades, entre elas o governador Gladson Cameli. De acordo com o chefe de Estado, a Segurança Pública vem sendo tratada com prioridade nos últimos anos, principalmente na contratação de novos profissionais.&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;“Convocamos todo o cadastro de reserva da Polícia Militar, chamamos mais policiais civis e realizamos os novos concursos do ISE [Instituto Socioeducativo do Acre] e do Corpo de Bombeiros. Nosso maior objetivo é reestruturar nossas forças de segurança e aproximar o Estado, cada vez mais, da nossa população”, enfatizou o governante.&lt;/span&gt;&lt;/p&gt;
+&lt;div id="attachment_271627" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271627" loading="lazy" class="wp-image-271627 size-epic-featured-750" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/3C1D44F1-153F-4DF7-A567-A29FBC8D2EE3-1024x682-2-750x500.jpeg" alt="" width="740" height="493" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/3C1D44F1-153F-4DF7-A567-A29FBC8D2EE3-1024x682-2-750x500.jpeg 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/3C1D44F1-153F-4DF7-A567-A29FBC8D2EE3-1024x682-2-300x200.jpeg 300w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/3C1D44F1-153F-4DF7-A567-A29FBC8D2EE3-1024x682-2-768x512.jpeg 768w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/3C1D44F1-153F-4DF7-A567-A29FBC8D2EE3-1024x682-2.jpeg 1024w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271627" class="wp-caption-text"&gt;Aula inaugural contou com a participação do governador Gladson Cameli. Fortalecer a Segurança Pública do Acre é um compromisso assumido pela atual gestão. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Na oportunidade, Gladson Cameli e o ex-comandante do CBM/AC, coronel Carlos Batista, foram homenageados. O gestor, pelo apoio incondicional dado à corporação, e o militar da reserva, por ter iniciado o processo do certame público.&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Segundo o coronel Charles Santos, atual comandante-geral da instituição, a realização de um novo concurso era aguardada há uma década. A chegada dos novos soldados combatentes contribuirá para o fortalecimento das atividades desempenhadas pelo Corpo de Bombeiros.&lt;/span&gt;&lt;/p&gt;
+&lt;div id="attachment_271630" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271630" loading="lazy" class="wp-image-271630 size-epic-featured-750" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-750x500.jpeg" alt="" width="740" height="493" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-750x500.jpeg 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-300x200.jpeg 300w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-1024x682.jpeg 1024w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-768x512.jpeg 768w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1-1140x759.jpeg 1140w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/BDF31641-7298-450F-BAA3-4207FC5C18F2-1536x1023-1-1.jpeg 1536w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271630" class="wp-caption-text"&gt;Coronel Charles Santos, atual comandante-geral do CBM/AC, comemorou início do curso de formação. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;“Com a entrada destes bombeiros militares, vamos manter nossos serviços e, inclusive, teremos a capacidade de ampliá-los”, argumentou.&lt;/span&gt;&lt;/p&gt;
+&lt;h4 class="p1"&gt;&lt;span class="s1"&gt;Entrega de quadriciclos&lt;/span&gt;&lt;/h4&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Durante o evento, o governo do Acre fez a entrega oficial de nove quadriciclos ao CBM/AC. Os veículos foram adquiridos com recursos próprios do Estado e da empresa Vinci Airports, administradora dos aeroportos de Rio Branco e Cruzeiro do Sul, e serão utilizados no atendimento dos mais diversos tipos de ocorrência.&lt;/span&gt;&lt;/p&gt;
+&lt;div id="attachment_271626" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271626" loading="lazy" class="wp-image-271626 size-epic-featured-750" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-750x500.jpeg" alt="" width="740" height="493" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-750x500.jpeg 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-300x200.jpeg 300w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-1024x682.jpeg 1024w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-768x512.jpeg 768w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1-1140x759.jpeg 1140w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/04E8EA0F-0AEA-49E2-B1A8-374E9108F0F5-1.jpeg 1501w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271626" class="wp-caption-text"&gt;Na mesma solenidade, governo do Estado fez a entrega de nove quadriciclos ao Corpo de Bombeiros. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;Realizada no auditório do Centro Universitário Uninorte, na capital, a solenidade contou, ainda, com a participação da procuradora-geral adjunta do Ministério Público do Acre, Rita de Cássia Nogueira; do presidente do Instituto de Administração Penitenciária do Acre, Glauber Feitoza; do presidente do Instituto Socioeducativo do Acre, Mário César Freitas; do secretário de Planejamento e Gestão, Ricardo Brandão; do procurador-geral do Estado, Marcos Motta; do delegado-geral da Polícia Civil, Henrique Maciel; e do deputado estadual e líder do governo na Assembleia Legislativa do Acre, Pedro Longo.&lt;/span&gt;&lt;/p&gt;
+&lt;h4&gt;O que eles disseram&lt;/h4&gt;
+&lt;p&gt;“Este momento é o compromisso do governo com a reposição de novos servidores do Corpo de Bombeiros. Isso demonstra o respeito do Estado com a sociedade acreana.”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Ricardo Brandão, secretário de Estado de Planejamento e Gestão&lt;/em&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;“Parabéns ao Estado e ao Corpo de Bombeiros. A sociedade precisava muito desses novos homens e mulheres valentes para bem servir a população. Desejo muito sucesso a todos durante o curso de formação.”&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;em&gt;&lt;span class="s1"&gt;Rita de Cássia Nogueira, procuradora-geral adjunta do Ministério Público do Acre&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;span class="s1"&gt;“A Assembleia tem propiciado momentos muito importantes, um deles foi a realização desse concurso. Esses reforços na área da Segurança demonstram a preocupação deste governo em bem servir à sociedade.”&lt;/span&gt;&lt;/p&gt;
+&lt;p class="p1"&gt;&lt;em&gt;&lt;span class="s1"&gt;Pedro Longo, deputado estadual e líder do governo na Assembleia Legislativa&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/sem-categoria/governo-do-acre-inicia-formacao-de-249-novos-soldados-do-corpo-de-bombeiros/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20:02:01</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Equipe do Ministério da Justiça vem ao Acre e recebe feedback das ações policiais na fronteira</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A projeção para novos investimentos, equipamentos e cursos para as Forças de Segurança do Acre, a partir da nova gestão do governo federal, em 2023, foi um dos temas principais da agenda de representantes do Ministério da Justiça (MJ) com o governo do Estado do Acre, nesta quinta-feira, 17, na sede da Secretaria de Estado de Justiça e Segurança Pública (Sejusp), em Rio Branco.&lt;/p&gt;
+&lt;p&gt;A comitiva, liderada pelo coronel Saulo de Tarso Sanson Silva, coordenador Geral de Fronteira do MJ em Brasília, foi recebida pelo secretário de Justiça e Segurança Pública, coronel Paulo Cézar Rocha dos Santos e pelo coordenador-operacional da Sejusp, coronel Glayson Dantas.&lt;/p&gt;
+&lt;p&gt;Na ocasião, a equipe do Ministério da Justiça e os gestores da Sejusp puderam avaliar também as ações do Programa Nacional de Segurança nas Fronteiras e Divisas, o Programa Vigia, que completou três anos no estado.&lt;/p&gt;
+&lt;p&gt;“Viemos anunciar um novo aporte de recursos para treinamento de efetivos e para a aquisição de novas armas e equipamentos. São novos investimentos que devem vir para o Acre no âmbito do Programa Vigia, que completa três anos no estado”, afirmou o coordenador Geral de Fronteira do MJ.&lt;/p&gt;
+&lt;p&gt;A avaliação do representante do governo federal é a de que o Acre tem desempenhado um papel de excelência no combate aos crimes transfronteiriços. Os agentes de Brasília também conheceram os setores estratégicos da Sejusp, assim como o aplicativo Apolo, tecnologia genuinamente acreana que facilita a identificação de suspeitos de crimes por reconhecimento facial no telefone celular.&lt;/p&gt;
+&lt;p&gt;“Foi bom ter esse retorno do secretário, numa avaliação positiva do Programa VIGIA, num momento de interação com o Acre em que podemos conversar sobre as metas e sobre o que já foi feito em solo acreano contra ilícitos de fronteira”, destacou Tarso Sanson Silva.&lt;/p&gt;
+&lt;p&gt;Do secretário Paulo Cézar dos Santos, a comitiva do MJ ouviu sobre as ações que vêm sendo empreendidas pelo governo Gladson Cameli para reduzir a criminalidade no âmbito da tríplice fronteira Brasil-Peru-Bolívia. “O trabalho de nossas polícias é árduo, porém constante e estamos obtendo êxito”, asseverou Santos.&lt;/p&gt;
+&lt;p&gt;A integração entre as polícias locais com as bolivianas e peruanas, o trabalho dos serviços de inteligência do Acre, as redes formadas por criminosos brasileiros com ramificações em cidades como Santa Cruz e Cochabamba, além das recentes ações para conter confrontos entre facções rivais, também foram temas discutidos.&lt;/p&gt;
+&lt;div class="yj6qo"&gt;
+&lt;div id="attachment_271553" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271553" loading="lazy" class="wp-image-271553 size-epic-750x536" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-02-750x536.jpg" alt="" width="740" height="529" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-02-750x536.jpg 750w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-02-120x86.jpg 120w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-02-350x250.jpg 350w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-02-1140x815.jpg 1140w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271553" class="wp-caption-text"&gt;Foto: Assessoria de Comunicação da PMAC&lt;/p&gt;&lt;/div&gt;
+&lt;div id="attachment_271551" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271551" loading="lazy" class="wp-image-271551 size-epic-1140x815" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-03-1-1140x815.jpg" alt="" width="740" height="529" srcset="https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-03-1-1140x815.jpg 1140w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-03-1-120x86.jpg 120w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-03-1-350x250.jpg 350w, https://noticiadoacre.com.br/wp-content/uploads/2022/11/PHOTO-2022-11-17-13-47-03-1-750x536.jpg 750w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-271551" class="wp-caption-text"&gt;Foto: Assessoria de Comunicação da PMAC&lt;/p&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="adL"&gt;&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/sem-categoria/equipe-do-ministerio-da-justica-vem-ao-acre-e-recebe-feedback-das-acoes-policiais-na-fronteira/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>10:59:25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Governo forma mais de 150 novos policiais civis e fortalece segurança pública no estado</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Autoridades, familiares e colegas de trabalho se reuniram na noite desta sexta-feira, 4, no Teatro Universitário da Universidade Federal do Acre (Ufac) para prestigiar a formatura dos 156 novos aprovados no concurso da Polícia Civil.&lt;/p&gt;
+&lt;p&gt;Ao fim de quatro meses de curso de formação, os aprovados no certame conseguiram concluir o ciclo, e se tornaram servidores públicos no ato simbólico.&lt;/p&gt;
+&lt;p&gt;O governador, Gladson Cameli, compareceu ao evento e salientou o esforço do Estado e das entidades em reforçar a segurança pública.&lt;/p&gt;
+&lt;p&gt;“É um esforço que passa por muitas mãos, integrar esses novos policiais ao nosso efetivo. O Estado precisa de vocês, quero uma polícia forte que cumpra com os seus deveres constitucionais. Aproveito para voltar a dizer que o meu compromisso é com o que rege a Constituição Federal”, frisou Cameli.&lt;/p&gt;
+&lt;p&gt;Thiago Parente, aprovado no cargo de delegado, veio do Ceará, e conta um pouco da sua trajetória até a formatura.&lt;/p&gt;
+&lt;p&gt;“É uma felicidade estar aqui hoje, concluindo, sem baixas na turma de formandos. Foi muito difícil, desde os estudos até o aguardo da convocação, agradeço também meus colegas, sem eles não conseguiríamos estar aqui hoje”, disse.&lt;/p&gt;
+&lt;div id="attachment_271210" style="width: 750px" class="wp-caption alignnone"&gt;&lt;img aria-describedby="caption-attachment-271210" loading="lazy" class="wp-image-271210 size-epic-1140x815" src="https://noticiadoacre.com.br/wp-content/uploads/2022/11/Policia-Civil-10-1140x801.jpg" alt="" width="740" height="520" /&gt;&lt;p id="caption-attachment-271210" class="wp-caption-text"&gt;Fabrizio Sobreira, diretor da Acadepol, parabenizou os formandos, que após quatro meses de intenso aprendizado, finalizaram o curso de formação. Foto: Neto Lucena/Secom.&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;O delegado e o diretor da Academia de Polícia, Fabrizio Sobreira, reforçou o trabalho que o Estado fez para garantir reforços no efetivo de Polícia Civil no Acre.&lt;/p&gt;
+&lt;p&gt;“O governo assumiu o compromisso e vem reforçando a segurança pública, hoje entregamos a sociedade acreana 156 novos policiais civis, que tem essa árdua missão de proteger a nossa população “, destacou.&lt;/p&gt;
+&lt;p&gt;São 12 alunos delegados, nove escrivães, 19 peritos, um legista médico e 116 agentes de polícia civil, que agora integram o efetivo da segurança pública.&lt;/p&gt;
+&lt;h4&gt;O que disseram as autoridades&lt;/h4&gt;
+&lt;p&gt;“É um momento de festa e de muito esforço, então o trabalho dos nossos parlamentares estaduais, da Controladoria Geral, a Secretaria de Planejamento e Gestão, e o Sistema de Segurança Pública foi muito importante para garantir esse momento”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Secretário de Estado de Segurança Pública, Paulo Cézar dos Santos&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;“A turma de hoje são 156 novos policiais civis que estão formando, quero agradecer em nome da Academia de Polícia todo o esforço feito para convocar esse efetivo de agentes da lei”&lt;/p&gt;
+&lt;p&gt;Delegado-geral de Polícia Civil, José Henrique Maciel&lt;/p&gt;
+&lt;p&gt;“Além dos esforços realizados na Assembleia Legislativa essa conquista dos aprovados vem muito também da sensibilidade do governador, que não mediu esforços para poder contratar os formandos que estão aqui hoje”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Deputado Estadual, Pedro Longo&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;“Esta noite nossos policiais, escrivães, peritos passam para a fase mais importante da sua carreira: proteger a vida, o patrimônio, os bens, a segurança e a paz de outras pessoas, é um sacerdócio que os senhores e senhoras vão praticar”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Deputado federal, Alan Rick&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;“Todas as nossas expectativas estão depositadas no serviço que vocês vão prestar à sociedade acreana”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Desembargadora e presidente do Tribunal de Justiça do Acre, Waldirene Cordeiro&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;“Temos que reconhecer os avanços na segurança pública durante os quatro anos de gestão do governo Cameli, e hoje formamos mais de 150 pais e mães de família que sonharam muito com este momento”&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Deputado estadual, Nicolau Júnior&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://noticiadoacre.com.br/sem-categoria/governo-forma-mais-de-150-novos-policiais-civis-e-fortalece-seguranca-publica-no-estado/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>2022-11-30</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>18:49:32</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Tchê gaba programa “CNH Social” do Governo Gladson Cameli</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em pronunciamento na sessão desta terça-feira (29), na Assembleia Legislativa do Acre (Aleac), o deputado Luis Tchê (PDT), destacou a importância da CNH Social, um Programa Popular de Formação, Qualificação e Habilitação Profissional de Condutores de Veículos Automotores, por meio da Secretaria de Justiça e Segurança Pública, através do Departamento Estadual de Trânsito do Acre (Detran-AC).&lt;/p&gt;
 &lt;p&gt;Ainda segundo o parlamentar, a CNH Social é o maior programa de inclusão do governo Gladson Cameli. “Fico muito feliz ao saber que uma ideia que surgiu aqui, nesta tribuna, através de uma indicação minha, tem dado certo e tem beneficiado pessoas carentes de todos os 22 municípios do Acre. Agradeço, ainda, ao Detran por ter construído essa ideia junto com a gente desde o início”, disse.&lt;/p&gt;
@@ -4394,34 +5538,34 @@
 </t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/tche-gaba-programa-cnh-social-do-governo-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Tche-1.webp?fit=1280%2C719&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>10:09:49</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Cameli discute mudanças administrativas do próximo mandato com equipe de transição</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
 &lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças. “Apresentamos ao governador o produto da reforma administrativa, vamos apresentar esse material à base da Assembleia Legislativa do Acre e posteriormente divulgar as resoluções”, disse.&lt;/p&gt;
@@ -4432,34 +5576,34 @@
 </t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/cameli-discute-mudancas-administrativas-do-proximo-mandato-com-equipe-de-transicao/</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Gladson-transicao-22-23.webp?fit=1280%2C750&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>07:50:53</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>COP27: Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
 &lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
@@ -4472,34 +5616,34 @@
 </t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/cop27-governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/01-13.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>2022-11-14</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>13:30:00</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Na COP27, Cameli afirma que gerar emprego e renda com sustentabilidade é o principal objetivo para os próximos anos</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (Progressistas) que participa da 24º Conferência das Nações Unidas sobre Mudanças Climáticas, a COP 27, em Sharm El Sheikhh, no Egito, afirmou em entrevista à imprensa nacional e internacional, que gerar emprego e renda com sustentabilidade na região amazônica é o principal objetivo para os próximos anos.&lt;/p&gt;
 &lt;p&gt;O objetivo foi anunciado pelo próprio Cameli nesta segunda-feira 14, após o debate sobre o financiamento climático e o papel da cooperação internacional para o desenvolvimento de baixas emissões, com os governadores que compõem o Consórcio da Amazônia Legal.&lt;/p&gt;
@@ -4508,34 +5652,34 @@
 </t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/na-cop27-cameli-afirma-que-gerar-emprego-e-renda-com-sustentabilidade-e-o-principal-objetivo-para-os-proximos-anos/</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Gladson.webp?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>2022-11-14</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>09:45:22</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli deve se encontrar com Lula durante a COP 27, no Egito</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, em missão no Egito, onde participa da COP 27, a mais importante Conferência do Clima no mundo, deverá se encontrar com presidente eleito Luiz Inácio Lula da Silva durante o evento.&lt;/p&gt;
 &lt;p&gt;O presidente é  talvez a figura mais aguardada do evento, isso porque nas últimas conferências, Bolsonaro tratou com desprezo o debate sobre as questões climáticas e frustrou líderes mundiais e instituições de todo planeta. Mesmo sem assumir ainda o posto de presidente, Lula virou convidado formal dos organizadores, que esperam um discurso apaziguador do petista, se tratando das políticas públicas de controle do desmatamento e do aquecimento global.&lt;/p&gt;
@@ -4544,34 +5688,34 @@
 </t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-deve-se-encontrar-com-lula-durante-a-cop-27-no-egito/</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-03-29-at-13.27.50.webp?fit=1280%2C852&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>09:33:02</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Mailza Gomes integra Comissão de Transição do Governo Cameli</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A senadora e vice-governadora eleita, Mailza Assis da Silva, passa a integrar a Comissão de Transição do Governo do Acre. Sua nomeação foi publicada no &lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/DO16681424863306-1.pdf" target="_blank" rel="noreferrer noopener"&gt;Diário Oficial desta sexta-feira, 11&lt;/a&gt;.&lt;/p&gt;
 &lt;p&gt;A comissão foi instituída no dia 27 de outubro. A equipe coordenada pelo secretário da Casa Civil, Jonathan Donadoni, conta agora com 9 membros.&lt;/p&gt;
@@ -4582,34 +5726,34 @@
 </t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/mailza-gomes-integra-comissao-de-transicao-do-governo-cameli/</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/9DBEA9E1-49E5-4BBE-9DC9-12FE1D79C01D-855x572-1.webp?fit=1280%2C726&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>09:56:27</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Sobre encontro com Lula: “Estou preparado para ir como Gladson Cameli, governador de todos os acreanos”</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em entrevista ao Metrópoles, o governador reeleito do Acre, Gladson Cameli (PP), criticou as manifestações registradas nos últimos dias que impediram a circulação de carros em estradas de todo país. Desde o dia 30 de outubro, apoiadores do presidente Jair Bolsonaro (PL) foram às ruas para protestar contra a vitória de Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
 &lt;p&gt;Cameli, que é aliado de Bolsonaro, requisitou a ação das forças de segurança do estado para impedir os bloqueios das rodovias BR-364 e BR-367, sob risco de impacto no abastecimento do estado.&lt;/p&gt;
@@ -4620,34 +5764,34 @@
 </t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/sobre-encontro-com-lula-estou-preparado-para-ir-como-gladson-cameli-governador-de-todos-os-acreanos/</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-scaled-2.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>19:49:20</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de secretários e presidentes de autarquias para estabelecer metas do novo governo</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli esteve no auditório da Secretaria de Planejamento e Gestão (Seplag) com todos os seus gestores para agradecer a equipe e projetar os próximos 100 dias do seu novo governo. O encontro coordenado pelo titular da Seplag, Ricardo Brandão, foi realizado nesta sexta, dia 4.&lt;/p&gt;
 &lt;figure id="attachment_336414" aria-describedby="caption-attachment-336414" style="width: 2048px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="336414" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/reuniao-com-secretarios-11/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-11.jpg?fit=2048%2C1366&amp;amp;ssl=1" data-orig-size="2048,1366" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Reuniao-com-Secretarios-11" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Governador falou das prioridades do governo. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
@@ -4673,34 +5817,34 @@
 </t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/Reuniao-com-Secretarios-08-1024x683-1.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>16:35:09</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;p&gt;Nesta quinta-feira, 3, o governador Gladson Cameli recebeu a magistrada, no Palácio Rio Branco, na capital. A visita institucional contou com a participação do delegado-geral da Polícia Civil, Henrique Maciel, do diretor do Departamento de Inteligência da Polícia Civil, Nilton Boscaro, e da secretária adjunta de Justiça e Segurança Pública, Márdhia El-Shawwa.&lt;/p&gt;
@@ -4721,34 +5865,34 @@
 </t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil-2/</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-scaled-1.webp?fit=768%2C512&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>2022-11-03</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>20:42:21</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;figure id="attachment_335986" aria-describedby="caption-attachment-335986" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="335986" data-permalink="https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/img_8688-1-1024x604/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8688-1-1024x604-1.jpg?fit=1024%2C604&amp;amp;ssl=1" data-orig-size="1024,604" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="img_8688-1-1024&amp;#215;604" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&amp;lt;/p&amp;gt;
@@ -4766,34 +5910,34 @@
 </t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/img_8689-1024x683-1.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>09:59:35</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
 &lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças.&lt;/p&gt;
@@ -4804,34 +5948,34 @@
 </t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/politica/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/D8450254-2803-4C24-9A5B-266D7880F18E.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>09:03:59</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Na COP 27, Gladson Cameli entrega carta da Amazônia a Lula e destaca sustentabilidade e valorização humana</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em encontro na 27ª Conferência das Mudanças Climáticas das Nações Unidas (COP27), em Sharm El-Sheikh, Egito, no estande que compõe o Consórcio de Governadores da Amazônia Legal, nesta quarta-feira, 16, durante a entrega da Carta da Amazônia, o governador Gladson Cameli reforçou ao presidente da República eleito, Luiz Inácio Lula da Silva (PT), o compromisso de que o governo federal deve continuar tendo com todos os moradores da região amazônica.&lt;/p&gt;
 &lt;p&gt;Cameli enfatizou que é preciso que os diversos agentes que participam da COP27 e que buscam soluções para o problema das alterações climáticas do planeta tenham em mente que a preservação da biodiversidade amazônica passa pela valorização humana.&lt;/p&gt;
@@ -4844,34 +5988,34 @@
 </t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/658567/</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/cop-27.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>09:16:53</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Gladson Cameli se reúne com representantes do governo americano e propõe projeto para ampliar o desenvolvimento sustentável</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nessa segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
 &lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
@@ -4882,34 +6026,34 @@
 </t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/gladson-cameli-se-reune-com-representantes-do-governo-americano-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/gladson.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>09:20:41</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>&amp;#8220;Diminuir o desemprego&amp;#8221;, diz Gladson Cameli sobre o que acredita ser seu maior desafio para o segundo mandato</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador reeleito do Acre, Gladson Cameli, concedeu entrevista na noite de segunda-feira, 31, ao Programa Headline News, na TV Jovem Pan, apresentado por Livia Zanolini e comentários de Fabiana Barroso. Na ocasião, o chefe do Executivo falou sobre os próximos desafios em sua gestão, e do resultado do segundo turno, que elegeu Luiz Inácio Lula da Silva como novo presidente do Brasil.&lt;/p&gt;
 &lt;p&gt;&amp;#8220;Em 2018 a grande pauta era a Segurança Pública. Avançamos muito, principalmente em cuidar das nossas fronteiras, de diminuir o número de mortes em nosso Estado. Agora, o grande desafio que tenho pela frente é de diminuir o alto índice de desemprego no Acre. Preciso gerar emprego e renda para que a população possa realmente ter oportunidades de trabalho&amp;#8221;, destacou Cameli.&lt;/p&gt;
@@ -4922,34 +6066,34 @@
 </t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/11/noticias/diminuir-o-desemprego-diz-gladson-cameli-sobre-o-que-acredita-ser-seu-maior-desafio-para-o-segundo-mandato/</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/11/gladson.jpg</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>18:10:35</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Após vitória de Lula, Gladson Cameli emite nota e diz que está pronto para trabalhar em &amp;#8216;harmonia&amp;#8217;</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Após a vitória de Luiz Inácio Lula da Silva (PT), neste domingo, 30, o governador Gladson Cameli, que foi reeleito no primeiro turno das eleições, parabenizou aos envolvidos em todo o processo eleitoral, e afirmou estar pronto para trabalhar em harmonia com o governo federal a partir do ano que vem.&lt;/p&gt;
 &lt;p&gt;O governador disse que deve ser respeitada a vontade popular, que&lt;a href="https://agazetadoacre.com/2022/10/noticias/lula-e-eleito-presidente-do-brasil-apos-segundo-turno-acirrado-contra-bolsonaro/"&gt; elegeu Lula com 50,85% dos votos,&lt;/a&gt; com dados atualizados às 18h07, horário do Acre.&lt;/p&gt;
@@ -4965,34 +6109,34 @@
 </t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/apos-vitoria-de-lula-gladson-cameli-emite-nota-e-diz-que-esta-pronto-para-trabalhar-em-harmonia/</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/gladsoncameli.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>11:57:41</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli vota em Cruzeiro do Sul: &amp;#8216;Bolsonaro é a melhor opção para o Acre e o Brasil&amp;#8217;</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador reeleito Gladson Cameli (PP) votou, na manhã deste domingo, 30, na escola Governador Hugo Carneiro, em Cruzeiro do Sul, sua cidade natal. Vitorioso no primeiro turno das eleições, Gladson chegou acompanhado de assessores e entrou no colégio com a pequena Ágata, menina cruzeirense que lhe esperou na porta da instituição. Ele votou depois das 11 horas.&lt;/p&gt;
 &lt;p&gt;Cameli que faz campanha para o presidente Jair Bolsonaro, se mostra otimista neste segundo turno.&lt;/p&gt;
@@ -5044,34 +6188,34 @@
 </t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/politica/governador-gladson-cameli-vota-em-cruzeiro-do-sul-bolsonaro-e-a-melhor-opcao-para-o-acre-e-o-brasil/</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.27.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>10:00:23</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Gladson Cameli viaja para Cruzeiro do Sul, onde vota, e manda recado: ‘vamos cumprir nossa obrigação’</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="jeg_video_container jeg_video_content"&gt;&lt;iframe loading="lazy" title="Gladson Cameli deixou recado para os eleitores" width="500" height="281" src="https://www.youtube.com/embed/Mathuz5vUIQ?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;
 &lt;p&gt;O governador do Acre, Gladson Cameli, se deslocou para Cruzeiro do Sul, no interior estado, sua cidade natal, onde vota, na manhã deste domingo, 30. Ao sair de casa, ele usou o Instagram, onde deixou um recado para os eleitores, para que não deixem de votar.&lt;/p&gt;
@@ -5082,34 +6226,34 @@
 </t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-viaja-para-cruzeiro-do-sul-onde-vota-e-manda-recado-vamos-cumprir-nossa-obrigacao/</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/07/gladson-cameli.jpg.617x429_q85_crop.webp</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>10:09:54</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Gladson Cameli cria comissão de transição do governo e nomeia equipe responsável</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli publicou um decreto, no Diário Oficial do Estado (DOE), desta quinta-feira, 27, no qual institui a Comissão de que será responsável pela transição de legislatura e fez a nomeação dos membros que vão integrá-la.&lt;/p&gt;
 &lt;p&gt;O documento diz que a comissão será responsável pela transição de legislatura e pela implantação de processo de revisão das estruturas administrativas do Poder Executivo, e tem como objetivo fortalecer a capacidade institucional da administração pública estadual.&lt;/p&gt;
@@ -5138,34 +6282,34 @@
 </t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-cria-comissao-de-transicao-do-governo-e-nomeia-equipe-responsavel/</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/cameli1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>08:53:17</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Em evento internacional, Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nessa quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
 &lt;p&gt;Acompanhado da titular da Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), Paola Daniel, o governador acompanhou o lançamento do Projeto Aliança Empresarial pela Amazônia, em evento que contou com a presença do presidente do Peru, Pedro Castillo.&lt;/p&gt;
@@ -5182,34 +6326,34 @@
 </t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/em-evento-internacional-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/cameli1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>2022-10-13</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>09:48:31</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&lt;span class="Apple-converted-space"&gt; &lt;/span&gt;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/span&gt;&lt;/p&gt;
@@ -5219,34 +6363,34 @@
 </t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/10/noticias/geral/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/10/gladsoncameli.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>12:42:36</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Gladson Cameli cria comissão de transição governamental do AC e nomeia integrantes</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="chunk-fk8g7"&gt;
 &lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="39" data-block-id="3"&gt;
@@ -5320,34 +6464,34 @@
 </t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-cria-comissao-de-transicao-governamental-do-ac-e-nomeia-integrantes/</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/10/gladsontv.webp?fit=984%2C569&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>10:44:29</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="3"&gt;
 &lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;G&lt;/span&gt;ladson Cameli, do PP, foi reeleito neste domingo (7) governador do Acre para os próximos quatro anos. Ele toma posse em 1º de janeiro de 2023, e terá como vice a senadora Mailza Gomes (PP).&lt;/p&gt;
@@ -5461,34 +6605,34 @@
 </t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/10/captura-de-tela-2022-10-02-203053.webp?fit=984%2C1226&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>23:46:00</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Pesquisa Ipec no Acre: Gladson Cameli tem 54% e Jorge Viana 25%</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="41" data-block-id="3"&gt;
 &lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;P&lt;/span&gt;esquisa do Ipec divulgada nesta segunda-feira (19) pela Rede Amazônica Acre revela os índices de intenção de voto para o cargo de governador do Acre. O candidato do Progressistas, Gladson Cameli, lidera a disputa com 54% das intenções de voto.&lt;/p&gt;
@@ -5599,34 +6743,34 @@
 </t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/pesquisa-ipec-no-acre-gladson-cameli-tem-54-e-jorge-viana-25/</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/09/gladson-e-jorge.webp?fit=984%2C984&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>11:12:18</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Governador do Acre, Gladson Cameli, registra sua candidatura para tentar reeleição</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles active-capital-letter" data-block-type="unstyled" data-block-weight="45" data-block-id="2"&gt;
 &lt;p class="content-text__container theme-color-primary-first-letter" data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; governador do Acre, Gladson Cameli, do Progressistas, é candidato à reeleição e registrou sua candidatura no Tribunal Regional Eleitoral (TRE). Ele tem como vice a senadora Mailza Gomes, de 45 anos. Já ao senado, quem concorre ao cargo pelo partido é Ney Amorim.&lt;/p&gt;
@@ -5684,34 +6828,34 @@
 </t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/governador-do-acre-gladson-cameli-registra-sua-candidatura-para-tentar-reeleicao/</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/03/GLADSON-2-EXPLICA.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>2022-01-20</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>12:49:30</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Novo secretário de Gladson Cameli participou dos governos do PT e foi preso na operação G7</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 18pt;"&gt;&lt;strong&gt;&lt;em&gt;&lt;span style="font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;Novo secretário nomeado por Gladson foi um dos envolvidos na operação G7 e sua nomeação foi pedido dos empresários – Foto Reprodução.&lt;/span&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Engenheiro Elétrico e empresário Assirbanipal Barbary, foi a mais nova nomeação de Gladson Cameli o “governo de 1 bilhão” (Progressista), que atendeu ao pedido de um grupo de empresários do Estado.&lt;/span&gt;&lt;/p&gt;
@@ -5726,68 +6870,68 @@
 </t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/novo-secretario-de-gladson-cameli-participou-dos-governos-do-pt-e-foi-preso-na-operacao-g7/</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/01/Assirbanipal-Barbary.jpg?fit=750%2C420&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>2021-07-22</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>21:31:54</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Acre já recebeu mais de 500 mil doses de vacinas nos últimos sete meses, diz Cameli</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;E&lt;/span&gt;m live nas redes sociais nesta quinta-feira, 22, o governador Gladson Cameli (PP) afirmou que, de acordo com um levantamento da Secretaria de Estado de Saúde (Sesacre), o Acre já recebeu 503.400 mil doses de vacinas da Covid-19, nos últimos sete meses.&lt;/p&gt;
 &lt;p&gt;Do montante, foram aplicadas 442.500 até esta terça-feira, 20, sendo 329.826 da primeira dose, 104.216 da segunda e 8.458 dose única. Rio Branco aplicou 217.065 doses e Cruzeiro do Sul 51.725. O governador adiantou que a gestão deverá realizar mutirões em parceria com as prefeituras para acelerar o processo de imunização. “Será um auxílio, caso as prefeituras precisem”, explicou.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/acre-ja-recebeu-mais-de-500-mil-doses-de-vacinas-nos-ultimos-sete-meses-diz-cameli/</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/07/220587278_4040798602641875_6208389471937285598_n.jpg?fit=696%2C464&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>2021-03-06</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>16:10:47</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Em live, Gladson Cameli afirma que está curado da covid-19 e relata “sensação horrível”</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;N&lt;/span&gt;ão teve boletim oficial. Já passava das 14 horas deste sábado, 6, quando o governador Gladson Cameli [SEM PARTIDO], através de uma live, anunciou que está curado da Covid-19. Ele foi diagnosticado com Covid-19 na segunda-feira, 01, com provável infecção sendo contraída entre os dias 28 de março e primeiro de fevereiro.&lt;/p&gt;
 &lt;p&gt;Na live, Gladson disse que ao receber a notícia que tinha testado positivo para o vírus ficou abalado. “Estou zerado. Graças a Deus. Não desejo a ninguém uma situação dessa. Comentava com amigos próximos, que o psicológico da gente quando é informado que deu positivo é horrível a sensação”, afirmou.&lt;/p&gt;
@@ -5797,34 +6941,34 @@
 </t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/em-live-gladson-cameli-afirma-que-esta-curado-da-covid-19-e-relata-sensacao-horrivel/</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2021/03/WhatsApp-Image-2021-03-06-at-3.07.11-PM.jpeg?fit=900%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>2020-12-19</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>15:03:44</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Gladson Cameli entrega nova OCA para a população do município de Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Acre agora conta com três unidades: em Rio Branco, Xapuri e a mais recente, de Cruzeiro do Sul, que foi inaugurada nesta sexta, 18, pelo governador Gladson Cameli.&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;A obra será de extrema importância para toda a região do Juruá. Além de diversos serviços que serão prestados aos moradores, nos âmbitos estaduais e federais, a instalação do Procon é a grande novidade.&lt;/p&gt;
@@ -5845,34 +6989,34 @@
 </t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-entrega-nova-oca-para-a-populacao-do-municipio-de-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2020/12/Gladson-Cameli-entrega-nova-OCA-para-a-populacao-de-Cruzeiro-do-Sul-2.jpeg?fit=696%2C464&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>2020-05-12</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>18:49:35</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Gladson Cameli convoca associações militares para negociar titulação</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli recebeu as associações militares (AME, ASSOF, APRABMAC, APRAPMAC e ST/SGT da PM) para uma reunião no final da tarde desta terça-feira, dia 12, no escritório governamental. Na pauta estava o debate da situação atual e o anúncio da retomada das negociações sobre a titulação em um novo formato. Também estiveram presentes o vice-governador Major Rocha, a quem o governador pediu ajuda na resolução da questão, e o secretário de segurança, Paulo César.&lt;/p&gt;
 &lt;p&gt;De acordo com os militares o erro do governo foi seguir o caminho para o legislativo criando uma gratificação que já é um direito da categoria. De acordo com os representantes, a discussão volta a ser na esfera administrativa, como foi defendida desde o início, a partir do parecer enviado pela Polícia Militar e Corpo de Bombeiros à PGE e SEPLAG para corrigir a situação. O governador concordou com a proposta e espera a solução.&lt;/p&gt;
@@ -5881,34 +7025,34 @@
 </t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/gladson-cameli-convoca-associacoes-militares-para-negociar-titulacao/</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2020/05/WhatsApp-Image-2020-05-12-at-18.40.19.jpeg?fit=1280%2C605&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>15:00:33</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Sindmed-AC se reúne com Gladson Cameli para tratar sobre plantões extras e contratos emergenciais</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img data-attachment-id="41347" data-permalink="https://www.acre.com.br/sindmed-ac-se-reune-com-gladson-cameli-para-tratar-sobre-plantoes-extras-e-contratos-emergenciais/dr-murilo-2/" data-orig-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=1280%2C960&amp;amp;ssl=1" data-orig-size="1280,960" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Dr Murilo 2" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=300%2C225&amp;amp;ssl=1" data-large-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=740%2C555&amp;amp;ssl=1" decoding="async" loading="lazy" class="size-medium wp-image-41347 alignleft" src="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=300%2C225&amp;#038;ssl=1" alt="" width="300" height="225" srcset="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=768%2C576&amp;amp;ssl=1 768w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=1024%2C768&amp;amp;ssl=1 1024w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=510%2C382&amp;amp;ssl=1 510w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?resize=1080%2C810&amp;amp;ssl=1 1080w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?w=1280&amp;amp;ssl=1 1280w" sizes="(max-width: 300px) 100vw, 300px" data-recalc-dims="1" /&gt;O presidente do Sindicato dos Médicos do Acre (Sindmed-AC), Murilo Batista, a diretora de Assistência do Pronto Socorro de Rio Branco, Michele Melo, e a médica Katia Fernanda, estiveram na manhã desta segunda-feira (14) em uma reunião com o governador Gladson Cameli e equipe para tratar sobre o risco de desassistência nos hospitais, garantia de pagamento de plantões extras e chamada de médicos em caráter emergencial caso os concursados que assinarem contratos não sejam suficientes para garantir o atendimento.&lt;/p&gt;
 &lt;p&gt;Murilo afirmou que atualmente já está existindo desassistência, haja vista que alguns médicos que terão contratos findados com a Secretaria de Estado de Saúde (Sesacre) temem realizar os plantões extras e não receberem.&lt;/p&gt;
@@ -5925,34 +7069,34 @@
 </t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>https://www.acre.com.br/sindmed-ac-se-reune-com-gladson-cameli-para-tratar-sobre-plantoes-extras-e-contratos-emergenciais/</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2019/10/Dr-Murilo-2.jpeg?fit=1280%2C960&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>2022-11-24</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>18:49:19</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Gladson caminha vestido de árabe e web gosta: “Mohamed Cameli”</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli chamou a atenção da web ao postar um vídeo em que caminha pela rua trajando a Kondura, tradicional vestimenta árabe. Gladson usa o celular enquanto caminha. Ele esteve recentemente no Egito participando da COP 27.&lt;br /&gt;
 Os internautas entenderam a brincadeira e gostaram. “Mohamed Cameli”, disse uma seguidora.&lt;br /&gt;
@@ -5963,34 +7107,34 @@
 </t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/11/24/gladson-caminha-vestido-de-arabe-e-web-gosta-mohamed-cameli/</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/11/Sem-titulo-1-e1669334370484.png</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>06:33:12</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -6004,34 +7148,34 @@
 </t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/10/03/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/10/82308cfe-647f-40f4-bef9-7571dd15e5f2.jpg</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>2022-07-30</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>21:36:42</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Dez partidos declararam apoio à reeleição de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Uma reunião, neste final de semana, com a presença do governador Gladson Cameli e lideranças de dez partidos fechou questão sobre o apoio à sua reeleição. No entanto, ainda é possível que outros partidos venham compor a sua base eleitoral até o prazo limite das convenções partidárias no próximo dia 5 de agosto.&lt;/p&gt;
 &lt;p&gt;Progressistas, PSDB, Podemos, PDT, Solidariedade, Cidadania, Democracia Cristã, Brasil 35, Patriotas e PMN já decidiram que marcharão com Cameli. Outra deliberação foi sobre a escolha do nome que comporá como candidato a vice-governador na chapa.&lt;/p&gt;
@@ -6040,34 +7184,34 @@
 </t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/07/30/dez-partidos-declararam-apoio-a-reeleicao-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/07/GUR_4503-scaled.jpg</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>2022-05-17</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>14:07:23</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Zen: fogo na biblioteca é desídia e descaso do governo de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O deputado Daniel Zen disse nesta terça-feira (17) que apresentou há semanas o requerimento de convocação de Aberson Carvalho para explicações sobre as dificuldades de iniciar o ano letivo em muitas escolas do Acre – e o parlamentar espera que seja marcada a data para que o secretário compareça.&lt;br /&gt;
 Zen criticou a baixa convocação de mediadores da educação especializada. “A demanda é de 300 profissionais e a convocação é de menos de 100”, alertou, em tom de condenação. Ele aproveitou para listar todas as deficiências que travam o bom início do ano letivo e a retomada das aulas presenciais.&lt;br /&gt;
@@ -6077,34 +7221,34 @@
 </t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/05/17/zen-fogo-na-biblioteca-e-desidia-e-descaso-do-governo-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2021/04/zen.jpg</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>10:04:57</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Gladson Cameli participa de encontro na Terra Noke Koi</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Às vésperas do Dia do Índio, o governador Gladson Cameli foi recebido com festa pelo povo NoKe Koi, também conhecido como Katuquinas, em Cruzeiro do Sul. Já na sua chegada os indígenas pintados e ornamentados conduziram o governador para o centro da maloca espiritual da aldeia, para realizarem uma dança tradicional em sua homenagem.&lt;br /&gt;
 Em seguida, as diversas lideranças Noke Koi e os caciques visitantes, Joel Puyanawa e Erison Nukini, fizeram as suas reivindicações ao governador e à sua equipe de gestão. Gladson, que estava acompanhado do prefeito de Cruzeiro do Sul, Zequinha Lima, prometeu resolver as demandas mais urgentes e explicou que a pandemia da covid-19 atrapalhou alguns dos projetos da sua gestão que estavam em andamento.&lt;br /&gt;
@@ -6123,30 +7267,30 @@
 </t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/04/19/gladson-cameli-participa-de-encontro-na-terra-noke-koi/</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>07:39:17</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>“O Brasil precisa conhecer o Acre”, diz Gladson Cameli</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com mais de 300 pessoas envolvidas, vindas de todos os estados da federação brasileira, mais o Distrito Federal (DF), o Acre encerrou neste domingo, 17, a primeira competição seletiva de vôlei de praia estudantil do país.&lt;br /&gt;
 A disputa foi realizada na Associação Atlética Banco do Brasil (AABB), em Rio Branco e terminou com as duplas vencedoras da série Ouro, tanto da categoria masculina, como da feminina, garantindo vaga na Gymnasiade internacional que acontecerá no mês de maio, em Normandia, na França.&lt;br /&gt;
@@ -6160,30 +7304,30 @@
 </t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/04/18/o-brasil-precisa-conhecer-o-acre-diz-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>2022-03-23</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>18:20:35</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Gladson Cameli vai a Tarauacá e visita famílias desabrigadas</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli visitou as famílias desabrigadas pelas cheias do rio Tarauacá, no município de mesmo nome, distante 440 quilômetros de Rio Branco, na tarde desta quarta-feira, 23. O governador foi ver de perto a situação das mais de 40 famílias que tiveram de deixar suas casas, depois que o rio Tarauacá transbordou, e prestou apoio aos trabalhos de assistência às vítimas pela prefeitura.&lt;br /&gt;
 Na noite desta terça-feira, 22, o rio havia subido mais de um metro acima da cota de alerta. “Esta situação me preocupou bastante e vim prestar a nossa solidariedade a essas pessoas que tanto precisam da mão amiga do Estado, determinando que a nossa equipe, de todas as secretarias, coloque a mão na massa para ajudar a prefeita”, afirmou Gladson Cameli, logo após o desembarque no aeroporto local, ao se dirigir ao bairro Senador Pompeu, um dos mais atingidos pela alagação.&lt;br /&gt;
@@ -6199,30 +7343,30 @@
 </t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/03/23/gladson-cameli-vai-a-tarauaca-e-visita-familias-desabrigadas/</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>15:20:52</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Longo: todos querem estar na chapa de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O Líder do Governo na Aleac, Pedro Longo, disse nesta terça-feira (8) que o governo de Gladson Cameli prestigia as mulheres  não somente com políticas mas elas ocupam  espaços relevantes na Saúde, Educação, Assistência Social, Depasa e outras funções estratégicas.&lt;br /&gt;
 “Palavras todos podem pronunciar mas atos só os que tem sensibilidade”, disse Longo ao rebater suposta misoginia na fala de Cameli na ordem de serviço da Ponte da Sibéria.&lt;br /&gt;
@@ -6230,34 +7374,34 @@
 </t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/03/08/longo-todos-querem-estar-na-chapa-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2021/01/LONGO_02.jpg</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>2022-02-11</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>12:09:04</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Gladson Cameli nomeia 15 novos defensores públicos</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Em clima de comemoração e agradecimento, o governador do Acre, Gladson Cameli, realizou na manhã desta sexta-feira, 11, o ato de nomeação de 15 novos defensores públicos. Os profissionais tomarão posse até o mês de março e deverão reforçar os trabalhos de assistência jurídica em regiões dos municípios de interior.&lt;/p&gt;
 &lt;p&gt;O ato de nomeação foi realizado no escritório de apoio do governador e contou com a presença da defensora-geral, Simone Santiago, e da subdefensora-geral, Roberta Caminha. A relação com o nome dos candidatos aprovados será publicada no Diário Oficial  na próxima segunda-feira, 14.&lt;/p&gt;
@@ -6267,34 +7411,34 @@
 </t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/02/11/gladson-cameli-nomeia-15-novos-defensores-publicos/</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/02/IMG_0488.jpg</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>08:13:55</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Gladson Cameli convoca 187 do cadastro de reserva da PM</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli demonstrou, mais uma vez, que a Segurança Pública do Acre passa por um momento histórico. Na noite desta segunda-feira, 7, o chefe de Estado confirmou a última convocação dos 187 concursados remanescentes do cadastro de reserva da Polícia Militar (PMAC). Além de honrar sua palavra, o gestor reafirma o compromisso com o fortalecimento das instituições e a proteção das famílias acreanas.&lt;/p&gt;
 &lt;p&gt;No vídeo divulgado nas redes sociais, Cameli afirmou estar feliz pelo aval dado por sua equipe econômica e Tribunal de Contas do Estado (TCE-AC), assegurando a legalidade do processo, equilíbrio financeiro e segurança jurídica necessária para realizar o chamamento, que será oficializado por meio de publicação no Diário Oficial.&lt;/p&gt;
@@ -6306,34 +7450,435 @@
 </t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/02/08/gladson-cameli-convoca-187-aprovados-do-cadastro-de-reserva-da-policia-militar/</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/02/IMG-1398.jpg</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>10:29:01</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Gladson Cameli critica protestos pós-2º turno e quer diálogo com Lula</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em entrevista ao Metrópoles, o governador reeleito do Acre, Gladson Cameli (PP), criticou as manifestações registradas nos últimos dias que impediram a circulação de carros em estradas de todo país. Desde o dia 30 de outubro, apoiadores do presidente Jair Bolsonaro (PL) foram às ruas para protestar contra a vitória de Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
+&lt;p&gt;Cameli, que é aliado de Bolsonaro, requisitou a ação das forças de segurança do estado para impedir os bloqueios das rodovias BR-364 e BR-367, sob risco de impacto no abastecimento do estado.&lt;/p&gt;
+&lt;p&gt;“É preciso ter bem claro que todos têm o direito de se manifestar. Porém, essa manifestação tem que ser pacífica e ordeira, sem atrapalhar a vida do cidadão. Nosso estado não pode correr o risco de desabastecimento, ainda mais de produtos e serviços essenciais”, disse.&lt;/p&gt;
+&lt;p&gt;Cameli foi questionado sobre a inação do presidente para demover os apoiadores dos atos. O governador acreano avaliou que “antes de tudo, o presidente é um patriota e democrata”. “Como ele mesmo diz, sempre trabalhou dentro das quatro linhas da Constituição”, defendeu.&lt;/p&gt;
+&lt;p&gt;Bolsonaro só pediu aos apoiadores que desobstruíssem as rodovias dois dias depois do início dos atos, que começaram ao final do segundo turno das eleições. Na ocasião, o presidente disse que o “fechamento de rodovias prejudica o direito de ir e vir das pessoas e apelou: “Desobstruam as rodovias, isso não faz parte das manifestações legítimas”.&lt;/p&gt;
+&lt;p&gt;O pedido de Bolsonaro somado ao uso de força policial surtiu efeito e grandes partes dos bloqueios foram contornados. Até a tarde dessa quarta-feira (9/11), as rodovias do país não registravam mais bloqueios e interdições, segundo a Polícia Rodoviária Federa (PRF).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Gratidão a Bolsonaro”&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Eleito ainda no primeiro turno, Cameli trabalhou durante todo segundo turno para consolidar votos a Bolsonaro no Acre. O atual presidente já havia vencido Lula no estado e foi o candidato mais votado em 18 das 22 cidades, no dia 30 de outubro.&lt;/p&gt;
+&lt;p&gt;Para o governador do estado, os votos do eleitorado acreano a Bolsonaro podem ser interpretados como “gratidão do eleitor a tudo que o governo federal fez pelo nosso estado”.&lt;/p&gt;
+&lt;p&gt;“Desde o começo, trabalhamos muito pela candidatura de Bolsonaro porque acreditamos que ele foi um grande parceiro para o estado do Acre. Somos um estado que ainda depende muito das verbas federais e nesse governo tivemos apoio para avançar em diversas áreas como segurança, saúde, educação. Então, essa vitória no estado pode ser vista como a gratidão do eleitor acreano a tudo o que o governo federal fez pelo nosso estado”, disse ao Metrópoles.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conversa com Lula&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O governador afirma que, apesar de ter feito campanha para Bolsonaro nas eleições, está aberto a dialogar com o presidente eleito. “Quando chegar a hora de nos sentarmos e discutirmos, penso que vou estar a frente do Luiz Inácio Lula da Silva, presidente de todos os brasileiros”, enfatizou.&lt;/p&gt;
+&lt;p&gt;“Estou preparado para ir como Gladson Cameli, governador de todos os acreanos. A eleição já passou, as siglas partidárias têm que estar em segundo plano. Por exemplo, aqui no estado do Acre, temos alguns municípios em que os prefeitos são do PT. E a maioria deles me apoiou para a reeleição, num sinal de que é possível colocar o bem-estar das pessoas em primeiro lugar”, prosseguiu.&lt;/p&gt;
+&lt;p&gt;Segundo Cameli, Lula deu “recado claro de que pretende fazer um governo de pacificação quando escolheu Geraldo Alckmin, um ex-adversário como vice”. “De nossa parte, vamos continuar trabalhando colocando em primeiro lugar as pessoas”, finalizou.&lt;/p&gt;
+&lt;p&gt;Metropoles&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/politica-ac/gladson-cameli-critica-protestos-pos-2o-turno-e-quer-dialogo-com-lula/</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13:38:05</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Gladson Cameli encerra comitê da Covid no Acre e condecora profissionais</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli (Progressistas) revogou o decreto que criou o Pacto Acre Sem Covid, em janeiro de 2021, e o decreto que dispõe sobre as regras de organização e funcionamento do Comitê de Acompanhamento Especial da COVID-19 (CAECOVID), criado em 20 de abril de 2022, e outros dois decretos sobre o posicionamento do estado para enfrentamento da pandemia.&lt;/p&gt;
+&lt;p&gt;As revogações foram divulgadas no Diário Oficial do Acre desta quinta-feira (13).&lt;/p&gt;
+&lt;p&gt;No mesmo decreto, Gladson anunciou a condecoração, em razão dos relevantes serviços prestados ao Estado do Acre, aos órgãos, instituições e agentes públicos que compuseram o Comitê de Acompanhamento Especial da COVID-19 (CAECOVID) e o Grupo de Apoio ao Pacto Acre Sem Covid (GAPASC).&lt;/p&gt;
+&lt;p&gt;O número de novos casos de Covid por dia no Acre chega a, no máximo, 10, de acordo com os boletins diários divulgados pela Secretaria Estadual de Saúde (Sesacre). Além disso, o Estado não notifica novos óbitos pela doença há algumas semanas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Contilnet&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/ladson-cameli-encerra-comite-da-covid-no-acre-e-condecora-profissionais/</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>17:30:38</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Governo pretende realizar novos concursos na saúde, educação e Polícia Pena, diz Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em entrevista à Rede Amazônica na manhã desta terça-feira, 4, o governador reeleito, Gladson Cameli (Progressistas), declarou que seu próximo governo será focado na geração de emprego e renda e para isso, garantiu que irá buscar a realização de novos concursos na área da saúde, educação e segurança.&lt;/p&gt;
+&lt;p&gt;Um dos certames mais aguardados pelos concurseiros de plantão será o da Polícia Penal – sendo que o último foi realizado em 2007 – ainda na gestão de Binho Marques do PT. “Vamos soltar o novo edital do concurso da penal”, comentou destacando também a realização de concursos na área de saúde e educação.&lt;/p&gt;
+&lt;p&gt;Sobre a próxima gestão, Cameli adiantou que deverá contar com apoio dos três senadores da República, Alan Rick, Márcio Bittar e Sérgio Petecão. “Eu desci do palanque”, declarou.&lt;/p&gt;
+&lt;p&gt;Sem citar nomes, o chefe do executivo acreano deixou claro que sua equipe será técnica e focada em projetos em prol da sociedade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Folha do Acre&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/governo-pretende-realizar-novos-concursos-na-saude-educacao-e-policia-pena-diz-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>19:10:17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Acre: com 25,47% de apuração, Gladson Cameli lidera com disputa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="b3536198-46f3-4a48-aa33-d87d7e54e2a4" class="infocoweb infocoweb_canal_64"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div class="post-item-wrap"&gt;
+&lt;p&gt;A apuração dos votos começou no Acre. Até o momento, Gladson Cameli, do PP está na frente com 54,82% dos votos válidos. Jorge Viana, do PT, está em segundo lugar, com 26,33% dos votos válidos. &lt;img src="https://agenciabrasil.ebc.com.br/ebc.png?id=1485845&amp;#038;o=node" style="width:1px;height:1px"&gt;&lt;img src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1485845&amp;#038;o=node" style="width:1px;height:1px"&gt;&lt;/p&gt;
+&lt;p&gt;Até agora foram apurados 25,47% das urnas.&lt;/p&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="alt-font font-italic my-2 small text-info"&gt;                                                 Edição:   Heloisa Cristaldo                     &lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://agenciabrasil.ebc.com.br/politica/noticia/2022-10/acre-com-2547-de-apuracao-gladson-cameli-lidera-com-disputa#b3536198-46f3-4a48-aa33-d87d7e54e2a4" rel="noopener"&gt;EBC Política Nacional&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=b3536198-46f3-4a48-aa33-d87d7e54e2a4"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/politica-nacional/acre-com-2547-de-apuracao-gladson-cameli-lidera-com-disputa/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>15:59:23</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Membros da corte TRE Acre deferem candidatura de Gladson Cameli à reeleição</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Os membros que compõem o Tribunal Regional Eleitoral deferiram por unanimidade a candidatura, ao governo do Acre, de Gladson Cameli (PP). O julgamento aconteceu desmembrado do caso da candidata a vice, Mailza Gomes.&lt;/p&gt;
+&lt;p&gt;O relator do caso foi o desembargador Luís Camolez. Os membros acompanharam o voto da relatoria.&lt;/p&gt;
+&lt;p&gt;Os magistrados pontuaram que embora Gladson esteja na mesma chapa que Mailza, as acusações que pesam contra ela não podem ser atribuídas a ele.&lt;/p&gt;
+&lt;p&gt;Com isso, Gladson está apto a ser avaliado novamente nas urnas.&lt;/p&gt;
+&lt;p&gt;Noticias da Hora&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/membros-da-corte-tre-acre-deferem-candidatura-de-gladson-cameli-a-reeleicao/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10:37:19</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cameli exonera gerente-geral do Hospital de Sena Madureira nesta terça-feira</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador do Acre, Gladson Cameli, do Progressistas, exonerou na manhã desta terça-feira,06, a gerente geral do Hospital João Câncio Fernandes de Sena Madureira, Edgardina Matos Barbosa. A decisão foi publicada no Diário Oficial do Estado (DOE), desta terça-feira.&lt;/p&gt;
+&lt;p&gt;No mesmo dia, o governador também nomeou o novo resposável para ficar no lugar de Edgardina Matos e ocupar o cargo de gerente geral, Francisco Tadeu Pena Brana.&lt;/p&gt;
+&lt;p&gt;A decisão da exoneração ocorreu logo após a morte do paciente Izailton Gadelha da Silva, de 33 anos, no Pronto Socorro de Rio Branco. Ele foi vítima do desabamento ocorrido no &lt;a href="https://agazeta.net/noticias/cotidiano/em-sena-madureira-forro-de-hospital-joao-cancio-fernandes-desabafa-em-cima-de-pacientes/"&gt;Hospital João Câncio Fernandes&lt;/a&gt;, na última sexta-feira (03).&lt;/p&gt;
+&lt;p&gt;Devido o forro tê-lo atingido, ele ficou em estado grave e foi atendido no Pronto Socorro da capital, mas faleceu após dois dias.&lt;/p&gt;
+&lt;p&gt;Agazeta  Net&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/cameli-exonera-gerente-geral-do-hospital-de-sena-madureira-nesta-terca-feira/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>13:36:56</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Entenda os temas dos programas eleitorais dos candidatos Mara Rocha, Jorge Viana e Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Nesta última sexta-feira (26) foram ao ar os primeiros programas eleitorais em todo o país, no Acre, os principais candidatos ao Governo, usaram seu tempo de campanha de formas distintas. A direita, representada por Mara Rocha (MDB), que mostrou a força do protagonismo feminino na política; centrão, com Gladson Cameli (Progressistas), que pegou carona na pandemia da Covid-19; e a esquerda, com Jorge Viana (PT), que focou na família para convencer o eleitor. Entenda:&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://acjornal.com/wp-content/uploads/2022/08/174F5583-FB21-44BC-A8B8-C6EF1EB8670F.jpeg"&gt;&lt;img loading="lazy" class="aligncenter size-medium wp-image-314277" src="https://acjornal.com/wp-content/uploads/2022/08/174F5583-FB21-44BC-A8B8-C6EF1EB8670F-300x206.jpeg" alt="" width="300" height="206" srcset="https://acjornal.com/wp-content/uploads/2022/08/174F5583-FB21-44BC-A8B8-C6EF1EB8670F-300x206.jpeg 300w, https://acjornal.com/wp-content/uploads/2022/08/174F5583-FB21-44BC-A8B8-C6EF1EB8670F.jpeg 668w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Mara Rocha –&lt;/strong&gt; A candidata do MDB, enfatizou a mulher como uma grande força de atuação política. Mara inicia apresentando de forma breve o currículo de sua trajetória profissional e política. Se eleita governadora, Mara Rocha será a primeira mulher eleita por votação para dirigir o palácio acreano. Em suas caminhadas, Mara tem mostrado um olhar sensível aos problemas da população.&lt;br /&gt;
+A Deputada Federal mais bem votada do Acre, aposta na confiança nela depositada nas urnas em 2018. De fato, provando para que foi eleita, durante seu mandato na Câmara Federal, só para a saúde do Acre, a parlamentar destinou mais de R$ 12 milhões em emendas parlamentares. Mara se diz preparada para governar o estado do Acre, isso devido à grande experiência política adquirida por ela enquanto Deputada Federal. Verdade, responsabilidade e eficiência são os adjetivos que devem nortear a gestão da candidata, segundo ela.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a href="https://acjornal.com/wp-content/uploads/2022/08/6C20FE1C-AC00-4086-BADC-B115B45BADF2.jpeg"&gt;&lt;img loading="lazy" class="aligncenter size-medium wp-image-314278" src="https://acjornal.com/wp-content/uploads/2022/08/6C20FE1C-AC00-4086-BADC-B115B45BADF2-300x190.jpeg" alt="" width="300" height="190" srcset="https://acjornal.com/wp-content/uploads/2022/08/6C20FE1C-AC00-4086-BADC-B115B45BADF2-300x190.jpeg 300w, https://acjornal.com/wp-content/uploads/2022/08/6C20FE1C-AC00-4086-BADC-B115B45BADF2.jpeg 695w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;&lt;br /&gt;
+Jorge Viana-&lt;/strong&gt; O candidato do PT, Jorge Viana, com o intuito de tentar sensibilizar os eleitores, citou a família e seus valores familiares. Em seguida, aproveitou da cara de bom moço do seu vice, Marcus Alexandre, para falar sobre os feitos do ex-governador no Estado.&lt;br /&gt;
+Foram 20 anos de domínio do PT no Acre, nesse período, a família Viana apareceu envolvida em escândalos de corrupção e em delações premiadas no âmbito da Operação Lava Jato, pondo em xeque os valores familiares citados por Jorge na propaganda. Também foi no governo Petista quem a violência eclodiu nas fronteiras do Acre, problema que as gestões do partido nunca conseguiram resolver. O fracasso de Jorge Viana na disputa ao Senado em 2018 pode ser visto como símbolo da derroca do PT no Acre.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a href="https://acjornal.com/wp-content/uploads/2022/08/8DDCDC54-FC97-4CF4-B5EC-D3804EBAE4C7.jpeg"&gt;&lt;img loading="lazy" class="aligncenter size-medium wp-image-314279" src="https://acjornal.com/wp-content/uploads/2022/08/8DDCDC54-FC97-4CF4-B5EC-D3804EBAE4C7-300x200.jpeg" alt="" width="300" height="200" srcset="https://acjornal.com/wp-content/uploads/2022/08/8DDCDC54-FC97-4CF4-B5EC-D3804EBAE4C7-300x200.jpeg 300w, https://acjornal.com/wp-content/uploads/2022/08/8DDCDC54-FC97-4CF4-B5EC-D3804EBAE4C7.jpeg 678w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;&lt;br /&gt;
+Gladson Cameli –&lt;/strong&gt; Já o atual governador do Acre, em sua primeira propaganda eleitoral, surfou na onda da Covid-19 para falar sobre os feitos de seu mandato. Com uma gestão marcada por diversos protestos e greves nas áreas da saúde, educação e segurança, Cameli fez questão de citar ações nas três esferas. Um balanço feito em 2022, por um veículo de comunicação do Estado, chegou ao resultado que, das 68 promessas feitas durante a campanha que o elegeu em seu primeiro mandato, Gladson cumpriu apenas 14.&lt;br /&gt;
+Outro destaque na propaganda eleitoral de Cameli são as obras concluídas durante sua gestão. O governador apenas esqueceu de mencionar que não houve obras frutos de sua gestão, são obras herdadas dos governos anteriores, e ainda mais grave versa sobre o Hospital João Câncio Fernandes, em Sena Madureira, o qual a construção deveria ter sido entregue ainda no primeiro semestre de 2021, o que deixou debilitada a saúde do município.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/politica-ac/entenda-os-temas-dos-programas-eleitorais-dos-candidatos-mara-rocha-jorge-viana-e-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16:34:20</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bens de Gladson Cameli chegam R$5 milhões; Petecão declara quase R$4 mi</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, pré-candidato à reeleição nas Eleições de 2022, declarou seus bens ao Tribunal Superior Eleitoral (TSE). A quantia chega a R$5.161.383,44,  dividida em aplicação de renda fixa, veículos, consórcio, terreno, construção, etc.&lt;/p&gt;
+&lt;p&gt;Em 2018, quando concorreu ao primeiro mandato, Gladson declarou 2,9 milhões.&lt;/p&gt;
+&lt;p&gt;Logo atrás, com uma quantia declarada menor que a de Gladson, vem o senador licenciado Sérgio Petecão (PSD), com R$ 3.744.024,59 em bens. Em 2018, quando disputou o Senado, Petecão declarou R$1.068.661,98.&lt;/p&gt;
+&lt;p&gt;Em terceira posição, Nilson Euclides (PSOL) declarou R$513.900,00.&lt;/p&gt;
+&lt;p&gt;O pré-candidato do Agir, David Hall, declarou R$12.500,00.&lt;/p&gt;
+&lt;p&gt;As coligações tem o limite de gastos de R$3.557.761,23 no primeiro turno, e R$1.778.880,62 no segundo.&lt;/p&gt;
+&lt;p&gt;Os demais pré-candidatos ainda não declararam seus bens.&lt;/p&gt;
+&lt;p&gt;com informações Contilnet&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/308365/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10:53:29</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ney Amorim deve anunciar hoje se compõe chapa de Gladson Cameli nestas Eleições</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O presidente da Executiva Regional do Podemos no Acre, Ney Amorim, confirmou que pode compor chapa majoritária nestas Eleições de 2022. Ney Amorim passou a tarde desta quinta-feira, 4, reunido com os pré-candidatos do Podemos, e também com as lideranças do partido no Alto Acre, em Rio Branco, em Cruzeiro do Sul e Tarauacá, para tomar uma decisão. Mas o teor do que foi acordado só será divulgado pelo próprio Ney, na manhã desta sexta-feira, 5.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Ombridade&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Vale ressaltar que o presidente do Podemos no Acre mantém a sua fidelidade ao projeto político de Gladson Cameli para a reeleição. Por isso mesmo, independentemente da sua decisão, se pela manutenção da sua pré-candidatura a deputado federal, ele seguirá ao lado do governador Gladson, o apoiando na sua reeleição.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/politica-ac/ney-amorim-deve-anunciar-hoje-se-compoe-chapa-de-gladson-cameli-nestas-eleicoes/</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>09:02:10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>10 partidos se unem para declarar apoio à reeleição de Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Uma reunião, neste final de semana, com a presença do governador Gladson Cameli e lideranças de dez partidos fechou&lt;/p&gt;
+&lt;p&gt;questão sobre o apoio à sua reeleição. No entanto, ainda é possível que outros partidos venham compor a sua base eleitoral até o prazo limite das convenções partidárias no próximo dia 5 de agosto.&lt;/p&gt;
+&lt;p&gt;Progressistas, PSDB, Podemos, PDT, Solidariedade, Cidadania, Democracia Cristã, Brasil 35, Patriotas e PMN já decidiram que marcharão com Cameli. Outra deliberação foi sobre a escolha do nome que comporá como candidato a vice-governador na chapa.&lt;/p&gt;
+&lt;p&gt;O escolhido é o deputado federal Alan Rick (UB). Mas, como já foi amplamente divulgado pela imprensa, existem problemas internos no União Brasil que podem inviabilizar a escolha de Alan. Gladson espera que essa questão tenha um desfecho favorável nos próximos dias.&lt;/p&gt;
+&lt;p&gt;Mas caso as dificuldades políticas internas do União Brasil não sejam superadas e, portanto, o nome de Alan seja inviabilizado a coligação tomou uma decisão. Com o apoio de todos os partidos, Gladson Cameli terá a liberdade de escolher entre os partidos que compõe sua coligação o seu companheiro de chapa.&lt;/p&gt;
+&lt;p&gt;Folha do Acre&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/politica-ac/total-10-partidos-se-unem-para-declarar-apoio-a-reeleicao-de-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>15:54:11</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A desembargadora do Tribunal de Justiça do Estado de São Paulo (TJSP), Ivana David, está em Rio Branco, para ministrar palestra sobre competências das instituições policiais e do sistema de justiça criminal. O evento é promovido pela Polícia Civil acreana.&lt;/p&gt;
 &lt;div id="attachment_282262" style="width: 2058px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-282262" decoding="async" loading="lazy" class="size-full wp-image-282262" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?w=1600&amp;amp;ssl=1 1600w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-282262" class="wp-caption-text"&gt;Governador Gladson Cameli recebeu, nesta quinta-feira, 3, a desembargadora do Tribunal de Justiça de São Paulo, Ivana David. Foto: Neto Lucena/Secom&lt;/p&gt;&lt;/div&gt;
@@ -6349,34 +7894,34 @@
 </t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/img_8689-scaled-1.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>17:07:49</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h1 class="title" data-reader-unique-id="titleElement"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-281980" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=740%2C555" alt="" width="740" height="555" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=660%2C495&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=768%2C576&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?resize=1536%2C1152&amp;amp;ssl=1 1536w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h1&gt;
 &lt;div class="metadata singleline"&gt;
@@ -6393,34 +7938,34 @@
 </t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.50.13.jpeg?fit=1600%2C1200&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>18:28:22</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Galdson Cameli comprimenta Lula pela vitória neste domingo</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="attachment_281643" style="width: 1102px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-281643" decoding="async" loading="lazy" class="wp-image-281643 size-full" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?w=1092&amp;amp;ssl=1 1092w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.35.jpeg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-281643" class="wp-caption-text"&gt;Momento em que Gladson Cameli votou na cidade de Cruzeiro de Sul &amp;#8211; Foto/Assessoria&lt;/p&gt;&lt;/div&gt;
 &lt;p&gt;O governador do Acre, Gladson Cameli, publicou um anota de Parabéns para o novo presidente do Brasil, Luiz Inácio Lula da Silva, que irá assumir a partir de 2023. Veja nota&lt;/p&gt;
@@ -6432,34 +7977,34 @@
 </t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/galdson-cameli-comprimenta-lula-pela-vitoria-neste-domingo/</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-30-at-11.42.31.jpeg?fit=1034%2C690&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>2022-10-22</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>18:47:33</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>“Sou Bolsonaro de manhã, de tarde e de noite”, diz Gladson Cameli durante megacarreata em apoio à reeleição do presidente</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-280636" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?w=1280&amp;amp;ssl=1 1280w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Uma grande carreata em apoio à reeleição do presidente Jair Bolsonaro tomou as ruas de Rio Branco, neste sábado, 22. Sob a liderança do governador Gladson Cameli e com participação de milhares de apoiadores, o evento reafirmou que o Acre dará, proporcionalmente, uma das maiores votações do país ao candidato do Partido Liberal (PL), no próximo dia 30 de outubro.&lt;/p&gt;
@@ -6475,34 +8020,34 @@
 </t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/sou-bolsonaro-de-manha-de-tarde-e-de-noite-diz-gladson-cameli-durante-megacarreata-em-apoio-a-reeleicao-do-presidente/</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-22-at-17.35.13-1.jpeg?fit=1280%2C853&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>14:43:30</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com o objetivo de promover a integração entre os órgãos de defesa, segurança e desenvolvimento econômico e social do Acre, a Associação dos Diplomados da Escola Superior de Guerra no Acre (Adesg/AC) e Sebrae no Acre, com apoio da Escola Superior de Guerra (ESG), realizou o 2º Seminário de Integração da Defesa, Segurança e Desenvolvimento Econômico e Social no Acre, nesta segunda-feira, 17, no auditório do Sebrae.&lt;/p&gt;
 &lt;div id="attachment_279931" style="width: 2058px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-279931" decoding="async" loading="lazy" class="size-full wp-image-279931" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?w=1600&amp;amp;ssl=1 1600w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=768%2C512&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?resize=1536%2C1024&amp;amp;ssl=1 1536w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-279931" class="wp-caption-text"&gt;Encontro foi realizado nesta segunda-feira. Foto: Diego Gurgel/Secom&lt;/p&gt;&lt;/div&gt;
@@ -6522,34 +8067,34 @@
 </t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_6091-scaled-2.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>18:25:17</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O governador Gladson Cameli, dando seguimento à sua agenda internacional, participou nesta quinta-feira, 13, de duas agendas do GCF Task Force, ou Força-Tarefa de Governadores para o Clima e Florestas, evento que promove o compartilhamento de experiências entre autoridades governamentais, no Centro Cultural de Moyamba, no Peru.&lt;/p&gt;
 &lt;p&gt;Acompanhado da titular da Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), Paola Daniel, o governador acompanhou o lançamento do Projeto Aliança Empresarial pela Amazônia, em evento que contou com a presença do presidente do Peru, Pedro Castillo.&lt;/p&gt;
@@ -6571,34 +8116,34 @@
 </t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/GUR_2745-scaled-2.jpg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>2022-10-12</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>19:53:21</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre os dias 10 e 13 de outubro, as cidades de Tarapoto e Moyobamba em San Martín, no Peru, serão o palco do evento internacional GCF Task Force, Grupo de Trabalho Governadores&lt;span class="Apple-converted-space"&gt; &lt;/span&gt;pelo Clima, que reúne autoridades governamentais para debater e traçar metas de desenvolvimento sustentável.&lt;/span&gt;&lt;/p&gt;
 &lt;p class="p1"&gt;&lt;span class="s1"&gt;A Declaração de San Martin, que será formada durante o evento, prevê que as autoridades regionais dos Estado Unidos, México, Colômbia, Equador, Peru, Brasil, Costa do Marfim, Nigéria, Espanha e Indonésia, colaborem para o desenvolvimento sustentável em suas respectivas regiões.&lt;/span&gt;&lt;/p&gt;
@@ -6609,34 +8154,34 @@
 </t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/cel-12.jpg?fit=1280%2C853&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>2022-10-08</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>16:15:49</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Um fenômeno chamado Cameli e a derrocada de Jorge Viana, Petecão, Mara e companhia</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278911" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=740%2C449" alt="" width="740" height="449" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?w=1080&amp;amp;ssl=1 1080w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=300%2C182&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=660%2C401&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?resize=768%2C466&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;h6&gt;Por Jairo Carioca*&lt;/h6&gt;
@@ -6659,34 +8204,34 @@
 </t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/um-fenomeno-chamado-cameli-e-a-derrocada-de-jorge-viana-petecao-mara-e-companhia/</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/nocautecameli-2.jpg?fit=1080%2C656&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>2022-10-07</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>18:37:41</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Gladson Cameli tem encontro com Bolsonaro e reafirma apoio para a reeleição do presidente</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278847" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=740%2C555" alt="" width="740" height="555" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?w=1024&amp;amp;ssl=1 1024w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=660%2C495&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.49.jpeg?resize=768%2C576&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;O governador também fez um breve relatório do desenvolvimento do Acre, dos projetos e das inúmeras obras em andamento&lt;/p&gt;
@@ -6705,34 +8250,34 @@
 </t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/gladson-cameli-tem-encontro-com-bolsonaro-e-reafirma-apoio-para-a-reeleicao-do-presidente/</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-07-at-17.13.50.jpeg?fit=900%2C526&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>08:57:40</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-278223" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=740%2C493" alt="" width="740" height="493" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=660%2C440&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=768%2C512&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?resize=1536%2C1023&amp;amp;ssl=1 1536w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.28.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -6750,34 +8295,34 @@
 </t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>https://oaltoacre.com/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/10/WhatsApp-Image-2022-10-02-at-23.22.26.jpeg?fit=1600%2C1066&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>2022-10-04</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>13:36:01</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Gladson Cameli anuncia pagamento dos médicos do Acre com retroativo neste mês</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Os médicos já haviam marcado uma greve caso não houvesse cumprimento do pagamento&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -6790,34 +8335,34 @@
 </t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/cotidiano/gladson-cameli-anuncia-pagamento-dos-medicos-do-acre-com-retroativo-neste-mes/</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>09:00:49</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli após vitória</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite deste domingo, 2, Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
@@ -6829,34 +8374,34 @@
 </t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli-apos-vitoria/</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>17:54:14</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Gladson Cameli é reeleito governador do Acre com 56% dos votos</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Chapa é composta com a senadora Mailza Gomes, também do Progressistas&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;Gladson Cameli, do Progressistas, foi reeleito governador do Acre com 56% dos votos válidos neste domingo (2). O atual governador venceu Jorge Viana, do Partido dos Trabalhadores, ainda em primeiro turno. A chapa é composta com a senadora Mailza Gomes, também do Progressistas.&lt;/p&gt;
@@ -6869,34 +8414,34 @@
 </t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-e-reeleito-governador-do-acre-com-56-dos-votos/</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>2022-09-29</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>10:50:11</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Assessoria informa desistência de Gladson Cameli em participar do debate da TV Gazeta</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;&amp;#8220;Principais motivos para o não comparecimento são o baixo nível e a agressividade demonstrados pelos adversários&amp;#8221;&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;O último debate com os candidatos ao Governo do Acre antes do primeiro turno das eleições acontece nesta quinta-feira (29), na sede TV Gazeta, na Av. Antônio da Rocha Viana, em Rio Branco, as 11h45.&lt;/p&gt;
@@ -6905,34 +8450,34 @@
 </t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/assessoria-informa-desistencia-de-gladson-cameli-em-participar-do-debate-da-tv-gazeta/</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>12:25:49</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Gladson Cameli tem quase 50% das intenções de voto entre o público evangélico do Acre</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Candidato do Progressistas também lidera a intenção de voto entre os católicos do Estado&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A TV Gazeta divulgou, nesta terça-feira (13), o resultado da pesquisa de intenções de votos para governador do Acre nas eleições de 2022 entre as pessoas evangélicas e católicas. Os dados foram coletados pela Realtime Big Data nos dias 10 a 12 de setembro, e mil pessoas foram entrevistadas. A pesquisa é registrada no Tribunal Superior Eleitoral (TSE) sob o número AC-09556/2022.&lt;/p&gt;
@@ -6949,34 +8494,34 @@
 </t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-tem-quase-50-das-intencoes-de-voto-entre-o-publico-evangelico-do-acre/</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>12:17:30</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Pesquisa aponta vitória de Gladson Cameli já no primeiro turno, com 52% dos votos</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4 style="text-align: justify;"&gt;Jorge Viana, do Partido dos Trabalhadores, ficaria em segundo com 24% e Mara Rocha, do MDB, em terceiro com 10%&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A TV Gazeta divulgou, nesta terça-feira (13), o resultado da pesquisa estimulada e esponânea de intenções de votos para governador do Acre nas eleições de 2022. Os dados foram coletados pela Realtime Big Data nos dias 10 a 12 de setembro, e mil pessoas foram entrevistadas. A pesquisa é registrada no Tribunal Superior Eleitoral (TSE) sob o número AC-09556/2022.&lt;/p&gt;
@@ -6993,34 +8538,34 @@
 </t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/eleicoes-2022/pesquisa-aponta-vitoria-de-gladson-cameli-ja-no-primeiro-turno-com-52-dos-votos/</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>2022-09-12</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>17:11:17</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>TRE aprova candidatura de Mailza Gomes como vice de Gladson Cameli</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;A aprovação foi acatada de forma unânime durante julgamento na tarde desta segunda-feira&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -7030,34 +8575,34 @@
 </t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/tre-aprova-candidatura-de-mailza-gomes-como-vice-de-gladson-cameli/</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>10:14:07</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Com sintomas de covid-19, Gladson Cameli cancela agendas políticas e institucionais nesta quinta-feira</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Governador cumpriu extensa agenda nesta quarta-feira, em decorrência do Dia da Independência e das celebrações ocorridas&lt;/h4&gt;
 &lt;p style="text-align: justify;"&gt;&lt;!--more--&gt;A assessoria de campanha do governador Gladson Cameli, do Progressistas, e candidado a reeleição, informou por meio de nota na manhã desta quinta-feira (8), que o gestor acordou apresentando alguns sintomas de covid-19, e por isso, cancelou todas as suas agendas do dia.&lt;/p&gt;
@@ -7066,34 +8611,34 @@
 </t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/politica/com-sintomas-de-covid-19-gladson-cameli-cancela-agendas-politicas-e-institucionais-nesta-quinta-feira/</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>07:57:44</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Gladson Cameli exonera gerente-geral do Hospital de Sena Madureira nesta terça-feira</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;No mesmo dia, o governador também nomeou o novo resposável para ficar no lugar de Edgardina Matos&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -7104,34 +8649,34 @@
 </t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>https://agazeta.net/destaque/gladson-cameli-exonera-gerente-geral-do-hospital-de-sena-madureira-nesta-terca-feira/</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>Não encontrado</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>14:54:29</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Com apoio de Gladson Cameli, Ney se dedica a campanha de candidato ao Senado</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;h4&gt;Durante a entrevista, ele falou sobre uma possível inelegibilidade, campanha e apoios&lt;/h4&gt;
 &lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
@@ -7140,11 +8685,11 @@
 &lt;p style="text-align: justify;"&gt;Devido a algumas mudanças, o ex-deputado estadual aceitou o desafio e iniciou a campanha como candidato à câmara alta do congresso nacional.&lt;/p&gt;
 &lt;p style="text-align: justify;"&gt;Em nossa entrevista, Ney falou sobre uma possível inelegibilidade, campanha e apoios. Confira:&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-			&lt;div class="yotu-playlist yotuwp yotu-limit-min yotu-limit-max   yotu-thumb-169  yotu-template-mix" data-yotu="63897c23a2f86" data-page="1" id="yotuwp-63897c23a17c1" data-total="1" data-settings="eyJ0eXBlIjoidmlkZW9zIiwiaWQiOiJJY1JfcTItcklOayIsInBhZ2luYXRpb24iOiJvbiIsInBhZ2l0eXBlIjoicGFnZXIiLCJjb2x1bW4iOiIxIiwicGVyX3BhZ2UiOiIxIiwidGVtcGxhdGUiOiJtaXgiLCJ0aXRsZSI6Im9uIiwiZGVzY3JpcHRpb24iOiJvbiIsInRodW1icmF0aW8iOiIxNjkiLCJtZXRhIjoib2ZmIiwibWV0YV9kYXRhIjoib2ZmIiwibWV0YV9wb3NpdGlvbiI6Im9mZiIsImRhdGVfZm9ybWF0Ijoib2ZmIiwibWV0YV9hbGlnbiI6Im9mZiIsInN1YnNjcmliZSI6Im9mZiIsImR1cmF0aW9uIjoib2ZmIiwibWV0YV9pY29uIjoib2ZmIiwibmV4dHRleHQiOiIiLCJwcmV2dGV4dCI6IiIsImxvYWRtb3JldGV4dCI6IiIsInBsYXllciI6eyJtb2RlIjoibGFyZ2UiLCJ3aWR0aCI6IjYwMCIsInNjcm9sbGluZyI6IjEwMCIsImF1dG9wbGF5IjowLCJjb250cm9scyI6MSwibW9kZXN0YnJhbmRpbmciOjEsImxvb3AiOjAsImF1dG9uZXh0IjowLCJzaG93aW5mbyI6MSwicmVsIjoxLCJwbGF5aW5nIjowLCJwbGF5aW5nX2Rlc2NyaXB0aW9uIjowLCJ0aHVtYm5haWxzIjowLCJjY19sb2FkX3BvbGljeSI6IjEiLCJjY19sYW5nX3ByZWYiOiIxIiwiaGwiOiIiLCJpdl9sb2FkX3BvbGljeSI6IjEifSwibGFzdF90YWIiOiJjYWNoZSIsInVzZV9hc19tb2RhbCI6Im9mZiIsIm1vZGFsX2lkIjoib2ZmIiwibGFzdF91cGRhdGUiOiIxNjI1OTczNjcwIiwic3R5bGluZyI6eyJwYWdlcl9sYXlvdXQiOiJkZWZhdWx0IiwiYnV0dG9uIjoiMSIsImJ1dHRvbl9jb2xvciI6IiIsImJ1dHRvbl9iZ19jb2xvciI6IiIsImJ1dHRvbl9jb2xvcl9ob3ZlciI6IiIsImJ1dHRvbl9iZ19jb2xvcl9ob3ZlciI6IiIsInZpZGVvX3N0eWxlIjoiIiwicGxheWljb25fY29sb3IiOiIiLCJob3Zlcl9pY29uIjoiIiwiZ2FsbGVyeV9iZyI6IiJ9LCJlZmZlY3RzIjp7InZpZGVvX2JveCI6IiIsImZsaXBfZWZmZWN0IjoiIn0sImdhbGxlcnlfaWQiOiI2Mzg5N2MyM2ExN2MxIn0=" data-player="large" data-showdesc="on"&gt;
+			&lt;div class="yotu-playlist yotuwp yotu-limit-min yotu-limit-max   yotu-thumb-169  yotu-template-mix" data-yotu="6389894101828" data-page="1" id="yotuwp-63898941000f6" data-total="1" data-settings="eyJ0eXBlIjoidmlkZW9zIiwiaWQiOiJJY1JfcTItcklOayIsInBhZ2luYXRpb24iOiJvbiIsInBhZ2l0eXBlIjoicGFnZXIiLCJjb2x1bW4iOiIxIiwicGVyX3BhZ2UiOiIxIiwidGVtcGxhdGUiOiJtaXgiLCJ0aXRsZSI6Im9uIiwiZGVzY3JpcHRpb24iOiJvbiIsInRodW1icmF0aW8iOiIxNjkiLCJtZXRhIjoib2ZmIiwibWV0YV9kYXRhIjoib2ZmIiwibWV0YV9wb3NpdGlvbiI6Im9mZiIsImRhdGVfZm9ybWF0Ijoib2ZmIiwibWV0YV9hbGlnbiI6Im9mZiIsInN1YnNjcmliZSI6Im9mZiIsImR1cmF0aW9uIjoib2ZmIiwibWV0YV9pY29uIjoib2ZmIiwibmV4dHRleHQiOiIiLCJwcmV2dGV4dCI6IiIsImxvYWRtb3JldGV4dCI6IiIsInBsYXllciI6eyJtb2RlIjoibGFyZ2UiLCJ3aWR0aCI6IjYwMCIsInNjcm9sbGluZyI6IjEwMCIsImF1dG9wbGF5IjowLCJjb250cm9scyI6MSwibW9kZXN0YnJhbmRpbmciOjEsImxvb3AiOjAsImF1dG9uZXh0IjowLCJzaG93aW5mbyI6MSwicmVsIjoxLCJwbGF5aW5nIjowLCJwbGF5aW5nX2Rlc2NyaXB0aW9uIjowLCJ0aHVtYm5haWxzIjowLCJjY19sb2FkX3BvbGljeSI6IjEiLCJjY19sYW5nX3ByZWYiOiIxIiwiaGwiOiIiLCJpdl9sb2FkX3BvbGljeSI6IjEifSwibGFzdF90YWIiOiJjYWNoZSIsInVzZV9hc19tb2RhbCI6Im9mZiIsIm1vZGFsX2lkIjoib2ZmIiwibGFzdF91cGRhdGUiOiIxNjI1OTczNjcwIiwic3R5bGluZyI6eyJwYWdlcl9sYXlvdXQiOiJkZWZhdWx0IiwiYnV0dG9uIjoiMSIsImJ1dHRvbl9jb2xvciI6IiIsImJ1dHRvbl9iZ19jb2xvciI6IiIsImJ1dHRvbl9jb2xvcl9ob3ZlciI6IiIsImJ1dHRvbl9iZ19jb2xvcl9ob3ZlciI6IiIsInZpZGVvX3N0eWxlIjoiIiwicGxheWljb25fY29sb3IiOiIiLCJob3Zlcl9pY29uIjoiIiwiZ2FsbGVyeV9iZyI6IiJ9LCJlZmZlY3RzIjp7InZpZGVvX2JveCI6IiIsImZsaXBfZWZmZWN0IjoiIn0sImdhbGxlcnlfaWQiOiI2Mzg5ODk0MTAwMGY2In0=" data-player="large" data-showdesc="on"&gt;
 				&lt;div&gt;
 										&lt;div class="yotu-wrapper-player" style="width:600px"&gt;
 												&lt;div class="yotu-player"&gt;
-							&lt;div class="yotu-video-placeholder" id="yotu-player-63897c23a2f86"&gt;&lt;/div&gt;
+							&lt;div class="yotu-video-placeholder" id="yotu-player-6389894101828"&gt;&lt;/div&gt;
 						&lt;/div&gt;
 						&lt;div class="yotu-playing-status"&gt;&lt;/div&gt;
 											&lt;/div&gt;
@@ -7184,14 +8729,1717 @@
 </t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>https://agazeta.net/noticias/entrevistas/com-apoio-de-gladson-cameli-ney-se-dedica-a-campanha-de-candidato-ao-senado/</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>Não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>22:07:19</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ao participar de encontro com presidente Lula, Gladson Cameli dá demonstração de que a eleição acabou e agora é hora de firmar parcerias</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Por &lt;a href="https://3dejulhonoticias.com.br/author/alemao-monteiro/"&gt;Alemão Monteiro&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Governador reforçou ao presidente da República eleito, Luiz Inácio Lula da Silva (PT), o compromisso de que o governo federal deve continuar tendo com todos os moradores da região amazônica.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="512" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43-1024x512.png" alt="" class="wp-image-28029" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43-1024x512.png 1024w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43-300x150.png 300w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43-768x384.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43.png 1140w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;figcaption class="wp-element-caption"&gt;&lt;strong&gt;Governadores da Amazônia Legal participaram de encontro com o presidente eleito – Foto: Reprodução&lt;/strong&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O governador&amp;nbsp;do Acre&amp;nbsp;Gladson Cameli (PP), parece ter saído satisfeito do encontro que participou com o presidente eleito Luiz Inácio Lula da Silva, evento que tinha os demais Governadores da região Norte e que teve a leitura de um documento direcionado ao novo presidente.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Lula ouviu toda leitura da carta e depois se disse convicto do seu papel de ajudar proteger e desenvolver Amazônia, trabalhando em parcerias com Governadores e prefeitos.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gladson Cameli teve uma participação extensa na COP 27 e permaneceu até o final do encontro com Lula, dando uma clara demonstração de que é um democrata e que eleições se encerram quando as urnas dão o resultado final.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gladson Cameli Governa um estado pobre e sabe o quanto precisa das parcerias com a união e por isso acertou, ao se colocar a disposição de Lula.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Logo após o encontro, o governador embarcou de volta para o Acre, onde deve acompanhar ações da transição e tomar algumas decisões que irão permear seu futuro governo.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O presidente eleito disse, em seu discurso aos governadores, que “assinaria a carta sem reparos” e se comprometeu a estabelecer o diálogo entre o governo federal, os estados e os municípios. “É preciso dar aos estados e aos municípios as condições de cumprir as obrigações constitucionais”, observou.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Participaram, ainda, da solenidade os governadores Mauro Mendes (MT) e Wanderlei Barbosa (TO). Como integrante da comitiva de Lula, a governadora Fátima Bezerra (RN) também esteve presente, além da futura primeira-dama, Rosângela Silva, a Janja, senadores, deputados federais e estaduais e secretários de Estado.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/ao-participar-de-encontro-com-presidente-lula-gladson-cameli-da-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/11/image-43.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>09:58:54</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Cada vez mais governos e instituições não-governamentais estão com o olhar voltado para o desenvolvimento sustentável tendo em vista objetivos comuns de conservação da natureza e no combate às queimadas ilegais. E para fortalecer as parceiras desse eixo, o governador Gladson Cameli, se reuniu nesta segunda-feira, 14, durante a COP27, no Egito, com representantes do governo americano.&lt;/p&gt;
+&lt;figure class="wp-block-image" id="attachment_581973"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/A6358F63-3EB5-4F23-8662-F0D25C4901E3-1.jpeg"&gt;&lt;img decoding="async" src="https://www.urgentenews.com.br/wp-content/uploads/2022/11/15/e17ffdec36dc18b9cfe0f89c93e77856.jpg" alt="" class="wp-image-581973"/&gt;&lt;/a&gt;&lt;figcaption&gt;Encontro com investidores americanos faz parte das agendas do Acre durante a COP27. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O encontro foi organizado por meio do GCF (Task Force), com participação do Instituto de Pesquisa Ambiental da Amazônia (IPAM) e contou com a participação dos governadores Helder Barbalho do Pará e de Mauro Mendes do Mato Grosso.&lt;/p&gt;
+&lt;p&gt;Os investidores Daniel Kandy, diretor de Paisagem Sustentável dos Estados Unidos, Evan Norman da Agência dos Estados Unidos para o Desenvolvimento Internacional (Usaid) e Shira Yoffe, assessora sênior do Serviço Florestal dos Estados Unidos, fizeram uma apresentação dos projetos que ajudam a desenvolver ao redor do mundo e disseram que têm muito a contribuir com o Brasil e sobretudo com o Acre.&lt;/p&gt;
+&lt;figure class="wp-block-image" id="attachment_581970"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8F93B6F1-E137-4F9D-A808-CD6485F136C4.jpeg"&gt;&lt;img decoding="async" src="https://www.urgentenews.com.br/wp-content/uploads/2022/11/15/f7f6f65839a057e69510cf80452f05ea.jpg" alt="" class="wp-image-581970"/&gt;&lt;/a&gt;&lt;figcaption&gt;Conservação da natureza e combate às queimadas ilegais foram o foco da reunião. Foto: Pedro Devani/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Para o governador Gladson Cameli, a aproximação entre USA e estados amazônicos visa potencializar objetivos comuns. Cameli disse que precisa de apoio para ampliar as ações de combate e monitoramento às queimadas.&lt;/p&gt;
+&lt;p&gt;“Nós já trabalhamos para colocar sempre as pessoas em primeiro lugar. Então esses objetivos se encaixam em nossos projetos de governo. Nessa reunião, o Acre abre um novo trilho de investimento e cooperação para políticas de desenvolvimento com conservação natural. Estamos dispostos a encontrar soluções para nossos problemas. Por isso, não poderíamos deixar de pedir apoio tecnológico para ampliação dos serviços que já executamos no combate as queimadas ilegais”, pontuou Cameli.&lt;/p&gt;
+&lt;p&gt;O diretor de Paisagem nos Estados Unidos, Daniel Kandt, disse que se inicia agora uma nova fase dessa parceria com o Brasil. “Estamos aqui porque temos uma história de conservação. O governo do Estados Unidos está disposto a colaborar em todos os níveis de governo. Estamos aqui para ouvir quais as prioridades e quais os desafios para que os estados que compõem a Amazônia Legal possam ter mais desempenho nos combates aos ilícitos ambientais”, enfatizou.&lt;/p&gt;
+&lt;p&gt;Post Views:76&lt;/p&gt;
+&lt;p id="infocoweb_fonte"&gt;Fonte: &lt;a href="https://agencia.ac.gov.br/governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/#35e464d6-69ab-4a04-9919-af6d980a733d" target="_blank" rel="noreferrer noopener"&gt;Governo AC&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2021/01/GLADSON-NO-CEL-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>08:23:02</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Pesquisa Ipec no Acre: Gladson Cameli tem 54% e Jorge Viana 25%</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Pesquisa do Ipec divulgada nesta segunda-feira (19) pela Rede Amazônica Acre revela os índices de intenção de voto para o cargo de governador do Acre. O candidato do Progressistas, Gladson Cameli, lidera a disputa com 54% das intenções de voto.&lt;/p&gt;
+&lt;p&gt;Na comparação com a&amp;nbsp;&lt;a href="https://g1.globo.com/ac/acre/eleicoes/2022/noticia/2022/08/29/ipec-para-o-senado-no-acre-alan-rick-tem-29percent-ney-amorim-17percent-e-marcia-bittar-15percent-das-intencoes-de-voto.ghtml"&gt;pesquisa Ipec anterior, de 29 de agosto&lt;/a&gt;, Gladon subiu três pontos percentuais na intenção de votos, acima da margem de erro. O candidato tinha 51% e, agora, tem 54%. Jorge Viana oscilou para baixo, dentro da margem de erro, de 27% para 25%.&lt;/p&gt;
+&lt;p&gt;A pesquisa ouviu 800 pessoas entre os dias 16 e 18 de setembro em 19 municípios acreanos. A margem de erro é de três pontos percentuais para mais ou para menos, considerando um nível de confiança de 95%. A pesquisa está registrada no Tribunal Regional Eleitoral do Acre sob o protocolo Nº AC03861/2022 e no Tribunal Superior Eleitoral sob o protocolo Nº BR-00155/2022.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://s2.glbimg.com/AdQ-O7SGfTmqeZVF34Zcj0zdUpo=/0x0:3264x3264/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/S/V/NtuzjBRJAZavRlTFCIeA/gladson-e-jorge.jpg" alt="Gladson Camei (PP) e Jorge Viana (PT)  — Foto: Rafaela Rodrigues/CBN Amazônia Rio Branco"/&gt;&lt;/figure&gt;
+&lt;p&gt;Gladson Camei (PP) e Jorge Viana (PT) — Foto: Rafaela Rodrigues/CBN Amazônia Rio Branco&lt;/p&gt;
+&lt;p&gt;Esta é a segunda pesquisa sobre a intenção de voto da Rede Amazônica Acre para governador do estado, após o registro oficial das candidaturas. Foram apresentados como candidatos: David Hall (Agir); Gladson Cameli (PP); Jorge Viana (PT); Mara Rocha (MDB); Marcio Bittar (União Brasil); Professor Nilson (Psol) e Petecão (PSD).&lt;/p&gt;
+&lt;h2&gt;Veja o resultado da pesquisa estimulada para 1º turno:&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Resposta estimulada e única, em %:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 54% (51% no Ipec anterior, de 29 de agosto)&lt;/li&gt;&lt;li&gt;Jorge Viana (PT) &amp;#8211; 25% (27% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 6% (6% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Petecão (PSD) &amp;#8211; 5% (5% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 3% (2% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;David Hall (Agir) -1% (0% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Professor Nilson &amp;#8211; 0% (1% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Branco/nulo &amp;#8211; 3% (4% na pesquisa anterior)&lt;/li&gt;&lt;li&gt;Não sabe/não respondeu &amp;#8211; 4% (3% na pesquisa anterior)&lt;/li&gt;&lt;/ul&gt;
+&lt;h2&gt;Pesquisa espontânea:&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Pesquisa espontânea e única, em %:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Gladson Cameli (PP) &amp;#8211; 41% (38% no Ipec anterior, de 29 de agosto)&lt;/li&gt;&lt;li&gt;Jorge Viana (PT) &amp;#8211; 16% (17% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Mara Rocha (MDB) &amp;#8211; 2% (3% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Petecão (PSD) &amp;#8211; 2% (2% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Marcio Bittar (União Brasil) &amp;#8211; 1% (1% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Outros &amp;#8211; 1% (1% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Branco ou nulo &amp;#8211; 3% (4% no Ipec anterior)&lt;/li&gt;&lt;li&gt;Não sabem ou não preferem opinar &amp;#8211; 35% (34% no Ipec anterior)&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;Os candidatos David Hall (Agir) e Nilson Euclides (PSOL) não pontuaram.&lt;/p&gt;
+&lt;h2&gt;Veja o resultado da pesquisa estimulada para o 2º turno&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Resposta estimulada e única, em %:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gladson Cameli (PP) x Jorge Viana (PT)&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Gladson Cameli (PP): 61%&lt;/li&gt;&lt;li&gt;Jorge Viana (PT): 33%&lt;/li&gt;&lt;li&gt;Brancos e nulos: 4%&lt;/li&gt;&lt;li&gt;Não sabe: 3%&lt;/li&gt;&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/pesquisa-ipec-no-acre-gladson-cameli-tem-54-e-jorge-viana-25/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/09/gladson-e-jorge.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>10:22:05</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>EXONERADO: Às vésperas da Expoacre 2022, Governador Gladson Cameli exonera secretário de turismo Jhon Douglas</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A pouco mais de um mês da Expoacre 2022, o Governador Gladson Cameli, exonerou Jhon Douglas, o até então secretário Estadual de Empreendedorismo e Turismo. Publicada na edição desta quarta-feira, 15 de junho, a exoneração de Jhon Douglas saiu no Diário Oficial do Estado (DOE).&lt;/p&gt;
+&lt;figure class="wp-block-image" id="attachment_286155"&gt;&lt;img decoding="async" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/06/img-5457.jpg?resize=600%2C399&amp;amp;ssl=1" alt="" class="wp-image-286155"/&gt;&lt;figcaption&gt;Jhon Douglas foi exonerado da Secretaria de Empreendedorismo e Turismo do Acre. Foto: assessoria SECOM.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Douglas ocupava o cargo, desde outubro de 2021. Até o momento, o Governador Gladson Cameli, ainda não informou o novo nome que estará à frente da pasta, mas garantiu que apresentará o novo secretário nos próximos dias.&lt;/p&gt;
+&lt;p&gt;De acordo com o Governo, a decisão trata-se de “questões administrativas.”&lt;/p&gt;
+&lt;p&gt;É como o Governo diz: “A caneta que nomeia, é a mesma que exonera!”&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/exonerado-as-vesperas-da-expoacre-2022-governador-gladson-cameli-exonera-secretario-de-turismo-jhon-douglas/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/06/foto-2-3.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>19:09:58</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Petecão formaliza denúncia contra governo do Acre por retirar máquinas de prefeituras que não apoiam Cameli</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Nesta sexta-feira, 3, o coordenador da bancada federal, senador Sérgio Petecão, esteve no Ministério Público Federal (MPF) e no Ministério Público Estadual (MPAC) para denunciar o governo do Acre pela retirada de maquinários de municípios onde os prefeitos não apoiam a reeleição de Gladson Cameli.&lt;/p&gt;
+&lt;p&gt;Acompanhado do advogado Odilardo Marques, Petecão formalizou a denúncia divulgada amplamente pela imprensa nas últimas semanas. O senador vê suspeita de crime eleitoral, já que o governo do Estado retirou máquinas de gestores municipais que manifestaram apoio a outros candidatos ao Palácio Rio Branco, possivelmente, como forma de retaliação.&lt;/p&gt;
+&lt;p&gt;Petecão lamentou a atitude de Cameli e se solidarizou com os pequenos produtores que estão sendo prejudicados. “É muito grave o que está acontecendo no Acre. Os interesses políticos não podem estar acima dos interesses da população. Usar pessoas menos favorecidas como instrumento de coação é tudo que o nosso estado não precisa. Isso é uma crueldade sem tamanho”, afirmou.&lt;/p&gt;
+&lt;p&gt;As administrações municipais precisam do maquinário para avançar na manutenção de ramais, principalmente durante o verão, período que é possível intensificar as ações. Epitaciolândia e Acrelândia foram as primeiras prefeituras prejudicadas. Petecão teme que outros gestões passem pela mesma situação.&lt;/p&gt;
+&lt;p&gt;Parte do maquinário foi adquirida com emendas de bancada. A frota deveria ter sido cedida a todas as municípios, conforme combinado com os parlamentares anteriormente, mas o governo não cumpriu o acordo e deixou todas as máquinas sob responsabilidade do Departamento de Estradas de Rodagens do Acre (Deracre).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/petecao-formaliza-denuncia-contra-governo-do-acre-por-retirar-maquinas-de-prefeituras-que-nao-apoiam-cameli/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/06/PETECAO.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>09:37:16</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Governador Gladson Cameli  prestigia final de rodeio em comemoração aos 45 anos de Mâncio Lima</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Uma grande festa celebra os 45 anos de emancipação política e administrativa de Mâncio Lima. Na noite deste domingo, 29, o governador Gladson Cameli prestigiou a grande final do rodeio, que faz parte da programação festiva, a convite do prefeito do município, Isaac Lima.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5440.jpg"&gt;&lt;img decoding="async" src="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5440-1024x682.jpg" alt="" class="wp-image-564183"/&gt;&lt;/a&gt;&lt;figcaption&gt;Governador Gladson Cameli prestigiou a grande final do rodeio, em Mâncio Lima. Evento faz parte da programação de aniversário de 45 anos do município. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A disputa teve início na última sexta-feira, 27, com a participação de 34 peões. Os dez melhores avançaram para a disputar a melhor montaria em touro e sagrar-se o campeão. Com a retomada dos eventos, milhares de pessoas lotaram as arquibancadas da arena de rodeios.&lt;/p&gt;
+&lt;p&gt;“É muito bom ver uma linda festa como essa voltar a acontecer após dois anos difíceis. Com muita fé em Deus e trabalho, conseguimos vencer essa guerra. Mâncio Lima tem a minha admiração e eu só tenho que parabenizar o povo desta terra”, afirmou Cameli.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5443.jpg"&gt;&lt;img decoding="async" src="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5443-1024x682.jpg" alt="" class="wp-image-564184"/&gt;&lt;/a&gt;&lt;figcaption&gt;Público compareceu em peso para acompanhar as montarias. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;De acordo com Isaac Lima, a presença do governador engrandece ainda mais as festividades. O gestor municipal aproveitou para agradecer a parceria entre o governo acreano e a prefeitura em prol da população local.&lt;/p&gt;
+&lt;p&gt;“Ter o governador Gladson Cameli é sinal do respeito e carinho que ele tem com Mâncio Lima. Só temos a dizer o nosso muito obrigado ao governo, por sempre nos ouvir e atender as demandas que apresentamos e também pelos investimentos realizados em nosso município”, frisou.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5444.jpg"&gt;&lt;img decoding="async" src="http://agencia.ac.gov.br/wp-content/uploads/2022/05/img_5444-1024x682.jpg" alt="" class="wp-image-564185"/&gt;&lt;/a&gt;&lt;figcaption&gt;Dez peões disputaram a grande final da competição. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;Governo levará novos investimentos ao município&lt;/h4&gt;
+&lt;p&gt;Nesta segunda-feira, 30, o governador Gladson Cameli anunciará um série de investimentos para Mâncio Lima. As ações do Estado contemplarão um convênio para melhoria de ramais, regularização fundiária urbana e construção de casa de farinha, além da entrega de equipamentos agrícolas e veículos escolares.&lt;/p&gt;
+&lt;p&gt;“Mâncio Lima tem pressa para se desenvolver e nós temos pressa para que isso se torne uma realidade. Já fizemos muito pelo município e vamos fazer ainda mais. Quem mais ganha com isso é o povo”, declarou Gladson Cameli.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/governador-gladson-cameli-prestigia-final-de-rodeio-em-comemoracao-aos-45-anos-de-mancio-lima/</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/05/foto-1-7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>07:50:33</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Prefeito Jerry Correia diz que apoia Lula e Jorge Viana, mas estará com Gladson Cameli para o governo do Acre</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p id="caption-attachment-260971"&gt;Prefeito de Assis Brasil, Jerry Correia (e), durante entrevista com o jornalista Fernando Oliveira – Foto: Alexandre Lima&lt;/p&gt;
+&lt;p&gt;O prefeito de Assis Brasil, Jerry Correia (PT), esteve nos estúdios do jornal oaltoacre.com na tarde desta quarta-feira, dia 25, para participar do&amp;nbsp;&lt;em&gt;Podcast Entrevista&lt;/em&gt;, onde falou da programação alusiva o aniversário do município.&lt;/p&gt;
+&lt;p&gt;Muito bem programado e recebido pelos munícipes e elogiado por quem esteve na cidade para comemorar o carnaval fora de época “Carnavassis”, Jerry vem sendo bem avaliado não no Município, mas, fora dele.&lt;/p&gt;
+&lt;p&gt;Apesar da pouca idade, apenas 38 anos, o gestor mostra entrosamento no meio político, fazendo com que tenha acesso em qualquer lado. Jerry falou do desafio em fazer uma festa alusiva aos 46 anos de fundação do Município, após uma pandemia.&lt;/p&gt;
+&lt;p&gt;Destacou as parcerias com as forças de segurança e o apoio que vem recebendo do Governo do Acre. “São várias obras que está mudando a cidade e aumentando a autoestima dos munícipes”, destacou.&lt;/p&gt;
+&lt;p&gt;Jerry também anunciou que quase R$ 3 milhões serão investidos em várias obras. Destacou as parcerias com parlamentares como Léo de Brito, Alan Rick, Vanda Milani, os senadores Sérgio Petecão e Milza, entre outros investimentos que estão por vir.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" src="https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/IMG_5266.jpg?resize=740%2C453&amp;amp;ssl=1" alt="" width="740" height="453" srcset="https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/IMG_5266.jpg?w=1187&amp;amp;ssl=1 1187w, https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/IMG_5266.jpg?resize=300%2C183&amp;amp;ssl=1 300w, https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/IMG_5266.jpg?resize=660%2C404&amp;amp;ssl=1 660w, https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/IMG_5266.jpg?resize=768%2C470&amp;amp;ssl=1 768w"&gt;&lt;/p&gt;
+&lt;p id="caption-attachment-260972"&gt;Jerry Correia destacou os avanços pós pandemia e agradece os apoios que Assis Brasil vem recendo e andando no desenvolvimento por parte da bancada acreana – Foto: Alexandre Lima&lt;/p&gt;
+&lt;p&gt;“É apenas um ano e meio de gestão. Temos muito a fazer pelo Município e não posso dizer que estou grato com esses apoios”, disse. Entrando no meio político, Jerry disse que atualmente, a política foi um pouco esquecida, principalmente nas bases e lamenta muito, por não oferecerem novos nomes deixando a entender que, o Acre necessita de ‘sangue novo’.&lt;/p&gt;
+&lt;p&gt;Foi perguntado ao prefeito, quem apoiaria para presidente, senador e governador neste ano. Ao vivo, Jerry disse que estará apoiando Lula da Silva para o executivo nacional e Jorge Viana, ambos sendo do seu partido que é filiado desde os 16 anos.&lt;/p&gt;
+&lt;p&gt;A surpresa, foi quando foi incisivo em dizer que irá apoiar para o governo do Acre, o atual governador, Gladson Cameli (PP), por entender que é um bom nome. “Encontrei no governador um grande aliando. Nunca me cobrou nenhum compromisso político e partidário de campanha e sempre tratou com alguém que busca o melhor por sua cidade e essa parceira e respeito mútuo, tem dado bons resultados…”, disse.&lt;/p&gt;
+&lt;p&gt;Também reconhece que o atual governo vem apoiando Assis Brasil, independente de bandeira partidária, e por isso, ainda choca algumas pessoas que não veem os resultados trazendo bem estar para todos de forma em geral.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/prefeito-jerry-correia-diz-que-apoia-lula-e-jorge-viana-mas-estara-com-gladson-cameli-para-o-governo-do-acre/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/05/IMG_5262.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>05:16:50</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Gladson Cameli vistoria obras de anel viário, entrega sistema de água, títulos e anuncia asfaltamento de bairro</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Prefeita Fernanda Hassem destacou a importância da parceria para poder realizar sonhos idealizados 10 anos atrás&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Em uma extensa agenda na fronteira do Estado, Gladson Cameli, cumpriu uma extensa agenda na fronteira do Acre, visitando o canteiro de obras da construção do anel viário, que tem como meta, entregar a primeira etapa no final do ano de 2022.&lt;/p&gt;
+&lt;p&gt;Logo depois, já com a companhia da prefeita de Brasiléia, Fernanda Hassem, realizaram visitas no centro de hemodiálise da Clinica dos Rins, que já está em pelno funcionamento, podendo receber até 180 pessoas por dia, graças a parceria com o governo do Acre.&lt;/p&gt;
+&lt;p&gt;Em seguida, o governador e a prefeita se deslocaram para o Bairro Nazaré, onde foi entregue oficialmente para mais de 250 famílias, o abastecimento de água potável, um sonho concretizado após 10 anos.&lt;/p&gt;
+&lt;div class="wp-block-image"&gt;&lt;figure class="aligncenter"&gt;&lt;img decoding="async" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_039_By_@Alexandre-Lima.jpeg?resize=740%2C555&amp;amp;ssl=1" alt="" class="wp-image-258859"/&gt;&lt;/figure&gt;&lt;/div&gt;
+&lt;p&gt;Logo em seguida, foi assinado o documento de regularização fundiária para moradores do Bairro Eldorado que irá beneficiar centenas de famílias e a assinatura da ordem e serviço para o asfaltamento do acesso ao Bairro 8 de Março e Nazaré.&lt;/p&gt;
+&lt;p&gt;“É um momento importante para moradores desses bairros. Quero agradecer essa parceria importante com o governo através do governador Gladson Cameli que não mede esforços para nos ajudar, além dos deputados que estão aqui que tiveram um papel importante para que esse momento acontecesse. Resumo tudo isso em uma palavra: gratidão”, disse a prefeita Fernanda Hassem.&lt;/p&gt;
+&lt;p&gt;Veja vídeo:&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-rich is-provider-incorporar-manipulador wp-block-embed-incorporar-manipulador wp-embed-aspect-16-9 wp-has-aspect-ratio"&gt;&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;span class="embed-youtube" style="text-align:center; display: block;"&gt;&lt;iframe loading="lazy" class="youtube-player" width="800" height="450" src="https://www.youtube.com/embed/IeP83eD5AVQ?version=3&amp;#038;rel=1&amp;#038;showsearch=0&amp;#038;showinfo=1&amp;#038;iv_load_policy=1&amp;#038;fs=1&amp;#038;hl=pt-BR&amp;#038;autohide=2&amp;#038;wmode=transparent" allowfullscreen="true" style="border:0;" sandbox="allow-scripts allow-same-origin allow-popups allow-presentation"&gt;&lt;/iframe&gt;&lt;/span&gt;
+&lt;/div&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_047_By_@Alexandre-Lima.jpg?ssl=1"&gt;&lt;img decoding="async" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_047_By_@Alexandre-Lima.jpg?w=366&amp;amp;h=206&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_047_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_047_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_017_By_@Alexandre-Lima.jpg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_017_By_@Alexandre-Lima.jpg?w=366&amp;amp;h=206&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_017_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_017_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_024_By_@Alexandre-Lima.jpg?ssl=1"&gt;&lt;img decoding="async" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_024_By_@Alexandre-Lima.jpg?w=291&amp;amp;h=164&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_024_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_024_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_048_By_@Alexandre-Lima.jpg?ssl=1"&gt;&lt;img decoding="async" src="https://i1.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_048_By_@Alexandre-Lima.jpg?w=291&amp;amp;h=163&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_048_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_048_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_053_By_@Alexandre-Lima.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_053_By_@Alexandre-Lima.jpeg?w=441&amp;amp;h=331&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_053_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_053_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_011_By_@Alexandre-Lima.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_011_By_@Alexandre-Lima.jpeg?w=490&amp;amp;h=367&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_011_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_011_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_006_By_@Alexandre-Lima.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/www.oaltoacre.com/wp-content/uploads/2022/05/AGUA-RAMAL-NAZARE_-PQ_01_006_By_@Alexandre-Lima.jpeg?w=242&amp;amp;h=182&amp;amp;ssl=1" alt="AGUA RAMAL NAZARÉ_ PQ_01_006_By_@Alexandre Lima" title="AGUA RAMAL NAZARÉ_ PQ_01_006_By_@Alexandre Lima"/&gt;&lt;/a&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/gladson-cameli-vistoria-obras-de-anel-viario-entrega-sistema-de-agua-titulos-e-anuncia-asfaltamento-de-bairro/</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/05/thumbnail-for-3003512-scaled-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>11:54:29</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Jornalista amazonense que tentou envolver  Gladson, e família Cameli em denúncias de irregularidades, é preso e  condenado por publicar inverdades em relação a outros políticos</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Os jornalistas acreanos e blogueiros cujos sites reproduziram à exaustão as notícias inverídicas do jornalista e dono do Portal do Zacarias, Sebastião Lucivaldo Moraes Carril, 62, que é editado em Manauas – AM, tentando difamar a família e o próprio governador Gladson Cameli estão faltando com a solidariedade inicialmente manifestada ao blogueiro.&lt;/p&gt;
+&lt;p&gt;No mês passado, Sebastião Lucivaldo ou Zacatrias, publicou o que ele chamou de uma série de reportagens informando ter ouvido áudios de empresário amazonenses, que continham denúncias envolvendo o Governador Gladson Cameli, admitindo envolvimento em irregularidades na chamada Operação Ptolomeu, da Polícia Federal. As denúncias envolviam ainda o empresário Eládio Cameli, pai do governador, o que deu asas para que sites de oposição ao atual governador do Acre, divulgassem a informações como verdades absolutas, e davam conta de que as publicações eram verdadeiras e que Gladson e sua família, que vivem em parte no Amazonas, seriam presos imediatamente.&lt;/p&gt;
+&lt;p&gt;Contudo, o conteúdo era na verdade, apenas mãos publicações mentirosas de Sebastião Lucivaldo, na tentativa de chantagear o pai do governador. Ou seja, ele divulgava a tal “notícia” com estardalhaço as quais dizia dispor, e&amp;nbsp; informava que mais tarde seriam tornadas públicas pela Polícia Federal, uma prática usual da qual, na imprensa do Amazonas, o jornalista e seus três nomes – Sebastiao, Lucivaldo ou Zacarias, já são por demais conhecidos.&lt;/p&gt;
+&lt;p&gt;Como o empresário Eládio e a família Cameli não cederam às chantagens, conscientes de que os casos estão sendo apurados com responsabilidades pela Polícia Federal, e à qual têm prestado todas as informações necessárias, o Blog do Zacarias ficou no mato sem cachorro, apesar da solidariedade criminosa que recebeu no Acre, de sites locais e de políticos interessados em vincular o nome do govenador Gladson Cameli, a coisas ilícitas para que assim, e só assim, possam ter a chance de&amp;nbsp; enfrentar nas urnas o governador mais popular da história recente deste Estado.&lt;/p&gt;
+&lt;p&gt;No início da semana, com a consciência tranquila de que atua dentro das linhas da legalidade,&amp;nbsp; Gladson, sequer se importou com o blogueiro que dava como certa a prisão do Governador do Acre e de seus familiares, a partir de áudio que disse ter ouvido, mas que não apresentou a ninguém a tais gravações. Na verdade, o tiro saiu pela culatra. Quem foi preso na manhã na última terça-feira, 03 de maio,&amp;nbsp; pela Polícia Federal, no Aeroporto Internacional de Manaus, foi exatamente o jornalista. Ele tentava tirar um passaporte, provavelmente para fugir ao exterior, mas foi surpreendido com um mandado de prisão em aberto expedido pelo juiz da 2ª Vara de Execução Penal, Glen Hudson Paulain Machado.&lt;br&gt;O jornalista está condenado pelo juiz da 3ª Vara da Justiça Eleitoral a cumprir pena de dois anos, três meses e seis dias de prisão em regime aberto por crime eleitoral. Carril foi enquadrado no artigo 324 parágrafo 1⁰ da Lei&amp;nbsp; 4.737/65 do Código Eleitoral Brasileiro.&lt;/p&gt;
+&lt;p&gt;De acordo com o artigo 324 da lei 4.737/65: “caluniar alguém, na propaganda eleitoral, ou visando fins de propaganda, imputando-lhe falsamente fato definido como crime: Pena – detenção de seis meses a dois anos, e pagamento de 10 a 40 dias-multa. § 1° Nas mesmas penas incorre quem, sabendo falsa a imputação, a propala ou divulga”. Era o mesmo crime que ele queria imputar à família Cameli. O tiro realmente lhe saiu pela culatra.&lt;/p&gt;
+&lt;p&gt;O jornalista deu entrada no Sistema Penitenciário nesta quinta-feira, 05 de maio,&amp;nbsp; e será encaminhado para a casa do Albergado, onde deve cumprir a&amp;nbsp; pena. Antes ele deverá passar por audiência de custódia para iniciar o cumprimento da pena em regime aberto. Os bloqueios e jornalistas locais que festejam suas publicações iniciais nas quais ele tentava envolver a família Cameli, foram os primeiro a apagar as postagens.&lt;/p&gt;
+&lt;p&gt;Um morador da rua Coronel Sebastião Dantas, no bairro da Estação Experimental, em Rio Branco – AC, foi preso pela Polícia federal na manhã desta terça-feira, 03 de maio, acusado de armazenar imagens de pornografia infantil. A ocorrência, inicialmente, era apenas de busca e apreensão na residência do acusado, para o recolhimento de computadores, telefones e outras mídias eletrônicas, mas acabaram flagrando o acusado em plena atividade.&lt;/p&gt;
+&lt;p&gt;O acusado foi conduzido à sede da Superintendência da Polícia Federal, localizada da Cidade da Justiça, em Rio Branco. A Polícia Federal, queria saber com quem ele dividia o conteúdo pornográfico, em busca de novos envolvidos. As informações disponíveis são de que o acreano, a partir do bairro da Estação Experimental, partilhava imagens com outros pedófilos ao redor do mundo, através da rede mundial de computadores.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/jornalista-amazonense-que-tentou-envolver-gladson-e-familia-cameli-em-denuncias-de-irregularidades-e-preso-e-condenado-por-publicar-inverdades-em-relacao-a-outros-politicos/</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/05/foto-4-2.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>18:41:30</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>&amp;#8220;Retorno vem nas eleições&amp;#8221;, diz policiais civis  insatisfeitos com a desvalorização  do governador  Gladson Cameli com a categoria</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;Da Redação&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O governador Gladson Cameli tentou fazer média com os policiais civis, com uma publicação na rede social em alusão ao Dia do Polícia Civil e Militar, mas foi duramente criticado por não cumprir as promessas de campanha com a categoria e desrespeitar os acordos firmados no tocante a valorização salarial da classe, durante votação na Assembleia Legislativa do Acre.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="820" height="546" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre.png" alt="" class="wp-image-16145" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre.png 820w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre-300x200.png 300w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre-768x511.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre-272x182.png 272w" sizes="(max-width: 820px) 100vw, 820px" /&gt;&lt;/figure&gt;
+&lt;p&gt;Além de ser muito criticado pelos agentes de polícia , o espaço de comentários da rede social do governador também serviu de incentivo para os descontentes declarar apoio ao deputado estadual Jenilson Leite ( PSB), pré-candidato a governador do Acre.&lt;/p&gt;
+&lt;p&gt;Uma policial escreveu o seguinte comentário na publicação do governador. &amp;#8221; Não adianta os parabéns, depois do destrato com a nossa categoria, o retorno vem nas eleições! @dr_Jenilson para governador&amp;#8221;.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;&lt;blockquote&gt;&lt;p&gt;Outro agente escreveu. &amp;#8221; A categoria não esquecerá a forma covarde como fomos tratados por esse Governo. #foraGladson #@dr_jenilson&amp;#8221;.&lt;/p&gt;&lt;/blockquote&gt;&lt;/figure&gt;
+&lt;p&gt;A insatisfação dos agentes de segurança pública com o governador é devido a falta de valorização dos servidores e a forma truculenta como foi feito a votação do PL do reajuste salarial na Aleac.&lt;/p&gt;
+&lt;p&gt;Diferente do deputado estadual Jenilson, que esteve sempre ao lado da categoria na Aleac, inclusive propôs o aumento de 10% para todos os servidores públicos do estado, o governador e sua base, foram intransigente com os servidores públicos.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/retorno-vem-nas-eleicoes-diz-policiais-civis-insatisfeitos-com-a-desvalorizacao-do-governador-gladson-cameli-com-a-categoria/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/11/Screenshot_2020-11-27-Mais-179-novos-agentes-da-Policia-Civil-tomam-posse-e-irao-reforcar-seguranca-do-Acre.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2019-08-07</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>11:10:25</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Licença de Operação &amp;#8211; Aersandro M. Cameli</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="yiv3306274845MsoNormal" align="center"&gt;&lt;b&gt;AERSANDRO M. CAMELI&lt;/b&gt;&lt;/p&gt;
+&lt;p class="yiv3306274845MsoNormal" align="center"&gt;&lt;b&gt;CNPJ: 17.871.571/0001-02&lt;/b&gt;&lt;/p&gt;
+&lt;p class="yiv3306274845MsoNormal" align="center"&gt;&lt;b&gt; &lt;/b&gt;&lt;/p&gt;
+&lt;p class="yiv3306274845MsoNormal" align="left"&gt;Torna público que requereu do Instituto de Meio Ambiente do Acre – IMAC, a renovação da &lt;b&gt;Licença de operação – LO nº 3/2015, &lt;/b&gt;para a atividade de &lt;b&gt;Industria, Artefato, Fabricação de artefatos de concreto, &lt;/b&gt;localizado na&lt;b&gt;Estrada Parque Industrial, Nova Olinda, no município de Cruzeiro do Sul/ AC, CEP: 69980-000.&lt;/b&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/geral/licenca-de-operacao-aersandro-m-cameli-2/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2019-08-06</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>07:24:57</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Licença de Operação &amp;#8211; Aersandro M. Cameli</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="I_52qC D_FY W_6D6F" data-test-id="message-view-body"&gt;
+&lt;div class="msg-body P_wpofO iy_A mq_AS" data-test-id="message-view-body-content"&gt;
+&lt;div class="jb_0 X_6MGW N_6Fd5"&gt;
+&lt;div&gt;
+&lt;div id="yiv9975605004"&gt;
+&lt;div dir="ltr" style="text-align: center;"&gt;&lt;strong&gt;Aersandro M. Cameli&lt;/strong&gt;&lt;/p&gt;
+&lt;div style="text-align: center;"&gt;&lt;strong&gt;CNPJ: 17.871.571/0001-02&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&lt;/div&gt;
+&lt;div&gt;Torna público que requereu do Instituto de Meio Ambiente do Acre &amp;#8211; IMAC, a renovação da Licença de operação &amp;#8211; LO nº 3/2015, para a atividade de industria, Artefato, Fabricação de artefatos de concreto, localizado na Estrada Parque Industrial, Nova Olinda, no município de Cruzeiro do Sul/AC, CEP: 69.980-00.&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="jb_0 X_6MGW N_6Fd5"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="H_7jIs D_F ab_C Q_69H5 E_36RhU" data-test-id="toolbar-hover-area"&gt;
+&lt;div class="D_F W_6D6F r_BN gl_C" data-test-id="card-toolbar"&gt;&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/cruzeiro-do-sul/licenca-de-operacao-aersandro-m-cameli/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2019-06-24</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>11:12:44</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Licença de Operação &amp;#8211; Aersandro M. Cameli &amp;#8211; ME</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h2 style="text-align: center;"&gt;                    Aersandro M. Cameli &amp;#8211; ME&lt;br /&gt;
+CNPJ: 17.871.571/0001-02&lt;/h2&gt;
+&lt;div&gt;&lt;/div&gt;
+&lt;p&gt;Torna Público que requereu do Instituto de Meio Ambiente do Acre &amp;#8211; IMAC, a renovação de sua Licença de Operação &amp;#8211; LO, com validade de 4 (Quatro) anos, para a Atividade de Indústria, Artefato, Fabricação de Artefatos de Concreto, localizado no Estrada do Parque Industrial, Nova Olinda, Cruzeiro do Sul &amp;#8211; Acre.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/cruzeiro-do-sul/licenca-de-operacao-aersandro-m-cameli-me-2/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2019-01-29</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>14:32:37</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ana Paula Cameli e grupo de advogadas visitam maternidade e Hospital da Criança</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="yiv6198651600MsoNormal"&gt;A secretária de Assistência e Inclusão Social, primeira-dama Ana Paula Cameli, visitou nesta quinta-feira, 24, as instalações da Maternidade Bárbara Heliodora e Hospital da Criança.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;Ela foi conhecer a atual situação estrutural em que se encontram as duas instituições, acompanhada de um grupo de advogados representando a Ordem dos Advogados do Brasil, secção Acre, do diretor-geral do complexo, Wagner Bacelar, de Roberta Bestene, representante da Secretaria de Estado de Saúde, além de Claire Cameli, presidente do Movimento Mulher Progressista do Acre.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;A visita foi uma pronta resposta do governador Gladson Cameli, que também esteve nas duas unidades, ainda em dezembro, e se comprometeu a melhorar o espaço, que apresenta diversos problemas estruturais, incluindo entulhos, que já estão sendo retirados, por meio de uma força-tarefa de limpeza.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="25646" data-permalink="https://tribunadojurua.com.br/acre/ana-paula-cameli-e-grupo-de-advogadas-visitam-maternidade-e-hospital-da-crianca/attachment/ana-paula-cameli-3/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3.jpg" data-orig-size="1449,966" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;Diego Gurgel&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="ana-paula-cameli-3" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-300x200.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-1024x683.jpg" decoding="async" loading="lazy" class="alignnone size-large wp-image-25646" src="https://tribunadojurua.com.br/v2019/wp-content/uploads/2019/01/ana-paula-cameli-3-1024x683.jpg" alt="" width="1024" height="683" srcset="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-1024x683.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-300x200.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-768x512.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-750x500.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3-1140x760.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-3.jpg 1449w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;Ana Paula Cameli, que atuará diretamente nas questões que envolvam ações sociais, assumiu o compromisso de retornar e conhecer com detalhes cada ambiente da Maternidade e do Hospital. A ideia é melhorar a parte estrutural e adquirir novos equipamentos para o complexo.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;Ao lado de Bacelar, a secretária pôde ouvir relatos de mães e de servidores, que vão subsidiá-la para que ela tenha um panorama mais detalhado das duas unidades e planejar ações emergenciais de melhoria da infraestrutura. Há o caso, por exemplo, da brinquedoteca, que se encontra em situação precária, e que deveria ser um espaço humanizado e de entretenimento, sobretudo, aos pacientes que passam por um longo período de internação.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;A presidente da Comissão da Mulher Advogada, Isnailda Gondim, ressaltou que a categoria está sensível aos problemas e que já vem participando da reestruturação dos serviços hospitalares em Rio Branco.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;“A Comissão da Mulher Advogada tem um papel fundamental, que é o de garantir as prerrogativas das advogadas.  Mas não podemos nos esquivar de apoiar também ações que beneficiem a população vulnerável, em especial as crianças”, disse a advogada, que estava acompanhada dos colegas Gracileidy Bacelar e Alexandro Rodrigues.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="25645" data-permalink="https://tribunadojurua.com.br/acre/ana-paula-cameli-e-grupo-de-advogadas-visitam-maternidade-e-hospital-da-crianca/attachment/ana-paula-cameli-2/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2.jpg" data-orig-size="1449,966" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;Diego Gurgel&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="ana-paula-cameli-2" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-300x200.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-1024x683.jpg" decoding="async" loading="lazy" class="alignnone size-large wp-image-25645" src="https://tribunadojurua.com.br/v2019/wp-content/uploads/2019/01/ana-paula-cameli-2-1024x683.jpg" alt="" width="1024" height="683" srcset="https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-1024x683.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-300x200.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-768x512.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-750x500.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2-1140x760.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli-2.jpg 1449w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;&lt;b&gt;Para diretor-geral, preocupação da primeira-dama é fundamental nesse momento&lt;/b&gt;&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;&lt;b&gt; &lt;/b&gt;O entendimento do diretor-geral do Hospital da Criança e da Maternidade Bárbara Heliodora é o de que o engajamento da primeira-dama por melhorias do complexo de saúde é importante para a captação de mais pessoas e movimentos sociais em torno das melhorias.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;“A participação dela é de uma importância fundamental, nesse momento de dificuldade em que estamos passando, porque com o seu carisma e sensibilidade conseguirá mobilizar vários segmentos da sociedade, com ações solidárias, e por melhorias que tanto as crianças e suas mães precisam”, afirma Wagner Bacelar, ao manifestar gratidão também pela presença da representante da Sesacre, Roberta Bestene.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;Roberta é esposa do secretário Estadual de Saúde, Alysson Bestene, que já esteve também nas duas unidades, ao lado do governador Gladson Cameli, em dezembro último.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;“É importante que nós, mulheres, participemos destas ações. Ainda mais quando somos esposas e mães. Com a primeira dama, faremos o que for preciso para auxiliar as pessoas tanto na Saúde quanto na Assistência Social” afirmou Roberta Bestene.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;De sua parte, Ana Paula Cameli reafirmou o compromisso de com as pessoas que mais necessitam do Poder Público. “Quero para meu filho o mesmo Acre que sonho para os filhos de todos os acreanos, e nós vamos trabalhar para que seja um estado que nos garanta respeito, dignidade e cidadania”, pontuou a primeira dama.&lt;/p&gt;
+&lt;p class="yiv6198651600MsoNormal"&gt;“Além do apoio que estarei dando ao governador Gladson Cameli, estarei apoiando as ações sociais do estado, pois também como advogada-voluntária de alguns projetos, vejo que a mulher, com a sua sensibilidade e afeto, pode potencializar este olhar participativo pelo bem da nossa querida população” completou Ana Paula Cameli.&lt;/p&gt;
+&lt;p&gt;Agência de Notícias do Acre&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/acre/ana-paula-cameli-e-grupo-de-advogadas-visitam-maternidade-e-hospital-da-crianca/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2019/01/ana-paula-cameli.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2019-01-29</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>14:12:59</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Gladson Cameli anuncia Colégio Militar de Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Educação de Cruzeiro do Sul ganhou um importante capítulo de sua história. Pela primeira vez, a segunda maior cidade do Acre vai contar com um colégio de ensino militar. O anúncio foi feito pelo governador Gladson Cameli nesta sexta-feira, 25, em visita ao município.&lt;/p&gt;
+&lt;p&gt;A solenidade foi realizada na escola estadual Anselmo Maia de Carvalho, unidade escolhida para receber o novo Colégio Militar. Uma numerosa planteia acompanhou, entusiasmada, o anúncio do governador Gladson Cameli.&lt;/p&gt;
+&lt;p&gt;A escola vai se chamar “Colégio Militar Tiradentes – Unidade Cruzeiro do Sul” e será administrada pela Polícia Militar do Estado do Acre, em parceria com a Secretaria Estadual de Educação, como já acontece nos colégios militares de Rio Branco.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A implantação do Colégio Militar de Cruzeiro do Sul, a partir deste ano, foi uma determinação do governador Gladson Cameli, que não tem medido esforços para revolucionar a educação acreana.&lt;/p&gt;
+&lt;p&gt;“Será um grande passo para a transformação social da nossa juventude. Além do ensino de qualidade, os estudantes sairão daqui prontos para encararem a vida como cidadãos de bem”, afirmou Cameli.&lt;/p&gt;
+&lt;p&gt;Localizada no bairro Aeroporto Velho, a unidade de ensino militar já começa grande. Em estrutura, o Colégio Militar de Cruzeiro do Sul possui modernas instalações. São 12 salas de aula, biblioteca, sala de informática e quadra poliesportiva coberta.&lt;/p&gt;
+&lt;p&gt;Neste primeiro ano letivo, a escola vai receber 560 alunos do 6º ao 9º ano do Ensino Fundamental. Já o Ensino Médio será implantado de forma gradual até 2022.&lt;/p&gt;
+&lt;p&gt;Pelo organograma, os atuais estudantes da escola Anselmo Maia de Carvalho serão incorporados ao Colégio Militar. As demais 280 vagas disponíveis serão preenchidas por meio de sorteio. Por lei, filhos de militares têm direito a 50% das vagas.&lt;/p&gt;
+&lt;p&gt;O evento foi prestigiado pelo vice-governador, Major Rocha, pelo secretário de Educação, Mauro Sérgio, pelo prefeito de Cruzeiro do Sul, Ilderlei Cordeiro, por parlamentares e outras autoridades locais.&lt;/p&gt;
+&lt;p&gt;O secretário de Educação, Mauro Sérgio, parabenizou a ousadia do governador Gladson Cameli em implantar o Colégio Militar de Cruzeiro do Sul em apenas 25 dias de gestão.&lt;/p&gt;
+&lt;p&gt;“O maior presente que um governante pode dar para seu povo é uma escola, e o governador Gladson Cameli demonstra que está interessado em investir massivamente na Educação”, ressaltou o secretário.&lt;/p&gt;
+&lt;p&gt;Para o diretor do Colégio Militar Tiradentes de Rio Branco, major Agleison Alexandrino, a disciplina, “baseada em princípios hierárquicos e de civismo”, é um dos grandes diferenciais do ensino militar.&lt;/p&gt;
+&lt;p&gt;“Todos os dias, nossos alunos cantam o Hino Nacional Acreano, entre outros deveres cívicos, e o resultado dessa disciplina se reflete de forma positiva”, afirma o major. Segundo ele, no ano passado, o colégio não teve evasão escolar, nem agressões físicas entre seus alunos, muito menos paredes carteiras riscadas, como exemplo de que o ensino-aprendizagem na escola militar é ideal.&lt;/p&gt;
+&lt;p&gt;Segundo Agleison, outro diferencial é o envolvimento da família com a escola e que o desempenho de cada aluno é rigorosamente acompanhado pelos militares.&lt;/p&gt;
+&lt;p&gt;“Cobramos dos nossos alunos, mas também sabemos dar o devido reconhecimento. Estudantes com notas acima de 8,5 são premiados com uma medalha, e isso acaba motivando os demais a sempre buscarem os melhores resultados em sala de aula”, pontuou.&lt;/p&gt;
+&lt;p&gt;O anúncio do novo Colégio Militar comprova o empenho da nova gestão em garantir investimentos importantes para a Educação. Ações positivas que visam a elevar os índices de avaliação e colocar o estado em destaque em nível nacional.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Meta é inaugurar mais três Colégios Militares&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Até o fim da gestão, o Acre vai ganhar mais três Colégios Militares. Além de Rio Branco e Cruzeiro do Sul, serão contemplados também os jovens de Sena Madureira e Tarauacá. Este é um compromisso pessoal do governador Gladson Cameli com a educação acreana.&lt;/p&gt;
+&lt;p&gt;“Sei o quanto a Educação é capaz de transformar toda uma geração e só teremos um futuro melhor se priorizarmos um ensino de qualidade para a nossa juventude. Como governador, quero deixar este legado para o povo do meu estado”, afirmou Cameli.&lt;/p&gt;
+&lt;p&gt;O gestor já determinou o início de novos levantamentos para a implantação dos demais colégios militares. Com isso, o chefe do Executivo mostra seu comprometimento em permitir que mais estudantes tenham acesso ao ensino de qualidade.&lt;/p&gt;
+&lt;p&gt;Atualmente, duas unidades de ensino militar funcionam em Rio Branco. O Colégio Tiradentes, localizado do bairro Santo Afonso, que é coordenado pelo Corpo de Bombeiros e o Colégio Dom Pedro II, no bairro Calafate, sob a direção da Polícia Militar.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Major Rocha, o incentivador do ensino militar no Acre&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O vice-governador, Major Rocha, é um grande entusiasta do ensino militar no Acre. Foi ele que em 2015 destinou uma emenda de R$ 2 milhões para a construção do primeiro colégio militar do estado.&lt;/p&gt;
+&lt;p&gt;Para Rocha, a educação baseada nos princípios militares, sobretudo a disciplina, é uma grande conquista para os estudantes acreanos. O vice-governador lembra que em outros estados do país, os melhores índices de avaliação são obtidos por escolas militares.&lt;/p&gt;
+&lt;p&gt;“Em algumas cidades, os colégios militares possuem índices melhores que escolas particulares, e isso demonstra que o Acre está no caminho certo. Queremos que os nossos alunos estejam entre os melhores do Brasil”, pontuou.&lt;/p&gt;
+&lt;p&gt;Major Rocha afirmou que vai acompanhar de perto o desempenho dos atuais colégios militares e se empenhará para que outras unidades sejam inauguradas nos principais municípios do estado.&lt;/p&gt;
+&lt;p&gt;“Passamos por uma situação delicada na Segurança Pública e uma das maneiras de combater o crime é investir em educação. Nos colégios militares, a disciplina é primordial e é isso que a nossa juventude está precisando. Além de levar o ensino, a educação militar forma cidadãos de bem para o futuro”, frisou.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Agência de Notícias&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/acre/gladson-cameli-anuncia-colegio-militar-de-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2019/01/Colégio-Militar-de-Cruzeiro-do-Sul_Foto_Secom10.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2018-01-18</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>16:19:27</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Licença de Instalação e Operação &amp;#8211; Aersandro de Melo Cameli</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="text-align: center;"&gt;&lt;strong&gt;AERSANDRO DE MELO CAMELI&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;strong&gt;CPF: 601.146.902-78&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Torna público que requereu do Instituto de Meio Ambiente do Acre-IMAC, a renovação da Licença de Instalação e Operação-LIO nº 86/2014, para atividade Extração Mineral de Areia em Terra Firme, em área de sua propriedade, situada na BR-307, Zona rural de Cruzeiro do Sul-AC.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/licencas-ambientais/licenca-de-instalacao-e-operacao-aersandro-de-melo-cameli-2/</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2019/01/default-image.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2017-12-21</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>21:49:16</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Licença de Instalação e Operação &amp;#8211; Aersandro de Melo Cameli</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="yui_3_16_0_ym19_1_1513910648241_2445" style="text-align: center;"&gt;&lt;b id="yui_3_16_0_ym19_1_1513910648241_2552"&gt;AERSANDRO DE MELO CAMELI&lt;/b&gt;&lt;/div&gt;
+&lt;div id="yui_3_16_0_ym19_1_1513910648241_2363"&gt;&lt;b&gt; &lt;/b&gt;&lt;/div&gt;
+&lt;div id="yui_3_16_0_ym19_1_1513910648241_2538"&gt;Torna público que requereu do Instituto de Meio Ambiente do Acre &amp;#8211; IMAC, a licença (&lt;i&gt;LIO&lt;/i&gt;), para a atividade de, extração mineral em terra firme de uma área de 5,7 Hectares, localizado no Sitio Arthur Cameli, BR 307 lote 03, município de &lt;i&gt;Cruzeiro do Sul &lt;/i&gt;&amp;#8211; Acre.&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/cruzeiro-do-sul/licenca-de-instalacao-e-operacao-aersandro-de-melo-cameli/</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2019/01/default-image.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2017-01-31</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>09:17:22</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Prefeito Ilderlei Cordeiro e Senador Gladson Cameli vistoriam bairros atingidos pela cheia</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;a href="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01.jpg"&gt;&lt;img data-attachment-id="23996" data-permalink="https://tribunadojurua.com.br/enchente-gladson-e-ilderlei-01/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01.jpg" data-orig-size="1200,750" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="enchente Gladson e Ilderlei 01" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-300x188.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-1024x640.jpg" decoding="async" loading="lazy" class="alignleft size-medium wp-image-23996" src="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-300x188.jpg" alt="enchente Gladson e Ilderlei 01" width="300" height="188" srcset="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-300x188.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-768x480.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-1024x640.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-750x469.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01-1140x713.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-01.jpg 1200w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;Acompanhado do Senador Gladson Cameli, da Secretária de Assistência Social, Keiliane Cordeiro, e do chefe da Defesa Civil, Tenente Lima, o Prefeito Ilderlei Cordeiro percorreu na tarde desta segunda-feira, 23, os bairros atingidos pela enchente do Rio Juruá, em Cruzeiro do Sul (AC). A equipe vistoriou as residências localizadas nas áreas atingidas pela alagação e realizaram um monitoramento da situação das famílias desses locais.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O prefeito Ilderlei e a equipe iniciaram a vistoria pelo bairro da Lagoa, e seguiram pelo Cruzeirinho e Várzea. Até o momento, quatro famílias já foram retiradas de suas casas, e receberam total assistência da prefeitura, por meio do aluguel social. O nível do Rio Juruá atingia na tarde de segunda-feira a marca de 12,83 metros, 17cm abaixo da cota de transbordamento.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;a href="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02.jpg"&gt;&lt;img data-attachment-id="23997" data-permalink="https://tribunadojurua.com.br/enchente-gladson-e-ilderlei-02/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02.jpg" data-orig-size="1200,750" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="enchente Gladson e Ilderlei 02" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-300x188.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-1024x640.jpg" decoding="async" loading="lazy" class="alignleft size-medium wp-image-23997" src="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-300x188.jpg" alt="enchente Gladson e Ilderlei 02" width="300" height="188" srcset="https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-300x188.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-768x480.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-1024x640.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-750x469.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02-1140x713.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02.jpg 1200w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;De acordo com o chefe da defesa civil municipal, Tenente Lima, apesar do Juruá apresentar vazante é necessário um monitoramento constante, pois a qualquer momento as águas podem voltar a subir devido às mudanças climáticas. “Estamos monitorando todas as subidas dos rios, não só o Juruá, como Môa e o Liberdade. Estamos acompanhando as famílias que podem ser atingidas e já com um local definido, se for preciso, para um plano de emergência junto com todas”, explicou.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O senador Gladson Cameli, aproveitou o recesso parlamentar para acompanhar de perto a realidade das famílias atingidas pela cheia. O senador garantiu que levará a demanda apresentada pelo prefeito Ilderlei Cordeiro para o Ministério da Integração, e buscará recursos para o município.  “Nós sabemos que esse é um problema da natureza, que todo ano se repete, e nós temos que vencer. Estamos acompanhando de perto, sentindo na pele, e não tenho dúvida de que vamos conseguir recursos dos ministérios. Nós sabemos que temos dois problemas, que é a possibilidade do rio voltar a encher ou vazar, e quando vaza aparecem os danos causados pela enchente. Temos que já estar preparados em Brasília, e aproveitar o tempo imediato para vencer os danos”, destacou o senador.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A preocupação de Ilderlei Cordeiro é oferecer os cuidados necessários a todas as famílias atingidas pela enchente através da ação Social, secretaria de saúde, coordenadoria da defesa civil, secretaria de obras e todas as outras instituições do município. “No momento de maior pico da enchente do rio eu estava em viagem oficial em busca de recursos para o nosso município, e quando cheguei agora vim ver como estava esse monitoramento, como estão às famílias, e aproveitar o momento que nosso Senador Gladson Cameli está aqui, e fiz o convite a ele para vir ver a realidade da nossa população e das parcerias que queremos fazer para trazer recursos para ajudar o povo tão querido da nossa cidade”, enfatizou Cordeiro.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Todos os dias o prefeito acompanha o relatório feito pela defesa civil municipal, que realiza vistoria nas áreas atingidas. “Estamos fazendo nossa parte, buscando condições para dar resposta necessária para que o povo não fique desamparado. Se aumentar a cota do rio estamos prontos com as ações necessárias para retirada das famílias e colocar em casas alternativas para que possam estar sempre bem cuidadas e abrigadas”, finalizou.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;Assessoria de Comunicação&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/cruzeiro-do-sul/prefeito-ilderlei-cordeiro-e-senador-gladson-cameli-vistoriam-bairros-atingidos-pela-cheia/</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2017/01/enchente-Gladson-e-Ilderlei-02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2017-01-26</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>14:22:21</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Prefeito Isaac Lima recebe a visita do Senador da República Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p id="yui_3_16_0_ym19_1_1485430551846_16757" style="text-align: justify;"&gt;&lt;a href="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior.jpg"&gt;&lt;img data-attachment-id="23974" data-permalink="https://tribunadojurua.com.br/isaac-e-gladson-e-nicolau-junior/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior.jpg" data-orig-size="1200,750" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Isaac e Gladson e Nicolau Júnior" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-300x188.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-1024x640.jpg" decoding="async" loading="lazy" class="alignleft size-medium wp-image-23974" src="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-300x188.jpg" alt="Isaac e Gladson e Nicolau Júnior" width="300" height="188" srcset="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-300x188.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-768x480.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-1024x640.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-750x469.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior-1140x713.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior.jpg 1200w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;Em uma conversa descontraída os dois conversaram sobre as ações prioritárias para a cidade de Mâncio Lima. O prefeito reivindicou ações para o combate a malária e apoio na infraestrutura da cidade&lt;/p&gt;
+&lt;p id="yui_3_16_0_ym19_1_1485430551846_16780" class="yiv6831289530MsoNormal" style="text-align: justify;"&gt;&lt;span id="yui_3_16_0_ym19_1_1485430551846_16781"&gt;O Prefeito Isaac Lima e sua vice-prefeita Ângela Valente receberam na manhã desta sexta-feira, 20, a visita do Senador da República Gladson Cameli e do Deputado Estadual Nicolau Júnior. Durante a conversa, que contou com a presença dos Secretários Municipais, o prefeito Isaac apresentou as ações prioritárias de sua gestão e pediu o apoio do &lt;a href="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/Isaac-e-Gladson.jpg"&gt;&lt;img data-attachment-id="23975" data-permalink="https://tribunadojurua.com.br/isaac-e-gladson/" data-orig-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson.jpg" data-orig-size="1200,750" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Isaac e Gladson" data-image-description="" data-image-caption="" data-medium-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-300x188.jpg" data-large-file="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-1024x640.jpg" decoding="async" loading="lazy" class="alignleft size-medium wp-image-23975" src="http://localhost:8888/tribunaonline/wp-content/uploads/2017/01/Isaac-e-Gladson-300x188.jpg" alt="Isaac e Gladson" width="300" height="188" srcset="https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-300x188.jpg 300w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-768x480.jpg 768w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-1024x640.jpg 1024w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-750x469.jpg 750w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-1140x713.jpg 1140w, https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson.jpg 1200w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;/a&gt;Senador para enviar emendas ao Município. Para o prefeito Isaac Lima o momento é de união e deixar de lado as bandeiras partidárias. &lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/politica/prefeito-isaac-lima-recebe-a-visita-do-senador-da-republica-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/wp-content/uploads/2017/01/Isaac-e-Gladson-e-Nicolau-Júnior.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2015-07-10</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>08:00:13</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Vagner e Gladson Cameli fazem vistoria em obra do mercado do peixe antes da inauguração</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h2 style="text-align: justify;"&gt;O senador e o prefeito fazem visita à obra recém-terminada&lt;/h2&gt;
+&lt;figure id="attachment_21122" aria-describedby="caption-attachment-21122" style="width: 300px" class="wp-caption alignleft"&gt;&lt;a href="http://www.tribunadojurua.com.br/wp-content/uploads/2015/07/Vagner-mercado-do-peixe.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-21122 size-medium" src="http://www.tribunadojurua.com.br/wp-content/uploads/2015/07/Vagner-mercado-do-peixe-300x175.jpg" alt="Vagner mercado do peixe" width="300" height="175" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-21122" class="wp-caption-text"&gt;Prefeito Vagner Sales e senado Gladson Cameli&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p style="text-align: justify;"&gt;O prefeito de Cruzeiro do Sul Vagner Sales recebeu nesta manhã de quinta (9), o senador do Gladson Cameli para uma visita na recém-finalizada obra do Mercado Municipal do Peixe Resene de Souza Lima.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A obra que ainda não teve sua inauguração já se tornou referência para a região Norte, sendo o maior mercado de&lt;a class="erpaawrxh" title="Click to Continue &amp;gt; by AllDaySaving" href="#89936128"&gt; venda de&lt;img decoding="async" src="http://cdncache-a.akamaihd.net/items/it/img/arrow-10x10.png" alt="" /&gt;&lt;/a&gt; pescado do Estado do Acre.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O prefeito Vagner Sales declarou que Cruzeiro do Sul necessitava de um ponto comercial que atendesse as necessidades de uma comercialização do pescado para suprir a grande demanda que a cidade possui.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Vendo essa necessidade o prefeito entrou em contato com o Senador Gladson Cameli que disponibilizou R$ 1,5 milhões nos cofres da prefeitura para a construção do mercado.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;a href="http://www.tribunadojurua.com.br/wp-content/uploads/2015/07/Mercado-municipal-do-peixe-resene-de-souza-lima.jpg"&gt;&lt;img decoding="async" loading="lazy" class="alignleft size-medium wp-image-21123" src="http://www.tribunadojurua.com.br/wp-content/uploads/2015/07/Mercado-municipal-do-peixe-resene-de-souza-lima-300x175.jpg" alt="Mercado municipal do peixe resene de souza lima" width="300" height="175" /&gt;&lt;/a&gt;Segundo Vagner a inauguração do mercado do peixe será dentro de poucos dias, pois estão aguardando a confirmação na agenda do Ministro da Pesca e Aquicultura Helder Barbalho que foi convidado pela Deputada Federal Jessica Sales e o Senador Gadson Cameli para fazer a inauguração.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;‘’ É de grande importância esse&lt;a class="erpaawrxh" title="Click to Continue &amp;gt; by AllDaySaving" href="#96699829"&gt; investimento&lt;img decoding="async" src="http://cdncache-a.akamaihd.net/items/it/img/arrow-10x10.png" alt="" /&gt;&lt;/a&gt; na cidade de Cruzeiro do Sul não apenas para gerar lucros, mas também para que o consumidor possa ter um local onde possa adquirir seu peixe de forma fiscalizada e higiênica. E esse é nosso objetivo servir melhor a população cruzeirense’’ disse o prefeito Vagner Sales.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O prefeito ainda anunciou a construção de outra obra de mesmo porte para a cidade que já esta garantida pelo senador nas emendas de 2015, que será a construção do mercado da carne que ficará nas proximidades do mercado do peixe.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Senador declarou que essa obra será expandida para demais cidades do estado. Como o município de Tarauacá que também ganhará a construção de um mercado do peixe.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;‘’ Estou cumprindo com meu compromisso com a população de Cruzeiro do Sul. O povo quer ver trabalho e obras entregues e não apenas demagogias e promessas em vãos. E quero comunicar também que a prefeitura vai elaborar um projeto da revitalização do Igarapé Preto, eu não vou sossegar enquanto o cartão postal da nossa terra não for revitalizado é para isso que eu trabalho para dar orgulho à população acriana’’ declarou o senador.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;em&gt;&lt;strong&gt;Tribuna do Juruá &amp;#8211; Uiliane Barbosa&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://tribunadojurua.com.br/cruzeiro-do-sul/vagner-sales-faz-vistoria-em-obra-do-mercado-do-peixe-antes-da-inauguracao/</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>11:20:07</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Gladson Cameli se reúne com equipe para discutir mudanças administrativas do próximo mandato</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
+&lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças.&lt;/p&gt;
+&lt;p&gt;“Apresentamos ao governador o produto da reforma administrativa, vamos apresentar esse material à base da Assembleia Legislativa do Acre e posteriormente divulgar as resoluções”, disse.&lt;/p&gt;
+&lt;p&gt;O governador destacou o trabalho importante que a equipe vem fazendo, e que pretende divulgar em breve as mudanças.&lt;/p&gt;
+&lt;p&gt;“Este é um momento importante, porque vai definir muitas diretrizes da gestão que se inicia em 2023. Em breve vamos divulgar à imprensa todas essas mudanças para o próximo mandato”, afirmou o chefe do Executivo.&lt;/p&gt;
+&lt;p&gt;Participaram da reunião os membros da equipe de transição: o ex-deputado Luiz Calixto; o secretário de Estado de Fazenda, Amarísio Freitas; o secretário de Estado de Governo, Alysson Bestene; o secretário de Planejamento e Gestão, Ricardo Brandão; o procurador-geral do Estado, Marcos Motta; e o chefe de gabinete do governador, José Messias.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Agência Acre.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-se-reune-com-equipe-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/AGSC.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>12:26:41</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Gladson Cameli e demais governadores do norte entregam “Carta pela Amazônia” a Lula</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Gladson Cameli, governador reeleito do Acre, foi um dos governadores do norte ao lado do presidente eleito do Brasil, Luiz Inácio Lula da Silva, na foto que marcou a entrega da “Carta dos governadores pela Amazônia”, que aconteceu na Conferência das Nações Unidas sobre Mudanças Climáticas (COP 27),&amp;nbsp; que está acontecendo no Egito.&lt;/p&gt;
+&lt;p&gt;Sobre o encontro, Cameli comentou: “As pessoas que vivem na Amazônia precisam ter recursos para uma sobrevivência com qualidade de vida. É isso passa não só pela geração de empregos, mas também pela melhoria da nossa educação, da saúde pública, da segurança dos cidadãos e cidadãs, através de uma vigilância efetiva das nossas fronteiras.&lt;/p&gt;
+&lt;p&gt;O presidente eleito, Lula, recebeu a carta dos governadores e se comprometeu com os estados do norte.&lt;/p&gt;
+&lt;p&gt;“É preciso dar aos estados e municípios as condições de cumprir as obrigações constitucionais”, disse o presidente.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Acre da Hora.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-e-demais-governadores-do-norte-entregam-carta-pela-amazonia-a-lula/</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/CARTA.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>11:29:47</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Neste Dia de Finados de frio não é muito grande a movimentação no Cemitério São João Batista na região central de Cruzeiro do Sul. No Jardim da Paz, no bairro Nova Olinda, há mais gente visitando túmulos de parentes e amigos.&lt;/p&gt;
+&lt;p&gt;No São João Batista, o padre Ronaldo fez a Benção dos Túmulos. O cemitério, localizado na Avenida Lauro Muller, com grandes ladeiras, tem sepulturas na parte baixa e alta do local. O Rio Juruá pode ser visto do “campo santo”.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.17.jpeg?ssl=1" alt="" data-recalc-dims="1"/&gt;&lt;/figure&gt;
+&lt;p&gt;No Cemitério Jardim da Paz, o túmulo do ex-governador Orleir Cameli é um dos mais visitados. A viúva Beatriz Cameli, diz que as pessoas expressam o carinho que mantém por ele, no Dia de Finados. “Muita gente para e reza por ele e contam coisas boas que ele fez por elas. É um carinho grande, uma veneração por ele como pessoa e como político, que não acaba”, conta ela.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.16.jpeg?ssl=1" alt="" data-recalc-dims="1"/&gt;&lt;/figure&gt;
+&lt;p&gt;O ex-governador Orleir Cameli, tio do governador Gladson Cameli morreu vítima de câncer em 8 de maio de 2013. Eleito em 1994, ficou no cargo de governador no período de 1995 a 1999. Antes, havia sido prefeito de Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;O Cemitério Jardim da Paz abriga ainda a ala Covid-19, onde estão enterradas mais de 200 vítimas da doença.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Ac24Horas.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/TUMULO.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>09:03:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Gladson Cameli fará motocarreata para Bolsonaro e votará em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O governador Glasdon Cameli vai liderar uma motocarreata de apoio à reeleição do presidente Jair Bolsonaro neste sábado, 29, em Cruzeiro do Sul. O evento está marcado para as 8 horas da manhã com saída da Ponte da União.&lt;/p&gt;
+&lt;p&gt;No domingo, 30, Cameli votará em Cruzeiro do Sul no segundo turno das eleições. Ele vai à urna na parte da manhã na Escola Hugo Carneiro e seguirá no município.&lt;/p&gt;
+&lt;p&gt;De acordo com a Assessoria de Cameli, ele chegará em Cruzeiro do Sul na tarde de sexta-feira, 28, feriado do Dia do Servidor Público.&lt;/p&gt;
+&lt;p&gt;No primeiro turno das eleições o gestor votou acompanhado do filho Guilherme, da mãe Linda Cameli, prefeito Zequinha Lima e deputados estaduais Nicolau Júnior e Luís Gonzaga. Ele aguardou o resultado da eleição que lhe garantiu a reeleição no município e depois seguiu para Rio Branco onde houve comemoração em frente ao Palácio Rio Branco.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Ac24Horas.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-fara-motocarreata-para-bolsonaro-e-votara-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/MOTOC.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>09:16:44</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Gladson Cameli faz quase 20 nomeações e exonerações; veja lista</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O Governo do Estado publicou uma série de exonerações, nomeações e outras mudanças na edição do Diário Oficial do Estado (DOE) desta segunda-feira (17).&lt;/p&gt;
+&lt;p&gt;As mudanças passaram por diversas secretarias do Executivo e Gladson colocou alguns servidores do Estado à disposição de algumas pastas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Confira a lista dos exonerados:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Exonerar ANDREZA CRISTINA DE MESQUITA BARBOSA do Cargo de Diretora, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar JOÃO KENNEDY DE ASSIS ROCHA A do Cargo de Chefe de Departamento&lt;/p&gt;
+&lt;p&gt;Exonerar BRAYAN MARQUES DAMASCENO do Cargo em Comissão, referência CEC-2, da Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Exonerar RAQUEL MORAIS DE CARVALHO&amp;nbsp; do Cargo em Comissão, referência CEC-1, da Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Exonerar GERALDO RENATO RODRIGUES DE MATOS ALMEIDA do cargo de Chefe de Departamento&lt;/p&gt;
+&lt;p&gt;Exonerar AKEMIA CRISTINA ARAÚJO DA CRUZ do Cargo em Comissão, referência CEC-6, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar, a pedido, DIMITRIA MESQUITA SOARES PINTO do Cargo em Comissão, referência CEC-4, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar VITOR HUGO CARVALHO CALIXTO do Cargo em Comissão, referência CEC-2, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;Exonerar SUZANA AMARAL DE SOUZA do Cargo em Comissão, referência CEC-3, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;Exonerar MARIANA MARRANE DALMAN BERNARDES do Cargo em Comissão, referência CEC-1, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Confira os nomeados:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Nomear NADISON SILVA BRITO para exercer o Cargo de Chefe de Departamento, na Secretaria de Estado de Indústria, Ciência e Tecnologia – SEICT&lt;/p&gt;
+&lt;p&gt;Nomear JANAINA COSTA DE SOUSA para exercer o Cargo em Comissão, referência CEC-6, na Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Nomear JOÃO KENNEDY DE ASSIS ROCHA para exercer o Cargo de Diretor, na Secretaria de Estado de Indústria, Ciência e Tecnologia – SEICT.&lt;/p&gt;
+&lt;p&gt;Nomear, em substituição, RAQUEL MORAIS DE CARVALHO para exercer o Cargo em Comissão, referência CEC-2, na Secretaria de Estado de Planejamento e Gestão – SEPLAG.&lt;/p&gt;
+&lt;p&gt;Nomear, em substituição, ALAN OLIVEIRA DE SOUZA para exercer o Cargo em Comissão, referência CEC-1, na Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Nomear AKEMIA CRISTINA ARAÚJO DA CRUZ para exercer o Cargo de Chefe de Departamento, na Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Nomear VITOR HUGO CARVALHO CALIXTO O para exercer o Cargo em Comissão, referência CEC-3, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;Nomear MARIANA MARRANE DALMAN BERNARDES para exercer o Cargo em Comissão, referência CEC-2, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;Nomear LUCIANE DA CUNHA NOGUEIRA DE SANTANA para exercer o Cargo em Comissão, referência CEC-1, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;As mudanças estão disponíveis nas primeiras páginas do DOE. &lt;strong&gt;Confira!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;canvas width="696" height="984"&gt;&lt;/canvas&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes-veja-lista/</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/EXON.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>18:30:31</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Vagner Sales não quer Jéssica no governo de Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A deputada federal Jéssica Sales, que não conseguiu a reeleição apesar dos mais de 20 mil votos, já está trabalhando como médica em um hospital de Brasília, que não teve o nome divulgado pela assessoria. Ela, que é ginecologista obstetra, já havia anunciado a vontade de se dedicar à medicina logo após as eleições, mas não havia informado se seria em Brasília ou no Acre.&lt;/p&gt;
+&lt;p&gt;E, se depender de seu pai, ex-deputado estadual Vagner Sales, Jéssica deverá seguir na carreira médica e não integrar o segundo governo de Gladson Cameli. “Jéssica volta para a profissão dela de médica”, afirmou Vagner.&lt;/p&gt;
+&lt;p&gt;Mas em recente entrevista no Bar do Vaz, Jéssica disse que gostaria de ser secretária de Saúde no segundo mandato de Cameli.” Se me chamar, eu vou. Tenho experiência e me garanto na política e na medicina para servir a população e ajudar os colegas”, disse.&lt;/p&gt;
+&lt;p&gt;Também em entrevista no Bar do Vaz, Gladson disse que ela é bem vinda na gestão e também no partido dele, o PP. Chamou Jessica de menina guerreira, mas não especificou o cargo que ela ocuparia no governo.&lt;/p&gt;
+&lt;p&gt;“Você acha que vou perder um quadro como a Jéssica? Já a chamei também para meu partido”. Além da secretaria de Saúde, outro cargo que foi sugerido para a deputada teria sido a representação do Acre em Brasília.&lt;/p&gt;
+&lt;p&gt;Jéssica também já afirmou que é pré-candidata a prefeita de Cruzeiro do Sul. O irmão dela, Fagner Sales, perdeu a prefeitura para Zequinha Lima em 2020.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações por Sandra Assunção do AC 24 horas&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/vagner-sales-nao-quer-jessica-no-governo-de-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-85.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>20:10:37</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Um fenômeno chamado Cameli e a derrocada de Jorge Viana, Petecão, Mara e companhia</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Nem os analistas mais antenados poderiam imaginar no que se transformaria o cenário político no Acre nos últimos quatro anos, escanteando da cena eleitoral quem antes batia no peito, orgulhoso da própria popularidade.&lt;/p&gt;
+&lt;p&gt;Um olhar retroativo autoriza dizer que a eleição do governador Gladson Cameli em 2018, não tenha sido apenas resultado do ódio ao PT, hoje sua reeleição mostra que o mesmo está acima da política partidária, foi um fenômeno, lutou contra tudo e contra todos e venceu com folga, ajudando a varrer a velha política do estado.&lt;/p&gt;
+&lt;p&gt;Jorge Viana, Marcos Alexandre, Nazaré, Daniel Zen e os demais vermelhos, parecem não ter andado pela periferia. Não entenderam que o eleitor mudou, estar mais empreendedor e, mesmo os que estão na faixa de extrema pobreza, querem resultados, maior garantia de alimento à sua mesa. Se cansaram desse papo manso da esquerda.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O que Jorge Viana apresentou como novo?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Nem o discurso inovou, ficou no “canta, canta minha gente que a vida vai melhorar”, sucesso gravado em 1974 por Martinho da Vila. Nem sei se essa foi a música pedida por Jorge Viana ao fantástico. As urnas mostraram que o “melhor governador da história” é coisa do passado.&lt;/p&gt;
+&lt;p&gt;Marcus Alexandre foi um dos que ao embarcar nessa aventura do ex-senador, que as vezes pareceu um rebelde sem causa tamanha a prepotência que é seu DNA, trocou uma vaga garantida no parlamento por um ingresso na balsa. Sofreu matando carapanã rumo a Manacapuru.&lt;/p&gt;
+&lt;p&gt;Estou há uma semana internado na enfermaria A do Pronto Socorro de Rio Branco. São três leitos pós-operatório que se revezam com pacientes que têm alta médica. Tenho ouvido cada análise popular que impressiona. Jorge não conseguiu tirar o rótulo de governo perseguidor, do prefeito que mais cobrou impostos, das multas aplicadas ao homem do campo. Essa turma não conseguiu se reinventar!&lt;/p&gt;
+&lt;p&gt;O senador Sérgio Petecão (PSD-AC) que poderia abusar de sua experiência legislativa e impulsionar a credibilidade que o povo lhe deu nas últimas eleições, o elegendo como político mais votado da história com 244.109 votos, assumiu uma postura de ódio nunca antes vista, perdeu uma oportunidade única de, através do programa eleitoral de rádio e tv, detalhar seu programa econômico e se aproveitar do segmento do eleitorado que Jorge Viana do PT não soube enxergar.&lt;/p&gt;
+&lt;p&gt;Aliás, Petecão chegou a ser deselegante, exagerou no tom, na interpretação que uma candidatura majoritária exige, principalmente, no horário eleitoral e nos debates. Conseguiu ser impopular, se tornou mais rejeitado do que o próprio Jorge Viana. Resultado pífio, o 100% popular teve 27.393 votos, ficando à frente de Márcio Bittar (UB) professor Euclides (PSOL) e do candidato David Hall (AGIR).&lt;/p&gt;
+&lt;p&gt;Para Mara Rocha a parada seria mesmo difícil. Irmã do vice-governador Major Rocha, correu um risco e acabou ficando numa postura desorientada, titubeante, criticando pesado uma gestão que ela e o irmão ajudaram a construir. Eles nomearam cargos estratégicos para os setores do agro e da segurança, que diga-se de passagem, os que mais deram certo no atual governo. A credibilidade da Mara Rocha jornalista foi ofuscada. Nadaram abraçados rumo a Manacapuru. Em 2020 o eleitor já tinha dado sinais de que não concordava com esse discurso de ódio, do nada presta, do quanto pior melhor. Mara deputada federal e Rocha vice-governador, não conseguiram eleger o irmão ao cargo de vereador. Era para ter aberto os olhos e mudado a postura desde então. Parece que trabalharam pré-campanha e campanha sem pesquisa qualitativa nas mãos.&lt;/p&gt;
+&lt;p&gt;O vaivém da maré fez muita gente nadar contra a correnteza nas eleições desse ano. O eleitor está preocupado com sua vida, na conquista de mais empregos e menos baixaria. Com raríssimas exceções, outro projeto que o cidadão acreano varreu foi o da familiocracia. Aquela história de transferência do capital político.&lt;/p&gt;
+&lt;p&gt;Pelo o que protagonizou na pré-campanha, a família Bittar foi a mais derrotada desse processo político. O eleitor parece ter interpretado mais como uma “DR” do que como projeto político, as candidaturas de Bittar (UB) ao governo e a ex-esposa, Marcia (PL) ao Senado. Enquanto o senador obteve para governo apenas 1,22% dos votos válidos (pouco acima dos 4 mil votos), a ex-esposa teve 9,99%, ficando em quarto lugar entre os sete concorrentes ao Senado da República.&lt;/p&gt;
+&lt;p&gt;Não se repetiu também nesta eleição estadual, o voto de protesto que em 2008 elegeu o mecânico Cabide para vereador de Rio Branco com 2.117 votos. Ele regrediu para 38 votos em 2018 e apenas 10 votos esse ano. Figuras tidas como influenciadoras digitais, conhecidas por suas atuações no mundo virtual, como Marcelo Bimbi, também não caíram nas graças do povo na hora do voto.&lt;/p&gt;
+&lt;p&gt;Naufragaram também as candidaturas de figuras marcadas nas eleições, tidas como “velhos” na política. É o caso de Flaviano Melo do MDB. Vários foram os recados dados nas urnas, há especialistas comemorando um avanço ideológico, embora lento, mas, que se alimenta de esperança para o fim do coronelismo, o clientelismo, a compra de votos nas eleições do país.&lt;/p&gt;
+&lt;p&gt;Cameli que surfou na onda popular deu uma aula de carisma, empatia. Conseguiu mobilizar o cidadão a partir dele mesmo, sem pesados mecanismos de marketing. Mostrou que, gestos simples e espontâneos, como o de sentar e comer pipoca nas escadarias do Palácio Rio Branco, valem mais do que as grandes obras cobradas intensamente pela oposição.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Por Jairo Carioca&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/um-fenomeno-chamado-cameli-e-a-derrocada-de-jorge-viana-petecao-mara-e-companhia/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-51-1.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10:38:06</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite desse domingo (2), Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
+&lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
+&lt;p&gt;Cameli comentou sobre a expressiva votação alcançada. Junto com Mailza, Gladson obteve 232.100 votos, o que representa 56,75% do total. “As urnas não mentem. A votação deu a cada um o tamanho que tem. Para mim, o recado foi claro”, explicou.&lt;/p&gt;
+&lt;p&gt;Na oportunidade, Gladson dedicou a vitória a memória da jovem Kevysla Fernandes, falecida na última sexta-feira, 30, durante uma carreata. “Em nome dela, triplica a minha responsabilidade de fazermos muito mais pelo nosso povo”, pontuou.&lt;/p&gt;
+&lt;p&gt;Cameli reafirmou, ainda, seu compromisso de honrar cada voto recebido nestas eleições. “Vamos levar o Acre a um novo tempo. Nosso principal desafio é diminuir o alto índice de desemprego. Faremos isso com mais obras de infraestrutura e criando as condições para gerarmos mais emprego e renda para o nosso povo”, enfatizou.&lt;/p&gt;
+&lt;p&gt;Ao lado da futura vice-governadora, Mailza Gomes, da mãe, Linda Cameli, e do candidato ao Senado, Ney Amorim, o governador aproveitou para agradecê-los e dizer que a participação deles em seu segundo mandato será fundamental para levar os investimentos que o Acre precisa para seguir avançando.&lt;/p&gt;
+&lt;p&gt;“A Mailza terá um papel fundamental para meu ajudar a cumprir as promessas que fizemos para o segundo mandato, principalmente, aquelas voltadas às mulheres. O Ney também já está convidado para fazer parte da nossa equipe”, argumentou.&lt;/p&gt;
+&lt;p&gt;Gladson finalizou a entrevista com a declaração de apoio ao presidente Jair Bolsonaro neste segundo turno das eleições. “Meu apoio sempre foi e será do presidente Bolsonaro. Tenho gratidão por tudo que ele fez pelo nosso estado e continuarei fazendo campanha para ele aqui no Acre”, expôs.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/GLAD.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>18:12:23</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Gladson Cameli é reeleito Governador do Acre</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Durante este domingo (02) de outubro, os brasileiros votaram na escolha de seus líderes políticos, sendo estes Presidente, Vice-Presidente e o Congresso Nacional.&lt;/p&gt;
+&lt;p&gt;No Acre, o governador Gladson Cameli foi reeleito com 56.70% dos votos, contra 24.15% de Jorge Viana. Mara Rocha ficou com 11,15 e Petecão com 6,41% e Marcio Bittar com 1,12%.&lt;/p&gt;
+&lt;p&gt;A apuração para presidência da república segue em trânsito, com 73, 31% das urnas apuradas.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-e-reeleito-governador-do-acre/</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-2022-10-02T201138.465.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>16:11:29</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Governo do Acre: com quase 10% de apuração, Gladson Cameli lidera disputa com 53,88% dos votos válidos</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A apuração dos votos começou no Acre. Até o momento, Gladson Cameli, do PP está na frente com 53,88% dos votos válidos. Jorge Viana do PT, está em segundo lugar, com 26,09% dos votos válidos. &lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?ssl=1" data-recalc-dims="1"&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?ssl=1" data-recalc-dims="1"&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="814" height="462" src="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=814%2C462&amp;#038;ssl=1" alt="" class="wp-image-97763" srcset="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?w=814&amp;amp;ssl=1 814w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=300%2C170&amp;amp;ssl=1 300w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=768%2C436&amp;amp;ssl=1 768w" sizes="(max-width: 814px) 100vw, 814px" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/governo-do-acre-com-quase-10-de-apuracao-gladson-cameli-lidera-disputa-com-5388-dos-votos-validos/</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-30.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>11:20:07</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Gladson Cameli se reúne com equipe para discutir mudanças administrativas do próximo mandato</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O governador Gladson Cameli participou, nesta segunda-feira, 21, de uma reunião técnica de transição com membros da equipe que articula a mudança da gestão, na Casa Civil.&lt;/p&gt;
+&lt;p&gt;O secretário da Casa Civil, Jonathan Donadoni, disse que foi uma oportunidade de apresentar e conversar com o governador sobre as futuras mudanças.&lt;/p&gt;
+&lt;p&gt;“Apresentamos ao governador o produto da reforma administrativa, vamos apresentar esse material à base da Assembleia Legislativa do Acre e posteriormente divulgar as resoluções”, disse.&lt;/p&gt;
+&lt;p&gt;O governador destacou o trabalho importante que a equipe vem fazendo, e que pretende divulgar em breve as mudanças.&lt;/p&gt;
+&lt;p&gt;“Este é um momento importante, porque vai definir muitas diretrizes da gestão que se inicia em 2023. Em breve vamos divulgar à imprensa todas essas mudanças para o próximo mandato”, afirmou o chefe do Executivo.&lt;/p&gt;
+&lt;p&gt;Participaram da reunião os membros da equipe de transição: o ex-deputado Luiz Calixto; o secretário de Estado de Fazenda, Amarísio Freitas; o secretário de Estado de Governo, Alysson Bestene; o secretário de Planejamento e Gestão, Ricardo Brandão; o procurador-geral do Estado, Marcos Motta; e o chefe de gabinete do governador, José Messias.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Agência Acre.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-se-reune-com-equipe-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/AGSC.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>12:26:41</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Gladson Cameli e demais governadores do norte entregam “Carta pela Amazônia” a Lula</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Gladson Cameli, governador reeleito do Acre, foi um dos governadores do norte ao lado do presidente eleito do Brasil, Luiz Inácio Lula da Silva, na foto que marcou a entrega da “Carta dos governadores pela Amazônia”, que aconteceu na Conferência das Nações Unidas sobre Mudanças Climáticas (COP 27),&amp;nbsp; que está acontecendo no Egito.&lt;/p&gt;
+&lt;p&gt;Sobre o encontro, Cameli comentou: “As pessoas que vivem na Amazônia precisam ter recursos para uma sobrevivência com qualidade de vida. É isso passa não só pela geração de empregos, mas também pela melhoria da nossa educação, da saúde pública, da segurança dos cidadãos e cidadãs, através de uma vigilância efetiva das nossas fronteiras.&lt;/p&gt;
+&lt;p&gt;O presidente eleito, Lula, recebeu a carta dos governadores e se comprometeu com os estados do norte.&lt;/p&gt;
+&lt;p&gt;“É preciso dar aos estados e municípios as condições de cumprir as obrigações constitucionais”, disse o presidente.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Acre da Hora.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-e-demais-governadores-do-norte-entregam-carta-pela-amazonia-a-lula/</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/CARTA.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>11:29:47</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Túmulo do ex-governador Orleir Cameli é um dos mais visitados em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Neste Dia de Finados de frio não é muito grande a movimentação no Cemitério São João Batista na região central de Cruzeiro do Sul. No Jardim da Paz, no bairro Nova Olinda, há mais gente visitando túmulos de parentes e amigos.&lt;/p&gt;
+&lt;p&gt;No São João Batista, o padre Ronaldo fez a Benção dos Túmulos. O cemitério, localizado na Avenida Lauro Muller, com grandes ladeiras, tem sepulturas na parte baixa e alta do local. O Rio Juruá pode ser visto do “campo santo”.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.17.jpeg?ssl=1" alt="" data-recalc-dims="1"/&gt;&lt;/figure&gt;
+&lt;p&gt;No Cemitério Jardim da Paz, o túmulo do ex-governador Orleir Cameli é um dos mais visitados. A viúva Beatriz Cameli, diz que as pessoas expressam o carinho que mantém por ele, no Dia de Finados. “Muita gente para e reza por ele e contam coisas boas que ele fez por elas. É um carinho grande, uma veneração por ele como pessoa e como político, que não acaba”, conta ela.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-02-at-09.37.16.jpeg?ssl=1" alt="" data-recalc-dims="1"/&gt;&lt;/figure&gt;
+&lt;p&gt;O ex-governador Orleir Cameli, tio do governador Gladson Cameli morreu vítima de câncer em 8 de maio de 2013. Eleito em 1994, ficou no cargo de governador no período de 1995 a 1999. Antes, havia sido prefeito de Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;O Cemitério Jardim da Paz abriga ainda a ala Covid-19, onde estão enterradas mais de 200 vítimas da doença.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Ac24Horas.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/tumulo-do-ex-governador-orleir-cameli-e-um-dos-mais-visitados-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/11/TUMULO.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>09:03:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Gladson Cameli fará motocarreata para Bolsonaro e votará em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O governador Glasdon Cameli vai liderar uma motocarreata de apoio à reeleição do presidente Jair Bolsonaro neste sábado, 29, em Cruzeiro do Sul. O evento está marcado para as 8 horas da manhã com saída da Ponte da União.&lt;/p&gt;
+&lt;p&gt;No domingo, 30, Cameli votará em Cruzeiro do Sul no segundo turno das eleições. Ele vai à urna na parte da manhã na Escola Hugo Carneiro e seguirá no município.&lt;/p&gt;
+&lt;p&gt;De acordo com a Assessoria de Cameli, ele chegará em Cruzeiro do Sul na tarde de sexta-feira, 28, feriado do Dia do Servidor Público.&lt;/p&gt;
+&lt;p&gt;No primeiro turno das eleições o gestor votou acompanhado do filho Guilherme, da mãe Linda Cameli, prefeito Zequinha Lima e deputados estaduais Nicolau Júnior e Luís Gonzaga. Ele aguardou o resultado da eleição que lhe garantiu a reeleição no município e depois seguiu para Rio Branco onde houve comemoração em frente ao Palácio Rio Branco.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Ac24Horas.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-fara-motocarreata-para-bolsonaro-e-votara-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/MOTOC.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>09:16:44</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Gladson Cameli faz quase 20 nomeações e exonerações; veja lista</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O Governo do Estado publicou uma série de exonerações, nomeações e outras mudanças na edição do Diário Oficial do Estado (DOE) desta segunda-feira (17).&lt;/p&gt;
+&lt;p&gt;As mudanças passaram por diversas secretarias do Executivo e Gladson colocou alguns servidores do Estado à disposição de algumas pastas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Confira a lista dos exonerados:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Exonerar ANDREZA CRISTINA DE MESQUITA BARBOSA do Cargo de Diretora, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar JOÃO KENNEDY DE ASSIS ROCHA A do Cargo de Chefe de Departamento&lt;/p&gt;
+&lt;p&gt;Exonerar BRAYAN MARQUES DAMASCENO do Cargo em Comissão, referência CEC-2, da Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Exonerar RAQUEL MORAIS DE CARVALHO&amp;nbsp; do Cargo em Comissão, referência CEC-1, da Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Exonerar GERALDO RENATO RODRIGUES DE MATOS ALMEIDA do cargo de Chefe de Departamento&lt;/p&gt;
+&lt;p&gt;Exonerar AKEMIA CRISTINA ARAÚJO DA CRUZ do Cargo em Comissão, referência CEC-6, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar, a pedido, DIMITRIA MESQUITA SOARES PINTO do Cargo em Comissão, referência CEC-4, da Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Exonerar VITOR HUGO CARVALHO CALIXTO do Cargo em Comissão, referência CEC-2, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;Exonerar SUZANA AMARAL DE SOUZA do Cargo em Comissão, referência CEC-3, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;Exonerar MARIANA MARRANE DALMAN BERNARDES do Cargo em Comissão, referência CEC-1, da Secretaria de Estado de Comunicação – SECOM&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Confira os nomeados:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Nomear NADISON SILVA BRITO para exercer o Cargo de Chefe de Departamento, na Secretaria de Estado de Indústria, Ciência e Tecnologia – SEICT&lt;/p&gt;
+&lt;p&gt;Nomear JANAINA COSTA DE SOUSA para exercer o Cargo em Comissão, referência CEC-6, na Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Nomear JOÃO KENNEDY DE ASSIS ROCHA para exercer o Cargo de Diretor, na Secretaria de Estado de Indústria, Ciência e Tecnologia – SEICT.&lt;/p&gt;
+&lt;p&gt;Nomear, em substituição, RAQUEL MORAIS DE CARVALHO para exercer o Cargo em Comissão, referência CEC-2, na Secretaria de Estado de Planejamento e Gestão – SEPLAG.&lt;/p&gt;
+&lt;p&gt;Nomear, em substituição, ALAN OLIVEIRA DE SOUZA para exercer o Cargo em Comissão, referência CEC-1, na Secretaria de Estado de Planejamento e Gestão – SEPLAG&lt;/p&gt;
+&lt;p&gt;Nomear AKEMIA CRISTINA ARAÚJO DA CRUZ para exercer o Cargo de Chefe de Departamento, na Secretaria de Estado da Casa Civil – SECC&lt;/p&gt;
+&lt;p&gt;Nomear VITOR HUGO CARVALHO CALIXTO O para exercer o Cargo em Comissão, referência CEC-3, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;Nomear MARIANA MARRANE DALMAN BERNARDES para exercer o Cargo em Comissão, referência CEC-2, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;Nomear LUCIANE DA CUNHA NOGUEIRA DE SANTANA para exercer o Cargo em Comissão, referência CEC-1, na Secretaria de Estado de Comunicação – SECOM.&lt;/p&gt;
+&lt;p&gt;As mudanças estão disponíveis nas primeiras páginas do DOE. &lt;strong&gt;Confira!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;canvas width="696" height="984"&gt;&lt;/canvas&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes-veja-lista/</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/EXON.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>18:30:31</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Vagner Sales não quer Jéssica no governo de Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A deputada federal Jéssica Sales, que não conseguiu a reeleição apesar dos mais de 20 mil votos, já está trabalhando como médica em um hospital de Brasília, que não teve o nome divulgado pela assessoria. Ela, que é ginecologista obstetra, já havia anunciado a vontade de se dedicar à medicina logo após as eleições, mas não havia informado se seria em Brasília ou no Acre.&lt;/p&gt;
+&lt;p&gt;E, se depender de seu pai, ex-deputado estadual Vagner Sales, Jéssica deverá seguir na carreira médica e não integrar o segundo governo de Gladson Cameli. “Jéssica volta para a profissão dela de médica”, afirmou Vagner.&lt;/p&gt;
+&lt;p&gt;Mas em recente entrevista no Bar do Vaz, Jéssica disse que gostaria de ser secretária de Saúde no segundo mandato de Cameli.” Se me chamar, eu vou. Tenho experiência e me garanto na política e na medicina para servir a população e ajudar os colegas”, disse.&lt;/p&gt;
+&lt;p&gt;Também em entrevista no Bar do Vaz, Gladson disse que ela é bem vinda na gestão e também no partido dele, o PP. Chamou Jessica de menina guerreira, mas não especificou o cargo que ela ocuparia no governo.&lt;/p&gt;
+&lt;p&gt;“Você acha que vou perder um quadro como a Jéssica? Já a chamei também para meu partido”. Além da secretaria de Saúde, outro cargo que foi sugerido para a deputada teria sido a representação do Acre em Brasília.&lt;/p&gt;
+&lt;p&gt;Jéssica também já afirmou que é pré-candidata a prefeita de Cruzeiro do Sul. O irmão dela, Fagner Sales, perdeu a prefeitura para Zequinha Lima em 2020.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações por Sandra Assunção do AC 24 horas&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/vagner-sales-nao-quer-jessica-no-governo-de-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-85.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>20:10:37</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Um fenômeno chamado Cameli e a derrocada de Jorge Viana, Petecão, Mara e companhia</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Nem os analistas mais antenados poderiam imaginar no que se transformaria o cenário político no Acre nos últimos quatro anos, escanteando da cena eleitoral quem antes batia no peito, orgulhoso da própria popularidade.&lt;/p&gt;
+&lt;p&gt;Um olhar retroativo autoriza dizer que a eleição do governador Gladson Cameli em 2018, não tenha sido apenas resultado do ódio ao PT, hoje sua reeleição mostra que o mesmo está acima da política partidária, foi um fenômeno, lutou contra tudo e contra todos e venceu com folga, ajudando a varrer a velha política do estado.&lt;/p&gt;
+&lt;p&gt;Jorge Viana, Marcos Alexandre, Nazaré, Daniel Zen e os demais vermelhos, parecem não ter andado pela periferia. Não entenderam que o eleitor mudou, estar mais empreendedor e, mesmo os que estão na faixa de extrema pobreza, querem resultados, maior garantia de alimento à sua mesa. Se cansaram desse papo manso da esquerda.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O que Jorge Viana apresentou como novo?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Nem o discurso inovou, ficou no “canta, canta minha gente que a vida vai melhorar”, sucesso gravado em 1974 por Martinho da Vila. Nem sei se essa foi a música pedida por Jorge Viana ao fantástico. As urnas mostraram que o “melhor governador da história” é coisa do passado.&lt;/p&gt;
+&lt;p&gt;Marcus Alexandre foi um dos que ao embarcar nessa aventura do ex-senador, que as vezes pareceu um rebelde sem causa tamanha a prepotência que é seu DNA, trocou uma vaga garantida no parlamento por um ingresso na balsa. Sofreu matando carapanã rumo a Manacapuru.&lt;/p&gt;
+&lt;p&gt;Estou há uma semana internado na enfermaria A do Pronto Socorro de Rio Branco. São três leitos pós-operatório que se revezam com pacientes que têm alta médica. Tenho ouvido cada análise popular que impressiona. Jorge não conseguiu tirar o rótulo de governo perseguidor, do prefeito que mais cobrou impostos, das multas aplicadas ao homem do campo. Essa turma não conseguiu se reinventar!&lt;/p&gt;
+&lt;p&gt;O senador Sérgio Petecão (PSD-AC) que poderia abusar de sua experiência legislativa e impulsionar a credibilidade que o povo lhe deu nas últimas eleições, o elegendo como político mais votado da história com 244.109 votos, assumiu uma postura de ódio nunca antes vista, perdeu uma oportunidade única de, através do programa eleitoral de rádio e tv, detalhar seu programa econômico e se aproveitar do segmento do eleitorado que Jorge Viana do PT não soube enxergar.&lt;/p&gt;
+&lt;p&gt;Aliás, Petecão chegou a ser deselegante, exagerou no tom, na interpretação que uma candidatura majoritária exige, principalmente, no horário eleitoral e nos debates. Conseguiu ser impopular, se tornou mais rejeitado do que o próprio Jorge Viana. Resultado pífio, o 100% popular teve 27.393 votos, ficando à frente de Márcio Bittar (UB) professor Euclides (PSOL) e do candidato David Hall (AGIR).&lt;/p&gt;
+&lt;p&gt;Para Mara Rocha a parada seria mesmo difícil. Irmã do vice-governador Major Rocha, correu um risco e acabou ficando numa postura desorientada, titubeante, criticando pesado uma gestão que ela e o irmão ajudaram a construir. Eles nomearam cargos estratégicos para os setores do agro e da segurança, que diga-se de passagem, os que mais deram certo no atual governo. A credibilidade da Mara Rocha jornalista foi ofuscada. Nadaram abraçados rumo a Manacapuru. Em 2020 o eleitor já tinha dado sinais de que não concordava com esse discurso de ódio, do nada presta, do quanto pior melhor. Mara deputada federal e Rocha vice-governador, não conseguiram eleger o irmão ao cargo de vereador. Era para ter aberto os olhos e mudado a postura desde então. Parece que trabalharam pré-campanha e campanha sem pesquisa qualitativa nas mãos.&lt;/p&gt;
+&lt;p&gt;O vaivém da maré fez muita gente nadar contra a correnteza nas eleições desse ano. O eleitor está preocupado com sua vida, na conquista de mais empregos e menos baixaria. Com raríssimas exceções, outro projeto que o cidadão acreano varreu foi o da familiocracia. Aquela história de transferência do capital político.&lt;/p&gt;
+&lt;p&gt;Pelo o que protagonizou na pré-campanha, a família Bittar foi a mais derrotada desse processo político. O eleitor parece ter interpretado mais como uma “DR” do que como projeto político, as candidaturas de Bittar (UB) ao governo e a ex-esposa, Marcia (PL) ao Senado. Enquanto o senador obteve para governo apenas 1,22% dos votos válidos (pouco acima dos 4 mil votos), a ex-esposa teve 9,99%, ficando em quarto lugar entre os sete concorrentes ao Senado da República.&lt;/p&gt;
+&lt;p&gt;Não se repetiu também nesta eleição estadual, o voto de protesto que em 2008 elegeu o mecânico Cabide para vereador de Rio Branco com 2.117 votos. Ele regrediu para 38 votos em 2018 e apenas 10 votos esse ano. Figuras tidas como influenciadoras digitais, conhecidas por suas atuações no mundo virtual, como Marcelo Bimbi, também não caíram nas graças do povo na hora do voto.&lt;/p&gt;
+&lt;p&gt;Naufragaram também as candidaturas de figuras marcadas nas eleições, tidas como “velhos” na política. É o caso de Flaviano Melo do MDB. Vários foram os recados dados nas urnas, há especialistas comemorando um avanço ideológico, embora lento, mas, que se alimenta de esperança para o fim do coronelismo, o clientelismo, a compra de votos nas eleições do país.&lt;/p&gt;
+&lt;p&gt;Cameli que surfou na onda popular deu uma aula de carisma, empatia. Conseguiu mobilizar o cidadão a partir dele mesmo, sem pesados mecanismos de marketing. Mostrou que, gestos simples e espontâneos, como o de sentar e comer pipoca nas escadarias do Palácio Rio Branco, valem mais do que as grandes obras cobradas intensamente pela oposição.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Por Jairo Carioca&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/um-fenomeno-chamado-cameli-e-a-derrocada-de-jorge-viana-petecao-mara-e-companhia/</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-51-1.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>10:38:06</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Em sua primeira entrevista coletiva à imprensa após a confirmação de vitória em primeiro turno, na noite desse domingo (2), Gladson Cameli agradeceu a Deus e ao povo acreano pela oportunidade de continuar governando o Acre pelos próximos quatro anos.&lt;/p&gt;
+&lt;p&gt;“Quero agradecer a Deus por esta caminhada. Levamos uma mensagem às pessoas nos lugares mais difíceis. Agradeço, também, a minha família por sempre estar ao meu lado”,afirmou.&lt;/p&gt;
+&lt;p&gt;Cameli comentou sobre a expressiva votação alcançada. Junto com Mailza, Gladson obteve 232.100 votos, o que representa 56,75% do total. “As urnas não mentem. A votação deu a cada um o tamanho que tem. Para mim, o recado foi claro”, explicou.&lt;/p&gt;
+&lt;p&gt;Na oportunidade, Gladson dedicou a vitória a memória da jovem Kevysla Fernandes, falecida na última sexta-feira, 30, durante uma carreata. “Em nome dela, triplica a minha responsabilidade de fazermos muito mais pelo nosso povo”, pontuou.&lt;/p&gt;
+&lt;p&gt;Cameli reafirmou, ainda, seu compromisso de honrar cada voto recebido nestas eleições. “Vamos levar o Acre a um novo tempo. Nosso principal desafio é diminuir o alto índice de desemprego. Faremos isso com mais obras de infraestrutura e criando as condições para gerarmos mais emprego e renda para o nosso povo”, enfatizou.&lt;/p&gt;
+&lt;p&gt;Ao lado da futura vice-governadora, Mailza Gomes, da mãe, Linda Cameli, e do candidato ao Senado, Ney Amorim, o governador aproveitou para agradecê-los e dizer que a participação deles em seu segundo mandato será fundamental para levar os investimentos que o Acre precisa para seguir avançando.&lt;/p&gt;
+&lt;p&gt;“A Mailza terá um papel fundamental para meu ajudar a cumprir as promessas que fizemos para o segundo mandato, principalmente, aquelas voltadas às mulheres. O Ney também já está convidado para fazer parte da nossa equipe”, argumentou.&lt;/p&gt;
+&lt;p&gt;Gladson finalizou a entrevista com a declaração de apoio ao presidente Jair Bolsonaro neste segundo turno das eleições. “Meu apoio sempre foi e será do presidente Bolsonaro. Tenho gratidão por tudo que ele fez pelo nosso estado e continuarei fazendo campanha para ele aqui no Acre”, expôs.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/GLAD.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>18:12:23</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Gladson Cameli é reeleito Governador do Acre</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Durante este domingo (02) de outubro, os brasileiros votaram na escolha de seus líderes políticos, sendo estes Presidente, Vice-Presidente e o Congresso Nacional.&lt;/p&gt;
+&lt;p&gt;No Acre, o governador Gladson Cameli foi reeleito com 56.70% dos votos, contra 24.15% de Jorge Viana. Mara Rocha ficou com 11,15 e Petecão com 6,41% e Marcio Bittar com 1,12%.&lt;/p&gt;
+&lt;p&gt;A apuração para presidência da república segue em trânsito, com 73, 31% das urnas apuradas.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/gladson-cameli-e-reeleito-governador-do-acre/</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-2022-10-02T201138.465.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>16:11:29</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Governo do Acre: com quase 10% de apuração, Gladson Cameli lidera disputa com 53,88% dos votos válidos</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A apuração dos votos começou no Acre. Até o momento, Gladson Cameli, do PP está na frente com 53,88% dos votos válidos. Jorge Viana do PT, está em segundo lugar, com 26,09% dos votos válidos. &lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?ssl=1" data-recalc-dims="1"&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?ssl=1" data-recalc-dims="1"&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="814" height="462" src="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=814%2C462&amp;#038;ssl=1" alt="" class="wp-image-97763" srcset="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?w=814&amp;amp;ssl=1 814w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=300%2C170&amp;amp;ssl=1 300w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/image-3.png?resize=768%2C436&amp;amp;ssl=1 768w" sizes="(max-width: 814px) 100vw, 814px" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Redação Juruá Online&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/governo-do-acre-com-quase-10-de-apuracao-gladson-cameli-lidera-disputa-com-5388-dos-votos-validos/</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/Novo-Projeto-30.jpg?fit=1080%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
